--- a/volumeTracker.xlsx
+++ b/volumeTracker.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bogdan\Desktop\volumeTracker\"/>
@@ -1372,15 +1372,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H335"/>
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:I335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="I284" sqref="I284"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="J334" sqref="J334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1405,8 +1406,11 @@
       <c r="H1">
         <v>2075426961.814476</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1">
+        <v>1551564846.736927</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1431,8 +1435,11 @@
       <c r="H2">
         <v>1421683981.2391961</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>1372092398.3041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1457,8 +1464,11 @@
       <c r="H3">
         <v>445260017.34799999</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>437398503.41060001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1483,8 +1493,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1509,8 +1522,11 @@
       <c r="H5">
         <v>19183116.4417</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>18548704.0392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1535,8 +1551,11 @@
       <c r="H6">
         <v>78024244.600099996</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>73249116.833800003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1561,8 +1580,11 @@
       <c r="H7" s="1">
         <v>56651084.414439999</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <v>58892518.919639997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1587,8 +1609,11 @@
       <c r="H8">
         <v>317332958.15750003</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <v>336389162.32740003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1613,8 +1638,11 @@
       <c r="H9" s="1">
         <v>562083942.66400003</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>443787742.29470003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1639,8 +1667,11 @@
       <c r="H10">
         <v>75252568.522400007</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>69143374.685800001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1665,8 +1696,11 @@
       <c r="H11">
         <v>9147459.6273999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>3508702.4975000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1691,8 +1725,11 @@
       <c r="H12" s="1">
         <v>105391981.4147</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>100409259.13789999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1717,8 +1754,11 @@
       <c r="H13">
         <v>33083132.633200001</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
+        <v>44931153.6008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1743,8 +1783,11 @@
       <c r="H14">
         <v>16534921.8539</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>16390980.6065</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1769,8 +1812,11 @@
       <c r="H15">
         <v>67223619.708961993</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>67044559.117922999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1795,8 +1841,11 @@
       <c r="H16" s="1">
         <v>125945938.4496</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>117285197.64659999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1821,8 +1870,11 @@
       <c r="H17" s="1">
         <v>52139886.026199996</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>34810654.079599999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1847,8 +1899,11 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1873,8 +1928,11 @@
       <c r="H19">
         <v>2465056.0942000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>2319049.7634000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1899,8 +1957,11 @@
       <c r="H20">
         <v>116146030.027661</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>111352417.96247201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1925,8 +1986,11 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1951,8 +2015,11 @@
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1977,8 +2044,11 @@
       <c r="H23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2003,8 +2073,11 @@
       <c r="H24" s="1">
         <v>146758718.8035</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>131904703.486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2029,8 +2102,11 @@
       <c r="H25">
         <v>133595749.6822</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="1">
+        <v>138661250.0774</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2055,8 +2131,11 @@
       <c r="H26" s="1">
         <v>12130782.321799999</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>10004521.011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2081,8 +2160,11 @@
       <c r="H27">
         <v>19899119.104123998</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>18521199.932425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2107,8 +2189,11 @@
       <c r="H28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2133,8 +2218,11 @@
       <c r="H29">
         <v>4419859.2528999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>2850870.7170000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2159,8 +2247,11 @@
       <c r="H30" s="1">
         <v>19581023.731690001</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>17968420.845003001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2185,8 +2276,11 @@
       <c r="H31" s="1">
         <v>27748120.736722</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>25143086.709353998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2211,8 +2305,11 @@
       <c r="H32">
         <v>3909534.9901999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="1">
+        <v>3963960.4772000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2237,8 +2334,11 @@
       <c r="H33" s="1">
         <v>87832115.665600002</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1">
+        <v>129183666.8581</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2263,8 +2363,11 @@
       <c r="H34">
         <v>6300649.7304999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="1">
+        <v>7700353.7408999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2289,8 +2392,11 @@
       <c r="H35">
         <v>24563484.8906</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="1">
+        <v>24706474.570999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2315,8 +2421,11 @@
       <c r="H36">
         <v>26458541.377300002</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>17703378.249499999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2341,8 +2450,11 @@
       <c r="H37">
         <v>33858615.521750003</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="1">
+        <v>36501714.455119997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2367,8 +2479,11 @@
       <c r="H38">
         <v>114446718.280379</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>97070816.831382006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2393,8 +2508,11 @@
       <c r="H39">
         <v>16895196.153099999</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>16574669.763699999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2419,8 +2537,11 @@
       <c r="H40">
         <v>3679604.0114000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="1">
+        <v>4900578.0148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2445,8 +2566,11 @@
       <c r="H41">
         <v>244062236.94016701</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="1">
+        <v>403184568.50779301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2471,8 +2595,11 @@
       <c r="H42" s="1">
         <v>154177364.01840001</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>145803119.26230001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2497,8 +2624,11 @@
       <c r="H43" s="1">
         <v>21153981.378400002</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>19652115.6175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2653,11 @@
       <c r="H44" s="1">
         <v>3447433.3838550001</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>2762688.8139709998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2549,8 +2682,11 @@
       <c r="H45">
         <v>108822790.17829999</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="1">
+        <v>114940410.3644</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2575,8 +2711,11 @@
       <c r="H46">
         <v>152592520.8382</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="1">
+        <v>160443881.57690001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2601,8 +2740,11 @@
       <c r="H47" s="1">
         <v>17468725.333099999</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="1">
+        <v>20174423.132100001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2627,8 +2769,11 @@
       <c r="H48" s="1">
         <v>54188987.501463003</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="1">
+        <v>56556929.510986999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2653,8 +2798,11 @@
       <c r="H49">
         <v>232978188.6751</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>229829662.0151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2679,8 +2827,11 @@
       <c r="H50">
         <v>96841523.522599995</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="1">
+        <v>105336684.97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2705,8 +2856,11 @@
       <c r="H51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2731,8 +2885,11 @@
       <c r="H52" s="1">
         <v>7666002.7857889999</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="1">
+        <v>8064614.7270320002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2757,8 +2914,11 @@
       <c r="H53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2783,8 +2943,11 @@
       <c r="H54">
         <v>177657184.4923</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>172722446.76550001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2809,8 +2972,11 @@
       <c r="H55">
         <v>947450.39119999995</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="1">
+        <v>2083761.3326999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2835,8 +3001,11 @@
       <c r="H56">
         <v>7026208.0391269997</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>6765775.0264569996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2861,8 +3030,11 @@
       <c r="H57" s="1">
         <v>12561569.3595246</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="1">
+        <v>16835862.861817401</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2887,8 +3059,11 @@
       <c r="H58">
         <v>3330169.3675080002</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="1">
+        <v>3735538.3125590002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2913,8 +3088,11 @@
       <c r="H59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2939,8 +3117,11 @@
       <c r="H60" s="1">
         <v>2776825.1603000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>2145234.9059000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2965,8 +3146,11 @@
       <c r="H61">
         <v>7887636.6475999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="1">
+        <v>9653007.0273000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2991,8 +3175,11 @@
       <c r="H62" s="1">
         <v>8235677.3636999996</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <v>6855267.4775</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -3017,8 +3204,11 @@
       <c r="H63">
         <v>1544600.4186760001</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="1">
+        <v>2679843.927071</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3043,8 +3233,11 @@
       <c r="H64">
         <v>24897469.608111002</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="1">
+        <v>44871794.273722999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -3069,8 +3262,11 @@
       <c r="H65">
         <v>2223551.3916469999</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>1985304.5185769999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3095,8 +3291,11 @@
       <c r="H66" s="1">
         <v>3350424.2054829998</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>3262462.676405</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -3121,8 +3320,11 @@
       <c r="H67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3147,8 +3349,11 @@
       <c r="H68">
         <v>2880056.7353699999</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>2561393.8175499998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3173,8 +3378,11 @@
       <c r="H69">
         <v>1776811.3587</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="1">
+        <v>2257543.5776</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -3199,8 +3407,11 @@
       <c r="H70">
         <v>14435131.528960001</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="1">
+        <v>16558465.936240001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -3225,8 +3436,11 @@
       <c r="H71">
         <v>11437054.773600001</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <v>9009518.4440000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3251,8 +3465,11 @@
       <c r="H72">
         <v>33145083.147700001</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="1">
+        <v>36834728.282200001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3277,8 +3494,11 @@
       <c r="H73" s="1">
         <v>6794618.7484999998</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <v>5660723.6704000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -3303,8 +3523,11 @@
       <c r="H74" s="1">
         <v>943148546.34870005</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <v>741295752.9813</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -3329,8 +3552,11 @@
       <c r="H75">
         <v>1779696.7892</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="1">
+        <v>3916996.7204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -3355,8 +3581,11 @@
       <c r="H76">
         <v>100366025.4624</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="1">
+        <v>143712460.64359999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3381,8 +3610,11 @@
       <c r="H77" s="1">
         <v>35036372.576899998</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="1">
+        <v>66486575.982501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -3407,8 +3639,11 @@
       <c r="H78" s="1">
         <v>22173245.242385</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="1">
+        <v>24806131.878254998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -3433,8 +3668,11 @@
       <c r="H79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -3459,8 +3697,11 @@
       <c r="H80" s="1">
         <v>47577912.4925</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="1">
+        <v>60839585.486299999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -3485,8 +3726,11 @@
       <c r="H81">
         <v>2419446.7733</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="1">
+        <v>3753176.9229000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -3511,8 +3755,11 @@
       <c r="H82">
         <v>3393710.5232000002</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>3138418.9622</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -3537,8 +3784,11 @@
       <c r="H83">
         <v>57313866.863899998</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="1">
+        <v>61823143.8627</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -3563,8 +3813,11 @@
       <c r="H84" s="1">
         <v>15556348.617133001</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>10066762.946132001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -3589,8 +3842,11 @@
       <c r="H85" s="1">
         <v>16944492.582309999</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="1">
+        <v>17736496.49103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -3615,8 +3871,11 @@
       <c r="H86" s="1">
         <v>8203405.1431999998</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>5704901.9369999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -3641,8 +3900,11 @@
       <c r="H87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -3667,8 +3929,11 @@
       <c r="H88">
         <v>3519847.1663000002</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="1">
+        <v>5673775.0920000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -3693,8 +3958,11 @@
       <c r="H89">
         <v>38288836.1325</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>37073848.538999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -3719,8 +3987,11 @@
       <c r="H90">
         <v>8379437.920167</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="1">
+        <v>12666597.648430999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -3745,8 +4016,11 @@
       <c r="H91" s="1">
         <v>4910304.3069420001</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="1">
+        <v>5398143.6814660002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -3771,8 +4045,11 @@
       <c r="H92">
         <v>132914221.7265</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" s="1">
+        <v>140177026.52270001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -3797,8 +4074,11 @@
       <c r="H93">
         <v>26142044.7172</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" s="1">
+        <v>26646320.288800001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -3823,8 +4103,11 @@
       <c r="H94" s="1">
         <v>14387555.7543</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="1">
+        <v>15779113.8992</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -3849,8 +4132,11 @@
       <c r="H95" s="1">
         <v>3201947.8955999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <v>1098962.1834</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -3875,8 +4161,11 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -3901,8 +4190,11 @@
       <c r="H97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -3927,8 +4219,11 @@
       <c r="H98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -3953,8 +4248,11 @@
       <c r="H99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -3979,8 +4277,11 @@
       <c r="H100">
         <v>1455562.39182</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" s="1">
+        <v>1487925.42206</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -4005,8 +4306,11 @@
       <c r="H101">
         <v>7105891.8614999996</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" s="1">
+        <v>8433023.2005000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -4031,8 +4335,11 @@
       <c r="H102">
         <v>2029880.094756</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" s="1">
+        <v>2169675.0332980002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -4057,8 +4364,11 @@
       <c r="H103">
         <v>3241034.5906000002</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <v>2289584.0781</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -4083,8 +4393,11 @@
       <c r="H104" s="1">
         <v>1329738.7498000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" s="1">
+        <v>1565893.6606000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -4109,8 +4422,11 @@
       <c r="H105">
         <v>5559212.2527000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <v>3670224.8788000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -4135,8 +4451,11 @@
       <c r="H106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -4161,8 +4480,11 @@
       <c r="H107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -4187,8 +4509,11 @@
       <c r="H108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -4213,8 +4538,11 @@
       <c r="H109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -4239,8 +4567,11 @@
       <c r="H110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -4265,8 +4596,11 @@
       <c r="H111" s="1">
         <v>10457893.0766</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111" s="1">
+        <v>13123709.9265</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -4291,8 +4625,11 @@
       <c r="H112">
         <v>1470247.0161009999</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <v>1099396.391056</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -4317,8 +4654,11 @@
       <c r="H113">
         <v>123585574.52069999</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <v>110150424.9126</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -4343,8 +4683,11 @@
       <c r="H114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -4369,8 +4712,11 @@
       <c r="H115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -4395,8 +4741,11 @@
       <c r="H116">
         <v>5630170.4795420002</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <v>3248124.7147530001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -4421,8 +4770,11 @@
       <c r="H117">
         <v>3744830.3372</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117" s="1">
+        <v>5771712.9482000005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -4447,8 +4799,11 @@
       <c r="H118" s="1">
         <v>3600082.8086529998</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118" s="1">
+        <v>4538148.03345</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -4473,8 +4828,11 @@
       <c r="H119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -4499,8 +4857,11 @@
       <c r="H120" s="1">
         <v>867152349.37300003</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120" s="1">
+        <v>867705868.72920001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -4525,8 +4886,11 @@
       <c r="H121" s="1">
         <v>7908390.7548000002</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121" s="1">
+        <v>8715870.6852000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -4551,8 +4915,11 @@
       <c r="H122">
         <v>2485243.9380999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122" s="1">
+        <v>2693490.0817999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -4577,8 +4944,11 @@
       <c r="H123">
         <v>20239340.78379</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <v>14730503.157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -4603,8 +4973,11 @@
       <c r="H124">
         <v>4332586.6774599999</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <v>3675383.5194399999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -4629,8 +5002,11 @@
       <c r="H125">
         <v>7607040.2358465996</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125">
+        <v>5273222.5963789998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -4655,8 +5031,11 @@
       <c r="H126">
         <v>1328195.8535</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <v>1227480.202</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -4681,8 +5060,11 @@
       <c r="H127">
         <v>2569613.5383000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <v>2000940.4476000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -4707,8 +5089,11 @@
       <c r="H128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -4733,8 +5118,11 @@
       <c r="H129" s="1">
         <v>5736258.0249030003</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I129">
+        <v>3535632.1071330002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -4759,8 +5147,11 @@
       <c r="H130" s="1">
         <v>14369058.887630001</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130" s="1">
+        <v>15743642.7267</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -4785,8 +5176,11 @@
       <c r="H131">
         <v>3165006.0082999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131" s="1">
+        <v>3373772.1030999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -4811,8 +5205,11 @@
       <c r="H132">
         <v>3685754.0529999998</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I132">
+        <v>1932100.3725000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -4837,8 +5234,11 @@
       <c r="H133">
         <v>7626024.1409</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I133" s="1">
+        <v>8733740.1104000006</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -4863,8 +5263,11 @@
       <c r="H134" s="1">
         <v>3307917.6090000002</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134" s="1">
+        <v>4983951.8169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -4889,8 +5292,11 @@
       <c r="H135">
         <v>20310893.096900001</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I135" s="1">
+        <v>29924533.408799998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -4915,8 +5321,11 @@
       <c r="H136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -4941,8 +5350,11 @@
       <c r="H137">
         <v>7704511.5815399997</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I137">
+        <v>6744764.3037200002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -4967,8 +5379,11 @@
       <c r="H138" s="1">
         <v>18458809.0592</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I138">
+        <v>7398013.2614000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -4993,8 +5408,11 @@
       <c r="H139">
         <v>14058538.8081</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I139" s="1">
+        <v>15621637.3485</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -5019,8 +5437,11 @@
       <c r="H140">
         <v>7361153.4273899999</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I140" s="1">
+        <v>7587306.6807300001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -5045,8 +5466,11 @@
       <c r="H141">
         <v>7383816.3220300004</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I141" s="1">
+        <v>7831980.6665099999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -5071,8 +5495,11 @@
       <c r="H142">
         <v>2400189.58904</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I142" s="1">
+        <v>2504329.8195600002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -5097,8 +5524,11 @@
       <c r="H143">
         <v>1112243.7228628299</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I143">
+        <v>1086747.0169253801</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -5123,8 +5553,11 @@
       <c r="H144">
         <v>2359127.1254500002</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I144" s="1">
+        <v>2549301.1875399998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -5149,8 +5582,11 @@
       <c r="H145">
         <v>1105368.6578597999</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I145">
+        <v>1008923.0921433</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -5175,8 +5611,11 @@
       <c r="H146">
         <v>7112591.5947110001</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I146">
+        <v>5886498.7031789999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -5201,8 +5640,11 @@
       <c r="H147">
         <v>4248726.038981</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I147" s="1">
+        <v>4402130.1198699996</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -5227,8 +5669,11 @@
       <c r="H148">
         <v>10399330.1186</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I148">
+        <v>8159066.1184</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -5253,8 +5698,11 @@
       <c r="H149">
         <v>30449071.502500001</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I149" s="1">
+        <v>30598893.472600002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -5279,8 +5727,11 @@
       <c r="H150">
         <v>10070602.1251</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I150">
+        <v>7758673.3145000003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -5305,8 +5756,11 @@
       <c r="H151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -5331,8 +5785,11 @@
       <c r="H152">
         <v>891554.87199999997</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I152">
+        <v>863786.05240000004</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -5357,8 +5814,11 @@
       <c r="H153" s="1">
         <v>8082980.2845999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I153">
+        <v>5450843.8723999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -5383,8 +5843,11 @@
       <c r="H154">
         <v>3273964.6090000002</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I154">
+        <v>2788863.4018999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -5409,8 +5872,11 @@
       <c r="H155">
         <v>3639414.047208</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I155">
+        <v>3490363.529079</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -5435,8 +5901,11 @@
       <c r="H156">
         <v>3640606.4176718998</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I156" s="1">
+        <v>5437915.1999898003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -5461,8 +5930,11 @@
       <c r="H157">
         <v>1768310.75116</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I157" s="1">
+        <v>2048179.39891</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -5487,8 +5959,11 @@
       <c r="H158" s="1">
         <v>14208970.4088</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I158">
+        <v>12800627.3202</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -5513,8 +5988,11 @@
       <c r="H159">
         <v>21106071.387800001</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I159">
+        <v>19313817.209800001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -5539,8 +6017,11 @@
       <c r="H160">
         <v>13955282.626622001</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I160">
+        <v>10739907.1379492</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -5565,8 +6046,11 @@
       <c r="H161" s="1">
         <v>4199527.3828999996</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I161" s="1">
+        <v>5271585.5497000003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -5591,8 +6075,11 @@
       <c r="H162">
         <v>4430998.0998</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I162" s="1">
+        <v>6688622.9764</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -5617,8 +6104,11 @@
       <c r="H163" s="1">
         <v>6883748.850687</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I163">
+        <v>6487627.9414269999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -5643,8 +6133,11 @@
       <c r="H164" s="1">
         <v>1578783.6339</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I164" s="1">
+        <v>1732647.9049</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -5669,8 +6162,11 @@
       <c r="H165">
         <v>1149144.1821689999</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I165" s="1">
+        <v>1168082.866532</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -5695,8 +6191,11 @@
       <c r="H166">
         <v>60434353.429200001</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I166">
+        <v>59271852.1954</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -5721,8 +6220,11 @@
       <c r="H167" s="1">
         <v>2060404.9123</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I167" s="1">
+        <v>3140253.5797000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -5747,8 +6249,11 @@
       <c r="H168" s="1">
         <v>38052452.852700002</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I168">
+        <v>33531723.485399999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -5773,8 +6278,11 @@
       <c r="H169" s="1">
         <v>77537094.648900002</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I169">
+        <v>57842855.817699999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -5799,8 +6307,11 @@
       <c r="H170" s="1">
         <v>9510996.4500999991</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I170">
+        <v>9220192.5756999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -5825,8 +6336,11 @@
       <c r="H171">
         <v>2661872.889</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I171">
+        <v>2331870.0362999998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -5851,8 +6365,11 @@
       <c r="H172">
         <v>313051848.78740001</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I172">
+        <v>278124684.71679997</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -5877,8 +6394,11 @@
       <c r="H173">
         <v>223726931.08809999</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I173" s="1">
+        <v>308342975.03500003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -5903,8 +6423,11 @@
       <c r="H174">
         <v>10243160.873655999</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I174" s="1">
+        <v>10633809.052130001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -5929,8 +6452,11 @@
       <c r="H175">
         <v>2706233.8849999998</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I175">
+        <v>1887919.0001000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -5955,8 +6481,11 @@
       <c r="H176" s="1">
         <v>2203577.3051999998</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I176" s="1">
+        <v>2328613.5691</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -5981,8 +6510,11 @@
       <c r="H177">
         <v>3926160.0273000002</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I177">
+        <v>3735538.5493999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -6007,8 +6539,11 @@
       <c r="H178" s="1">
         <v>9955189.3673999999</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I178">
+        <v>7205190.3102000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -6033,8 +6568,11 @@
       <c r="H179">
         <v>37232456.904600002</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I179">
+        <v>35635560.626100004</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -6059,8 +6597,11 @@
       <c r="H180" s="1">
         <v>4271657.2905000001</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I180">
+        <v>3262617.4588000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -6085,8 +6626,11 @@
       <c r="H181">
         <v>20182766.081900001</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I181">
+        <v>19362932.5495</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -6111,8 +6655,11 @@
       <c r="H182" s="1">
         <v>104828358.0861</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I182">
+        <v>89398101.215299994</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -6137,8 +6684,11 @@
       <c r="H183" s="1">
         <v>4022076.9745999998</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I183" s="1">
+        <v>5585729.4748</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -6163,8 +6713,11 @@
       <c r="H184">
         <v>42832371.3213</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I184">
+        <v>41410174.312200002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -6189,8 +6742,11 @@
       <c r="H185">
         <v>7350183.5865000002</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I185">
+        <v>3801645.0405999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -6215,8 +6771,11 @@
       <c r="H186" s="1">
         <v>4393570.9017000003</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I186" s="1">
+        <v>4511327.3360000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -6241,8 +6800,11 @@
       <c r="H187">
         <v>1594656.384447</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I187">
+        <v>1587230.926314</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -6267,8 +6829,11 @@
       <c r="H188">
         <v>1013394.1635138</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I188">
+        <v>987494.78276722995</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -6293,8 +6858,11 @@
       <c r="H189">
         <v>555194.31903939997</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I189" s="1">
+        <v>561400.79567340005</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -6319,8 +6887,11 @@
       <c r="H190">
         <v>281832.02098999999</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I190">
+        <v>229067.21377999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -6345,8 +6916,11 @@
       <c r="H191" s="1">
         <v>5106891.4384650001</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I191">
+        <v>3802863.4706430002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -6371,8 +6945,11 @@
       <c r="H192">
         <v>3935874.5098951301</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I192">
+        <v>2552745.1182071301</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -6397,8 +6974,11 @@
       <c r="H193">
         <v>7056584.4337499999</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I193">
+        <v>6414075.9696699996</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -6423,8 +7003,11 @@
       <c r="H194">
         <v>5810529.3602954801</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I194">
+        <v>5152273.4674178399</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -6449,8 +7032,11 @@
       <c r="H195" s="1">
         <v>3545902.6727</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I195">
+        <v>3526279.9583999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -6475,8 +7061,11 @@
       <c r="H196" s="1">
         <v>2744181.8248999999</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I196">
+        <v>2558676.5525000002</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -6501,8 +7090,11 @@
       <c r="H197">
         <v>1056566.5694899999</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I197">
+        <v>835998.20697000006</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -6527,8 +7119,11 @@
       <c r="H198">
         <v>447667.20980000001</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I198">
+        <v>328064.87810999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -6553,8 +7148,11 @@
       <c r="H199">
         <v>85953658.660500005</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I199" s="1">
+        <v>98939331.078400001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -6579,8 +7177,11 @@
       <c r="H200" s="1">
         <v>1343449.3940969999</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I200" s="1">
+        <v>1577769.3706390001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -6605,8 +7206,11 @@
       <c r="H201">
         <v>3188606.8045999999</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I201" s="1">
+        <v>5460752.0948999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -6631,8 +7235,11 @@
       <c r="H202">
         <v>2243243.0176599999</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I202">
+        <v>2088480.6171500001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -6657,8 +7264,11 @@
       <c r="H203">
         <v>363707298.16790003</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I203" s="1">
+        <v>451696426.34630001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -6683,8 +7293,11 @@
       <c r="H204" s="1">
         <v>7488546.4545</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I204">
+        <v>6007230.5893000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -6709,8 +7322,11 @@
       <c r="H205" s="1">
         <v>6066787.3737000003</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I205">
+        <v>5771880.5338000003</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -6735,8 +7351,11 @@
       <c r="H206">
         <v>2098102.5010299999</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I206" s="1">
+        <v>2414560.7229399998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -6761,8 +7380,11 @@
       <c r="H207">
         <v>1505343.0385499999</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I207" s="1">
+        <v>1892713.11093</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -6787,8 +7409,11 @@
       <c r="H208">
         <v>7266063.6479000002</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I208">
+        <v>5223577.1509999996</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -6813,8 +7438,11 @@
       <c r="H209">
         <v>3551679.2195000001</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I209">
+        <v>3174272.0285999998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -6839,8 +7467,11 @@
       <c r="H210" s="1">
         <v>16170481.713500001</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I210">
+        <v>14094485.8902</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -6865,8 +7496,11 @@
       <c r="H211">
         <v>8146749.0563000003</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I211" s="1">
+        <v>9413207.1546999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -6891,8 +7525,11 @@
       <c r="H212">
         <v>32563201.381299999</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I212" s="1">
+        <v>35267269.108999997</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -6917,8 +7554,11 @@
       <c r="H213">
         <v>96166106.292899996</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I213">
+        <v>80786425.678000003</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -6943,8 +7583,11 @@
       <c r="H214" s="1">
         <v>1131827.8088562</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I214">
+        <v>1098244.8342019001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -6969,8 +7612,11 @@
       <c r="H215" s="1">
         <v>806772.99806100002</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I215">
+        <v>785114.52915199997</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -6995,8 +7641,11 @@
       <c r="H216" s="1">
         <v>408668665.97933799</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I216" s="1">
+        <v>445303805.49290001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -7021,8 +7670,11 @@
       <c r="H217" s="1">
         <v>5819806.7246869998</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I217" s="1">
+        <v>5968634.0096380003</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -7047,8 +7699,11 @@
       <c r="H218" s="1">
         <v>4693294.2882684898</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I218" s="1">
+        <v>4749222.9185758103</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -7073,8 +7728,11 @@
       <c r="H219">
         <v>445425.25716699997</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I219">
+        <v>393178.44952600001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -7099,8 +7757,11 @@
       <c r="H220">
         <v>225269.19755700001</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I220" s="1">
+        <v>232858.40458100001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -7125,8 +7786,11 @@
       <c r="H221">
         <v>5399342.7451999998</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I221">
+        <v>4740279.1270000003</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -7151,8 +7815,11 @@
       <c r="H222" s="1">
         <v>17220420.380199999</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I222">
+        <v>17209758.4901</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -7177,8 +7844,11 @@
       <c r="H223" s="1">
         <v>11781663.9801</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I223">
+        <v>10474753.9319</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -7203,8 +7873,11 @@
       <c r="H224">
         <v>301641.653483</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I224">
+        <v>270585.91245300003</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -7229,8 +7902,11 @@
       <c r="H225">
         <v>207866.18816699999</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I225">
+        <v>176441.98788199999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -7255,8 +7931,11 @@
       <c r="H226" s="1">
         <v>4477572.8318400001</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I226" s="1">
+        <v>5132385.7954099998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -7281,8 +7960,11 @@
       <c r="H227" s="1">
         <v>1060377535.72411</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I227">
+        <v>791891535.49739003</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -7307,8 +7989,11 @@
       <c r="H228">
         <v>6292982.7978999997</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I228">
+        <v>4056260.6405000002</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -7333,8 +8018,11 @@
       <c r="H229">
         <v>1345686.3931</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I229">
+        <v>892363.81480000005</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -7359,8 +8047,11 @@
       <c r="H230">
         <v>3258139.3794</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I230">
+        <v>2635720.8280000002</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -7385,8 +8076,11 @@
       <c r="H231">
         <v>8216242.0214</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I231" s="1">
+        <v>8756173.0540999994</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -7411,8 +8105,11 @@
       <c r="H232">
         <v>85426588.652422994</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I232">
+        <v>35677097.852224998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -7437,8 +8134,11 @@
       <c r="H233">
         <v>2803271.5051000002</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I233" s="1">
+        <v>3057764.5573999998</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -7463,8 +8163,11 @@
       <c r="H234" s="1">
         <v>5570129.2474999996</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I234" s="1">
+        <v>6415308.2011000002</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -7489,8 +8192,11 @@
       <c r="H235" s="1">
         <v>2525203.3796680002</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I235" s="1">
+        <v>2690123.1568200001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -7515,8 +8221,11 @@
       <c r="H236">
         <v>1574953.3851046199</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I236">
+        <v>1456088.96337911</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -7541,8 +8250,11 @@
       <c r="H237" s="1">
         <v>10937667.484999999</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I237">
+        <v>9901014.4395000003</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -7567,8 +8279,11 @@
       <c r="H238" s="1">
         <v>198483.70180000001</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I238">
+        <v>79780.593599999993</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -7593,8 +8308,11 @@
       <c r="H239">
         <v>3739639.2001983002</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I239" s="1">
+        <v>3740060.0749957999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -7619,8 +8337,11 @@
       <c r="H240">
         <v>1357701.7586399999</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I240" s="1">
+        <v>1400492.00242</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -7645,8 +8366,11 @@
       <c r="H241">
         <v>655483.60893470002</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I241" s="1">
+        <v>749219.55480909999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -7671,8 +8395,11 @@
       <c r="H242">
         <v>271483.79522000003</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I242">
+        <v>210402.2433</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -7697,8 +8424,11 @@
       <c r="H243">
         <v>28044193.2914</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I243">
+        <v>26767818.504700001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -7723,8 +8453,11 @@
       <c r="H244">
         <v>1669150.6105</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I244" s="1">
+        <v>6462221.8163000001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -7749,8 +8482,11 @@
       <c r="H245" s="1">
         <v>7036592.2137000002</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I245">
+        <v>5452109.8541999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -7775,8 +8511,11 @@
       <c r="H246" s="1">
         <v>40756793.864200003</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I246" s="1">
+        <v>41427131.244800001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -7801,8 +8540,11 @@
       <c r="H247">
         <v>13840936.697480001</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I247" s="1">
+        <v>14760803.281649999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -7827,8 +8569,11 @@
       <c r="H248" s="1">
         <v>10384179.7596</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I248">
+        <v>7988329.6651999997</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -7853,8 +8598,11 @@
       <c r="H249">
         <v>2082186.8614000001</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I249" s="1">
+        <v>2836187.3382999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -7879,8 +8627,11 @@
       <c r="H250" s="1">
         <v>1042805.1589</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I250" s="1">
+        <v>1519129.2271</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -7905,8 +8656,11 @@
       <c r="H251">
         <v>60498829.589599997</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I251">
+        <v>54459501.891400002</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -7931,8 +8685,11 @@
       <c r="H252" s="1">
         <v>2100756.0162999998</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I252">
+        <v>1435911.2352</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -7957,8 +8714,11 @@
       <c r="H253">
         <v>1917880.6706999999</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I253" s="1">
+        <v>3215529.4054</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -7983,8 +8743,11 @@
       <c r="H254" s="1">
         <v>6164275.6582000004</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I254">
+        <v>5713988.4523999998</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -8009,8 +8772,11 @@
       <c r="H255">
         <v>4536009.7816399997</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I255" s="1">
+        <v>5368433.7575599998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -8035,8 +8801,11 @@
       <c r="H256">
         <v>18284931.7487</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I256" s="1">
+        <v>18553638.521299999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -8061,8 +8830,11 @@
       <c r="H257" s="1">
         <v>3449662.9060999998</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I257" s="1">
+        <v>7879245.8864000002</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -8087,8 +8859,11 @@
       <c r="H258" s="1">
         <v>8888918.2357999999</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I258">
+        <v>7123973.0356000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -8113,8 +8888,11 @@
       <c r="H259">
         <v>4177694.1061999998</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I259" s="1">
+        <v>4560901.6368000004</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -8139,8 +8917,11 @@
       <c r="H260">
         <v>12692760.092599999</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I260" s="1">
+        <v>14430529.4682</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -8165,8 +8946,11 @@
       <c r="H261">
         <v>51555696.543300003</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I261">
+        <v>45317028.434299998</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -8191,8 +8975,11 @@
       <c r="H262" s="1">
         <v>2522481.5490999999</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I262" s="1">
+        <v>5220236.2390999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -8217,8 +9004,11 @@
       <c r="H263" s="1">
         <v>9150061.3482000008</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I263">
+        <v>6649443.2259</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -8243,8 +9033,11 @@
       <c r="H264" s="1">
         <v>5833265.6114999996</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I264">
+        <v>5346197.4113999996</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -8269,8 +9062,11 @@
       <c r="H265">
         <v>5072233.7356000002</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I265">
+        <v>3700083.6688000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -8295,8 +9091,11 @@
       <c r="H266">
         <v>12220135.448172299</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I266" s="1">
+        <v>40596391.310832202</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -8321,8 +9120,11 @@
       <c r="H267" s="1">
         <v>12533712.808700001</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I267" s="1">
+        <v>15855179.039799999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -8347,8 +9149,11 @@
       <c r="H268" s="1">
         <v>130042783.7999</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I268">
+        <v>92561760.154899999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -8373,8 +9178,11 @@
       <c r="H269" s="1">
         <v>8988891.9088004008</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I269" s="1">
+        <v>15838176.2482924</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -8399,8 +9207,11 @@
       <c r="H270" s="1">
         <v>17128408.835299999</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I270">
+        <v>16205494.0473</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -8425,8 +9236,11 @@
       <c r="H271">
         <v>7568500.1399999997</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I271">
+        <v>4480881.8711000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -8451,8 +9265,11 @@
       <c r="H272" s="1">
         <v>16909954.411400001</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I272" s="1">
+        <v>17835289.530900002</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -8477,8 +9294,11 @@
       <c r="H273">
         <v>10994114.023</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I273">
+        <v>10937608.7752</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -8503,8 +9323,11 @@
       <c r="H274" s="1">
         <v>16692540.407299999</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I274" s="1">
+        <v>17098009.402399998</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -8529,8 +9352,11 @@
       <c r="H275">
         <v>2214661.5789000001</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I275" s="1">
+        <v>2270643.9145</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -8555,8 +9381,11 @@
       <c r="H276" s="1">
         <v>10417918.064300001</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I276" s="1">
+        <v>12129872.702</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -8581,8 +9410,11 @@
       <c r="H277">
         <v>9083234.2360999994</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I277">
+        <v>4265234.2600999996</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -8607,8 +9439,11 @@
       <c r="H278" s="1">
         <v>82355367.218799993</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I278">
+        <v>69089491.346300006</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -8633,8 +9468,11 @@
       <c r="H279" s="1">
         <v>3589697.5526250298</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I279">
+        <v>3051201.2615789999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -8659,8 +9497,11 @@
       <c r="H280" s="1">
         <v>2776831.1940188999</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I280">
+        <v>2279880.3251415999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -8685,8 +9526,11 @@
       <c r="H281" s="1">
         <v>861274.35979999998</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I281" s="1">
+        <v>967242.13520000002</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -8711,8 +9555,11 @@
       <c r="H282" s="1">
         <v>4335348.0241</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I282">
+        <v>4149069.3289000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -8737,8 +9584,11 @@
       <c r="H283" s="1">
         <v>6365302.6617999999</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I283" s="1">
+        <v>7070298.4921000004</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -8763,8 +9613,11 @@
       <c r="H284" s="1">
         <v>1901370.2631999999</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I284" s="1">
+        <v>2275438.0715999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -8789,8 +9642,11 @@
       <c r="H285">
         <v>17454369.910399999</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I285" s="1">
+        <v>17666265.240400001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -8815,8 +9671,11 @@
       <c r="H286" s="1">
         <v>3373047.8</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I286">
+        <v>2835096.1118000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -8841,8 +9700,11 @@
       <c r="H287" s="1">
         <v>169071231.1257</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I287">
+        <v>135531511.98570001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -8867,8 +9729,11 @@
       <c r="H288" s="1">
         <v>50455747.72105556</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I288" s="1">
+        <v>62921191.20115602</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -8893,8 +9758,11 @@
       <c r="H289" s="1">
         <v>76122521.061499998</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I289">
+        <v>69945252.207499996</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -8919,8 +9787,11 @@
       <c r="H290">
         <v>19409931.164999999</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I290" s="1">
+        <v>24712145.8158</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -8945,8 +9816,11 @@
       <c r="H291">
         <v>2912269.5654000002</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I291">
+        <v>2670958.7115000002</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -8971,8 +9845,11 @@
       <c r="H292" s="1">
         <v>7804627.8174999999</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I292">
+        <v>7506678.6582000004</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -8997,8 +9874,11 @@
       <c r="H293">
         <v>26523528.192600001</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I293" s="1">
+        <v>33158040.521499999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -9023,8 +9903,11 @@
       <c r="H294" s="1">
         <v>3312149.8111</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I294">
+        <v>2854455.7527000001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -9049,8 +9932,11 @@
       <c r="H295">
         <v>2415247.3144999999</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I295">
+        <v>1953082.8193999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -9075,8 +9961,11 @@
       <c r="H296">
         <v>2823415.1443400001</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I296">
+        <v>2660389.6617899998</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -9101,8 +9990,11 @@
       <c r="H297" s="1">
         <v>49209767.032899998</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I297" s="1">
+        <v>55955024.7271</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -9127,8 +10019,11 @@
       <c r="H298" s="1">
         <v>6906381.4243000001</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I298">
+        <v>5356314.4049000004</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -9153,8 +10048,11 @@
       <c r="H299">
         <v>6001850.4166999999</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I299">
+        <v>3268788.5142999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -9179,8 +10077,11 @@
       <c r="H300" s="1">
         <v>5088276.5259999996</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I300" s="1">
+        <v>6823018.0897000004</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -9205,8 +10106,11 @@
       <c r="H301" s="1">
         <v>6764438.9434000002</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I301">
+        <v>6233891.5850999998</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -9231,8 +10135,11 @@
       <c r="H302">
         <v>5324593.0866999999</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I302">
+        <v>5141378.1860999996</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -9257,8 +10164,11 @@
       <c r="H303" s="1">
         <v>4428981.7982000001</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I303">
+        <v>2613384.3838</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -9283,8 +10193,11 @@
       <c r="H304">
         <v>2604458.8604000001</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I304">
+        <v>2321396.8354000002</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -9309,8 +10222,11 @@
       <c r="H305">
         <v>3949761.9704999998</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I305">
+        <v>3331633.3105000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -9335,8 +10251,11 @@
       <c r="H306" s="1">
         <v>4885395.5285</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I306">
+        <v>4499667.0449999999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -9361,8 +10280,11 @@
       <c r="H307" s="1">
         <v>83370484.514200002</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I307" s="1">
+        <v>109202893.7638</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -9387,8 +10309,11 @@
       <c r="H308">
         <v>7871275.2865000004</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I308">
+        <v>5623648.1436000001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -9413,8 +10338,11 @@
       <c r="H309">
         <v>11163866.529200001</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I309" s="1">
+        <v>15628887.252499999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -9439,8 +10367,11 @@
       <c r="H310" s="1">
         <v>14746461.892000001</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I310">
+        <v>13549724.521299999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -9465,8 +10396,11 @@
       <c r="H311" s="1">
         <v>7050639.7730999999</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I311">
+        <v>5428744.6125999996</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -9491,8 +10425,11 @@
       <c r="H312">
         <v>34589327.506999999</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I312">
+        <v>25182273.369600002</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -9517,8 +10454,11 @@
       <c r="H313" s="1">
         <v>24298377.126499999</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I313">
+        <v>18797299.5152</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -9543,8 +10483,11 @@
       <c r="H314">
         <v>2527647.2977999998</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I314" s="1">
+        <v>4964104.2295000004</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -9569,8 +10512,11 @@
       <c r="H315">
         <v>3929357.49658</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I315">
+        <v>3415713.6400799998</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -9595,8 +10541,11 @@
       <c r="H316">
         <v>10387169.6778</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I316">
+        <v>4567653.4408</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -9621,8 +10570,11 @@
       <c r="H317" s="1">
         <v>51979336.3046</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I317">
+        <v>42069843.219899997</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -9647,8 +10599,11 @@
       <c r="H318" s="1">
         <v>31757132.703480002</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I318">
+        <v>17491106.91375</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -9673,8 +10628,11 @@
       <c r="H319" s="1">
         <v>2420484.2596999998</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I319" s="1">
+        <v>4414055.0782000003</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -9699,8 +10657,11 @@
       <c r="H320" s="1">
         <v>2000505.487</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I320">
+        <v>1038607.0652</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -9725,8 +10686,11 @@
       <c r="H321">
         <v>12002003.2018</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I321">
+        <v>9559291.3814000003</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -9751,8 +10715,11 @@
       <c r="H322" s="1">
         <v>4853841.7657000003</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I322">
+        <v>2444531.5430000001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -9777,8 +10744,11 @@
       <c r="H323">
         <v>452173.3273</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I323" s="1">
+        <v>504125.6912</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -9803,8 +10773,11 @@
       <c r="H324">
         <v>29661341.214768872</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I324">
+        <v>26909552.937789369</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -9829,8 +10802,11 @@
       <c r="H325">
         <v>3484812.7566</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I325" s="1">
+        <v>3857707.8412299999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -9855,8 +10831,11 @@
       <c r="H326">
         <v>383111798.56405997</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I326">
+        <v>302102760.87493998</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -9881,8 +10860,11 @@
       <c r="H327">
         <v>10009913.183390001</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I327">
+        <v>8456451.6730099991</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -9907,8 +10889,11 @@
       <c r="H328" s="1">
         <v>60863963.753132999</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I328">
+        <v>31339319.677613001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -9933,8 +10918,11 @@
       <c r="H329">
         <v>5146452.9062599996</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I329" s="1">
+        <v>6273611.6294</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -9959,8 +10947,11 @@
       <c r="H330">
         <v>2542621.3994840002</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I330">
+        <v>1229912.150345</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -9985,8 +10976,11 @@
       <c r="H331">
         <v>151965586.58515</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I331">
+        <v>145685305.82218</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -10011,8 +11005,11 @@
       <c r="H332" s="1">
         <v>4129011.6636000001</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I332" s="1">
+        <v>4964870.3673</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -10037,8 +11034,11 @@
       <c r="H333" s="1">
         <v>75038512.920499995</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I333">
+        <v>67842674.750799999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -10063,8 +11063,11 @@
       <c r="H334">
         <v>1002436.2070000001</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I334">
+        <v>984753.78899999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -10088,6 +11091,9 @@
       </c>
       <c r="H335">
         <v>4340294.9689999996</v>
+      </c>
+      <c r="I335" s="1">
+        <v>5068005.1443999996</v>
       </c>
     </row>
   </sheetData>

--- a/volumeTracker.xlsx
+++ b/volumeTracker.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bogdan\Desktop\volumeTracker\"/>
@@ -1372,16 +1372,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:I335"/>
+  <dimension ref="A1:J335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="J334" sqref="J334"/>
+    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="A287" sqref="A287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1409,8 +1408,11 @@
       <c r="I1">
         <v>1551564846.736927</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1">
+        <v>1316396880.9607539</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1438,8 +1440,11 @@
       <c r="I2">
         <v>1372092398.3041</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1">
+        <v>1441357401.690578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1467,8 +1472,11 @@
       <c r="I3">
         <v>437398503.41060001</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>432250937.9795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1496,8 +1504,11 @@
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1525,8 +1536,11 @@
       <c r="I5">
         <v>18548704.0392</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="1">
+        <v>19208132.1734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1554,8 +1568,11 @@
       <c r="I6">
         <v>73249116.833800003</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>70592521.101699993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1583,8 +1600,11 @@
       <c r="I7" s="1">
         <v>58892518.919639997</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="1">
+        <v>97182157.453400001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1612,8 +1632,11 @@
       <c r="I8" s="1">
         <v>336389162.32740003</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="1">
+        <v>342853816.73729998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1641,8 +1664,11 @@
       <c r="I9">
         <v>443787742.29470003</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>409215179.4199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1670,8 +1696,11 @@
       <c r="I10">
         <v>69143374.685800001</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>68276098.816799998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1699,8 +1728,11 @@
       <c r="I11">
         <v>3508702.4975000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>3356854.0079999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1728,8 +1760,11 @@
       <c r="I12">
         <v>100409259.13789999</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>49680180.050399996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1757,8 +1792,11 @@
       <c r="I13" s="1">
         <v>44931153.6008</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="1">
+        <v>62093219.028300002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1786,8 +1824,11 @@
       <c r="I14">
         <v>16390980.6065</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="1">
+        <v>18192581.361200001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1815,8 +1856,11 @@
       <c r="I15">
         <v>67044559.117922999</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="1">
+        <v>70470270.061122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1844,8 +1888,11 @@
       <c r="I16">
         <v>117285197.64659999</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>83813481.050099999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1873,8 +1920,11 @@
       <c r="I17">
         <v>34810654.079599999</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="1">
+        <v>48841271.790238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1902,8 +1952,11 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1931,8 +1984,11 @@
       <c r="I19">
         <v>2319049.7634000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>2151674.4903000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1960,8 +2016,11 @@
       <c r="I20">
         <v>111352417.96247201</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="1">
+        <v>117167718.23119199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1989,8 +2048,11 @@
       <c r="I21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2018,8 +2080,11 @@
       <c r="I22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2047,8 +2112,11 @@
       <c r="I23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2076,8 +2144,11 @@
       <c r="I24">
         <v>131904703.486</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>128665291.8583</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2105,8 +2176,11 @@
       <c r="I25" s="1">
         <v>138661250.0774</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1">
+        <v>139486066.85330001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2134,8 +2208,11 @@
       <c r="I26">
         <v>10004521.011</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="1">
+        <v>14646877.398600001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2163,8 +2240,11 @@
       <c r="I27">
         <v>18521199.932425</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="1">
+        <v>20427579.989576999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2192,8 +2272,11 @@
       <c r="I28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2221,8 +2304,11 @@
       <c r="I29">
         <v>2850870.7170000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>2612002.0326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2250,8 +2336,11 @@
       <c r="I30">
         <v>17968420.845003001</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="1">
+        <v>20753468.759668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2279,8 +2368,11 @@
       <c r="I31">
         <v>25143086.709353998</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="1">
+        <v>26473868.213169001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2308,8 +2400,11 @@
       <c r="I32" s="1">
         <v>3963960.4772000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="1">
+        <v>4040868.2557000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2337,8 +2432,11 @@
       <c r="I33" s="1">
         <v>129183666.8581</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>114846216.3362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2366,8 +2464,11 @@
       <c r="I34" s="1">
         <v>7700353.7408999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="1">
+        <v>8695876.5570999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2395,8 +2496,11 @@
       <c r="I35" s="1">
         <v>24706474.570999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>24664284.167100001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2424,8 +2528,11 @@
       <c r="I36">
         <v>17703378.249499999</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>15917767.7292</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2453,8 +2560,11 @@
       <c r="I37" s="1">
         <v>36501714.455119997</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="1">
+        <v>38020778.292539999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2482,8 +2592,11 @@
       <c r="I38">
         <v>97070816.831382006</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>72175554.691769004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2511,8 +2624,11 @@
       <c r="I39">
         <v>16574669.763699999</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="1">
+        <v>20060646.948100001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2540,8 +2656,11 @@
       <c r="I40" s="1">
         <v>4900578.0148</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="1">
+        <v>8325444.7341999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2569,8 +2688,11 @@
       <c r="I41" s="1">
         <v>403184568.50779301</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="1">
+        <v>555650696.30506098</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2598,8 +2720,11 @@
       <c r="I42">
         <v>145803119.26230001</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>100878344.30400001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2627,8 +2752,11 @@
       <c r="I43">
         <v>19652115.6175</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>17529451.3719</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2656,8 +2784,11 @@
       <c r="I44">
         <v>2762688.8139709998</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="1">
+        <v>3420878.9405550002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2685,8 +2816,11 @@
       <c r="I45" s="1">
         <v>114940410.3644</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="1">
+        <v>138513583.1807</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2714,8 +2848,11 @@
       <c r="I46" s="1">
         <v>160443881.57690001</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="1">
+        <v>169029908.50279999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2743,8 +2880,11 @@
       <c r="I47" s="1">
         <v>20174423.132100001</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>16091313.197699999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2772,8 +2912,11 @@
       <c r="I48" s="1">
         <v>56556929.510986999</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="1">
+        <v>69834073.680138007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2801,8 +2944,11 @@
       <c r="I49">
         <v>229829662.0151</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="1">
+        <v>235373869.6444</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2830,8 +2976,11 @@
       <c r="I50" s="1">
         <v>105336684.97</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="1">
+        <v>108763325.03919999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2859,8 +3008,11 @@
       <c r="I51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2888,8 +3040,11 @@
       <c r="I52" s="1">
         <v>8064614.7270320002</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>3408566.147229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2917,8 +3072,11 @@
       <c r="I53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2946,8 +3104,11 @@
       <c r="I54">
         <v>172722446.76550001</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>148884795.7112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2975,8 +3136,11 @@
       <c r="I55" s="1">
         <v>2083761.3326999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="1">
+        <v>2306392.5723999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3004,8 +3168,11 @@
       <c r="I56">
         <v>6765775.0264569996</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="1">
+        <v>7032652.8327810001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3033,8 +3200,11 @@
       <c r="I57" s="1">
         <v>16835862.861817401</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="1">
+        <v>20065526.395235099</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3062,8 +3232,11 @@
       <c r="I58" s="1">
         <v>3735538.3125590002</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="1">
+        <v>4441947.2131909998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3091,8 +3264,11 @@
       <c r="I59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3120,8 +3296,11 @@
       <c r="I60">
         <v>2145234.9059000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>2078469.0541999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3149,8 +3328,11 @@
       <c r="I61" s="1">
         <v>9653007.0273000002</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="1">
+        <v>10722326.0429</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -3178,8 +3360,11 @@
       <c r="I62">
         <v>6855267.4775</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>5558455.3778999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -3207,8 +3392,11 @@
       <c r="I63" s="1">
         <v>2679843.927071</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="1">
+        <v>3438461.969881</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3236,8 +3424,11 @@
       <c r="I64" s="1">
         <v>44871794.273722999</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="1">
+        <v>103342394.570632</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -3265,8 +3456,11 @@
       <c r="I65">
         <v>1985304.5185769999</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <v>1649178.3357520001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3294,8 +3488,11 @@
       <c r="I66">
         <v>3262462.676405</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="1">
+        <v>3786230.1471850001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -3323,8 +3520,11 @@
       <c r="I67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3352,8 +3552,11 @@
       <c r="I68">
         <v>2561393.8175499998</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="1">
+        <v>5571877.0202099998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3381,8 +3584,11 @@
       <c r="I69" s="1">
         <v>2257543.5776</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="1">
+        <v>2568468.0214999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -3410,8 +3616,11 @@
       <c r="I70" s="1">
         <v>16558465.936240001</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="1">
+        <v>17438398.59073</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -3439,8 +3648,11 @@
       <c r="I71">
         <v>9009518.4440000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="1">
+        <v>17580971.935600001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3468,8 +3680,11 @@
       <c r="I72" s="1">
         <v>36834728.282200001</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="1">
+        <v>40001811.2839</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3497,8 +3712,11 @@
       <c r="I73">
         <v>5660723.6704000002</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="1">
+        <v>7192680.1601</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -3526,8 +3744,11 @@
       <c r="I74">
         <v>741295752.9813</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <v>598743516.47850001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3776,11 @@
       <c r="I75" s="1">
         <v>3916996.7204</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <v>3853993.4418000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -3584,8 +3808,11 @@
       <c r="I76" s="1">
         <v>143712460.64359999</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="1">
+        <v>212330048.268197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3613,8 +3840,11 @@
       <c r="I77" s="1">
         <v>66486575.982501</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="1">
+        <v>72785489.075001001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -3642,8 +3872,11 @@
       <c r="I78" s="1">
         <v>24806131.878254998</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <v>22093226.118629001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -3671,8 +3904,11 @@
       <c r="I79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -3700,8 +3936,11 @@
       <c r="I80" s="1">
         <v>60839585.486299999</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="1">
+        <v>74127140.367300004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -3729,8 +3968,11 @@
       <c r="I81" s="1">
         <v>3753176.9229000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="1">
+        <v>4319204.0241999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -3758,8 +4000,11 @@
       <c r="I82">
         <v>3138418.9622</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="1">
+        <v>3377744.8407999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -3787,8 +4032,11 @@
       <c r="I83" s="1">
         <v>61823143.8627</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="1">
+        <v>68286147.516100004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -3816,8 +4064,11 @@
       <c r="I84">
         <v>10066762.946132001</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84">
+        <v>8902572.4416240007</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -3845,8 +4096,11 @@
       <c r="I85" s="1">
         <v>17736496.49103</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85">
+        <v>17321336.336369999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -3874,8 +4128,11 @@
       <c r="I86">
         <v>5704901.9369999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <v>5340753.0882999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -3903,8 +4160,11 @@
       <c r="I87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -3932,8 +4192,11 @@
       <c r="I88" s="1">
         <v>5673775.0920000002</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="1">
+        <v>8740860.3625000007</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -3961,8 +4224,11 @@
       <c r="I89">
         <v>37073848.538999997</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89">
+        <v>34409727.917400002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -3990,8 +4256,11 @@
       <c r="I90" s="1">
         <v>12666597.648430999</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="1">
+        <v>18763116.934615001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -4019,8 +4288,11 @@
       <c r="I91" s="1">
         <v>5398143.6814660002</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="1">
+        <v>5775867.0272610001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -4048,8 +4320,11 @@
       <c r="I92" s="1">
         <v>140177026.52270001</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92">
+        <v>137179524.93720001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -4077,8 +4352,11 @@
       <c r="I93" s="1">
         <v>26646320.288800001</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="1">
+        <v>27031248.470100001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -4106,8 +4384,11 @@
       <c r="I94" s="1">
         <v>15779113.8992</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="1">
+        <v>18448212.098999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -4135,8 +4416,11 @@
       <c r="I95">
         <v>1098962.1834</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95">
+        <v>837130.20979999995</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -4164,8 +4448,11 @@
       <c r="I96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -4193,8 +4480,11 @@
       <c r="I97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -4222,8 +4512,11 @@
       <c r="I98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -4251,8 +4544,11 @@
       <c r="I99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -4280,8 +4576,11 @@
       <c r="I100" s="1">
         <v>1487925.42206</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="1">
+        <v>5422569.3576400001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -4309,8 +4608,11 @@
       <c r="I101" s="1">
         <v>8433023.2005000003</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101">
+        <v>7997233.7599999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -4338,8 +4640,11 @@
       <c r="I102" s="1">
         <v>2169675.0332980002</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="1">
+        <v>2781889.5660529998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -4367,8 +4672,11 @@
       <c r="I103">
         <v>2289584.0781</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="1">
+        <v>2977291.4208</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -4396,8 +4704,11 @@
       <c r="I104" s="1">
         <v>1565893.6606000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104">
+        <v>1238603.1007999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -4425,8 +4736,11 @@
       <c r="I105">
         <v>3670224.8788000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="1">
+        <v>3857397.5976</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -4454,8 +4768,11 @@
       <c r="I106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -4483,8 +4800,11 @@
       <c r="I107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -4512,8 +4832,11 @@
       <c r="I108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -4541,8 +4864,11 @@
       <c r="I109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -4570,8 +4896,11 @@
       <c r="I110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -4599,8 +4928,11 @@
       <c r="I111" s="1">
         <v>13123709.9265</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111">
+        <v>6102580.5902000004</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -4628,8 +4960,11 @@
       <c r="I112">
         <v>1099396.391056</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112">
+        <v>948783.55026599998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -4657,8 +4992,11 @@
       <c r="I113">
         <v>110150424.9126</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113">
+        <v>86197126.577000007</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -4686,8 +5024,11 @@
       <c r="I114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -4715,8 +5056,11 @@
       <c r="I115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -4744,8 +5088,11 @@
       <c r="I116">
         <v>3248124.7147530001</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116">
+        <v>1865090.703985</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -4773,8 +5120,11 @@
       <c r="I117" s="1">
         <v>5771712.9482000005</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="1">
+        <v>6468583.1558999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -4802,8 +5152,11 @@
       <c r="I118" s="1">
         <v>4538148.03345</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118">
+        <v>4455689.5577410003</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -4831,8 +5184,11 @@
       <c r="I119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -4860,8 +5216,11 @@
       <c r="I120" s="1">
         <v>867705868.72920001</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120">
+        <v>849107056.79509997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -4889,8 +5248,11 @@
       <c r="I121" s="1">
         <v>8715870.6852000002</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" s="1">
+        <v>18693992.758299999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -4918,8 +5280,11 @@
       <c r="I122" s="1">
         <v>2693490.0817999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="1">
+        <v>3522447.8538000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -4947,8 +5312,11 @@
       <c r="I123">
         <v>14730503.157</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="1">
+        <v>14761556.0551</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -4976,8 +5344,11 @@
       <c r="I124">
         <v>3675383.5194399999</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124">
+        <v>3417130.9195699999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -5005,8 +5376,11 @@
       <c r="I125">
         <v>5273222.5963789998</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125">
+        <v>4680517.5212249998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -5034,8 +5408,11 @@
       <c r="I126">
         <v>1227480.202</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="1">
+        <v>1301027.7359</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -5063,8 +5440,11 @@
       <c r="I127">
         <v>2000940.4476000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127">
+        <v>1286355.2938999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -5092,8 +5472,11 @@
       <c r="I128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -5121,8 +5504,11 @@
       <c r="I129">
         <v>3535632.1071330002</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129">
+        <v>3351969.4543249998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -5150,8 +5536,11 @@
       <c r="I130" s="1">
         <v>15743642.7267</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130">
+        <v>10403307.0755</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -5179,8 +5568,11 @@
       <c r="I131" s="1">
         <v>3373772.1030999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="1">
+        <v>3810614.1288000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -5208,8 +5600,11 @@
       <c r="I132">
         <v>1932100.3725000001</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132">
+        <v>1675685.2885</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -5237,8 +5632,11 @@
       <c r="I133" s="1">
         <v>8733740.1104000006</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="1">
+        <v>10565212.8345</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -5266,8 +5664,11 @@
       <c r="I134" s="1">
         <v>4983951.8169</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="1">
+        <v>5313417.0604999997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -5295,8 +5696,11 @@
       <c r="I135" s="1">
         <v>29924533.408799998</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="1">
+        <v>29959142.0471</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -5324,8 +5728,11 @@
       <c r="I136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -5353,8 +5760,11 @@
       <c r="I137">
         <v>6744764.3037200002</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="1">
+        <v>7005084.8489399999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -5382,8 +5792,11 @@
       <c r="I138">
         <v>7398013.2614000002</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138">
+        <v>7397396.5998999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -5411,8 +5824,11 @@
       <c r="I139" s="1">
         <v>15621637.3485</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="1">
+        <v>18547890.726500001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -5440,8 +5856,11 @@
       <c r="I140" s="1">
         <v>7587306.6807300001</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="1">
+        <v>7705091.4552199999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -5469,8 +5888,11 @@
       <c r="I141" s="1">
         <v>7831980.6665099999</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" s="1">
+        <v>8688210.1359400004</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -5498,8 +5920,11 @@
       <c r="I142" s="1">
         <v>2504329.8195600002</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" s="1">
+        <v>2894617.18762</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -5527,8 +5952,11 @@
       <c r="I143">
         <v>1086747.0169253801</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" s="1">
+        <v>1201246.1630289201</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -5556,8 +5984,11 @@
       <c r="I144" s="1">
         <v>2549301.1875399998</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" s="1">
+        <v>2891362.693767</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -5585,8 +6016,11 @@
       <c r="I145">
         <v>1008923.0921433</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" s="1">
+        <v>1075301.9207641999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -5614,8 +6048,11 @@
       <c r="I146">
         <v>5886498.7031789999</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146">
+        <v>4621591.2466850001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -5643,8 +6080,11 @@
       <c r="I147" s="1">
         <v>4402130.1198699996</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" s="1">
+        <v>7052829.4136680001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -5672,8 +6112,11 @@
       <c r="I148">
         <v>8159066.1184</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148">
+        <v>7759288.9289999995</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -5701,8 +6144,11 @@
       <c r="I149" s="1">
         <v>30598893.472600002</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149">
+        <v>28238226.441199999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -5730,8 +6176,11 @@
       <c r="I150">
         <v>7758673.3145000003</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" s="1">
+        <v>8719236.7752</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -5759,8 +6208,11 @@
       <c r="I151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -5788,8 +6240,11 @@
       <c r="I152">
         <v>863786.05240000004</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152">
+        <v>847510.08</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -5817,8 +6272,11 @@
       <c r="I153">
         <v>5450843.8723999998</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153">
+        <v>4521516.0860000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -5846,8 +6304,11 @@
       <c r="I154">
         <v>2788863.4018999999</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" s="1">
+        <v>3123078.4730000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -5875,8 +6336,11 @@
       <c r="I155">
         <v>3490363.529079</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J155">
+        <v>3241645.7432670002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -5904,8 +6368,11 @@
       <c r="I156" s="1">
         <v>5437915.1999898003</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" s="1">
+        <v>7097799.3912840998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -5933,8 +6400,11 @@
       <c r="I157" s="1">
         <v>2048179.39891</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" s="1">
+        <v>3058069.08819</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -5962,8 +6432,11 @@
       <c r="I158">
         <v>12800627.3202</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158">
+        <v>10429368.805299999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -5991,8 +6464,11 @@
       <c r="I159">
         <v>19313817.209800001</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" s="1">
+        <v>19661955.318100002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -6020,8 +6496,11 @@
       <c r="I160">
         <v>10739907.1379492</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160">
+        <v>9769312.4306269009</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -6049,8 +6528,11 @@
       <c r="I161" s="1">
         <v>5271585.5497000003</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" s="1">
+        <v>5609291.9839000003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -6078,8 +6560,11 @@
       <c r="I162" s="1">
         <v>6688622.9764</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" s="1">
+        <v>6919590.9645999996</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -6107,8 +6592,11 @@
       <c r="I163">
         <v>6487627.9414269999</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J163" s="1">
+        <v>6900362.2411639998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -6136,8 +6624,11 @@
       <c r="I164" s="1">
         <v>1732647.9049</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" s="1">
+        <v>7766094.3870999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -6165,8 +6656,11 @@
       <c r="I165" s="1">
         <v>1168082.866532</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165">
+        <v>1131276.4069079999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -6194,8 +6688,11 @@
       <c r="I166">
         <v>59271852.1954</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" s="1">
+        <v>80278442.629099995</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -6223,8 +6720,11 @@
       <c r="I167" s="1">
         <v>3140253.5797000001</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" s="1">
+        <v>3570490.1597000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -6252,8 +6752,11 @@
       <c r="I168">
         <v>33531723.485399999</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" s="1">
+        <v>35649108.962499999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -6281,8 +6784,11 @@
       <c r="I169">
         <v>57842855.817699999</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169">
+        <v>24421919.737100001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -6310,8 +6816,11 @@
       <c r="I170">
         <v>9220192.5756999999</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170">
+        <v>6221971.8657999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -6339,8 +6848,11 @@
       <c r="I171">
         <v>2331870.0362999998</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171">
+        <v>1820137.9859</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -6368,8 +6880,11 @@
       <c r="I172">
         <v>278124684.71679997</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" s="1">
+        <v>278643124.07730001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -6397,8 +6912,11 @@
       <c r="I173" s="1">
         <v>308342975.03500003</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" s="1">
+        <v>513323613.87459803</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -6426,8 +6944,11 @@
       <c r="I174" s="1">
         <v>10633809.052130001</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174" s="1">
+        <v>11701885.139215</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -6455,8 +6976,11 @@
       <c r="I175">
         <v>1887919.0001000001</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J175" s="1">
+        <v>1972618.4391000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -6484,8 +7008,11 @@
       <c r="I176" s="1">
         <v>2328613.5691</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176">
+        <v>2046374.871</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -6513,8 +7040,11 @@
       <c r="I177">
         <v>3735538.5493999999</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" s="1">
+        <v>4640929.6255000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -6542,8 +7072,11 @@
       <c r="I178">
         <v>7205190.3102000002</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178" s="1">
+        <v>7449502.5698999995</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -6571,8 +7104,11 @@
       <c r="I179">
         <v>35635560.626100004</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179" s="1">
+        <v>39066449.6171</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -6600,8 +7136,11 @@
       <c r="I180">
         <v>3262617.4588000001</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180" s="1">
+        <v>3712628.1129999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -6629,8 +7168,11 @@
       <c r="I181">
         <v>19362932.5495</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J181">
+        <v>18867592.438099999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -6658,8 +7200,11 @@
       <c r="I182">
         <v>89398101.215299994</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182">
+        <v>65651286.413599998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -6687,8 +7232,11 @@
       <c r="I183" s="1">
         <v>5585729.4748</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183" s="1">
+        <v>5599970.1947999997</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -6716,8 +7264,11 @@
       <c r="I184">
         <v>41410174.312200002</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J184" s="1">
+        <v>43269405.177599996</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -6745,8 +7296,11 @@
       <c r="I185">
         <v>3801645.0405999999</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J185" s="1">
+        <v>3807292.4355000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -6774,8 +7328,11 @@
       <c r="I186" s="1">
         <v>4511327.3360000001</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186">
+        <v>3047732.2239000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -6803,8 +7360,11 @@
       <c r="I187">
         <v>1587230.926314</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J187" s="1">
+        <v>1703702.491131</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -6832,8 +7392,11 @@
       <c r="I188">
         <v>987494.78276722995</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J188" s="1">
+        <v>1003432.8838342</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -6861,8 +7424,11 @@
       <c r="I189" s="1">
         <v>561400.79567340005</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J189">
+        <v>547348.15490099997</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -6890,8 +7456,11 @@
       <c r="I190">
         <v>229067.21377999999</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J190">
+        <v>177174.50753999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -6919,8 +7488,11 @@
       <c r="I191">
         <v>3802863.4706430002</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J191">
+        <v>3359660.691472</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -6948,8 +7520,11 @@
       <c r="I192">
         <v>2552745.1182071301</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J192">
+        <v>2057387.0709416801</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -6977,8 +7552,11 @@
       <c r="I193">
         <v>6414075.9696699996</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J193" s="1">
+        <v>6877418.7100400003</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -7006,8 +7584,11 @@
       <c r="I194">
         <v>5152273.4674178399</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J194">
+        <v>4506455.9750803802</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -7035,8 +7616,11 @@
       <c r="I195">
         <v>3526279.9583999999</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J195" s="1">
+        <v>3631043.7610999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -7064,8 +7648,11 @@
       <c r="I196">
         <v>2558676.5525000002</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J196" s="1">
+        <v>2608549.5199000002</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -7093,8 +7680,11 @@
       <c r="I197">
         <v>835998.20697000006</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J197" s="1">
+        <v>861088.43503000005</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -7122,8 +7712,11 @@
       <c r="I198">
         <v>328064.87810999999</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J198">
+        <v>250345.49647000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -7151,8 +7744,11 @@
       <c r="I199" s="1">
         <v>98939331.078400001</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J199">
+        <v>82448856.707599998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -7180,8 +7776,11 @@
       <c r="I200" s="1">
         <v>1577769.3706390001</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J200" s="1">
+        <v>1825223.2601369999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -7209,8 +7808,11 @@
       <c r="I201" s="1">
         <v>5460752.0948999999</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J201" s="1">
+        <v>7656650.2856999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -7238,8 +7840,11 @@
       <c r="I202">
         <v>2088480.6171500001</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J202" s="1">
+        <v>2106169.9587699999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -7267,8 +7872,11 @@
       <c r="I203" s="1">
         <v>451696426.34630001</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J203" s="1">
+        <v>472233811.17210001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -7296,8 +7904,11 @@
       <c r="I204">
         <v>6007230.5893000001</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J204" s="1">
+        <v>6112182.0801999997</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -7325,8 +7936,11 @@
       <c r="I205">
         <v>5771880.5338000003</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J205" s="1">
+        <v>6644237.0395999998</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -7354,8 +7968,11 @@
       <c r="I206" s="1">
         <v>2414560.7229399998</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J206">
+        <v>2148088.4744199999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -7383,8 +8000,11 @@
       <c r="I207" s="1">
         <v>1892713.11093</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J207">
+        <v>1553669.6319500001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -7412,8 +8032,11 @@
       <c r="I208">
         <v>5223577.1509999996</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J208" s="1">
+        <v>6660898.7668000003</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -7441,8 +8064,11 @@
       <c r="I209">
         <v>3174272.0285999998</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J209" s="1">
+        <v>4482090.0340999998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -7470,8 +8096,11 @@
       <c r="I210">
         <v>14094485.8902</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J210">
+        <v>13971239.143300001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -7499,8 +8128,11 @@
       <c r="I211" s="1">
         <v>9413207.1546999998</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J211" s="1">
+        <v>11582644.421499999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -7528,8 +8160,11 @@
       <c r="I212" s="1">
         <v>35267269.108999997</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J212" s="1">
+        <v>36079841.612400003</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -7557,8 +8192,11 @@
       <c r="I213">
         <v>80786425.678000003</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J213" s="1">
+        <v>92625917.189799994</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -7586,8 +8224,11 @@
       <c r="I214">
         <v>1098244.8342019001</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J214">
+        <v>979548.38272989995</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -7615,8 +8256,11 @@
       <c r="I215">
         <v>785114.52915199997</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J215">
+        <v>668142.71821900003</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -7644,8 +8288,11 @@
       <c r="I216" s="1">
         <v>445303805.49290001</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J216">
+        <v>380553854.76899999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -7673,8 +8320,11 @@
       <c r="I217" s="1">
         <v>5968634.0096380003</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J217">
+        <v>4828141.5639859997</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -7702,8 +8352,11 @@
       <c r="I218" s="1">
         <v>4749222.9185758103</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J218">
+        <v>3392299.2449971898</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -7731,8 +8384,11 @@
       <c r="I219">
         <v>393178.44952600001</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J219">
+        <v>338438.49938699999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -7760,8 +8416,11 @@
       <c r="I220" s="1">
         <v>232858.40458100001</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J220">
+        <v>219636.46625900001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -7789,8 +8448,11 @@
       <c r="I221">
         <v>4740279.1270000003</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J221" s="1">
+        <v>5161442.6749999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -7818,8 +8480,11 @@
       <c r="I222">
         <v>17209758.4901</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J222">
+        <v>14989356.5068</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -7847,8 +8512,11 @@
       <c r="I223">
         <v>10474753.9319</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J223">
+        <v>8635652.8753999993</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -7876,8 +8544,11 @@
       <c r="I224">
         <v>270585.91245300003</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J224">
+        <v>269889.27521499997</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -7905,8 +8576,11 @@
       <c r="I225">
         <v>176441.98788199999</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J225">
+        <v>159037.89488800001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -7934,8 +8608,11 @@
       <c r="I226" s="1">
         <v>5132385.7954099998</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J226" s="1">
+        <v>6095319.6732099997</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -7963,8 +8640,11 @@
       <c r="I227">
         <v>791891535.49739003</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J227">
+        <v>485670346.1753</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -7992,8 +8672,11 @@
       <c r="I228">
         <v>4056260.6405000002</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J228" s="1">
+        <v>4644520.2127</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -8021,8 +8704,11 @@
       <c r="I229">
         <v>892363.81480000005</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J229" s="1">
+        <v>1075304.6118000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -8050,8 +8736,11 @@
       <c r="I230">
         <v>2635720.8280000002</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J230">
+        <v>1890680.1472</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -8079,8 +8768,11 @@
       <c r="I231" s="1">
         <v>8756173.0540999994</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J231">
+        <v>8707450.7445</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -8108,8 +8800,11 @@
       <c r="I232">
         <v>35677097.852224998</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J232">
+        <v>28212356.536557999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -8137,8 +8832,11 @@
       <c r="I233" s="1">
         <v>3057764.5573999998</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J233">
+        <v>2818478.3583</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -8166,8 +8864,11 @@
       <c r="I234" s="1">
         <v>6415308.2011000002</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J234" s="1">
+        <v>7076957.6725000003</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -8195,8 +8896,11 @@
       <c r="I235" s="1">
         <v>2690123.1568200001</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J235">
+        <v>2413360.7089300002</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -8224,8 +8928,11 @@
       <c r="I236">
         <v>1456088.96337911</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J236" s="1">
+        <v>1477676.3865817799</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -8253,8 +8960,11 @@
       <c r="I237">
         <v>9901014.4395000003</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J237" s="1">
+        <v>9952055.7655999996</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -8282,8 +8992,11 @@
       <c r="I238">
         <v>79780.593599999993</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J238" s="1">
+        <v>84968.144199999995</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -8311,8 +9024,11 @@
       <c r="I239" s="1">
         <v>3740060.0749957999</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J239" s="1">
+        <v>4329055.6144262999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -8340,8 +9056,11 @@
       <c r="I240" s="1">
         <v>1400492.00242</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J240" s="1">
+        <v>1580377.85078</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -8369,8 +9088,11 @@
       <c r="I241" s="1">
         <v>749219.55480909999</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J241" s="1">
+        <v>1021905.5826270001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -8398,8 +9120,11 @@
       <c r="I242">
         <v>210402.2433</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J242" s="1">
+        <v>240992.90968000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -8427,8 +9152,11 @@
       <c r="I243">
         <v>26767818.504700001</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J243">
+        <v>25195045.471000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -8456,8 +9184,11 @@
       <c r="I244" s="1">
         <v>6462221.8163000001</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J244" s="1">
+        <v>7159599.4616999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -8485,8 +9216,11 @@
       <c r="I245">
         <v>5452109.8541999999</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J245">
+        <v>4243271.9446</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -8514,8 +9248,11 @@
       <c r="I246" s="1">
         <v>41427131.244800001</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J246" s="1">
+        <v>52169686.864399999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -8543,8 +9280,11 @@
       <c r="I247" s="1">
         <v>14760803.281649999</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J247" s="1">
+        <v>20698269.37723</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -8572,8 +9312,11 @@
       <c r="I248">
         <v>7988329.6651999997</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J248" s="1">
+        <v>15132727.5032</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -8601,8 +9344,11 @@
       <c r="I249" s="1">
         <v>2836187.3382999999</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J249">
+        <v>2462368.1203000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -8630,8 +9376,11 @@
       <c r="I250" s="1">
         <v>1519129.2271</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J250">
+        <v>1314550.7080999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -8659,8 +9408,11 @@
       <c r="I251">
         <v>54459501.891400002</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J251" s="1">
+        <v>55070598.298900001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -8688,8 +9440,11 @@
       <c r="I252">
         <v>1435911.2352</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J252">
+        <v>613128.16330000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -8717,8 +9472,11 @@
       <c r="I253" s="1">
         <v>3215529.4054</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J253" s="1">
+        <v>4680082.7763999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -8746,8 +9504,11 @@
       <c r="I254">
         <v>5713988.4523999998</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J254" s="1">
+        <v>7952637.6712999996</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -8775,8 +9536,11 @@
       <c r="I255" s="1">
         <v>5368433.7575599998</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J255" s="1">
+        <v>6248725.2596899997</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -8804,8 +9568,11 @@
       <c r="I256" s="1">
         <v>18553638.521299999</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J256" s="1">
+        <v>18843287.205499999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -8833,8 +9600,11 @@
       <c r="I257" s="1">
         <v>7879245.8864000002</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J257">
+        <v>7694129.1435000002</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -8862,8 +9632,11 @@
       <c r="I258">
         <v>7123973.0356000001</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J258">
+        <v>6861246.4028000003</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -8891,8 +9664,11 @@
       <c r="I259" s="1">
         <v>4560901.6368000004</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J259">
+        <v>4545632.2544</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -8920,8 +9696,11 @@
       <c r="I260" s="1">
         <v>14430529.4682</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J260" s="1">
+        <v>15134259.1326</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -8949,8 +9728,11 @@
       <c r="I261">
         <v>45317028.434299998</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J261" s="1">
+        <v>47889195.6404</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -8978,8 +9760,11 @@
       <c r="I262" s="1">
         <v>5220236.2390999999</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J262">
+        <v>5154903.3492999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -9007,8 +9792,11 @@
       <c r="I263">
         <v>6649443.2259</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J263">
+        <v>6568791.7907999996</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -9036,8 +9824,11 @@
       <c r="I264">
         <v>5346197.4113999996</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J264">
+        <v>4507921.7577999998</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -9065,8 +9856,11 @@
       <c r="I265">
         <v>3700083.6688000001</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J265" s="1">
+        <v>6470948.1147999996</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -9094,8 +9888,11 @@
       <c r="I266" s="1">
         <v>40596391.310832202</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J266" s="1">
+        <v>55635855.168038897</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -9123,8 +9920,11 @@
       <c r="I267" s="1">
         <v>15855179.039799999</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J267">
+        <v>15571661.9278</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -9152,8 +9952,11 @@
       <c r="I268">
         <v>92561760.154899999</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J268">
+        <v>64088863.995899998</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -9181,8 +9984,11 @@
       <c r="I269" s="1">
         <v>15838176.2482924</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J269" s="1">
+        <v>18430953.326271102</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -9210,8 +10016,11 @@
       <c r="I270">
         <v>16205494.0473</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J270">
+        <v>13992131.042099999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -9239,8 +10048,11 @@
       <c r="I271">
         <v>4480881.8711000001</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J271">
+        <v>3626771.0792</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -9268,8 +10080,11 @@
       <c r="I272" s="1">
         <v>17835289.530900002</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J272">
+        <v>13086661.503599999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -9297,8 +10112,11 @@
       <c r="I273">
         <v>10937608.7752</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J273" s="1">
+        <v>16033457.1204</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -9326,8 +10144,11 @@
       <c r="I274" s="1">
         <v>17098009.402399998</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J274">
+        <v>17063341.383900002</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -9355,8 +10176,11 @@
       <c r="I275" s="1">
         <v>2270643.9145</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J275">
+        <v>1986203.4919</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -9384,8 +10208,11 @@
       <c r="I276" s="1">
         <v>12129872.702</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J276">
+        <v>12013494.420700001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -9413,8 +10240,11 @@
       <c r="I277">
         <v>4265234.2600999996</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J277" s="1">
+        <v>5204624.8612000002</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -9442,8 +10272,11 @@
       <c r="I278">
         <v>69089491.346300006</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J278">
+        <v>56770425.470799997</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -9471,8 +10304,11 @@
       <c r="I279">
         <v>3051201.2615789999</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J279" s="1">
+        <v>3260415.1974682999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -9500,8 +10336,11 @@
       <c r="I280">
         <v>2279880.3251415999</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J280" s="1">
+        <v>2565615.7580023999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -9529,8 +10368,11 @@
       <c r="I281" s="1">
         <v>967242.13520000002</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J281">
+        <v>700311.40139999997</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -9558,8 +10400,11 @@
       <c r="I282">
         <v>4149069.3289000001</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J282">
+        <v>3897468.6995999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -9587,8 +10432,11 @@
       <c r="I283" s="1">
         <v>7070298.4921000004</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J283">
+        <v>4545731.9804999996</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -9616,8 +10464,11 @@
       <c r="I284" s="1">
         <v>2275438.0715999999</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J284" s="1">
+        <v>2351321.8620000002</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -9645,8 +10496,11 @@
       <c r="I285" s="1">
         <v>17666265.240400001</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J285" s="1">
+        <v>19600560.0634</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -9674,8 +10528,11 @@
       <c r="I286">
         <v>2835096.1118000001</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J286">
+        <v>2637854.0715999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -9703,8 +10560,11 @@
       <c r="I287">
         <v>135531511.98570001</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J287">
+        <v>94934270.381300002</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -9732,8 +10592,11 @@
       <c r="I288" s="1">
         <v>62921191.20115602</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J288" s="1">
+        <v>87855819.469969526</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -9761,8 +10624,11 @@
       <c r="I289">
         <v>69945252.207499996</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J289">
+        <v>69530237.367300004</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -9790,8 +10656,11 @@
       <c r="I290" s="1">
         <v>24712145.8158</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J290" s="1">
+        <v>41329033.4604</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -9819,8 +10688,11 @@
       <c r="I291">
         <v>2670958.7115000002</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J291" s="1">
+        <v>6817606.0525000002</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -9848,8 +10720,11 @@
       <c r="I292">
         <v>7506678.6582000004</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J292" s="1">
+        <v>11578367.484300001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -9877,8 +10752,11 @@
       <c r="I293" s="1">
         <v>33158040.521499999</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J293">
+        <v>30330378.620999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -9906,8 +10784,11 @@
       <c r="I294">
         <v>2854455.7527000001</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J294">
+        <v>2729660.4175</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -9935,8 +10816,11 @@
       <c r="I295">
         <v>1953082.8193999999</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J295" s="1">
+        <v>3531876.4863</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -9964,8 +10848,11 @@
       <c r="I296">
         <v>2660389.6617899998</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J296" s="1">
+        <v>2982400.7497</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -9993,8 +10880,11 @@
       <c r="I297" s="1">
         <v>55955024.7271</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J297">
+        <v>38406933.313100003</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -10022,8 +10912,11 @@
       <c r="I298">
         <v>5356314.4049000004</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J298">
+        <v>5343006.4369000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -10051,8 +10944,11 @@
       <c r="I299">
         <v>3268788.5142999999</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J299">
+        <v>2865752.1031999998</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -10080,8 +10976,11 @@
       <c r="I300" s="1">
         <v>6823018.0897000004</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J300">
+        <v>6145711.4307000004</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -10109,8 +11008,11 @@
       <c r="I301">
         <v>6233891.5850999998</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J301">
+        <v>4431692.5579000004</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -10138,8 +11040,11 @@
       <c r="I302">
         <v>5141378.1860999996</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J302">
+        <v>4562844.1009</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -10167,8 +11072,11 @@
       <c r="I303">
         <v>2613384.3838</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J303" s="1">
+        <v>3561565.6014999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -10196,8 +11104,11 @@
       <c r="I304">
         <v>2321396.8354000002</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J304">
+        <v>1804654.9044000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -10225,8 +11136,11 @@
       <c r="I305">
         <v>3331633.3105000001</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J305">
+        <v>3124079.8135000002</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -10254,8 +11168,11 @@
       <c r="I306">
         <v>4499667.0449999999</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J306">
+        <v>3749145.6675</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -10283,8 +11200,11 @@
       <c r="I307" s="1">
         <v>109202893.7638</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J307" s="1">
+        <v>147979741.6275</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -10312,8 +11232,11 @@
       <c r="I308">
         <v>5623648.1436000001</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J308">
+        <v>5171462.0983999996</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -10341,8 +11264,11 @@
       <c r="I309" s="1">
         <v>15628887.252499999</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J309" s="1">
+        <v>16594958.3148</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -10370,8 +11296,11 @@
       <c r="I310">
         <v>13549724.521299999</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J310">
+        <v>9595071.0818000007</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -10399,8 +11328,11 @@
       <c r="I311">
         <v>5428744.6125999996</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J311">
+        <v>4948362.2414999995</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -10428,8 +11360,11 @@
       <c r="I312">
         <v>25182273.369600002</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J312" s="1">
+        <v>25638960.087499999</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -10457,8 +11392,11 @@
       <c r="I313">
         <v>18797299.5152</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J313" s="1">
+        <v>22777178.975000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -10486,8 +11424,11 @@
       <c r="I314" s="1">
         <v>4964104.2295000004</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J314">
+        <v>4950405.6889000004</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -10515,8 +11456,11 @@
       <c r="I315">
         <v>3415713.6400799998</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J315" s="1">
+        <v>3566841.61999</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -10544,8 +11488,11 @@
       <c r="I316">
         <v>4567653.4408</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J316">
+        <v>3164497.1894999999</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -10573,8 +11520,11 @@
       <c r="I317">
         <v>42069843.219899997</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J317">
+        <v>34517677.851199999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -10602,8 +11552,11 @@
       <c r="I318">
         <v>17491106.91375</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J318" s="1">
+        <v>17772293.291030001</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -10631,8 +11584,11 @@
       <c r="I319" s="1">
         <v>4414055.0782000003</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J319" s="1">
+        <v>6223982.0574000003</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -10660,8 +11616,11 @@
       <c r="I320">
         <v>1038607.0652</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J320">
+        <v>878395.1128</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -10689,8 +11648,11 @@
       <c r="I321">
         <v>9559291.3814000003</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J321" s="1">
+        <v>16554747.1514</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -10718,8 +11680,11 @@
       <c r="I322">
         <v>2444531.5430000001</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J322">
+        <v>2004440.5946</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -10747,8 +11712,11 @@
       <c r="I323" s="1">
         <v>504125.6912</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J323" s="1">
+        <v>526225.14769999997</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -10776,8 +11744,11 @@
       <c r="I324">
         <v>26909552.937789369</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J324">
+        <v>26378550.314286541</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -10805,8 +11776,11 @@
       <c r="I325" s="1">
         <v>3857707.8412299999</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J325">
+        <v>3382461.7149200002</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -10834,8 +11808,11 @@
       <c r="I326">
         <v>302102760.87493998</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J326">
+        <v>235655092.05649</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -10863,8 +11840,11 @@
       <c r="I327">
         <v>8456451.6730099991</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J327" s="1">
+        <v>14075327.03923</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -10892,8 +11872,11 @@
       <c r="I328">
         <v>31339319.677613001</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J328">
+        <v>25748870.532882001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -10921,8 +11904,11 @@
       <c r="I329" s="1">
         <v>6273611.6294</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J329" s="1">
+        <v>6703724.8120299997</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -10950,8 +11936,11 @@
       <c r="I330">
         <v>1229912.150345</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J330">
+        <v>720223.18922499998</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -10979,8 +11968,11 @@
       <c r="I331">
         <v>145685305.82218</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J331">
+        <v>101077180.58547001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -11008,8 +12000,11 @@
       <c r="I332" s="1">
         <v>4964870.3673</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J332">
+        <v>4029182.7206000001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -11037,8 +12032,11 @@
       <c r="I333">
         <v>67842674.750799999</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J333">
+        <v>32133536.968199998</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -11066,8 +12064,11 @@
       <c r="I334">
         <v>984753.78899999999</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J334" s="1">
+        <v>1099276.6975</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -11094,6 +12095,9 @@
       </c>
       <c r="I335" s="1">
         <v>5068005.1443999996</v>
+      </c>
+      <c r="J335">
+        <v>4822738.551</v>
       </c>
     </row>
   </sheetData>

--- a/volumeTracker.xlsx
+++ b/volumeTracker.xlsx
@@ -1350,13 +1350,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K335"/>
+  <dimension ref="A1:L335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1390,8 +1390,11 @@
       <c r="K1">
         <v>1176078971.051334</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1">
+        <v>1599333865.375042</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1425,8 +1428,11 @@
       <c r="K2">
         <v>1177692293.096379</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>1233300506.651645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1460,8 +1466,11 @@
       <c r="K3">
         <v>352383755.2762</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>374992014.512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1495,8 +1504,11 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1530,8 +1542,11 @@
       <c r="K5">
         <v>31190608.3499</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>34387215.8525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1565,8 +1580,11 @@
       <c r="K6">
         <v>64045595.4849</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>73828981.9237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1600,8 +1618,11 @@
       <c r="K7">
         <v>104753512.358</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>74257540.9761</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1635,8 +1656,11 @@
       <c r="K8">
         <v>280859164.8545</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>332842051.3593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1670,8 +1694,11 @@
       <c r="K9">
         <v>421460115.7852</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>440925189.3433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1705,8 +1732,11 @@
       <c r="K10">
         <v>136338891.4936</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>164579511.2285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1740,8 +1770,11 @@
       <c r="K11">
         <v>3093789.115</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>4125027.3291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1775,8 +1808,11 @@
       <c r="K12">
         <v>44008100.6682</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>41380425.3261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1810,8 +1846,11 @@
       <c r="K13">
         <v>57928109.8876</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>45639327.3091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1845,8 +1884,11 @@
       <c r="K14">
         <v>26789845.8736</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>32471220.1022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1880,8 +1922,11 @@
       <c r="K15">
         <v>63641578.265353</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>69216810.727956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1915,8 +1960,11 @@
       <c r="K16">
         <v>80984118.79350001</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>88729691.8444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1950,8 +1998,11 @@
       <c r="K17">
         <v>47447395.749538</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>43079030.049943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1985,8 +2036,11 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2020,8 +2074,11 @@
       <c r="K19">
         <v>1506466.1709</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>1210642.2615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2055,8 +2112,11 @@
       <c r="K20">
         <v>93765316.731181</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>97777423.64961401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2090,8 +2150,11 @@
       <c r="K21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2125,8 +2188,11 @@
       <c r="K22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2160,8 +2226,11 @@
       <c r="K23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2195,8 +2264,11 @@
       <c r="K24">
         <v>104589607.3825</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>88583153.4005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2230,8 +2302,11 @@
       <c r="K25">
         <v>109886806.2324</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>130294006.4593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2265,8 +2340,11 @@
       <c r="K26">
         <v>15328499.0393</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>12123957.1628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2300,8 +2378,11 @@
       <c r="K27">
         <v>21242400.783094</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>33842824.899636</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2335,8 +2416,11 @@
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2370,8 +2454,11 @@
       <c r="K29">
         <v>3063767.3231</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>3059302.7594</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2405,8 +2492,11 @@
       <c r="K30">
         <v>20478552.767661</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>50853421.449432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2440,8 +2530,11 @@
       <c r="K31">
         <v>20608691.784853</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31">
+        <v>18014715.183145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2475,8 +2568,11 @@
       <c r="K32">
         <v>5730817.9499</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32">
+        <v>5889939.6644</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2510,8 +2606,11 @@
       <c r="K33">
         <v>102894324.2803</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33">
+        <v>119173580.8564</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2545,8 +2644,11 @@
       <c r="K34">
         <v>8617403.696</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34">
+        <v>8455566.0558</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2580,8 +2682,11 @@
       <c r="K35">
         <v>23396134.3687</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35">
+        <v>23617210.3725</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2615,8 +2720,11 @@
       <c r="K36">
         <v>17193728.8807</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36">
+        <v>20703166.5804</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2650,8 +2758,11 @@
       <c r="K37">
         <v>33132729.64992</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37">
+        <v>33440649.99499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2685,8 +2796,11 @@
       <c r="K38">
         <v>58237883.975797</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38">
+        <v>93655629.620315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2720,8 +2834,11 @@
       <c r="K39">
         <v>18900117.6575</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39">
+        <v>20245643.4723</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2872,11 @@
       <c r="K40">
         <v>15431900.5572</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40">
+        <v>32591798.5157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2790,8 +2910,11 @@
       <c r="K41">
         <v>454830752.653364</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41">
+        <v>319594577.8478</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2825,8 +2948,11 @@
       <c r="K42">
         <v>80487071.6532</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42">
+        <v>85571885.78910001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2860,8 +2986,11 @@
       <c r="K43">
         <v>14785747.6105</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43">
+        <v>28768922.1361</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2895,8 +3024,11 @@
       <c r="K44">
         <v>2810162.806891</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44">
+        <v>1970790.543664</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3062,11 @@
       <c r="K45">
         <v>144012755.9798</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45">
+        <v>147497737.961</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2965,8 +3100,11 @@
       <c r="K46">
         <v>148806385.1355</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46">
+        <v>126907980.6723</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3000,8 +3138,11 @@
       <c r="K47">
         <v>13405909.5114</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47">
+        <v>7932188.8563</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3035,8 +3176,11 @@
       <c r="K48">
         <v>64915974.982495</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48">
+        <v>89348518.803058</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3070,8 +3214,11 @@
       <c r="K49">
         <v>232486491.5212</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49">
+        <v>213186255.6204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3105,8 +3252,11 @@
       <c r="K50">
         <v>130478030.9481</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50">
+        <v>243170993.5206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3140,8 +3290,11 @@
       <c r="K51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3175,8 +3328,11 @@
       <c r="K52">
         <v>2652423.170926</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52">
+        <v>1858190.187066</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3210,8 +3366,11 @@
       <c r="K53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3245,8 +3404,11 @@
       <c r="K54">
         <v>132888055.3731</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54">
+        <v>212625344.682</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3280,8 +3442,11 @@
       <c r="K55">
         <v>2001172.5013</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55">
+        <v>1323791.5346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3315,8 +3480,11 @@
       <c r="K56">
         <v>6390148.412433</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56">
+        <v>5378310.89414</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3350,8 +3518,11 @@
       <c r="K57">
         <v>20894338.224289</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57">
+        <v>18280447.1672866</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3385,8 +3556,11 @@
       <c r="K58">
         <v>3555429.874291</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58">
+        <v>4423998.407108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3420,8 +3594,11 @@
       <c r="K59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3455,8 +3632,11 @@
       <c r="K60">
         <v>1878275.4335</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60">
+        <v>1931966.0608</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3490,8 +3670,11 @@
       <c r="K61">
         <v>7615363.9856</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61">
+        <v>11917869.0721</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -3525,8 +3708,11 @@
       <c r="K62">
         <v>5960441.35</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62">
+        <v>6280817.4596</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -3560,8 +3746,11 @@
       <c r="K63">
         <v>2793942.813231</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63">
+        <v>1749049.111837</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3595,8 +3784,11 @@
       <c r="K64">
         <v>120308249.305663</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64">
+        <v>76901043.285624</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -3630,8 +3822,11 @@
       <c r="K65">
         <v>1394095.56986</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65">
+        <v>1053134.932202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3665,8 +3860,11 @@
       <c r="K66">
         <v>2692262.283869</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66">
+        <v>2315799.128795</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -3700,8 +3898,11 @@
       <c r="K67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3735,8 +3936,11 @@
       <c r="K68">
         <v>8088704.03801</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="L68">
+        <v>5322013.31682</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3770,8 +3974,11 @@
       <c r="K69">
         <v>2612386.7619</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69">
+        <v>3013214.6073</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -3805,8 +4012,11 @@
       <c r="K70">
         <v>17069329.67545</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70">
+        <v>18559933.84047</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -3840,8 +4050,11 @@
       <c r="K71">
         <v>19907875.0282</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71">
+        <v>17064727.3493</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3875,8 +4088,11 @@
       <c r="K72">
         <v>34278697.1154</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72">
+        <v>37655233.6835</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3910,8 +4126,11 @@
       <c r="K73">
         <v>5928832.9386</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73">
+        <v>5314525.9905</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -3945,8 +4164,11 @@
       <c r="K74">
         <v>540248233.7029999</v>
       </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74">
+        <v>675012723.7740999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -3980,8 +4202,11 @@
       <c r="K75">
         <v>2947282.063</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="L75">
+        <v>3591488.2562</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4240,11 @@
       <c r="K76">
         <v>301860475.659519</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76">
+        <v>300854957.271232</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -4050,8 +4278,11 @@
       <c r="K77">
         <v>44381246.335141</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="L77">
+        <v>24212017.3147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -4085,8 +4316,11 @@
       <c r="K78">
         <v>12857092.155223</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="L78">
+        <v>10253174.766581</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -4120,8 +4354,11 @@
       <c r="K79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -4155,8 +4392,11 @@
       <c r="K80">
         <v>59540784.4526</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80">
+        <v>50508462.5668</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -4190,8 +4430,11 @@
       <c r="K81">
         <v>4666131.6306</v>
       </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="L81">
+        <v>6815192.9747</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -4225,8 +4468,11 @@
       <c r="K82">
         <v>2622089.8215</v>
       </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="L82">
+        <v>2539386.0439</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -4260,8 +4506,11 @@
       <c r="K83">
         <v>67253544.4149</v>
       </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="L83">
+        <v>72863580.2509</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -4295,8 +4544,11 @@
       <c r="K84">
         <v>11469527.144019</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="L84">
+        <v>14134578.832357</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -4330,8 +4582,11 @@
       <c r="K85">
         <v>12000905.3017</v>
       </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="L85">
+        <v>11401076.36592</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -4365,8 +4620,11 @@
       <c r="K86">
         <v>5224915.6777</v>
       </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="L86">
+        <v>5841361.625</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -4400,8 +4658,11 @@
       <c r="K87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -4435,8 +4696,11 @@
       <c r="K88">
         <v>9469352.4868</v>
       </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="L88">
+        <v>3126087.1513</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -4470,8 +4734,11 @@
       <c r="K89">
         <v>39203831.6719</v>
       </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="L89">
+        <v>45415914.902</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -4505,8 +4772,11 @@
       <c r="K90">
         <v>62080116.548506</v>
       </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="L90">
+        <v>74622896.477531</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -4540,8 +4810,11 @@
       <c r="K91">
         <v>3301748.608831</v>
       </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="L91">
+        <v>2351353.983856</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -4575,8 +4848,11 @@
       <c r="K92">
         <v>109822596.9457</v>
       </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="L92">
+        <v>129570465.5772</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -4610,8 +4886,11 @@
       <c r="K93">
         <v>28755035.9794</v>
       </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="L93">
+        <v>30229235.0313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -4645,8 +4924,11 @@
       <c r="K94">
         <v>14238250.7936</v>
       </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="L94">
+        <v>9738590.061100001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -4680,8 +4962,11 @@
       <c r="K95">
         <v>704596.6709</v>
       </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="L95">
+        <v>725576.9198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -4715,8 +5000,11 @@
       <c r="K96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -4750,8 +5038,11 @@
       <c r="K97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -4785,8 +5076,11 @@
       <c r="K98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -4820,8 +5114,11 @@
       <c r="K99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -4855,8 +5152,11 @@
       <c r="K100">
         <v>6282181.83845</v>
       </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="L100">
+        <v>4600224.37727</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -4890,8 +5190,11 @@
       <c r="K101">
         <v>6204083.9326</v>
       </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="L101">
+        <v>7948405.3229</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -4925,8 +5228,11 @@
       <c r="K102">
         <v>2684946.764274</v>
       </c>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="L102">
+        <v>2700412.92177</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -4960,8 +5266,11 @@
       <c r="K103">
         <v>2447962.2071</v>
       </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="L103">
+        <v>2701798.4405</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -4995,8 +5304,11 @@
       <c r="K104">
         <v>1121584.8929</v>
       </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="L104">
+        <v>1169669.1956</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -5030,8 +5342,11 @@
       <c r="K105">
         <v>2364882.2982</v>
       </c>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="L105">
+        <v>2326031.2242</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -5065,8 +5380,11 @@
       <c r="K106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -5100,8 +5418,11 @@
       <c r="K107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -5135,8 +5456,11 @@
       <c r="K108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -5170,8 +5494,11 @@
       <c r="K109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -5205,8 +5532,11 @@
       <c r="K110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -5240,8 +5570,11 @@
       <c r="K111">
         <v>4635420.9816</v>
       </c>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="L111">
+        <v>3068450.4169</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -5275,8 +5608,11 @@
       <c r="K112">
         <v>1047991.245908</v>
       </c>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="L112">
+        <v>1141438.910625</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -5310,8 +5646,11 @@
       <c r="K113">
         <v>77833624.6164</v>
       </c>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="L113">
+        <v>82496041.1107</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -5345,8 +5684,11 @@
       <c r="K114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -5380,8 +5722,11 @@
       <c r="K115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -5415,8 +5760,11 @@
       <c r="K116">
         <v>1190135.503139</v>
       </c>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="L116">
+        <v>1166368.326791</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -5450,8 +5798,11 @@
       <c r="K117">
         <v>4243025.9167</v>
       </c>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="L117">
+        <v>4318141.7494</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -5485,8 +5836,11 @@
       <c r="K118">
         <v>2833828.03035</v>
       </c>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="L118">
+        <v>2876955.523636</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -5520,8 +5874,11 @@
       <c r="K119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -5555,8 +5912,11 @@
       <c r="K120">
         <v>702826468.3257</v>
       </c>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="L120">
+        <v>745576224.5527</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -5590,8 +5950,11 @@
       <c r="K121">
         <v>25175269.5927</v>
       </c>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="L121">
+        <v>24711669.6697</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -5625,8 +5988,11 @@
       <c r="K122">
         <v>3143477.815</v>
       </c>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="L122">
+        <v>3570085.0796</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -5660,8 +6026,11 @@
       <c r="K123">
         <v>21900001.0501</v>
       </c>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="L123">
+        <v>28971751.93</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -5695,8 +6064,11 @@
       <c r="K124">
         <v>2875066.5442</v>
       </c>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="L124">
+        <v>3690120.79502</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -5730,8 +6102,11 @@
       <c r="K125">
         <v>3772346.68123</v>
       </c>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="L125">
+        <v>5406242.1987457</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -5765,8 +6140,11 @@
       <c r="K126">
         <v>1159594.653</v>
       </c>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="L126">
+        <v>958618.767</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -5800,8 +6178,11 @@
       <c r="K127">
         <v>1012431.4711</v>
       </c>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="L127">
+        <v>1787599.843</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -5835,8 +6216,11 @@
       <c r="K128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:11">
+      <c r="L128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -5870,8 +6254,11 @@
       <c r="K129">
         <v>2605705.62957</v>
       </c>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="L129">
+        <v>1979143.716935</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -5905,8 +6292,11 @@
       <c r="K130">
         <v>8346710.23545</v>
       </c>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="L130">
+        <v>6089412.59615</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -5940,8 +6330,11 @@
       <c r="K131">
         <v>3598018.4541</v>
       </c>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="L131">
+        <v>4763682.732</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -5975,8 +6368,11 @@
       <c r="K132">
         <v>1351365.4989</v>
       </c>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="L132">
+        <v>2025684.7303</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -6010,8 +6406,11 @@
       <c r="K133">
         <v>16329539.5511</v>
       </c>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="L133">
+        <v>16615485.3521</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -6045,8 +6444,11 @@
       <c r="K134">
         <v>2962725.6493</v>
       </c>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="L134">
+        <v>2434198.2858</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -6080,8 +6482,11 @@
       <c r="K135">
         <v>27373346.5887</v>
       </c>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="L135">
+        <v>36357911.2387</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -6115,8 +6520,11 @@
       <c r="K136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="L136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -6150,8 +6558,11 @@
       <c r="K137">
         <v>8157808.5679</v>
       </c>
-    </row>
-    <row r="138" spans="1:11">
+      <c r="L137">
+        <v>9036133.497579999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -6185,8 +6596,11 @@
       <c r="K138">
         <v>10254189.6245</v>
       </c>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="L138">
+        <v>11761823.1407</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -6220,8 +6634,11 @@
       <c r="K139">
         <v>16477792.6854</v>
       </c>
-    </row>
-    <row r="140" spans="1:11">
+      <c r="L139">
+        <v>12722789.1574</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -6255,8 +6672,11 @@
       <c r="K140">
         <v>5922029.90708</v>
       </c>
-    </row>
-    <row r="141" spans="1:11">
+      <c r="L140">
+        <v>6255158.42493</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -6290,8 +6710,11 @@
       <c r="K141">
         <v>7913144.09685</v>
       </c>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="L141">
+        <v>8346996.92681</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -6325,8 +6748,11 @@
       <c r="K142">
         <v>2478024.43638</v>
       </c>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="L142">
+        <v>2430514.53088</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -6360,8 +6786,11 @@
       <c r="K143">
         <v>973866.18316408</v>
       </c>
-    </row>
-    <row r="144" spans="1:11">
+      <c r="L143">
+        <v>1038358.56116874</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -6395,8 +6824,11 @@
       <c r="K144">
         <v>2579085.589916</v>
       </c>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="L144">
+        <v>3203152.549176</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -6430,8 +6862,11 @@
       <c r="K145">
         <v>1036165.8730313</v>
       </c>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="L145">
+        <v>1207628.7510508</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -6465,8 +6900,11 @@
       <c r="K146">
         <v>3696729.34442</v>
       </c>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="L146">
+        <v>3915280.531392</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -6500,8 +6938,11 @@
       <c r="K147">
         <v>7438942.304635</v>
       </c>
-    </row>
-    <row r="148" spans="1:11">
+      <c r="L147">
+        <v>6455862.191562</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -6535,8 +6976,11 @@
       <c r="K148">
         <v>6385874.6277</v>
       </c>
-    </row>
-    <row r="149" spans="1:11">
+      <c r="L148">
+        <v>6517742.4661</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -6570,8 +7014,11 @@
       <c r="K149">
         <v>30775882.5666</v>
       </c>
-    </row>
-    <row r="150" spans="1:11">
+      <c r="L149">
+        <v>33922885.2975</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -6605,8 +7052,11 @@
       <c r="K150">
         <v>6695818.2071</v>
       </c>
-    </row>
-    <row r="151" spans="1:11">
+      <c r="L150">
+        <v>7039048.7213</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -6640,8 +7090,11 @@
       <c r="K151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:11">
+      <c r="L151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -6675,8 +7128,11 @@
       <c r="K152">
         <v>815295.5638</v>
       </c>
-    </row>
-    <row r="153" spans="1:11">
+      <c r="L152">
+        <v>723737.0541</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -6710,8 +7166,11 @@
       <c r="K153">
         <v>3570444.7183</v>
       </c>
-    </row>
-    <row r="154" spans="1:11">
+      <c r="L153">
+        <v>4063679.6412</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -6745,8 +7204,11 @@
       <c r="K154">
         <v>2651865.1254</v>
       </c>
-    </row>
-    <row r="155" spans="1:11">
+      <c r="L154">
+        <v>2685075.2186</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -6780,8 +7242,11 @@
       <c r="K155">
         <v>2035451.121032</v>
       </c>
-    </row>
-    <row r="156" spans="1:11">
+      <c r="L155">
+        <v>2457763.354712</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -6815,8 +7280,11 @@
       <c r="K156">
         <v>8891784.043084599</v>
       </c>
-    </row>
-    <row r="157" spans="1:11">
+      <c r="L156">
+        <v>9813453.866749801</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -6850,8 +7318,11 @@
       <c r="K157">
         <v>4142987.76147</v>
       </c>
-    </row>
-    <row r="158" spans="1:11">
+      <c r="L157">
+        <v>4431559.92548</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -6885,8 +7356,11 @@
       <c r="K158">
         <v>8216712.9807</v>
       </c>
-    </row>
-    <row r="159" spans="1:11">
+      <c r="L158">
+        <v>9166972.296700001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -6920,8 +7394,11 @@
       <c r="K159">
         <v>17919324.3534</v>
       </c>
-    </row>
-    <row r="160" spans="1:11">
+      <c r="L159">
+        <v>23450941.3417</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -6955,8 +7432,11 @@
       <c r="K160">
         <v>8326793.6534803</v>
       </c>
-    </row>
-    <row r="161" spans="1:11">
+      <c r="L160">
+        <v>10981888.3378533</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -6990,8 +7470,11 @@
       <c r="K161">
         <v>3855407.9528</v>
       </c>
-    </row>
-    <row r="162" spans="1:11">
+      <c r="L161">
+        <v>3250223.5942</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -7025,8 +7508,11 @@
       <c r="K162">
         <v>5073959.6827</v>
       </c>
-    </row>
-    <row r="163" spans="1:11">
+      <c r="L162">
+        <v>3857111.2975</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -7060,8 +7546,11 @@
       <c r="K163">
         <v>3428443.823306</v>
       </c>
-    </row>
-    <row r="164" spans="1:11">
+      <c r="L163">
+        <v>2289731.450572</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -7095,8 +7584,11 @@
       <c r="K164">
         <v>12837323.5316</v>
       </c>
-    </row>
-    <row r="165" spans="1:11">
+      <c r="L164">
+        <v>15189403.1187</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -7130,8 +7622,11 @@
       <c r="K165">
         <v>1569654.468749</v>
       </c>
-    </row>
-    <row r="166" spans="1:11">
+      <c r="L165">
+        <v>1919593.918845</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -7165,8 +7660,11 @@
       <c r="K166">
         <v>77050952.69750001</v>
       </c>
-    </row>
-    <row r="167" spans="1:11">
+      <c r="L166">
+        <v>63792815.8659</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -7200,8 +7698,11 @@
       <c r="K167">
         <v>2412509.7396</v>
       </c>
-    </row>
-    <row r="168" spans="1:11">
+      <c r="L167">
+        <v>1712373.5228</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -7235,8 +7736,11 @@
       <c r="K168">
         <v>60758690.9478</v>
       </c>
-    </row>
-    <row r="169" spans="1:11">
+      <c r="L168">
+        <v>82310751.52779999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -7270,8 +7774,11 @@
       <c r="K169">
         <v>28272965.7434</v>
       </c>
-    </row>
-    <row r="170" spans="1:11">
+      <c r="L169">
+        <v>56275327.3689</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -7305,8 +7812,11 @@
       <c r="K170">
         <v>6263622.5981</v>
       </c>
-    </row>
-    <row r="171" spans="1:11">
+      <c r="L170">
+        <v>6687934.0092</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -7340,8 +7850,11 @@
       <c r="K171">
         <v>786784.6034</v>
       </c>
-    </row>
-    <row r="172" spans="1:11">
+      <c r="L171">
+        <v>1096378.2091</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -7375,8 +7888,11 @@
       <c r="K172">
         <v>240160739.7861</v>
       </c>
-    </row>
-    <row r="173" spans="1:11">
+      <c r="L172">
+        <v>255352145.7784</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -7410,8 +7926,11 @@
       <c r="K173">
         <v>500977869.185798</v>
       </c>
-    </row>
-    <row r="174" spans="1:11">
+      <c r="L173">
+        <v>398788093.1473</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -7445,8 +7964,11 @@
       <c r="K174">
         <v>11820788.772438</v>
       </c>
-    </row>
-    <row r="175" spans="1:11">
+      <c r="L174">
+        <v>14130676.430689</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -7480,8 +8002,11 @@
       <c r="K175">
         <v>1773187.3737</v>
       </c>
-    </row>
-    <row r="176" spans="1:11">
+      <c r="L175">
+        <v>1832183.6288</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -7515,8 +8040,11 @@
       <c r="K176">
         <v>1548308.7188</v>
       </c>
-    </row>
-    <row r="177" spans="1:11">
+      <c r="L176">
+        <v>947266.1437</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -7550,8 +8078,11 @@
       <c r="K177">
         <v>6488454.6315</v>
       </c>
-    </row>
-    <row r="178" spans="1:11">
+      <c r="L177">
+        <v>7488415.0248</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -7585,8 +8116,11 @@
       <c r="K178">
         <v>6337274.1562</v>
       </c>
-    </row>
-    <row r="179" spans="1:11">
+      <c r="L178">
+        <v>4546299.3218</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -7620,8 +8154,11 @@
       <c r="K179">
         <v>32015060.2723</v>
       </c>
-    </row>
-    <row r="180" spans="1:11">
+      <c r="L179">
+        <v>32375940.5128</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -7655,8 +8192,11 @@
       <c r="K180">
         <v>3482850.0343</v>
       </c>
-    </row>
-    <row r="181" spans="1:11">
+      <c r="L180">
+        <v>4220522.7033</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -7690,8 +8230,11 @@
       <c r="K181">
         <v>16028115.628</v>
       </c>
-    </row>
-    <row r="182" spans="1:11">
+      <c r="L181">
+        <v>15451581.333</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -7725,8 +8268,11 @@
       <c r="K182">
         <v>52890998.0359</v>
       </c>
-    </row>
-    <row r="183" spans="1:11">
+      <c r="L182">
+        <v>65772505.4866</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -7760,8 +8306,11 @@
       <c r="K183">
         <v>4782364.5996</v>
       </c>
-    </row>
-    <row r="184" spans="1:11">
+      <c r="L183">
+        <v>3796190.9111</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -7795,8 +8344,11 @@
       <c r="K184">
         <v>35761706.0926</v>
       </c>
-    </row>
-    <row r="185" spans="1:11">
+      <c r="L184">
+        <v>34540716.2329</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -7830,8 +8382,11 @@
       <c r="K185">
         <v>2564150.6219</v>
       </c>
-    </row>
-    <row r="186" spans="1:11">
+      <c r="L185">
+        <v>3605247.5098</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -7865,8 +8420,11 @@
       <c r="K186">
         <v>2895710.4993</v>
       </c>
-    </row>
-    <row r="187" spans="1:11">
+      <c r="L186">
+        <v>2985239.891</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -7900,8 +8458,11 @@
       <c r="K187">
         <v>3382985.24705</v>
       </c>
-    </row>
-    <row r="188" spans="1:11">
+      <c r="L187">
+        <v>4064081.238207</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -7935,8 +8496,11 @@
       <c r="K188">
         <v>1846077.25964328</v>
       </c>
-    </row>
-    <row r="189" spans="1:11">
+      <c r="L188">
+        <v>2162634.33519267</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -7970,8 +8534,11 @@
       <c r="K189">
         <v>593746.1967932</v>
       </c>
-    </row>
-    <row r="190" spans="1:11">
+      <c r="L189">
+        <v>625012.7378543</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -8005,8 +8572,11 @@
       <c r="K190">
         <v>168142.19835</v>
       </c>
-    </row>
-    <row r="191" spans="1:11">
+      <c r="L190">
+        <v>163539.6788</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -8040,8 +8610,11 @@
       <c r="K191">
         <v>3771055.561055</v>
       </c>
-    </row>
-    <row r="192" spans="1:11">
+      <c r="L191">
+        <v>3995392.4423</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -8075,8 +8648,11 @@
       <c r="K192">
         <v>2832110.28682406</v>
       </c>
-    </row>
-    <row r="193" spans="1:11">
+      <c r="L192">
+        <v>3182883.63954845</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -8110,8 +8686,11 @@
       <c r="K193">
         <v>6360649.2364</v>
       </c>
-    </row>
-    <row r="194" spans="1:11">
+      <c r="L193">
+        <v>6243680.31259</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -8145,8 +8724,11 @@
       <c r="K194">
         <v>3122708.96659068</v>
       </c>
-    </row>
-    <row r="195" spans="1:11">
+      <c r="L194">
+        <v>3130727.43010112</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -8180,8 +8762,11 @@
       <c r="K195">
         <v>2943976.5318</v>
       </c>
-    </row>
-    <row r="196" spans="1:11">
+      <c r="L195">
+        <v>3270161.1614</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -8215,8 +8800,11 @@
       <c r="K196">
         <v>2325656.1041</v>
       </c>
-    </row>
-    <row r="197" spans="1:11">
+      <c r="L196">
+        <v>2579293.1182</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -8250,8 +8838,11 @@
       <c r="K197">
         <v>833537.18376</v>
       </c>
-    </row>
-    <row r="198" spans="1:11">
+      <c r="L197">
+        <v>874285.76036</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -8285,8 +8876,11 @@
       <c r="K198">
         <v>234328.75468</v>
       </c>
-    </row>
-    <row r="199" spans="1:11">
+      <c r="L198">
+        <v>381248.62099</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -8320,8 +8914,11 @@
       <c r="K199">
         <v>65846584.0155</v>
       </c>
-    </row>
-    <row r="200" spans="1:11">
+      <c r="L199">
+        <v>58492588.1746</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -8355,8 +8952,11 @@
       <c r="K200">
         <v>948795.48604</v>
       </c>
-    </row>
-    <row r="201" spans="1:11">
+      <c r="L200">
+        <v>765844.505346</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -8390,8 +8990,11 @@
       <c r="K201">
         <v>6601376.3713</v>
       </c>
-    </row>
-    <row r="202" spans="1:11">
+      <c r="L201">
+        <v>5270308.379</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -8425,8 +9028,11 @@
       <c r="K202">
         <v>2264399.40893</v>
       </c>
-    </row>
-    <row r="203" spans="1:11">
+      <c r="L202">
+        <v>2159778.82221</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -8460,8 +9066,11 @@
       <c r="K203">
         <v>364861290.0669</v>
       </c>
-    </row>
-    <row r="204" spans="1:11">
+      <c r="L203">
+        <v>292417935.2805</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -8495,8 +9104,11 @@
       <c r="K204">
         <v>16458738.2863</v>
       </c>
-    </row>
-    <row r="205" spans="1:11">
+      <c r="L204">
+        <v>32341953.3356</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -8530,8 +9142,11 @@
       <c r="K205">
         <v>6122077.8401</v>
       </c>
-    </row>
-    <row r="206" spans="1:11">
+      <c r="L205">
+        <v>6510700.7393</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -8565,8 +9180,11 @@
       <c r="K206">
         <v>1718035.58585</v>
       </c>
-    </row>
-    <row r="207" spans="1:11">
+      <c r="L206">
+        <v>1382850.89507</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -8600,8 +9218,11 @@
       <c r="K207">
         <v>1011624.98111</v>
       </c>
-    </row>
-    <row r="208" spans="1:11">
+      <c r="L207">
+        <v>809512.44785</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -8635,8 +9256,11 @@
       <c r="K208">
         <v>8965881.685799999</v>
       </c>
-    </row>
-    <row r="209" spans="1:11">
+      <c r="L208">
+        <v>10237829.3834</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -8670,8 +9294,11 @@
       <c r="K209">
         <v>4441768.8915</v>
       </c>
-    </row>
-    <row r="210" spans="1:11">
+      <c r="L209">
+        <v>3201980.0783</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -8705,8 +9332,11 @@
       <c r="K210">
         <v>7703314.0437</v>
       </c>
-    </row>
-    <row r="211" spans="1:11">
+      <c r="L210">
+        <v>8348221.5707</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -8740,8 +9370,11 @@
       <c r="K211">
         <v>10294393.0953</v>
       </c>
-    </row>
-    <row r="212" spans="1:11">
+      <c r="L211">
+        <v>9480831.3947</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -8775,8 +9408,11 @@
       <c r="K212">
         <v>29105548.8994</v>
       </c>
-    </row>
-    <row r="213" spans="1:11">
+      <c r="L212">
+        <v>35616854.1201</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -8810,8 +9446,11 @@
       <c r="K213">
         <v>87983549.6637</v>
       </c>
-    </row>
-    <row r="214" spans="1:11">
+      <c r="L213">
+        <v>85282939.6987</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -8845,8 +9484,11 @@
       <c r="K214">
         <v>1296522.5177864</v>
       </c>
-    </row>
-    <row r="215" spans="1:11">
+      <c r="L214">
+        <v>1472519.2677395</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -8880,8 +9522,11 @@
       <c r="K215">
         <v>829516.370358</v>
       </c>
-    </row>
-    <row r="216" spans="1:11">
+      <c r="L215">
+        <v>925710.424132</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -8915,8 +9560,11 @@
       <c r="K216">
         <v>288495575.8102</v>
       </c>
-    </row>
-    <row r="217" spans="1:11">
+      <c r="L216">
+        <v>283747456.6166</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -8950,8 +9598,11 @@
       <c r="K217">
         <v>3525395.354156</v>
       </c>
-    </row>
-    <row r="218" spans="1:11">
+      <c r="L217">
+        <v>3373570.355004</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -8985,8 +9636,11 @@
       <c r="K218">
         <v>2639331.16699429</v>
       </c>
-    </row>
-    <row r="219" spans="1:11">
+      <c r="L218">
+        <v>2732097.62321451</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -9020,8 +9674,11 @@
       <c r="K219">
         <v>313930.545109</v>
       </c>
-    </row>
-    <row r="220" spans="1:11">
+      <c r="L219">
+        <v>419451.973767</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -9055,8 +9712,11 @@
       <c r="K220">
         <v>142767.152399</v>
       </c>
-    </row>
-    <row r="221" spans="1:11">
+      <c r="L220">
+        <v>217358.520304</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -9090,8 +9750,11 @@
       <c r="K221">
         <v>4038496.5716</v>
       </c>
-    </row>
-    <row r="222" spans="1:11">
+      <c r="L221">
+        <v>7864224.327</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -9125,8 +9788,11 @@
       <c r="K222">
         <v>19461503.3054</v>
       </c>
-    </row>
-    <row r="223" spans="1:11">
+      <c r="L222">
+        <v>20290721.9951</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -9160,8 +9826,11 @@
       <c r="K223">
         <v>9664024.066199999</v>
       </c>
-    </row>
-    <row r="224" spans="1:11">
+      <c r="L223">
+        <v>8768487.4714</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -9195,8 +9864,11 @@
       <c r="K224">
         <v>366336.561353</v>
       </c>
-    </row>
-    <row r="225" spans="1:11">
+      <c r="L224">
+        <v>400232.244376</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -9230,8 +9902,11 @@
       <c r="K225">
         <v>163738.88901</v>
       </c>
-    </row>
-    <row r="226" spans="1:11">
+      <c r="L225">
+        <v>180923.694293</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -9265,8 +9940,11 @@
       <c r="K226">
         <v>4818136.18354</v>
       </c>
-    </row>
-    <row r="227" spans="1:11">
+      <c r="L226">
+        <v>3992494.98248</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -9300,8 +9978,11 @@
       <c r="K227">
         <v>505943422.487466</v>
       </c>
-    </row>
-    <row r="228" spans="1:11">
+      <c r="L227">
+        <v>805427651.808547</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -9335,8 +10016,11 @@
       <c r="K228">
         <v>3240096.8343</v>
       </c>
-    </row>
-    <row r="229" spans="1:11">
+      <c r="L228">
+        <v>2971412.3176</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -9370,8 +10054,11 @@
       <c r="K229">
         <v>3135072.814</v>
       </c>
-    </row>
-    <row r="230" spans="1:11">
+      <c r="L229">
+        <v>3430556.4347</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -9405,8 +10092,11 @@
       <c r="K230">
         <v>2355216.6999</v>
       </c>
-    </row>
-    <row r="231" spans="1:11">
+      <c r="L230">
+        <v>3123675.4983</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -9440,8 +10130,11 @@
       <c r="K231">
         <v>8200515.6886</v>
       </c>
-    </row>
-    <row r="232" spans="1:11">
+      <c r="L231">
+        <v>7481565.3693</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -9475,8 +10168,11 @@
       <c r="K232">
         <v>19065723.334427</v>
       </c>
-    </row>
-    <row r="233" spans="1:11">
+      <c r="L232">
+        <v>17492237.860826</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -9510,8 +10206,11 @@
       <c r="K233">
         <v>1850045.1963</v>
       </c>
-    </row>
-    <row r="234" spans="1:11">
+      <c r="L233">
+        <v>2307575.5092</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -9545,8 +10244,11 @@
       <c r="K234">
         <v>7138355.171</v>
       </c>
-    </row>
-    <row r="235" spans="1:11">
+      <c r="L234">
+        <v>7103054.1769</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -9580,8 +10282,11 @@
       <c r="K235">
         <v>1927109.451385</v>
       </c>
-    </row>
-    <row r="236" spans="1:11">
+      <c r="L235">
+        <v>1921905.689967</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -9615,8 +10320,11 @@
       <c r="K236">
         <v>1410880.36560614</v>
       </c>
-    </row>
-    <row r="237" spans="1:11">
+      <c r="L236">
+        <v>1777808.84666441</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -9650,8 +10358,11 @@
       <c r="K237">
         <v>9979103.495300001</v>
       </c>
-    </row>
-    <row r="238" spans="1:11">
+      <c r="L237">
+        <v>11487875.3698</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -9685,8 +10396,11 @@
       <c r="K238">
         <v>79033.9069</v>
       </c>
-    </row>
-    <row r="239" spans="1:11">
+      <c r="L238">
+        <v>112764.1143</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -9720,8 +10434,11 @@
       <c r="K239">
         <v>3705414.2055058</v>
       </c>
-    </row>
-    <row r="240" spans="1:11">
+      <c r="L239">
+        <v>3688212.7203287</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -9755,8 +10472,11 @@
       <c r="K240">
         <v>1396208.39204</v>
       </c>
-    </row>
-    <row r="241" spans="1:11">
+      <c r="L240">
+        <v>1501512.44835</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -9790,8 +10510,11 @@
       <c r="K241">
         <v>986608.7008554999</v>
       </c>
-    </row>
-    <row r="242" spans="1:11">
+      <c r="L241">
+        <v>851263.2878905</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -9825,8 +10548,11 @@
       <c r="K242">
         <v>278013.28556</v>
       </c>
-    </row>
-    <row r="243" spans="1:11">
+      <c r="L242">
+        <v>321878.94511</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -9860,8 +10586,11 @@
       <c r="K243">
         <v>25146215.3451</v>
       </c>
-    </row>
-    <row r="244" spans="1:11">
+      <c r="L243">
+        <v>27272236.4807</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -9895,8 +10624,11 @@
       <c r="K244">
         <v>7581206.7283</v>
       </c>
-    </row>
-    <row r="245" spans="1:11">
+      <c r="L244">
+        <v>2428304.8421</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -9930,8 +10662,11 @@
       <c r="K245">
         <v>4568226.2474</v>
       </c>
-    </row>
-    <row r="246" spans="1:11">
+      <c r="L245">
+        <v>3463254.1995</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -9965,8 +10700,11 @@
       <c r="K246">
         <v>46641499.1361</v>
       </c>
-    </row>
-    <row r="247" spans="1:11">
+      <c r="L246">
+        <v>39095519.5972</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -10000,8 +10738,11 @@
       <c r="K247">
         <v>17919585.2417</v>
       </c>
-    </row>
-    <row r="248" spans="1:11">
+      <c r="L247">
+        <v>14041470.49092</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -10035,8 +10776,11 @@
       <c r="K248">
         <v>12113062.2755</v>
       </c>
-    </row>
-    <row r="249" spans="1:11">
+      <c r="L248">
+        <v>9053141.204299999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -10070,8 +10814,11 @@
       <c r="K249">
         <v>2197160.327</v>
       </c>
-    </row>
-    <row r="250" spans="1:11">
+      <c r="L249">
+        <v>1420896.4661</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -10105,8 +10852,11 @@
       <c r="K250">
         <v>897537.4025</v>
       </c>
-    </row>
-    <row r="251" spans="1:11">
+      <c r="L250">
+        <v>692207.2959</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -10140,8 +10890,11 @@
       <c r="K251">
         <v>44581519.9066</v>
       </c>
-    </row>
-    <row r="252" spans="1:11">
+      <c r="L251">
+        <v>42212409.9879</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -10175,8 +10928,11 @@
       <c r="K252">
         <v>668401.2821</v>
       </c>
-    </row>
-    <row r="253" spans="1:11">
+      <c r="L252">
+        <v>597346.3363</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -10210,8 +10966,11 @@
       <c r="K253">
         <v>3543156.8093</v>
       </c>
-    </row>
-    <row r="254" spans="1:11">
+      <c r="L253">
+        <v>2004954.9305</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -10245,8 +11004,11 @@
       <c r="K254">
         <v>7248815.0441</v>
       </c>
-    </row>
-    <row r="255" spans="1:11">
+      <c r="L254">
+        <v>3626041.2079</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -10280,8 +11042,11 @@
       <c r="K255">
         <v>7126942.45433</v>
       </c>
-    </row>
-    <row r="256" spans="1:11">
+      <c r="L255">
+        <v>7583849.03685</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -10315,8 +11080,11 @@
       <c r="K256">
         <v>14040694.4521</v>
       </c>
-    </row>
-    <row r="257" spans="1:11">
+      <c r="L256">
+        <v>13945533.9466</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -10350,8 +11118,11 @@
       <c r="K257">
         <v>3966621.8188</v>
       </c>
-    </row>
-    <row r="258" spans="1:11">
+      <c r="L257">
+        <v>4057824.1574</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -10385,8 +11156,11 @@
       <c r="K258">
         <v>7533832.6192</v>
       </c>
-    </row>
-    <row r="259" spans="1:11">
+      <c r="L258">
+        <v>7695877.4148</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -10420,8 +11194,11 @@
       <c r="K259">
         <v>3990580.7204</v>
       </c>
-    </row>
-    <row r="260" spans="1:11">
+      <c r="L259">
+        <v>3745291.2972</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -10455,8 +11232,11 @@
       <c r="K260">
         <v>12189752.8671</v>
       </c>
-    </row>
-    <row r="261" spans="1:11">
+      <c r="L260">
+        <v>11773436.8551</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -10490,8 +11270,11 @@
       <c r="K261">
         <v>38756005.8464</v>
       </c>
-    </row>
-    <row r="262" spans="1:11">
+      <c r="L261">
+        <v>39192461.8062</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -10525,8 +11308,11 @@
       <c r="K262">
         <v>2735318.1173</v>
       </c>
-    </row>
-    <row r="263" spans="1:11">
+      <c r="L262">
+        <v>1690849.6309</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -10560,8 +11346,11 @@
       <c r="K263">
         <v>3394580.343</v>
       </c>
-    </row>
-    <row r="264" spans="1:11">
+      <c r="L263">
+        <v>1573660.2882</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -10595,8 +11384,11 @@
       <c r="K264">
         <v>3807940.0277</v>
       </c>
-    </row>
-    <row r="265" spans="1:11">
+      <c r="L264">
+        <v>2597840.2137</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -10630,8 +11422,11 @@
       <c r="K265">
         <v>6344924.3147</v>
       </c>
-    </row>
-    <row r="266" spans="1:11">
+      <c r="L265">
+        <v>3626450.669</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -10665,8 +11460,11 @@
       <c r="K266">
         <v>60219815.3505399</v>
       </c>
-    </row>
-    <row r="267" spans="1:11">
+      <c r="L266">
+        <v>51081693.120798</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -10700,8 +11498,11 @@
       <c r="K267">
         <v>7288477.2601</v>
       </c>
-    </row>
-    <row r="268" spans="1:11">
+      <c r="L267">
+        <v>4524164.039</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -10735,8 +11536,11 @@
       <c r="K268">
         <v>62685257.0938</v>
       </c>
-    </row>
-    <row r="269" spans="1:11">
+      <c r="L268">
+        <v>98264721.6381</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -10770,8 +11574,11 @@
       <c r="K269">
         <v>15914964.1392994</v>
       </c>
-    </row>
-    <row r="270" spans="1:11">
+      <c r="L269">
+        <v>12116851.862408</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -10805,8 +11612,11 @@
       <c r="K270">
         <v>10348166.2848</v>
       </c>
-    </row>
-    <row r="271" spans="1:11">
+      <c r="L270">
+        <v>15440694.2625</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -10840,8 +11650,11 @@
       <c r="K271">
         <v>2486311.4607</v>
       </c>
-    </row>
-    <row r="272" spans="1:11">
+      <c r="L271">
+        <v>2691524.8197</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -10875,8 +11688,11 @@
       <c r="K272">
         <v>8289004.6993</v>
       </c>
-    </row>
-    <row r="273" spans="1:11">
+      <c r="L272">
+        <v>7016394.4019</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -10910,8 +11726,11 @@
       <c r="K273">
         <v>24830256.1765</v>
       </c>
-    </row>
-    <row r="274" spans="1:11">
+      <c r="L273">
+        <v>28522582.828</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -10945,8 +11764,11 @@
       <c r="K274">
         <v>15640469.9228</v>
       </c>
-    </row>
-    <row r="275" spans="1:11">
+      <c r="L274">
+        <v>19636200.7546</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -10980,8 +11802,11 @@
       <c r="K275">
         <v>1697841.7024</v>
       </c>
-    </row>
-    <row r="276" spans="1:11">
+      <c r="L275">
+        <v>2245114.9689</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -11015,8 +11840,11 @@
       <c r="K276">
         <v>7985348.0642</v>
       </c>
-    </row>
-    <row r="277" spans="1:11">
+      <c r="L276">
+        <v>10646809.1237</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -11050,8 +11878,11 @@
       <c r="K277">
         <v>4596784.7236</v>
       </c>
-    </row>
-    <row r="278" spans="1:11">
+      <c r="L277">
+        <v>3313175.6808</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -11085,8 +11916,11 @@
       <c r="K278">
         <v>39187561.3453</v>
       </c>
-    </row>
-    <row r="279" spans="1:11">
+      <c r="L278">
+        <v>40758644.2539</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -11120,8 +11954,11 @@
       <c r="K279">
         <v>2868221.57754447</v>
       </c>
-    </row>
-    <row r="280" spans="1:11">
+      <c r="L279">
+        <v>1895566.61657187</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -11155,8 +11992,11 @@
       <c r="K280">
         <v>2214260.1665473</v>
       </c>
-    </row>
-    <row r="281" spans="1:11">
+      <c r="L280">
+        <v>1452166.5859241</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -11190,8 +12030,11 @@
       <c r="K281">
         <v>571032.0977</v>
       </c>
-    </row>
-    <row r="282" spans="1:11">
+      <c r="L281">
+        <v>663787.9238</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -11225,8 +12068,11 @@
       <c r="K282">
         <v>3429512.9434</v>
       </c>
-    </row>
-    <row r="283" spans="1:11">
+      <c r="L282">
+        <v>2339733.6562</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -11260,8 +12106,11 @@
       <c r="K283">
         <v>3634938.6639</v>
       </c>
-    </row>
-    <row r="284" spans="1:11">
+      <c r="L283">
+        <v>1230713.0817</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -11295,8 +12144,11 @@
       <c r="K284">
         <v>2646178.1022</v>
       </c>
-    </row>
-    <row r="285" spans="1:11">
+      <c r="L284">
+        <v>2770655.4729</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -11330,8 +12182,11 @@
       <c r="K285">
         <v>15677934.2606</v>
       </c>
-    </row>
-    <row r="286" spans="1:11">
+      <c r="L285">
+        <v>14540393.6402</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -11365,8 +12220,11 @@
       <c r="K286">
         <v>2063182.6345</v>
       </c>
-    </row>
-    <row r="287" spans="1:11">
+      <c r="L286">
+        <v>2412843.558</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -11400,8 +12258,11 @@
       <c r="K287">
         <v>78198666.3777</v>
       </c>
-    </row>
-    <row r="288" spans="1:11">
+      <c r="L287">
+        <v>194807477.5932</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -11435,8 +12296,11 @@
       <c r="K288">
         <v>140420024.0716188</v>
       </c>
-    </row>
-    <row r="289" spans="1:11">
+      <c r="L288">
+        <v>185241487.5482138</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -11470,8 +12334,11 @@
       <c r="K289">
         <v>65546158.1718</v>
       </c>
-    </row>
-    <row r="290" spans="1:11">
+      <c r="L289">
+        <v>63192877.4772</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -11505,8 +12372,11 @@
       <c r="K290">
         <v>45279233.624</v>
       </c>
-    </row>
-    <row r="291" spans="1:11">
+      <c r="L290">
+        <v>23774215.5714</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -11540,8 +12410,11 @@
       <c r="K291">
         <v>6700336.2064</v>
       </c>
-    </row>
-    <row r="292" spans="1:11">
+      <c r="L291">
+        <v>2474813.0273</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -11575,8 +12448,11 @@
       <c r="K292">
         <v>10550908.1924</v>
       </c>
-    </row>
-    <row r="293" spans="1:11">
+      <c r="L292">
+        <v>7419323.5986</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -11610,8 +12486,11 @@
       <c r="K293">
         <v>18390241.9056</v>
       </c>
-    </row>
-    <row r="294" spans="1:11">
+      <c r="L293">
+        <v>16680857.121</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -11645,8 +12524,11 @@
       <c r="K294">
         <v>1630253.1647</v>
       </c>
-    </row>
-    <row r="295" spans="1:11">
+      <c r="L294">
+        <v>1127553.5021</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -11680,8 +12562,11 @@
       <c r="K295">
         <v>3452878.8212</v>
       </c>
-    </row>
-    <row r="296" spans="1:11">
+      <c r="L295">
+        <v>2359684.345</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -11715,8 +12600,11 @@
       <c r="K296">
         <v>2813050.08255</v>
       </c>
-    </row>
-    <row r="297" spans="1:11">
+      <c r="L296">
+        <v>3197249.08042</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -11750,8 +12638,11 @@
       <c r="K297">
         <v>36183542.2113</v>
       </c>
-    </row>
-    <row r="298" spans="1:11">
+      <c r="L297">
+        <v>40145907.0121</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -11785,8 +12676,11 @@
       <c r="K298">
         <v>6385470.2054</v>
       </c>
-    </row>
-    <row r="299" spans="1:11">
+      <c r="L298">
+        <v>7776074.7631</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -11820,8 +12714,11 @@
       <c r="K299">
         <v>2049521.6621</v>
       </c>
-    </row>
-    <row r="300" spans="1:11">
+      <c r="L299">
+        <v>2068802.6408</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -11855,8 +12752,11 @@
       <c r="K300">
         <v>7298725.955</v>
       </c>
-    </row>
-    <row r="301" spans="1:11">
+      <c r="L300">
+        <v>5269602.734</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -11890,8 +12790,11 @@
       <c r="K301">
         <v>4812462.8973</v>
       </c>
-    </row>
-    <row r="302" spans="1:11">
+      <c r="L301">
+        <v>2917097.7807</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -11925,8 +12828,11 @@
       <c r="K302">
         <v>3873257.6555</v>
       </c>
-    </row>
-    <row r="303" spans="1:11">
+      <c r="L302">
+        <v>4441630.4721</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -11960,8 +12866,11 @@
       <c r="K303">
         <v>3938450.5572</v>
       </c>
-    </row>
-    <row r="304" spans="1:11">
+      <c r="L303">
+        <v>3574877.3579</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -11995,8 +12904,11 @@
       <c r="K304">
         <v>1476077.4548</v>
       </c>
-    </row>
-    <row r="305" spans="1:11">
+      <c r="L304">
+        <v>1305840.292</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -12030,8 +12942,11 @@
       <c r="K305">
         <v>2066054.6532</v>
       </c>
-    </row>
-    <row r="306" spans="1:11">
+      <c r="L305">
+        <v>1995756.3089</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -12065,8 +12980,11 @@
       <c r="K306">
         <v>2679152.7302</v>
       </c>
-    </row>
-    <row r="307" spans="1:11">
+      <c r="L306">
+        <v>2716050.1795</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -12100,8 +13018,11 @@
       <c r="K307">
         <v>111611008.7228</v>
       </c>
-    </row>
-    <row r="308" spans="1:11">
+      <c r="L307">
+        <v>87277548.84819999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -12135,8 +13056,11 @@
       <c r="K308">
         <v>4335558.1112</v>
       </c>
-    </row>
-    <row r="309" spans="1:11">
+      <c r="L308">
+        <v>5496175.6658</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -12170,8 +13094,11 @@
       <c r="K309">
         <v>14719250.8052</v>
       </c>
-    </row>
-    <row r="310" spans="1:11">
+      <c r="L309">
+        <v>11192698.1455</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -12205,8 +13132,11 @@
       <c r="K310">
         <v>6477360.1849</v>
       </c>
-    </row>
-    <row r="311" spans="1:11">
+      <c r="L310">
+        <v>7474443.4569</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -12240,8 +13170,11 @@
       <c r="K311">
         <v>2934508.9463</v>
       </c>
-    </row>
-    <row r="312" spans="1:11">
+      <c r="L311">
+        <v>2907846.5948</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -12275,8 +13208,11 @@
       <c r="K312">
         <v>21815738.902</v>
       </c>
-    </row>
-    <row r="313" spans="1:11">
+      <c r="L312">
+        <v>23071383.4626</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -12310,8 +13246,11 @@
       <c r="K313">
         <v>19801757.7472</v>
       </c>
-    </row>
-    <row r="314" spans="1:11">
+      <c r="L313">
+        <v>15742031.6499</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -12345,8 +13284,11 @@
       <c r="K314">
         <v>3259312.2584</v>
       </c>
-    </row>
-    <row r="315" spans="1:11">
+      <c r="L314">
+        <v>1784852.4554</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -12380,8 +13322,11 @@
       <c r="K315">
         <v>2942550.26099</v>
       </c>
-    </row>
-    <row r="316" spans="1:11">
+      <c r="L315">
+        <v>3045466.46681</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -12415,8 +13360,11 @@
       <c r="K316">
         <v>2311323.5692</v>
       </c>
-    </row>
-    <row r="317" spans="1:11">
+      <c r="L316">
+        <v>1990009.738</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -12450,8 +13398,11 @@
       <c r="K317">
         <v>29466436.4944</v>
       </c>
-    </row>
-    <row r="318" spans="1:11">
+      <c r="L317">
+        <v>27607797.5945</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -12485,8 +13436,11 @@
       <c r="K318">
         <v>16604235.45763</v>
       </c>
-    </row>
-    <row r="319" spans="1:11">
+      <c r="L318">
+        <v>9123190.124539999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -12520,8 +13474,11 @@
       <c r="K319">
         <v>5338719.0471</v>
       </c>
-    </row>
-    <row r="320" spans="1:11">
+      <c r="L319">
+        <v>1716082.9707</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -12555,8 +13512,11 @@
       <c r="K320">
         <v>628631.2774</v>
       </c>
-    </row>
-    <row r="321" spans="1:11">
+      <c r="L320">
+        <v>829329.6850000001</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -12590,8 +13550,11 @@
       <c r="K321">
         <v>22222859.3795</v>
       </c>
-    </row>
-    <row r="322" spans="1:11">
+      <c r="L321">
+        <v>24296558.293</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -12625,8 +13588,11 @@
       <c r="K322">
         <v>1667951.3716</v>
       </c>
-    </row>
-    <row r="323" spans="1:11">
+      <c r="L322">
+        <v>1641860.5958</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -12660,8 +13626,11 @@
       <c r="K323">
         <v>430703.9279</v>
       </c>
-    </row>
-    <row r="324" spans="1:11">
+      <c r="L323">
+        <v>256207.8081</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -12695,8 +13664,11 @@
       <c r="K324">
         <v>24375172.33444122</v>
       </c>
-    </row>
-    <row r="325" spans="1:11">
+      <c r="L324">
+        <v>21779149.99479388</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -12730,8 +13702,11 @@
       <c r="K325">
         <v>2042667.66929</v>
       </c>
-    </row>
-    <row r="326" spans="1:11">
+      <c r="L325">
+        <v>4624906.98021</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -12765,8 +13740,11 @@
       <c r="K326">
         <v>195692382.81889</v>
       </c>
-    </row>
-    <row r="327" spans="1:11">
+      <c r="L326">
+        <v>315733830.12554</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -12800,8 +13778,11 @@
       <c r="K327">
         <v>15742852.9256</v>
       </c>
-    </row>
-    <row r="328" spans="1:11">
+      <c r="L327">
+        <v>32860552.08982</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -12835,8 +13816,11 @@
       <c r="K328">
         <v>19104120.320622</v>
       </c>
-    </row>
-    <row r="329" spans="1:11">
+      <c r="L328">
+        <v>13956746.112663</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -12870,8 +13854,11 @@
       <c r="K329">
         <v>4950854.26742</v>
       </c>
-    </row>
-    <row r="330" spans="1:11">
+      <c r="L329">
+        <v>4819284.20435</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -12905,8 +13892,11 @@
       <c r="K330">
         <v>1916655.860844</v>
       </c>
-    </row>
-    <row r="331" spans="1:11">
+      <c r="L330">
+        <v>3209664.058851</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -12940,8 +13930,11 @@
       <c r="K331">
         <v>247314651.19214</v>
       </c>
-    </row>
-    <row r="332" spans="1:11">
+      <c r="L331">
+        <v>304996539.35824</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -12975,8 +13968,11 @@
       <c r="K332">
         <v>4019853.6795</v>
       </c>
-    </row>
-    <row r="333" spans="1:11">
+      <c r="L332">
+        <v>4453392.1778</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -13010,8 +14006,11 @@
       <c r="K333">
         <v>27320576.0515</v>
       </c>
-    </row>
-    <row r="334" spans="1:11">
+      <c r="L333">
+        <v>39293817.7335</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -13045,8 +14044,11 @@
       <c r="K334">
         <v>1038992.2449</v>
       </c>
-    </row>
-    <row r="335" spans="1:11">
+      <c r="L334">
+        <v>1081302.2992</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -13079,6 +14081,9 @@
       </c>
       <c r="K335">
         <v>3729888.6684</v>
+      </c>
+      <c r="L335">
+        <v>3273281.9021</v>
       </c>
     </row>
   </sheetData>

--- a/volumeTracker.xlsx
+++ b/volumeTracker.xlsx
@@ -1350,13 +1350,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L335"/>
+  <dimension ref="A1:M335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1393,8 +1393,11 @@
       <c r="L1">
         <v>1599333865.375042</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1">
+        <v>1701165816.110553</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1431,8 +1434,11 @@
       <c r="L2">
         <v>1233300506.651645</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>1323550359.251753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1469,8 +1475,11 @@
       <c r="L3">
         <v>374992014.512</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>379079365.0205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1507,8 +1516,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1545,8 +1557,11 @@
       <c r="L5">
         <v>34387215.8525</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>25741281.6973</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1583,8 +1598,11 @@
       <c r="L6">
         <v>73828981.9237</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>74378422.5905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1621,8 +1639,11 @@
       <c r="L7">
         <v>74257540.9761</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>68148495.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1659,8 +1680,11 @@
       <c r="L8">
         <v>332842051.3593</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>330609404.1431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1697,8 +1721,11 @@
       <c r="L9">
         <v>440925189.3433</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>434442158.0828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1735,8 +1762,11 @@
       <c r="L10">
         <v>164579511.2285</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>119941633.7582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1773,8 +1803,11 @@
       <c r="L11">
         <v>4125027.3291</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>5029360.1979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1811,8 +1844,11 @@
       <c r="L12">
         <v>41380425.3261</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>40050926.0621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1849,8 +1885,11 @@
       <c r="L13">
         <v>45639327.3091</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>42633891.5149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1887,8 +1926,11 @@
       <c r="L14">
         <v>32471220.1022</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>30142905.1411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1925,8 +1967,11 @@
       <c r="L15">
         <v>69216810.727956</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>78998612.839138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1963,8 +2008,11 @@
       <c r="L16">
         <v>88729691.8444</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>82979135.2368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2001,8 +2049,11 @@
       <c r="L17">
         <v>43079030.049943</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>36554949.0434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2039,8 +2090,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2077,8 +2131,11 @@
       <c r="L19">
         <v>1210642.2615</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>1162217.4443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2115,8 +2172,11 @@
       <c r="L20">
         <v>97777423.64961401</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>100599552.088204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2153,8 +2213,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2191,8 +2254,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2229,8 +2295,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2267,8 +2336,11 @@
       <c r="L24">
         <v>88583153.4005</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>78576902.21969999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2305,8 +2377,11 @@
       <c r="L25">
         <v>130294006.4593</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <v>131498370.5725</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2343,8 +2418,11 @@
       <c r="L26">
         <v>12123957.1628</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <v>12315007.3029</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2381,8 +2459,11 @@
       <c r="L27">
         <v>33842824.899636</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <v>33886241.479974</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2419,8 +2500,11 @@
       <c r="L28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2457,8 +2541,11 @@
       <c r="L29">
         <v>3059302.7594</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <v>2705201.9772</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2495,8 +2582,11 @@
       <c r="L30">
         <v>50853421.449432</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>56677322.959624</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2533,8 +2623,11 @@
       <c r="L31">
         <v>18014715.183145</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31">
+        <v>18030358.965722</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2571,8 +2664,11 @@
       <c r="L32">
         <v>5889939.6644</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <v>4039828.8035</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2609,8 +2705,11 @@
       <c r="L33">
         <v>119173580.8564</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <v>114429790.7933</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2647,8 +2746,11 @@
       <c r="L34">
         <v>8455566.0558</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34">
+        <v>8178301.9143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2685,8 +2787,11 @@
       <c r="L35">
         <v>23617210.3725</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35">
+        <v>23195807.323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2723,8 +2828,11 @@
       <c r="L36">
         <v>20703166.5804</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36">
+        <v>19463927.7675</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2761,8 +2869,11 @@
       <c r="L37">
         <v>33440649.99499</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37">
+        <v>31910953.58552</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2799,8 +2910,11 @@
       <c r="L38">
         <v>93655629.620315</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38">
+        <v>111813711.510601</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2837,8 +2951,11 @@
       <c r="L39">
         <v>20245643.4723</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39">
+        <v>20566385.1583</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2875,8 +2992,11 @@
       <c r="L40">
         <v>32591798.5157</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40">
+        <v>30776814.8264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2913,8 +3033,11 @@
       <c r="L41">
         <v>319594577.8478</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41">
+        <v>381662404.258341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2951,8 +3074,11 @@
       <c r="L42">
         <v>85571885.78910001</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42">
+        <v>84890738.3687</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2989,8 +3115,11 @@
       <c r="L43">
         <v>28768922.1361</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43">
+        <v>35922712.9371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3027,8 +3156,11 @@
       <c r="L44">
         <v>1970790.543664</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44">
+        <v>1887723.437689</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3065,8 +3197,11 @@
       <c r="L45">
         <v>147497737.961</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45">
+        <v>139214667.4171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3103,8 +3238,11 @@
       <c r="L46">
         <v>126907980.6723</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46">
+        <v>129891818.2446</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3141,8 +3279,11 @@
       <c r="L47">
         <v>7932188.8563</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47">
+        <v>7806999.9287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3179,8 +3320,11 @@
       <c r="L48">
         <v>89348518.803058</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48">
+        <v>114389886.92317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3217,8 +3361,11 @@
       <c r="L49">
         <v>213186255.6204</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49">
+        <v>213051943.2163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3255,8 +3402,11 @@
       <c r="L50">
         <v>243170993.5206</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50">
+        <v>279487052.3744</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3293,8 +3443,11 @@
       <c r="L51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3331,8 +3484,11 @@
       <c r="L52">
         <v>1858190.187066</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52">
+        <v>1824621.207951</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3369,8 +3525,11 @@
       <c r="L53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3407,8 +3566,11 @@
       <c r="L54">
         <v>212625344.682</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54">
+        <v>308833286.5543</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3445,8 +3607,11 @@
       <c r="L55">
         <v>1323791.5346</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55">
+        <v>1204506.7814</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3483,8 +3648,11 @@
       <c r="L56">
         <v>5378310.89414</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56">
+        <v>5034174.104835</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3521,8 +3689,11 @@
       <c r="L57">
         <v>18280447.1672866</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57">
+        <v>17310830.3598064</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3559,8 +3730,11 @@
       <c r="L58">
         <v>4423998.407108</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58">
+        <v>4442319.953972</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3597,8 +3771,11 @@
       <c r="L59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3635,8 +3812,11 @@
       <c r="L60">
         <v>1931966.0608</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60">
+        <v>1838554.6992</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3673,8 +3853,11 @@
       <c r="L61">
         <v>11917869.0721</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61">
+        <v>13058897.7219</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -3711,8 +3894,11 @@
       <c r="L62">
         <v>6280817.4596</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62">
+        <v>6654010.87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -3749,8 +3935,11 @@
       <c r="L63">
         <v>1749049.111837</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63">
+        <v>1436417.455148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3787,8 +3976,11 @@
       <c r="L64">
         <v>76901043.285624</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64">
+        <v>74290197.46550401</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -3825,8 +4017,11 @@
       <c r="L65">
         <v>1053134.932202</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65">
+        <v>931994.780695</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3863,8 +4058,11 @@
       <c r="L66">
         <v>2315799.128795</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66">
+        <v>2293350.913679</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -3901,8 +4099,11 @@
       <c r="L67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3939,8 +4140,11 @@
       <c r="L68">
         <v>5322013.31682</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68">
+        <v>3396239.24692</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3977,8 +4181,11 @@
       <c r="L69">
         <v>3013214.6073</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69">
+        <v>3112692.5969</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="L70">
         <v>18559933.84047</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70">
+        <v>17516988.05723</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -4053,8 +4263,11 @@
       <c r="L71">
         <v>17064727.3493</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71">
+        <v>15821251.001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -4091,8 +4304,11 @@
       <c r="L72">
         <v>37655233.6835</v>
       </c>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="M72">
+        <v>42672463.683</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -4129,8 +4345,11 @@
       <c r="L73">
         <v>5314525.9905</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M73">
+        <v>5182758.3183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -4167,8 +4386,11 @@
       <c r="L74">
         <v>675012723.7740999</v>
       </c>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="M74">
+        <v>762880115.335</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -4205,8 +4427,11 @@
       <c r="L75">
         <v>3591488.2562</v>
       </c>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="M75">
+        <v>3647314.6272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -4243,8 +4468,11 @@
       <c r="L76">
         <v>300854957.271232</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="M76">
+        <v>280640573.877948</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -4281,8 +4509,11 @@
       <c r="L77">
         <v>24212017.3147</v>
       </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="M77">
+        <v>21546254.8934</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -4319,8 +4550,11 @@
       <c r="L78">
         <v>10253174.766581</v>
       </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78">
+        <v>12164032.894485</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -4357,8 +4591,11 @@
       <c r="L79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4632,11 @@
       <c r="L80">
         <v>50508462.5668</v>
       </c>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="M80">
+        <v>49087343.8816</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -4433,8 +4673,11 @@
       <c r="L81">
         <v>6815192.9747</v>
       </c>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="M81">
+        <v>8398573.898399999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -4471,8 +4714,11 @@
       <c r="L82">
         <v>2539386.0439</v>
       </c>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="M82">
+        <v>3725386.1763</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -4509,8 +4755,11 @@
       <c r="L83">
         <v>72863580.2509</v>
       </c>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="M83">
+        <v>65447382.4933</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -4547,8 +4796,11 @@
       <c r="L84">
         <v>14134578.832357</v>
       </c>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="M84">
+        <v>13802089.570067</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -4585,8 +4837,11 @@
       <c r="L85">
         <v>11401076.36592</v>
       </c>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="M85">
+        <v>12699994.99661</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -4623,8 +4878,11 @@
       <c r="L86">
         <v>5841361.625</v>
       </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="M86">
+        <v>5181493.4612</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -4661,8 +4919,11 @@
       <c r="L87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -4699,8 +4960,11 @@
       <c r="L88">
         <v>3126087.1513</v>
       </c>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="M88">
+        <v>2785024.0059</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -4737,8 +5001,11 @@
       <c r="L89">
         <v>45415914.902</v>
       </c>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="M89">
+        <v>40916934.4026</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -4775,8 +5042,11 @@
       <c r="L90">
         <v>74622896.477531</v>
       </c>
-    </row>
-    <row r="91" spans="1:12">
+      <c r="M90">
+        <v>51253957.124304</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -4813,8 +5083,11 @@
       <c r="L91">
         <v>2351353.983856</v>
       </c>
-    </row>
-    <row r="92" spans="1:12">
+      <c r="M91">
+        <v>2220012.513568</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -4851,8 +5124,11 @@
       <c r="L92">
         <v>129570465.5772</v>
       </c>
-    </row>
-    <row r="93" spans="1:12">
+      <c r="M92">
+        <v>121428201.1539</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -4889,8 +5165,11 @@
       <c r="L93">
         <v>30229235.0313</v>
       </c>
-    </row>
-    <row r="94" spans="1:12">
+      <c r="M93">
+        <v>28871655.0733</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -4927,8 +5206,11 @@
       <c r="L94">
         <v>9738590.061100001</v>
       </c>
-    </row>
-    <row r="95" spans="1:12">
+      <c r="M94">
+        <v>20388973.093</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -4965,8 +5247,11 @@
       <c r="L95">
         <v>725576.9198</v>
       </c>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="M95">
+        <v>714979.7529</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -5003,8 +5288,11 @@
       <c r="L96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:12">
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -5041,8 +5329,11 @@
       <c r="L97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="M97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -5079,8 +5370,11 @@
       <c r="L98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="M98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -5117,8 +5411,11 @@
       <c r="L99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:12">
+      <c r="M99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -5155,8 +5452,11 @@
       <c r="L100">
         <v>4600224.37727</v>
       </c>
-    </row>
-    <row r="101" spans="1:12">
+      <c r="M100">
+        <v>2819256.05988</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -5193,8 +5493,11 @@
       <c r="L101">
         <v>7948405.3229</v>
       </c>
-    </row>
-    <row r="102" spans="1:12">
+      <c r="M101">
+        <v>8486340.6304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -5231,8 +5534,11 @@
       <c r="L102">
         <v>2700412.92177</v>
       </c>
-    </row>
-    <row r="103" spans="1:12">
+      <c r="M102">
+        <v>2454796.761886</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -5269,8 +5575,11 @@
       <c r="L103">
         <v>2701798.4405</v>
       </c>
-    </row>
-    <row r="104" spans="1:12">
+      <c r="M103">
+        <v>3026497.2532</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -5307,8 +5616,11 @@
       <c r="L104">
         <v>1169669.1956</v>
       </c>
-    </row>
-    <row r="105" spans="1:12">
+      <c r="M104">
+        <v>1027025.3507</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -5345,8 +5657,11 @@
       <c r="L105">
         <v>2326031.2242</v>
       </c>
-    </row>
-    <row r="106" spans="1:12">
+      <c r="M105">
+        <v>3202285.9067</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -5383,8 +5698,11 @@
       <c r="L106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:12">
+      <c r="M106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -5421,8 +5739,11 @@
       <c r="L107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:12">
+      <c r="M107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -5459,8 +5780,11 @@
       <c r="L108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="M108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -5497,8 +5821,11 @@
       <c r="L109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:12">
+      <c r="M109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -5535,8 +5862,11 @@
       <c r="L110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:12">
+      <c r="M110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -5573,8 +5903,11 @@
       <c r="L111">
         <v>3068450.4169</v>
       </c>
-    </row>
-    <row r="112" spans="1:12">
+      <c r="M111">
+        <v>3261486.7734</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -5611,8 +5944,11 @@
       <c r="L112">
         <v>1141438.910625</v>
       </c>
-    </row>
-    <row r="113" spans="1:12">
+      <c r="M112">
+        <v>1360037.823789</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -5649,8 +5985,11 @@
       <c r="L113">
         <v>82496041.1107</v>
       </c>
-    </row>
-    <row r="114" spans="1:12">
+      <c r="M113">
+        <v>77121795.4314</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -5687,8 +6026,11 @@
       <c r="L114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:12">
+      <c r="M114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -5725,8 +6067,11 @@
       <c r="L115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:12">
+      <c r="M115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -5763,8 +6108,11 @@
       <c r="L116">
         <v>1166368.326791</v>
       </c>
-    </row>
-    <row r="117" spans="1:12">
+      <c r="M116">
+        <v>1332572.871131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -5801,8 +6149,11 @@
       <c r="L117">
         <v>4318141.7494</v>
       </c>
-    </row>
-    <row r="118" spans="1:12">
+      <c r="M117">
+        <v>3989781.4451</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -5839,8 +6190,11 @@
       <c r="L118">
         <v>2876955.523636</v>
       </c>
-    </row>
-    <row r="119" spans="1:12">
+      <c r="M118">
+        <v>2882613.707512</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -5877,8 +6231,11 @@
       <c r="L119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:12">
+      <c r="M119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -5915,8 +6272,11 @@
       <c r="L120">
         <v>745576224.5527</v>
       </c>
-    </row>
-    <row r="121" spans="1:12">
+      <c r="M120">
+        <v>752165966.5503</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -5953,8 +6313,11 @@
       <c r="L121">
         <v>24711669.6697</v>
       </c>
-    </row>
-    <row r="122" spans="1:12">
+      <c r="M121">
+        <v>13289525.2143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -5991,8 +6354,11 @@
       <c r="L122">
         <v>3570085.0796</v>
       </c>
-    </row>
-    <row r="123" spans="1:12">
+      <c r="M122">
+        <v>3426448.0378</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -6029,8 +6395,11 @@
       <c r="L123">
         <v>28971751.93</v>
       </c>
-    </row>
-    <row r="124" spans="1:12">
+      <c r="M123">
+        <v>33247699.1099</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -6067,8 +6436,11 @@
       <c r="L124">
         <v>3690120.79502</v>
       </c>
-    </row>
-    <row r="125" spans="1:12">
+      <c r="M124">
+        <v>3901029.88707</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -6105,8 +6477,11 @@
       <c r="L125">
         <v>5406242.1987457</v>
       </c>
-    </row>
-    <row r="126" spans="1:12">
+      <c r="M125">
+        <v>5816404.6007197</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -6143,8 +6518,11 @@
       <c r="L126">
         <v>958618.767</v>
       </c>
-    </row>
-    <row r="127" spans="1:12">
+      <c r="M126">
+        <v>791068.9068</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -6181,8 +6559,11 @@
       <c r="L127">
         <v>1787599.843</v>
       </c>
-    </row>
-    <row r="128" spans="1:12">
+      <c r="M127">
+        <v>1930406.6933</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -6219,8 +6600,11 @@
       <c r="L128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:12">
+      <c r="M128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -6257,8 +6641,11 @@
       <c r="L129">
         <v>1979143.716935</v>
       </c>
-    </row>
-    <row r="130" spans="1:12">
+      <c r="M129">
+        <v>939773.895073</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -6295,8 +6682,11 @@
       <c r="L130">
         <v>6089412.59615</v>
       </c>
-    </row>
-    <row r="131" spans="1:12">
+      <c r="M130">
+        <v>5560825.54271</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -6333,8 +6723,11 @@
       <c r="L131">
         <v>4763682.732</v>
       </c>
-    </row>
-    <row r="132" spans="1:12">
+      <c r="M131">
+        <v>6001328.5017</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -6371,8 +6764,11 @@
       <c r="L132">
         <v>2025684.7303</v>
       </c>
-    </row>
-    <row r="133" spans="1:12">
+      <c r="M132">
+        <v>2238439.547</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -6409,8 +6805,11 @@
       <c r="L133">
         <v>16615485.3521</v>
       </c>
-    </row>
-    <row r="134" spans="1:12">
+      <c r="M133">
+        <v>16767455.0587</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -6447,8 +6846,11 @@
       <c r="L134">
         <v>2434198.2858</v>
       </c>
-    </row>
-    <row r="135" spans="1:12">
+      <c r="M134">
+        <v>3205943.8707</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -6485,8 +6887,11 @@
       <c r="L135">
         <v>36357911.2387</v>
       </c>
-    </row>
-    <row r="136" spans="1:12">
+      <c r="M135">
+        <v>33637061.0064</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -6523,8 +6928,11 @@
       <c r="L136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:12">
+      <c r="M136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -6561,8 +6969,11 @@
       <c r="L137">
         <v>9036133.497579999</v>
       </c>
-    </row>
-    <row r="138" spans="1:12">
+      <c r="M137">
+        <v>7636051.6123</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -6599,8 +7010,11 @@
       <c r="L138">
         <v>11761823.1407</v>
       </c>
-    </row>
-    <row r="139" spans="1:12">
+      <c r="M138">
+        <v>10266753.4195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -6637,8 +7051,11 @@
       <c r="L139">
         <v>12722789.1574</v>
       </c>
-    </row>
-    <row r="140" spans="1:12">
+      <c r="M139">
+        <v>12133666.0941</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -6675,8 +7092,11 @@
       <c r="L140">
         <v>6255158.42493</v>
       </c>
-    </row>
-    <row r="141" spans="1:12">
+      <c r="M140">
+        <v>6208241.60077</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -6713,8 +7133,11 @@
       <c r="L141">
         <v>8346996.92681</v>
       </c>
-    </row>
-    <row r="142" spans="1:12">
+      <c r="M141">
+        <v>8583120.917509999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -6751,8 +7174,11 @@
       <c r="L142">
         <v>2430514.53088</v>
       </c>
-    </row>
-    <row r="143" spans="1:12">
+      <c r="M142">
+        <v>2508348.8063</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -6789,8 +7215,11 @@
       <c r="L143">
         <v>1038358.56116874</v>
       </c>
-    </row>
-    <row r="144" spans="1:12">
+      <c r="M143">
+        <v>1086684.85852808</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -6827,8 +7256,11 @@
       <c r="L144">
         <v>3203152.549176</v>
       </c>
-    </row>
-    <row r="145" spans="1:12">
+      <c r="M144">
+        <v>3058900.159507</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -6865,8 +7297,11 @@
       <c r="L145">
         <v>1207628.7510508</v>
       </c>
-    </row>
-    <row r="146" spans="1:12">
+      <c r="M145">
+        <v>1098830.0557812</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -6903,8 +7338,11 @@
       <c r="L146">
         <v>3915280.531392</v>
       </c>
-    </row>
-    <row r="147" spans="1:12">
+      <c r="M146">
+        <v>3893073.44868</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -6941,8 +7379,11 @@
       <c r="L147">
         <v>6455862.191562</v>
       </c>
-    </row>
-    <row r="148" spans="1:12">
+      <c r="M147">
+        <v>5858807.846201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -6979,8 +7420,11 @@
       <c r="L148">
         <v>6517742.4661</v>
       </c>
-    </row>
-    <row r="149" spans="1:12">
+      <c r="M148">
+        <v>9285957.1713</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -7017,8 +7461,11 @@
       <c r="L149">
         <v>33922885.2975</v>
       </c>
-    </row>
-    <row r="150" spans="1:12">
+      <c r="M149">
+        <v>34611702.3289</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -7055,8 +7502,11 @@
       <c r="L150">
         <v>7039048.7213</v>
       </c>
-    </row>
-    <row r="151" spans="1:12">
+      <c r="M150">
+        <v>7222163.9202</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -7093,8 +7543,11 @@
       <c r="L151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:12">
+      <c r="M151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -7131,8 +7584,11 @@
       <c r="L152">
         <v>723737.0541</v>
       </c>
-    </row>
-    <row r="153" spans="1:12">
+      <c r="M152">
+        <v>880180.1409999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -7169,8 +7625,11 @@
       <c r="L153">
         <v>4063679.6412</v>
       </c>
-    </row>
-    <row r="154" spans="1:12">
+      <c r="M153">
+        <v>4944022.1404</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -7207,8 +7666,11 @@
       <c r="L154">
         <v>2685075.2186</v>
       </c>
-    </row>
-    <row r="155" spans="1:12">
+      <c r="M154">
+        <v>2487832.8856</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -7245,8 +7707,11 @@
       <c r="L155">
         <v>2457763.354712</v>
       </c>
-    </row>
-    <row r="156" spans="1:12">
+      <c r="M155">
+        <v>2759628.537612</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -7283,8 +7748,11 @@
       <c r="L156">
         <v>9813453.866749801</v>
       </c>
-    </row>
-    <row r="157" spans="1:12">
+      <c r="M156">
+        <v>10056199.4705661</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -7321,8 +7789,11 @@
       <c r="L157">
         <v>4431559.92548</v>
       </c>
-    </row>
-    <row r="158" spans="1:12">
+      <c r="M157">
+        <v>4500123.6817</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -7359,8 +7830,11 @@
       <c r="L158">
         <v>9166972.296700001</v>
       </c>
-    </row>
-    <row r="159" spans="1:12">
+      <c r="M158">
+        <v>29632399.5319</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -7397,8 +7871,11 @@
       <c r="L159">
         <v>23450941.3417</v>
       </c>
-    </row>
-    <row r="160" spans="1:12">
+      <c r="M159">
+        <v>25538429.9557</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -7435,8 +7912,11 @@
       <c r="L160">
         <v>10981888.3378533</v>
       </c>
-    </row>
-    <row r="161" spans="1:12">
+      <c r="M160">
+        <v>11348982.5262693</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -7473,8 +7953,11 @@
       <c r="L161">
         <v>3250223.5942</v>
       </c>
-    </row>
-    <row r="162" spans="1:12">
+      <c r="M161">
+        <v>3025605.4237</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -7511,8 +7994,11 @@
       <c r="L162">
         <v>3857111.2975</v>
       </c>
-    </row>
-    <row r="163" spans="1:12">
+      <c r="M162">
+        <v>4210033.4504</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -7549,8 +8035,11 @@
       <c r="L163">
         <v>2289731.450572</v>
       </c>
-    </row>
-    <row r="164" spans="1:12">
+      <c r="M163">
+        <v>2413597.127121</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -7587,8 +8076,11 @@
       <c r="L164">
         <v>15189403.1187</v>
       </c>
-    </row>
-    <row r="165" spans="1:12">
+      <c r="M164">
+        <v>24101891.1027</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -7625,8 +8117,11 @@
       <c r="L165">
         <v>1919593.918845</v>
       </c>
-    </row>
-    <row r="166" spans="1:12">
+      <c r="M165">
+        <v>1567383.593877</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -7663,8 +8158,11 @@
       <c r="L166">
         <v>63792815.8659</v>
       </c>
-    </row>
-    <row r="167" spans="1:12">
+      <c r="M166">
+        <v>58724254.7354</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -7701,8 +8199,11 @@
       <c r="L167">
         <v>1712373.5228</v>
       </c>
-    </row>
-    <row r="168" spans="1:12">
+      <c r="M167">
+        <v>1146001.7046</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -7739,8 +8240,11 @@
       <c r="L168">
         <v>82310751.52779999</v>
       </c>
-    </row>
-    <row r="169" spans="1:12">
+      <c r="M168">
+        <v>78103209.71619999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -7777,8 +8281,11 @@
       <c r="L169">
         <v>56275327.3689</v>
       </c>
-    </row>
-    <row r="170" spans="1:12">
+      <c r="M169">
+        <v>73158270.34379999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -7815,8 +8322,11 @@
       <c r="L170">
         <v>6687934.0092</v>
       </c>
-    </row>
-    <row r="171" spans="1:12">
+      <c r="M170">
+        <v>6220927.2787</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -7853,8 +8363,11 @@
       <c r="L171">
         <v>1096378.2091</v>
       </c>
-    </row>
-    <row r="172" spans="1:12">
+      <c r="M171">
+        <v>1225135.892</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -7891,8 +8404,11 @@
       <c r="L172">
         <v>255352145.7784</v>
       </c>
-    </row>
-    <row r="173" spans="1:12">
+      <c r="M172">
+        <v>262965645.6179</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -7929,8 +8445,11 @@
       <c r="L173">
         <v>398788093.1473</v>
       </c>
-    </row>
-    <row r="174" spans="1:12">
+      <c r="M173">
+        <v>472843810.569033</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -7967,8 +8486,11 @@
       <c r="L174">
         <v>14130676.430689</v>
       </c>
-    </row>
-    <row r="175" spans="1:12">
+      <c r="M174">
+        <v>15332224.751032</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -8005,8 +8527,11 @@
       <c r="L175">
         <v>1832183.6288</v>
       </c>
-    </row>
-    <row r="176" spans="1:12">
+      <c r="M175">
+        <v>2163222.1137</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -8043,8 +8568,11 @@
       <c r="L176">
         <v>947266.1437</v>
       </c>
-    </row>
-    <row r="177" spans="1:12">
+      <c r="M176">
+        <v>687776.8253</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -8081,8 +8609,11 @@
       <c r="L177">
         <v>7488415.0248</v>
       </c>
-    </row>
-    <row r="178" spans="1:12">
+      <c r="M177">
+        <v>6819266.7886</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -8119,8 +8650,11 @@
       <c r="L178">
         <v>4546299.3218</v>
       </c>
-    </row>
-    <row r="179" spans="1:12">
+      <c r="M178">
+        <v>4653674.4864</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -8157,8 +8691,11 @@
       <c r="L179">
         <v>32375940.5128</v>
       </c>
-    </row>
-    <row r="180" spans="1:12">
+      <c r="M179">
+        <v>34633281.7992</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -8195,8 +8732,11 @@
       <c r="L180">
         <v>4220522.7033</v>
       </c>
-    </row>
-    <row r="181" spans="1:12">
+      <c r="M180">
+        <v>4462689.5796</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -8233,8 +8773,11 @@
       <c r="L181">
         <v>15451581.333</v>
       </c>
-    </row>
-    <row r="182" spans="1:12">
+      <c r="M181">
+        <v>17508094.3232</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -8271,8 +8814,11 @@
       <c r="L182">
         <v>65772505.4866</v>
       </c>
-    </row>
-    <row r="183" spans="1:12">
+      <c r="M182">
+        <v>66348758.2273</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -8309,8 +8855,11 @@
       <c r="L183">
         <v>3796190.9111</v>
       </c>
-    </row>
-    <row r="184" spans="1:12">
+      <c r="M183">
+        <v>2886842.7568</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -8347,8 +8896,11 @@
       <c r="L184">
         <v>34540716.2329</v>
       </c>
-    </row>
-    <row r="185" spans="1:12">
+      <c r="M184">
+        <v>35339814.4572</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -8385,8 +8937,11 @@
       <c r="L185">
         <v>3605247.5098</v>
       </c>
-    </row>
-    <row r="186" spans="1:12">
+      <c r="M185">
+        <v>3534680.3055</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -8423,8 +8978,11 @@
       <c r="L186">
         <v>2985239.891</v>
       </c>
-    </row>
-    <row r="187" spans="1:12">
+      <c r="M186">
+        <v>4716325.2804</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -8461,8 +9019,11 @@
       <c r="L187">
         <v>4064081.238207</v>
       </c>
-    </row>
-    <row r="188" spans="1:12">
+      <c r="M187">
+        <v>2977019.567917</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -8499,8 +9060,11 @@
       <c r="L188">
         <v>2162634.33519267</v>
       </c>
-    </row>
-    <row r="189" spans="1:12">
+      <c r="M188">
+        <v>1504688.8426288</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -8537,8 +9101,11 @@
       <c r="L189">
         <v>625012.7378543</v>
       </c>
-    </row>
-    <row r="190" spans="1:12">
+      <c r="M189">
+        <v>516100.8661694</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -8575,8 +9142,11 @@
       <c r="L190">
         <v>163539.6788</v>
       </c>
-    </row>
-    <row r="191" spans="1:12">
+      <c r="M190">
+        <v>171957.21799</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -8613,8 +9183,11 @@
       <c r="L191">
         <v>3995392.4423</v>
       </c>
-    </row>
-    <row r="192" spans="1:12">
+      <c r="M191">
+        <v>3869618.071096</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -8651,8 +9224,11 @@
       <c r="L192">
         <v>3182883.63954845</v>
       </c>
-    </row>
-    <row r="193" spans="1:12">
+      <c r="M192">
+        <v>3129666.6826284</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -8689,8 +9265,11 @@
       <c r="L193">
         <v>6243680.31259</v>
       </c>
-    </row>
-    <row r="194" spans="1:12">
+      <c r="M193">
+        <v>6218340.2339</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -8727,8 +9306,11 @@
       <c r="L194">
         <v>3130727.43010112</v>
       </c>
-    </row>
-    <row r="195" spans="1:12">
+      <c r="M194">
+        <v>3818289.68527816</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -8765,8 +9347,11 @@
       <c r="L195">
         <v>3270161.1614</v>
       </c>
-    </row>
-    <row r="196" spans="1:12">
+      <c r="M195">
+        <v>3986833.5872</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -8803,8 +9388,11 @@
       <c r="L196">
         <v>2579293.1182</v>
       </c>
-    </row>
-    <row r="197" spans="1:12">
+      <c r="M196">
+        <v>2678547.4491</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -8841,8 +9429,11 @@
       <c r="L197">
         <v>874285.76036</v>
       </c>
-    </row>
-    <row r="198" spans="1:12">
+      <c r="M197">
+        <v>823982.2723599999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -8879,8 +9470,11 @@
       <c r="L198">
         <v>381248.62099</v>
       </c>
-    </row>
-    <row r="199" spans="1:12">
+      <c r="M198">
+        <v>397179.16721</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -8917,8 +9511,11 @@
       <c r="L199">
         <v>58492588.1746</v>
       </c>
-    </row>
-    <row r="200" spans="1:12">
+      <c r="M199">
+        <v>57178468.9546</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -8955,8 +9552,11 @@
       <c r="L200">
         <v>765844.505346</v>
       </c>
-    </row>
-    <row r="201" spans="1:12">
+      <c r="M200">
+        <v>817689.209029</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -8993,8 +9593,11 @@
       <c r="L201">
         <v>5270308.379</v>
       </c>
-    </row>
-    <row r="202" spans="1:12">
+      <c r="M201">
+        <v>3628687.8931</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -9031,8 +9634,11 @@
       <c r="L202">
         <v>2159778.82221</v>
       </c>
-    </row>
-    <row r="203" spans="1:12">
+      <c r="M202">
+        <v>2145335.53411</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -9069,8 +9675,11 @@
       <c r="L203">
         <v>292417935.2805</v>
       </c>
-    </row>
-    <row r="204" spans="1:12">
+      <c r="M203">
+        <v>286203703.8533</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -9107,8 +9716,11 @@
       <c r="L204">
         <v>32341953.3356</v>
       </c>
-    </row>
-    <row r="205" spans="1:12">
+      <c r="M204">
+        <v>34315392.6172</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -9145,8 +9757,11 @@
       <c r="L205">
         <v>6510700.7393</v>
       </c>
-    </row>
-    <row r="206" spans="1:12">
+      <c r="M205">
+        <v>6525314.0745</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -9183,8 +9798,11 @@
       <c r="L206">
         <v>1382850.89507</v>
       </c>
-    </row>
-    <row r="207" spans="1:12">
+      <c r="M206">
+        <v>1248363.52787</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -9221,8 +9839,11 @@
       <c r="L207">
         <v>809512.44785</v>
       </c>
-    </row>
-    <row r="208" spans="1:12">
+      <c r="M207">
+        <v>844918.64825</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -9259,8 +9880,11 @@
       <c r="L208">
         <v>10237829.3834</v>
       </c>
-    </row>
-    <row r="209" spans="1:12">
+      <c r="M208">
+        <v>6121332.892</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -9297,8 +9921,11 @@
       <c r="L209">
         <v>3201980.0783</v>
       </c>
-    </row>
-    <row r="210" spans="1:12">
+      <c r="M209">
+        <v>2399917.461</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -9335,8 +9962,11 @@
       <c r="L210">
         <v>8348221.5707</v>
       </c>
-    </row>
-    <row r="211" spans="1:12">
+      <c r="M210">
+        <v>8919860.866599999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -9373,8 +10003,11 @@
       <c r="L211">
         <v>9480831.3947</v>
       </c>
-    </row>
-    <row r="212" spans="1:12">
+      <c r="M211">
+        <v>9224545.021400001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -9411,8 +10044,11 @@
       <c r="L212">
         <v>35616854.1201</v>
       </c>
-    </row>
-    <row r="213" spans="1:12">
+      <c r="M212">
+        <v>35659493.4458</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -9449,8 +10085,11 @@
       <c r="L213">
         <v>85282939.6987</v>
       </c>
-    </row>
-    <row r="214" spans="1:12">
+      <c r="M213">
+        <v>78789563.42820001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -9487,8 +10126,11 @@
       <c r="L214">
         <v>1472519.2677395</v>
       </c>
-    </row>
-    <row r="215" spans="1:12">
+      <c r="M214">
+        <v>1505712.8336949</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -9525,8 +10167,11 @@
       <c r="L215">
         <v>925710.424132</v>
       </c>
-    </row>
-    <row r="216" spans="1:12">
+      <c r="M215">
+        <v>813847.302094</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -9563,8 +10208,11 @@
       <c r="L216">
         <v>283747456.6166</v>
       </c>
-    </row>
-    <row r="217" spans="1:12">
+      <c r="M216">
+        <v>279937196.0168</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -9601,8 +10249,11 @@
       <c r="L217">
         <v>3373570.355004</v>
       </c>
-    </row>
-    <row r="218" spans="1:12">
+      <c r="M217">
+        <v>3115460.530394</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -9639,8 +10290,11 @@
       <c r="L218">
         <v>2732097.62321451</v>
       </c>
-    </row>
-    <row r="219" spans="1:12">
+      <c r="M218">
+        <v>2451380.91434979</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -9677,8 +10331,11 @@
       <c r="L219">
         <v>419451.973767</v>
       </c>
-    </row>
-    <row r="220" spans="1:12">
+      <c r="M219">
+        <v>400271.682512</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -9715,8 +10372,11 @@
       <c r="L220">
         <v>217358.520304</v>
       </c>
-    </row>
-    <row r="221" spans="1:12">
+      <c r="M220">
+        <v>222233.606615</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -9753,8 +10413,11 @@
       <c r="L221">
         <v>7864224.327</v>
       </c>
-    </row>
-    <row r="222" spans="1:12">
+      <c r="M221">
+        <v>8421807.609099999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -9791,8 +10454,11 @@
       <c r="L222">
         <v>20290721.9951</v>
       </c>
-    </row>
-    <row r="223" spans="1:12">
+      <c r="M222">
+        <v>15626147.559</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -9829,8 +10495,11 @@
       <c r="L223">
         <v>8768487.4714</v>
       </c>
-    </row>
-    <row r="224" spans="1:12">
+      <c r="M223">
+        <v>6158932.7117</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -9867,8 +10536,11 @@
       <c r="L224">
         <v>400232.244376</v>
       </c>
-    </row>
-    <row r="225" spans="1:12">
+      <c r="M224">
+        <v>281132.7421</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -9905,8 +10577,11 @@
       <c r="L225">
         <v>180923.694293</v>
       </c>
-    </row>
-    <row r="226" spans="1:12">
+      <c r="M225">
+        <v>149235.42836</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -9943,8 +10618,11 @@
       <c r="L226">
         <v>3992494.98248</v>
       </c>
-    </row>
-    <row r="227" spans="1:12">
+      <c r="M226">
+        <v>3894102.44432</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -9981,8 +10659,11 @@
       <c r="L227">
         <v>805427651.808547</v>
       </c>
-    </row>
-    <row r="228" spans="1:12">
+      <c r="M227">
+        <v>1103265600.414319</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -10019,8 +10700,11 @@
       <c r="L228">
         <v>2971412.3176</v>
       </c>
-    </row>
-    <row r="229" spans="1:12">
+      <c r="M228">
+        <v>3402829.5074</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -10057,8 +10741,11 @@
       <c r="L229">
         <v>3430556.4347</v>
       </c>
-    </row>
-    <row r="230" spans="1:12">
+      <c r="M229">
+        <v>3461515.6226</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -10095,8 +10782,11 @@
       <c r="L230">
         <v>3123675.4983</v>
       </c>
-    </row>
-    <row r="231" spans="1:12">
+      <c r="M230">
+        <v>2757471.6725</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -10133,8 +10823,11 @@
       <c r="L231">
         <v>7481565.3693</v>
       </c>
-    </row>
-    <row r="232" spans="1:12">
+      <c r="M231">
+        <v>9220568.1635</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -10171,8 +10864,11 @@
       <c r="L232">
         <v>17492237.860826</v>
       </c>
-    </row>
-    <row r="233" spans="1:12">
+      <c r="M232">
+        <v>16893936.055773</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -10209,8 +10905,11 @@
       <c r="L233">
         <v>2307575.5092</v>
       </c>
-    </row>
-    <row r="234" spans="1:12">
+      <c r="M233">
+        <v>2261788.3052</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -10247,8 +10946,11 @@
       <c r="L234">
         <v>7103054.1769</v>
       </c>
-    </row>
-    <row r="235" spans="1:12">
+      <c r="M234">
+        <v>7009930.2681</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -10285,8 +10987,11 @@
       <c r="L235">
         <v>1921905.689967</v>
       </c>
-    </row>
-    <row r="236" spans="1:12">
+      <c r="M235">
+        <v>2116339.390158</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -10323,8 +11028,11 @@
       <c r="L236">
         <v>1777808.84666441</v>
       </c>
-    </row>
-    <row r="237" spans="1:12">
+      <c r="M236">
+        <v>1827518.77781032</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -10361,8 +11069,11 @@
       <c r="L237">
         <v>11487875.3698</v>
       </c>
-    </row>
-    <row r="238" spans="1:12">
+      <c r="M237">
+        <v>12432866.2831</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -10399,8 +11110,11 @@
       <c r="L238">
         <v>112764.1143</v>
       </c>
-    </row>
-    <row r="239" spans="1:12">
+      <c r="M238">
+        <v>135598.1706</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -10437,8 +11151,11 @@
       <c r="L239">
         <v>3688212.7203287</v>
       </c>
-    </row>
-    <row r="240" spans="1:12">
+      <c r="M239">
+        <v>3722596.7582271</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -10475,8 +11192,11 @@
       <c r="L240">
         <v>1501512.44835</v>
       </c>
-    </row>
-    <row r="241" spans="1:12">
+      <c r="M240">
+        <v>1562567.86232</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -10513,8 +11233,11 @@
       <c r="L241">
         <v>851263.2878905</v>
       </c>
-    </row>
-    <row r="242" spans="1:12">
+      <c r="M241">
+        <v>787869.7702856</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -10551,8 +11274,11 @@
       <c r="L242">
         <v>321878.94511</v>
       </c>
-    </row>
-    <row r="243" spans="1:12">
+      <c r="M242">
+        <v>303380.73605</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -10589,8 +11315,11 @@
       <c r="L243">
         <v>27272236.4807</v>
       </c>
-    </row>
-    <row r="244" spans="1:12">
+      <c r="M243">
+        <v>27185832.0236</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -10627,8 +11356,11 @@
       <c r="L244">
         <v>2428304.8421</v>
       </c>
-    </row>
-    <row r="245" spans="1:12">
+      <c r="M244">
+        <v>2394800.135</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -10665,8 +11397,11 @@
       <c r="L245">
         <v>3463254.1995</v>
       </c>
-    </row>
-    <row r="246" spans="1:12">
+      <c r="M245">
+        <v>3472693.9314</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -10703,8 +11438,11 @@
       <c r="L246">
         <v>39095519.5972</v>
       </c>
-    </row>
-    <row r="247" spans="1:12">
+      <c r="M246">
+        <v>29242264.3793</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -10741,8 +11479,11 @@
       <c r="L247">
         <v>14041470.49092</v>
       </c>
-    </row>
-    <row r="248" spans="1:12">
+      <c r="M247">
+        <v>13563006.16476</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -10779,8 +11520,11 @@
       <c r="L248">
         <v>9053141.204299999</v>
       </c>
-    </row>
-    <row r="249" spans="1:12">
+      <c r="M248">
+        <v>7712033.8403</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -10817,8 +11561,11 @@
       <c r="L249">
         <v>1420896.4661</v>
       </c>
-    </row>
-    <row r="250" spans="1:12">
+      <c r="M249">
+        <v>1464372.5608</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -10855,8 +11602,11 @@
       <c r="L250">
         <v>692207.2959</v>
       </c>
-    </row>
-    <row r="251" spans="1:12">
+      <c r="M250">
+        <v>796701.4719</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -10893,8 +11643,11 @@
       <c r="L251">
         <v>42212409.9879</v>
       </c>
-    </row>
-    <row r="252" spans="1:12">
+      <c r="M251">
+        <v>40461910.5026</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -10931,8 +11684,11 @@
       <c r="L252">
         <v>597346.3363</v>
       </c>
-    </row>
-    <row r="253" spans="1:12">
+      <c r="M252">
+        <v>488197.1889</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -10969,8 +11725,11 @@
       <c r="L253">
         <v>2004954.9305</v>
       </c>
-    </row>
-    <row r="254" spans="1:12">
+      <c r="M253">
+        <v>1792531.1914</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -11007,8 +11766,11 @@
       <c r="L254">
         <v>3626041.2079</v>
       </c>
-    </row>
-    <row r="255" spans="1:12">
+      <c r="M254">
+        <v>3450273.7479</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -11045,8 +11807,11 @@
       <c r="L255">
         <v>7583849.03685</v>
       </c>
-    </row>
-    <row r="256" spans="1:12">
+      <c r="M255">
+        <v>8099646.43083</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -11083,8 +11848,11 @@
       <c r="L256">
         <v>13945533.9466</v>
       </c>
-    </row>
-    <row r="257" spans="1:12">
+      <c r="M256">
+        <v>14735476.28</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -11121,8 +11889,11 @@
       <c r="L257">
         <v>4057824.1574</v>
       </c>
-    </row>
-    <row r="258" spans="1:12">
+      <c r="M257">
+        <v>3351199.8309</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -11159,8 +11930,11 @@
       <c r="L258">
         <v>7695877.4148</v>
       </c>
-    </row>
-    <row r="259" spans="1:12">
+      <c r="M258">
+        <v>8759533.907500001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -11197,8 +11971,11 @@
       <c r="L259">
         <v>3745291.2972</v>
       </c>
-    </row>
-    <row r="260" spans="1:12">
+      <c r="M259">
+        <v>3303044.9248</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -11235,8 +12012,11 @@
       <c r="L260">
         <v>11773436.8551</v>
       </c>
-    </row>
-    <row r="261" spans="1:12">
+      <c r="M260">
+        <v>11410150.3741</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -11273,8 +12053,11 @@
       <c r="L261">
         <v>39192461.8062</v>
       </c>
-    </row>
-    <row r="262" spans="1:12">
+      <c r="M261">
+        <v>40321012.7901</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -11311,8 +12094,11 @@
       <c r="L262">
         <v>1690849.6309</v>
       </c>
-    </row>
-    <row r="263" spans="1:12">
+      <c r="M262">
+        <v>1937302.0761</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -11349,8 +12135,11 @@
       <c r="L263">
         <v>1573660.2882</v>
       </c>
-    </row>
-    <row r="264" spans="1:12">
+      <c r="M263">
+        <v>1472649.7609</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -11387,8 +12176,11 @@
       <c r="L264">
         <v>2597840.2137</v>
       </c>
-    </row>
-    <row r="265" spans="1:12">
+      <c r="M264">
+        <v>2547852.4448</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -11425,8 +12217,11 @@
       <c r="L265">
         <v>3626450.669</v>
       </c>
-    </row>
-    <row r="266" spans="1:12">
+      <c r="M265">
+        <v>3891957.3405</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -11463,8 +12258,11 @@
       <c r="L266">
         <v>51081693.120798</v>
       </c>
-    </row>
-    <row r="267" spans="1:12">
+      <c r="M266">
+        <v>45800670.9817821</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -11501,8 +12299,11 @@
       <c r="L267">
         <v>4524164.039</v>
       </c>
-    </row>
-    <row r="268" spans="1:12">
+      <c r="M267">
+        <v>5344894.3206</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -11539,8 +12340,11 @@
       <c r="L268">
         <v>98264721.6381</v>
       </c>
-    </row>
-    <row r="269" spans="1:12">
+      <c r="M268">
+        <v>149186614.5992</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -11577,8 +12381,11 @@
       <c r="L269">
         <v>12116851.862408</v>
       </c>
-    </row>
-    <row r="270" spans="1:12">
+      <c r="M269">
+        <v>10869733.2397295</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -11615,8 +12422,11 @@
       <c r="L270">
         <v>15440694.2625</v>
       </c>
-    </row>
-    <row r="271" spans="1:12">
+      <c r="M270">
+        <v>13999358.2172</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -11653,8 +12463,11 @@
       <c r="L271">
         <v>2691524.8197</v>
       </c>
-    </row>
-    <row r="272" spans="1:12">
+      <c r="M271">
+        <v>2779928.8535</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -11691,8 +12504,11 @@
       <c r="L272">
         <v>7016394.4019</v>
       </c>
-    </row>
-    <row r="273" spans="1:12">
+      <c r="M272">
+        <v>8039964.3871</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -11729,8 +12545,11 @@
       <c r="L273">
         <v>28522582.828</v>
       </c>
-    </row>
-    <row r="274" spans="1:12">
+      <c r="M273">
+        <v>20061400.5138</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -11767,8 +12586,11 @@
       <c r="L274">
         <v>19636200.7546</v>
       </c>
-    </row>
-    <row r="275" spans="1:12">
+      <c r="M274">
+        <v>22183663.8853</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -11805,8 +12627,11 @@
       <c r="L275">
         <v>2245114.9689</v>
       </c>
-    </row>
-    <row r="276" spans="1:12">
+      <c r="M275">
+        <v>2326779.0643</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -11843,8 +12668,11 @@
       <c r="L276">
         <v>10646809.1237</v>
       </c>
-    </row>
-    <row r="277" spans="1:12">
+      <c r="M276">
+        <v>10745696.8123</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -11881,8 +12709,11 @@
       <c r="L277">
         <v>3313175.6808</v>
       </c>
-    </row>
-    <row r="278" spans="1:12">
+      <c r="M277">
+        <v>2933319.0261</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -11919,8 +12750,11 @@
       <c r="L278">
         <v>40758644.2539</v>
       </c>
-    </row>
-    <row r="279" spans="1:12">
+      <c r="M278">
+        <v>58909974.3424</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -11957,8 +12791,11 @@
       <c r="L279">
         <v>1895566.61657187</v>
       </c>
-    </row>
-    <row r="280" spans="1:12">
+      <c r="M279">
+        <v>1444372.09929809</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -11995,8 +12832,11 @@
       <c r="L280">
         <v>1452166.5859241</v>
       </c>
-    </row>
-    <row r="281" spans="1:12">
+      <c r="M280">
+        <v>1029826.172298</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -12033,8 +12873,11 @@
       <c r="L281">
         <v>663787.9238</v>
       </c>
-    </row>
-    <row r="282" spans="1:12">
+      <c r="M281">
+        <v>644946.3245</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -12071,8 +12914,11 @@
       <c r="L282">
         <v>2339733.6562</v>
       </c>
-    </row>
-    <row r="283" spans="1:12">
+      <c r="M282">
+        <v>2346122.2125</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -12109,8 +12955,11 @@
       <c r="L283">
         <v>1230713.0817</v>
       </c>
-    </row>
-    <row r="284" spans="1:12">
+      <c r="M283">
+        <v>1371632.364</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -12147,8 +12996,11 @@
       <c r="L284">
         <v>2770655.4729</v>
       </c>
-    </row>
-    <row r="285" spans="1:12">
+      <c r="M284">
+        <v>3074887.1362</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -12185,8 +13037,11 @@
       <c r="L285">
         <v>14540393.6402</v>
       </c>
-    </row>
-    <row r="286" spans="1:12">
+      <c r="M285">
+        <v>14537727.6599</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -12223,8 +13078,11 @@
       <c r="L286">
         <v>2412843.558</v>
       </c>
-    </row>
-    <row r="287" spans="1:12">
+      <c r="M286">
+        <v>2628885.0423</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -12261,8 +13119,11 @@
       <c r="L287">
         <v>194807477.5932</v>
       </c>
-    </row>
-    <row r="288" spans="1:12">
+      <c r="M287">
+        <v>419250631.4979</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -12299,8 +13160,11 @@
       <c r="L288">
         <v>185241487.5482138</v>
       </c>
-    </row>
-    <row r="289" spans="1:12">
+      <c r="M288">
+        <v>397453102.020691</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -12337,8 +13201,11 @@
       <c r="L289">
         <v>63192877.4772</v>
       </c>
-    </row>
-    <row r="290" spans="1:12">
+      <c r="M289">
+        <v>59998260.4639</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -12375,8 +13242,11 @@
       <c r="L290">
         <v>23774215.5714</v>
       </c>
-    </row>
-    <row r="291" spans="1:12">
+      <c r="M290">
+        <v>25420617.4364</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -12413,8 +13283,11 @@
       <c r="L291">
         <v>2474813.0273</v>
       </c>
-    </row>
-    <row r="292" spans="1:12">
+      <c r="M291">
+        <v>4410886.8423</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -12451,8 +13324,11 @@
       <c r="L292">
         <v>7419323.5986</v>
       </c>
-    </row>
-    <row r="293" spans="1:12">
+      <c r="M292">
+        <v>5570226.1292</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -12489,8 +13365,11 @@
       <c r="L293">
         <v>16680857.121</v>
       </c>
-    </row>
-    <row r="294" spans="1:12">
+      <c r="M293">
+        <v>16169733.8559</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -12527,8 +13406,11 @@
       <c r="L294">
         <v>1127553.5021</v>
       </c>
-    </row>
-    <row r="295" spans="1:12">
+      <c r="M294">
+        <v>1234625.9252</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -12565,8 +13447,11 @@
       <c r="L295">
         <v>2359684.345</v>
       </c>
-    </row>
-    <row r="296" spans="1:12">
+      <c r="M295">
+        <v>2028026.0654</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -12603,8 +13488,11 @@
       <c r="L296">
         <v>3197249.08042</v>
       </c>
-    </row>
-    <row r="297" spans="1:12">
+      <c r="M296">
+        <v>3282243.04778</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -12641,8 +13529,11 @@
       <c r="L297">
         <v>40145907.0121</v>
       </c>
-    </row>
-    <row r="298" spans="1:12">
+      <c r="M297">
+        <v>46124811.8327</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -12679,8 +13570,11 @@
       <c r="L298">
         <v>7776074.7631</v>
       </c>
-    </row>
-    <row r="299" spans="1:12">
+      <c r="M298">
+        <v>7903776.5746</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -12717,8 +13611,11 @@
       <c r="L299">
         <v>2068802.6408</v>
       </c>
-    </row>
-    <row r="300" spans="1:12">
+      <c r="M299">
+        <v>2049706.2169</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -12755,8 +13652,11 @@
       <c r="L300">
         <v>5269602.734</v>
       </c>
-    </row>
-    <row r="301" spans="1:12">
+      <c r="M300">
+        <v>5080711.7857</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -12793,8 +13693,11 @@
       <c r="L301">
         <v>2917097.7807</v>
       </c>
-    </row>
-    <row r="302" spans="1:12">
+      <c r="M301">
+        <v>2349785.6004</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -12831,8 +13734,11 @@
       <c r="L302">
         <v>4441630.4721</v>
       </c>
-    </row>
-    <row r="303" spans="1:12">
+      <c r="M302">
+        <v>4678095.0438</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -12869,8 +13775,11 @@
       <c r="L303">
         <v>3574877.3579</v>
       </c>
-    </row>
-    <row r="304" spans="1:12">
+      <c r="M303">
+        <v>3525415.0999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -12907,8 +13816,11 @@
       <c r="L304">
         <v>1305840.292</v>
       </c>
-    </row>
-    <row r="305" spans="1:12">
+      <c r="M304">
+        <v>1451691.5677</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -12945,8 +13857,11 @@
       <c r="L305">
         <v>1995756.3089</v>
       </c>
-    </row>
-    <row r="306" spans="1:12">
+      <c r="M305">
+        <v>2032755.012</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -12983,8 +13898,11 @@
       <c r="L306">
         <v>2716050.1795</v>
       </c>
-    </row>
-    <row r="307" spans="1:12">
+      <c r="M306">
+        <v>2798084.7989</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -13021,8 +13939,11 @@
       <c r="L307">
         <v>87277548.84819999</v>
       </c>
-    </row>
-    <row r="308" spans="1:12">
+      <c r="M307">
+        <v>78629251.6473</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -13059,8 +13980,11 @@
       <c r="L308">
         <v>5496175.6658</v>
       </c>
-    </row>
-    <row r="309" spans="1:12">
+      <c r="M308">
+        <v>6519644.4415</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -13097,8 +14021,11 @@
       <c r="L309">
         <v>11192698.1455</v>
       </c>
-    </row>
-    <row r="310" spans="1:12">
+      <c r="M309">
+        <v>11058878.3859</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -13135,8 +14062,11 @@
       <c r="L310">
         <v>7474443.4569</v>
       </c>
-    </row>
-    <row r="311" spans="1:12">
+      <c r="M310">
+        <v>18364351.3726</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -13173,8 +14103,11 @@
       <c r="L311">
         <v>2907846.5948</v>
       </c>
-    </row>
-    <row r="312" spans="1:12">
+      <c r="M311">
+        <v>4846574.9178</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -13211,8 +14144,11 @@
       <c r="L312">
         <v>23071383.4626</v>
       </c>
-    </row>
-    <row r="313" spans="1:12">
+      <c r="M312">
+        <v>24088508.3147</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -13249,8 +14185,11 @@
       <c r="L313">
         <v>15742031.6499</v>
       </c>
-    </row>
-    <row r="314" spans="1:12">
+      <c r="M313">
+        <v>14134146.8216</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -13287,8 +14226,11 @@
       <c r="L314">
         <v>1784852.4554</v>
       </c>
-    </row>
-    <row r="315" spans="1:12">
+      <c r="M314">
+        <v>1840020.1984</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -13325,8 +14267,11 @@
       <c r="L315">
         <v>3045466.46681</v>
       </c>
-    </row>
-    <row r="316" spans="1:12">
+      <c r="M315">
+        <v>3140627.14123</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -13363,8 +14308,11 @@
       <c r="L316">
         <v>1990009.738</v>
       </c>
-    </row>
-    <row r="317" spans="1:12">
+      <c r="M316">
+        <v>1491794.3325</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -13401,8 +14349,11 @@
       <c r="L317">
         <v>27607797.5945</v>
       </c>
-    </row>
-    <row r="318" spans="1:12">
+      <c r="M317">
+        <v>46523948.8415</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -13439,8 +14390,11 @@
       <c r="L318">
         <v>9123190.124539999</v>
       </c>
-    </row>
-    <row r="319" spans="1:12">
+      <c r="M318">
+        <v>8109346.64572</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -13477,8 +14431,11 @@
       <c r="L319">
         <v>1716082.9707</v>
       </c>
-    </row>
-    <row r="320" spans="1:12">
+      <c r="M319">
+        <v>1151118.6412</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -13515,8 +14472,11 @@
       <c r="L320">
         <v>829329.6850000001</v>
       </c>
-    </row>
-    <row r="321" spans="1:12">
+      <c r="M320">
+        <v>1000529.6767</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -13553,8 +14513,11 @@
       <c r="L321">
         <v>24296558.293</v>
       </c>
-    </row>
-    <row r="322" spans="1:12">
+      <c r="M321">
+        <v>15906058.2568</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -13591,8 +14554,11 @@
       <c r="L322">
         <v>1641860.5958</v>
       </c>
-    </row>
-    <row r="323" spans="1:12">
+      <c r="M322">
+        <v>2159349.2984</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -13629,8 +14595,11 @@
       <c r="L323">
         <v>256207.8081</v>
       </c>
-    </row>
-    <row r="324" spans="1:12">
+      <c r="M323">
+        <v>174294.2235</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -13667,8 +14636,11 @@
       <c r="L324">
         <v>21779149.99479388</v>
       </c>
-    </row>
-    <row r="325" spans="1:12">
+      <c r="M324">
+        <v>24128378.16504245</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -13705,8 +14677,11 @@
       <c r="L325">
         <v>4624906.98021</v>
       </c>
-    </row>
-    <row r="326" spans="1:12">
+      <c r="M325">
+        <v>5624761.18446</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -13743,8 +14718,11 @@
       <c r="L326">
         <v>315733830.12554</v>
       </c>
-    </row>
-    <row r="327" spans="1:12">
+      <c r="M326">
+        <v>369361534.39905</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -13781,8 +14759,11 @@
       <c r="L327">
         <v>32860552.08982</v>
       </c>
-    </row>
-    <row r="328" spans="1:12">
+      <c r="M327">
+        <v>37744446.64868</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -13819,8 +14800,11 @@
       <c r="L328">
         <v>13956746.112663</v>
       </c>
-    </row>
-    <row r="329" spans="1:12">
+      <c r="M328">
+        <v>14162819.508454</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -13857,8 +14841,11 @@
       <c r="L329">
         <v>4819284.20435</v>
       </c>
-    </row>
-    <row r="330" spans="1:12">
+      <c r="M329">
+        <v>4543286.28865</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -13895,8 +14882,11 @@
       <c r="L330">
         <v>3209664.058851</v>
       </c>
-    </row>
-    <row r="331" spans="1:12">
+      <c r="M330">
+        <v>3361737.601117</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -13933,8 +14923,11 @@
       <c r="L331">
         <v>304996539.35824</v>
       </c>
-    </row>
-    <row r="332" spans="1:12">
+      <c r="M331">
+        <v>236843864.23864</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -13971,8 +14964,11 @@
       <c r="L332">
         <v>4453392.1778</v>
       </c>
-    </row>
-    <row r="333" spans="1:12">
+      <c r="M332">
+        <v>4817527.1503</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -14009,8 +15005,11 @@
       <c r="L333">
         <v>39293817.7335</v>
       </c>
-    </row>
-    <row r="334" spans="1:12">
+      <c r="M333">
+        <v>48478423.8762</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -14047,8 +15046,11 @@
       <c r="L334">
         <v>1081302.2992</v>
       </c>
-    </row>
-    <row r="335" spans="1:12">
+      <c r="M334">
+        <v>1036034.8898</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -14084,6 +15086,9 @@
       </c>
       <c r="L335">
         <v>3273281.9021</v>
+      </c>
+      <c r="M335">
+        <v>3487598.3701</v>
       </c>
     </row>
   </sheetData>

--- a/volumeTracker.xlsx
+++ b/volumeTracker.xlsx
@@ -1350,13 +1350,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M335"/>
+  <dimension ref="A1:N335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1396,8 +1396,11 @@
       <c r="M1">
         <v>1701165816.110553</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1">
+        <v>2152537284.523071</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1437,8 +1440,11 @@
       <c r="M2">
         <v>1323550359.251753</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>1644510560.225459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1478,8 +1484,11 @@
       <c r="M3">
         <v>379079365.0205</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>418290038.1553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1519,8 +1528,11 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1560,8 +1572,11 @@
       <c r="M5">
         <v>25741281.6973</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>22774701.5737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1601,8 +1616,11 @@
       <c r="M6">
         <v>74378422.5905</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>100881847.1321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1642,8 +1660,11 @@
       <c r="M7">
         <v>68148495.63</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>66179072.8435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1683,8 +1704,11 @@
       <c r="M8">
         <v>330609404.1431</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>348920857.4342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1724,8 +1748,11 @@
       <c r="M9">
         <v>434442158.0828</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>449680060.574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1765,8 +1792,11 @@
       <c r="M10">
         <v>119941633.7582</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>136918485.1322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1806,8 +1836,11 @@
       <c r="M11">
         <v>5029360.1979</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>5244800.9123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1847,8 +1880,11 @@
       <c r="M12">
         <v>40050926.0621</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>44451250.4812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1888,8 +1924,11 @@
       <c r="M13">
         <v>42633891.5149</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>44920940.9515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1929,8 +1968,11 @@
       <c r="M14">
         <v>30142905.1411</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>29727143.5475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1970,8 +2012,11 @@
       <c r="M15">
         <v>78998612.839138</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>112086798.852156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2011,8 +2056,11 @@
       <c r="M16">
         <v>82979135.2368</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>83601683.8096</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2052,8 +2100,11 @@
       <c r="M17">
         <v>36554949.0434</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>33836064.7525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2093,8 +2144,11 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2134,8 +2188,11 @@
       <c r="M19">
         <v>1162217.4443</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>1202795.9329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2175,8 +2232,11 @@
       <c r="M20">
         <v>100599552.088204</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>114051240.008107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2216,8 +2276,11 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2257,8 +2320,11 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2298,8 +2364,11 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2339,8 +2408,11 @@
       <c r="M24">
         <v>78576902.21969999</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>94178460.48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2380,8 +2452,11 @@
       <c r="M25">
         <v>131498370.5725</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25">
+        <v>154489454.5667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2421,8 +2496,11 @@
       <c r="M26">
         <v>12315007.3029</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26">
+        <v>13848944.2437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2462,8 +2540,11 @@
       <c r="M27">
         <v>33886241.479974</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27">
+        <v>34036234.574003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2503,8 +2584,11 @@
       <c r="M28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2544,8 +2628,11 @@
       <c r="M29">
         <v>2705201.9772</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29">
+        <v>2735337.2579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2585,8 +2672,11 @@
       <c r="M30">
         <v>56677322.959624</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30">
+        <v>62245298.797373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2626,8 +2716,11 @@
       <c r="M31">
         <v>18030358.965722</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31">
+        <v>20835005.232448</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2667,8 +2760,11 @@
       <c r="M32">
         <v>4039828.8035</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32">
+        <v>4102957.988</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2708,8 +2804,11 @@
       <c r="M33">
         <v>114429790.7933</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33">
+        <v>116622692.9992</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2749,8 +2848,11 @@
       <c r="M34">
         <v>8178301.9143</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34">
+        <v>7809669.4004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2790,8 +2892,11 @@
       <c r="M35">
         <v>23195807.323</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35">
+        <v>22735893.9418</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2831,8 +2936,11 @@
       <c r="M36">
         <v>19463927.7675</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36">
+        <v>20725789.7153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2872,8 +2980,11 @@
       <c r="M37">
         <v>31910953.58552</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37">
+        <v>36792009.87484</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2913,8 +3024,11 @@
       <c r="M38">
         <v>111813711.510601</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38">
+        <v>120465141.790192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2954,8 +3068,11 @@
       <c r="M39">
         <v>20566385.1583</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39">
+        <v>22369331.617</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2995,8 +3112,11 @@
       <c r="M40">
         <v>30776814.8264</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40">
+        <v>24444604.9695</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3036,8 +3156,11 @@
       <c r="M41">
         <v>381662404.258341</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41">
+        <v>381152692.019941</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3077,8 +3200,11 @@
       <c r="M42">
         <v>84890738.3687</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42">
+        <v>94629125.9333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3118,8 +3244,11 @@
       <c r="M43">
         <v>35922712.9371</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43">
+        <v>40612337.3829</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3159,8 +3288,11 @@
       <c r="M44">
         <v>1887723.437689</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44">
+        <v>1996844.211927</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3200,8 +3332,11 @@
       <c r="M45">
         <v>139214667.4171</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45">
+        <v>146444665.8881</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3241,8 +3376,11 @@
       <c r="M46">
         <v>129891818.2446</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46">
+        <v>151702608.0789</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3282,8 +3420,11 @@
       <c r="M47">
         <v>7806999.9287</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47">
+        <v>9393629.654200001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3323,8 +3464,11 @@
       <c r="M48">
         <v>114389886.92317</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48">
+        <v>124058662.296439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3364,8 +3508,11 @@
       <c r="M49">
         <v>213051943.2163</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49">
+        <v>224530882.8832</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3405,8 +3552,11 @@
       <c r="M50">
         <v>279487052.3744</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50">
+        <v>277264777.9105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3446,8 +3596,11 @@
       <c r="M51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3487,8 +3640,11 @@
       <c r="M52">
         <v>1824621.207951</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52">
+        <v>1868433.427968</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3528,8 +3684,11 @@
       <c r="M53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3569,8 +3728,11 @@
       <c r="M54">
         <v>308833286.5543</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54">
+        <v>472282163.1856</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3610,8 +3772,11 @@
       <c r="M55">
         <v>1204506.7814</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55">
+        <v>1332681.8937</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3651,8 +3816,11 @@
       <c r="M56">
         <v>5034174.104835</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56">
+        <v>5839273.829639</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3692,8 +3860,11 @@
       <c r="M57">
         <v>17310830.3598064</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57">
+        <v>19739032.8528538</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3733,8 +3904,11 @@
       <c r="M58">
         <v>4442319.953972</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58">
+        <v>4562283.424293</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3774,8 +3948,11 @@
       <c r="M59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3815,8 +3992,11 @@
       <c r="M60">
         <v>1838554.6992</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60">
+        <v>2094836.4655</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3856,8 +4036,11 @@
       <c r="M61">
         <v>13058897.7219</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61">
+        <v>15389276.9252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -3897,8 +4080,11 @@
       <c r="M62">
         <v>6654010.87</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62">
+        <v>10420910.7388</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -3938,8 +4124,11 @@
       <c r="M63">
         <v>1436417.455148</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63">
+        <v>1481857.039732</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3979,8 +4168,11 @@
       <c r="M64">
         <v>74290197.46550401</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64">
+        <v>71398295.82064199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -4020,8 +4212,11 @@
       <c r="M65">
         <v>931994.780695</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65">
+        <v>1695156.939455</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4256,11 @@
       <c r="M66">
         <v>2293350.913679</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66">
+        <v>2206604.224147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -4102,8 +4300,11 @@
       <c r="M67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -4143,8 +4344,11 @@
       <c r="M68">
         <v>3396239.24692</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68">
+        <v>3048659.68136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -4184,8 +4388,11 @@
       <c r="M69">
         <v>3112692.5969</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69">
+        <v>2664285.2941</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -4225,8 +4432,11 @@
       <c r="M70">
         <v>17516988.05723</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70">
+        <v>16843137.52513</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -4266,8 +4476,11 @@
       <c r="M71">
         <v>15821251.001</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71">
+        <v>16910236.1074</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -4307,8 +4520,11 @@
       <c r="M72">
         <v>42672463.683</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72">
+        <v>45471777.8359</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -4348,8 +4564,11 @@
       <c r="M73">
         <v>5182758.3183</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73">
+        <v>6611830.0606</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -4389,8 +4608,11 @@
       <c r="M74">
         <v>762880115.335</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N74">
+        <v>835297530.9155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -4430,8 +4652,11 @@
       <c r="M75">
         <v>3647314.6272</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="N75">
+        <v>2238560.1522</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -4471,8 +4696,11 @@
       <c r="M76">
         <v>280640573.877948</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76">
+        <v>269746573.37341</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -4512,8 +4740,11 @@
       <c r="M77">
         <v>21546254.8934</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77">
+        <v>25719212.8381</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -4553,8 +4784,11 @@
       <c r="M78">
         <v>12164032.894485</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78">
+        <v>13530654.982933</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -4594,8 +4828,11 @@
       <c r="M79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -4635,8 +4872,11 @@
       <c r="M80">
         <v>49087343.8816</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80">
+        <v>69248629.7899</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -4676,8 +4916,11 @@
       <c r="M81">
         <v>8398573.898399999</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81">
+        <v>10324233.9978</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -4717,8 +4960,11 @@
       <c r="M82">
         <v>3725386.1763</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="N82">
+        <v>5834999.6194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -4758,8 +5004,11 @@
       <c r="M83">
         <v>65447382.4933</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="N83">
+        <v>56308931.6671</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -4799,8 +5048,11 @@
       <c r="M84">
         <v>13802089.570067</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84">
+        <v>14148371.892852</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -4840,8 +5092,11 @@
       <c r="M85">
         <v>12699994.99661</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="N85">
+        <v>13735181.48917</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -4881,8 +5136,11 @@
       <c r="M86">
         <v>5181493.4612</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86">
+        <v>5193273.4853</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -4922,8 +5180,11 @@
       <c r="M87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -4963,8 +5224,11 @@
       <c r="M88">
         <v>2785024.0059</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88">
+        <v>2270788.3468</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -5004,8 +5268,11 @@
       <c r="M89">
         <v>40916934.4026</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89">
+        <v>50428861.391</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -5045,8 +5312,11 @@
       <c r="M90">
         <v>51253957.124304</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90">
+        <v>33810190.253932</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -5086,8 +5356,11 @@
       <c r="M91">
         <v>2220012.513568</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91">
+        <v>2408766.662381</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -5127,8 +5400,11 @@
       <c r="M92">
         <v>121428201.1539</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92">
+        <v>130843419.6793</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -5168,8 +5444,11 @@
       <c r="M93">
         <v>28871655.0733</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93">
+        <v>38994651.6292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -5209,8 +5488,11 @@
       <c r="M94">
         <v>20388973.093</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94">
+        <v>30211422.0381</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -5250,8 +5532,11 @@
       <c r="M95">
         <v>714979.7529</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N95">
+        <v>721435.9138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -5291,8 +5576,11 @@
       <c r="M96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -5332,8 +5620,11 @@
       <c r="M97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="N97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -5373,8 +5664,11 @@
       <c r="M98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="N98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -5414,8 +5708,11 @@
       <c r="M99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="N99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -5455,8 +5752,11 @@
       <c r="M100">
         <v>2819256.05988</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="N100">
+        <v>2360331.52944</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -5496,8 +5796,11 @@
       <c r="M101">
         <v>8486340.6304</v>
       </c>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="N101">
+        <v>9457806.191299999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -5537,8 +5840,11 @@
       <c r="M102">
         <v>2454796.761886</v>
       </c>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="N102">
+        <v>2664836.698715</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -5578,8 +5884,11 @@
       <c r="M103">
         <v>3026497.2532</v>
       </c>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="N103">
+        <v>3542398.2491</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -5619,8 +5928,11 @@
       <c r="M104">
         <v>1027025.3507</v>
       </c>
-    </row>
-    <row r="105" spans="1:13">
+      <c r="N104">
+        <v>1092959.9888</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -5660,8 +5972,11 @@
       <c r="M105">
         <v>3202285.9067</v>
       </c>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="N105">
+        <v>3395849.5854</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -5701,8 +6016,11 @@
       <c r="M106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -5742,8 +6060,11 @@
       <c r="M107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -5783,8 +6104,11 @@
       <c r="M108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="N108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -5824,8 +6148,11 @@
       <c r="M109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -5865,8 +6192,11 @@
       <c r="M110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="N110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -5906,8 +6236,11 @@
       <c r="M111">
         <v>3261486.7734</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="N111">
+        <v>3308098.1222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -5947,8 +6280,11 @@
       <c r="M112">
         <v>1360037.823789</v>
       </c>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="N112">
+        <v>1530777.188316</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -5988,8 +6324,11 @@
       <c r="M113">
         <v>77121795.4314</v>
       </c>
-    </row>
-    <row r="114" spans="1:13">
+      <c r="N113">
+        <v>79340068.6235</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -6029,8 +6368,11 @@
       <c r="M114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="N114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -6070,8 +6412,11 @@
       <c r="M115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -6111,8 +6456,11 @@
       <c r="M116">
         <v>1332572.871131</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="N116">
+        <v>1729273.968868</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -6152,8 +6500,11 @@
       <c r="M117">
         <v>3989781.4451</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="N117">
+        <v>3802506.1405</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -6193,8 +6544,11 @@
       <c r="M118">
         <v>2882613.707512</v>
       </c>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="N118">
+        <v>3383497.970081</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -6234,8 +6588,11 @@
       <c r="M119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -6275,8 +6632,11 @@
       <c r="M120">
         <v>752165966.5503</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="N120">
+        <v>764847189.6799001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -6316,8 +6676,11 @@
       <c r="M121">
         <v>13289525.2143</v>
       </c>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="N121">
+        <v>11569840.8977</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -6357,8 +6720,11 @@
       <c r="M122">
         <v>3426448.0378</v>
       </c>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="N122">
+        <v>4071889.4961</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -6398,8 +6764,11 @@
       <c r="M123">
         <v>33247699.1099</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="N123">
+        <v>24864016.8443</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -6439,8 +6808,11 @@
       <c r="M124">
         <v>3901029.88707</v>
       </c>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="N124">
+        <v>4934462.20656</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -6480,8 +6852,11 @@
       <c r="M125">
         <v>5816404.6007197</v>
       </c>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="N125">
+        <v>8661970.0808871</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -6521,8 +6896,11 @@
       <c r="M126">
         <v>791068.9068</v>
       </c>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="N126">
+        <v>682755.6061</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -6562,8 +6940,11 @@
       <c r="M127">
         <v>1930406.6933</v>
       </c>
-    </row>
-    <row r="128" spans="1:13">
+      <c r="N127">
+        <v>2211519.4027</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -6603,8 +6984,11 @@
       <c r="M128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:13">
+      <c r="N128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -6644,8 +7028,11 @@
       <c r="M129">
         <v>939773.895073</v>
       </c>
-    </row>
-    <row r="130" spans="1:13">
+      <c r="N129">
+        <v>1239457.960872</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -6685,8 +7072,11 @@
       <c r="M130">
         <v>5560825.54271</v>
       </c>
-    </row>
-    <row r="131" spans="1:13">
+      <c r="N130">
+        <v>5482747.15396</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -6726,8 +7116,11 @@
       <c r="M131">
         <v>6001328.5017</v>
       </c>
-    </row>
-    <row r="132" spans="1:13">
+      <c r="N131">
+        <v>6689496.4935</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -6767,8 +7160,11 @@
       <c r="M132">
         <v>2238439.547</v>
       </c>
-    </row>
-    <row r="133" spans="1:13">
+      <c r="N132">
+        <v>2594861.3406</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -6808,8 +7204,11 @@
       <c r="M133">
         <v>16767455.0587</v>
       </c>
-    </row>
-    <row r="134" spans="1:13">
+      <c r="N133">
+        <v>11241594.6679</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -6849,8 +7248,11 @@
       <c r="M134">
         <v>3205943.8707</v>
       </c>
-    </row>
-    <row r="135" spans="1:13">
+      <c r="N134">
+        <v>4226234.5242</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -6890,8 +7292,11 @@
       <c r="M135">
         <v>33637061.0064</v>
       </c>
-    </row>
-    <row r="136" spans="1:13">
+      <c r="N135">
+        <v>30612950.2269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -6931,8 +7336,11 @@
       <c r="M136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:13">
+      <c r="N136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -6972,8 +7380,11 @@
       <c r="M137">
         <v>7636051.6123</v>
       </c>
-    </row>
-    <row r="138" spans="1:13">
+      <c r="N137">
+        <v>8778356.62379</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -7013,8 +7424,11 @@
       <c r="M138">
         <v>10266753.4195</v>
       </c>
-    </row>
-    <row r="139" spans="1:13">
+      <c r="N138">
+        <v>12417758.7305</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -7054,8 +7468,11 @@
       <c r="M139">
         <v>12133666.0941</v>
       </c>
-    </row>
-    <row r="140" spans="1:13">
+      <c r="N139">
+        <v>13717177.1256</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -7095,8 +7512,11 @@
       <c r="M140">
         <v>6208241.60077</v>
       </c>
-    </row>
-    <row r="141" spans="1:13">
+      <c r="N140">
+        <v>7467718.86067</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -7136,8 +7556,11 @@
       <c r="M141">
         <v>8583120.917509999</v>
       </c>
-    </row>
-    <row r="142" spans="1:13">
+      <c r="N141">
+        <v>10702928.74674</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -7177,8 +7600,11 @@
       <c r="M142">
         <v>2508348.8063</v>
       </c>
-    </row>
-    <row r="143" spans="1:13">
+      <c r="N142">
+        <v>2770016.38001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -7218,8 +7644,11 @@
       <c r="M143">
         <v>1086684.85852808</v>
       </c>
-    </row>
-    <row r="144" spans="1:13">
+      <c r="N143">
+        <v>1302187.49598944</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -7259,8 +7688,11 @@
       <c r="M144">
         <v>3058900.159507</v>
       </c>
-    </row>
-    <row r="145" spans="1:13">
+      <c r="N144">
+        <v>3759788.253091</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -7300,8 +7732,11 @@
       <c r="M145">
         <v>1098830.0557812</v>
       </c>
-    </row>
-    <row r="146" spans="1:13">
+      <c r="N145">
+        <v>1072804.8774792</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -7341,8 +7776,11 @@
       <c r="M146">
         <v>3893073.44868</v>
       </c>
-    </row>
-    <row r="147" spans="1:13">
+      <c r="N146">
+        <v>3954967.058042</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -7382,8 +7820,11 @@
       <c r="M147">
         <v>5858807.846201</v>
       </c>
-    </row>
-    <row r="148" spans="1:13">
+      <c r="N147">
+        <v>6013141.741085</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -7423,8 +7864,11 @@
       <c r="M148">
         <v>9285957.1713</v>
       </c>
-    </row>
-    <row r="149" spans="1:13">
+      <c r="N148">
+        <v>12373469.7964</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -7464,8 +7908,11 @@
       <c r="M149">
         <v>34611702.3289</v>
       </c>
-    </row>
-    <row r="150" spans="1:13">
+      <c r="N149">
+        <v>38220029.0158</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -7505,8 +7952,11 @@
       <c r="M150">
         <v>7222163.9202</v>
       </c>
-    </row>
-    <row r="151" spans="1:13">
+      <c r="N150">
+        <v>7300321.9843</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -7546,8 +7996,11 @@
       <c r="M151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:13">
+      <c r="N151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -7587,8 +8040,11 @@
       <c r="M152">
         <v>880180.1409999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:13">
+      <c r="N152">
+        <v>1075127.0245</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -7628,8 +8084,11 @@
       <c r="M153">
         <v>4944022.1404</v>
       </c>
-    </row>
-    <row r="154" spans="1:13">
+      <c r="N153">
+        <v>6148562.9129</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -7669,8 +8128,11 @@
       <c r="M154">
         <v>2487832.8856</v>
       </c>
-    </row>
-    <row r="155" spans="1:13">
+      <c r="N154">
+        <v>2586912.0592</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -7710,8 +8172,11 @@
       <c r="M155">
         <v>2759628.537612</v>
       </c>
-    </row>
-    <row r="156" spans="1:13">
+      <c r="N155">
+        <v>3194221.273791</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -7751,8 +8216,11 @@
       <c r="M156">
         <v>10056199.4705661</v>
       </c>
-    </row>
-    <row r="157" spans="1:13">
+      <c r="N156">
+        <v>9906667.0371486</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -7792,8 +8260,11 @@
       <c r="M157">
         <v>4500123.6817</v>
       </c>
-    </row>
-    <row r="158" spans="1:13">
+      <c r="N157">
+        <v>4068049.48126</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -7833,8 +8304,11 @@
       <c r="M158">
         <v>29632399.5319</v>
       </c>
-    </row>
-    <row r="159" spans="1:13">
+      <c r="N158">
+        <v>39826110.2108</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -7874,8 +8348,11 @@
       <c r="M159">
         <v>25538429.9557</v>
       </c>
-    </row>
-    <row r="160" spans="1:13">
+      <c r="N159">
+        <v>28013417.7519</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -7915,8 +8392,11 @@
       <c r="M160">
         <v>11348982.5262693</v>
       </c>
-    </row>
-    <row r="161" spans="1:13">
+      <c r="N160">
+        <v>11172849.0063599</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -7956,8 +8436,11 @@
       <c r="M161">
         <v>3025605.4237</v>
       </c>
-    </row>
-    <row r="162" spans="1:13">
+      <c r="N161">
+        <v>3259274.1683</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -7997,8 +8480,11 @@
       <c r="M162">
         <v>4210033.4504</v>
       </c>
-    </row>
-    <row r="163" spans="1:13">
+      <c r="N162">
+        <v>9012353.215600001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -8038,8 +8524,11 @@
       <c r="M163">
         <v>2413597.127121</v>
       </c>
-    </row>
-    <row r="164" spans="1:13">
+      <c r="N163">
+        <v>2502389.728699</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -8079,8 +8568,11 @@
       <c r="M164">
         <v>24101891.1027</v>
       </c>
-    </row>
-    <row r="165" spans="1:13">
+      <c r="N164">
+        <v>22169627.094</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -8120,8 +8612,11 @@
       <c r="M165">
         <v>1567383.593877</v>
       </c>
-    </row>
-    <row r="166" spans="1:13">
+      <c r="N165">
+        <v>1575329.38148</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -8161,8 +8656,11 @@
       <c r="M166">
         <v>58724254.7354</v>
       </c>
-    </row>
-    <row r="167" spans="1:13">
+      <c r="N166">
+        <v>63797164.6986</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -8202,8 +8700,11 @@
       <c r="M167">
         <v>1146001.7046</v>
       </c>
-    </row>
-    <row r="168" spans="1:13">
+      <c r="N167">
+        <v>1160003.6123</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -8243,8 +8744,11 @@
       <c r="M168">
         <v>78103209.71619999</v>
       </c>
-    </row>
-    <row r="169" spans="1:13">
+      <c r="N168">
+        <v>63501388.0513</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -8284,8 +8788,11 @@
       <c r="M169">
         <v>73158270.34379999</v>
       </c>
-    </row>
-    <row r="170" spans="1:13">
+      <c r="N169">
+        <v>74334984.124</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -8325,8 +8832,11 @@
       <c r="M170">
         <v>6220927.2787</v>
       </c>
-    </row>
-    <row r="171" spans="1:13">
+      <c r="N170">
+        <v>6887439.7918</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -8366,8 +8876,11 @@
       <c r="M171">
         <v>1225135.892</v>
       </c>
-    </row>
-    <row r="172" spans="1:13">
+      <c r="N171">
+        <v>1743779.249</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -8407,8 +8920,11 @@
       <c r="M172">
         <v>262965645.6179</v>
       </c>
-    </row>
-    <row r="173" spans="1:13">
+      <c r="N172">
+        <v>287295589.2181</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -8448,8 +8964,11 @@
       <c r="M173">
         <v>472843810.569033</v>
       </c>
-    </row>
-    <row r="174" spans="1:13">
+      <c r="N173">
+        <v>560737492.914623</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -8489,8 +9008,11 @@
       <c r="M174">
         <v>15332224.751032</v>
       </c>
-    </row>
-    <row r="175" spans="1:13">
+      <c r="N174">
+        <v>14033635.294051</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -8530,8 +9052,11 @@
       <c r="M175">
         <v>2163222.1137</v>
       </c>
-    </row>
-    <row r="176" spans="1:13">
+      <c r="N175">
+        <v>4483021.4105</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -8571,8 +9096,11 @@
       <c r="M176">
         <v>687776.8253</v>
       </c>
-    </row>
-    <row r="177" spans="1:13">
+      <c r="N176">
+        <v>776684.4815</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -8612,8 +9140,11 @@
       <c r="M177">
         <v>6819266.7886</v>
       </c>
-    </row>
-    <row r="178" spans="1:13">
+      <c r="N177">
+        <v>5707308.9989</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -8653,8 +9184,11 @@
       <c r="M178">
         <v>4653674.4864</v>
       </c>
-    </row>
-    <row r="179" spans="1:13">
+      <c r="N178">
+        <v>9412363.0382</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -8694,8 +9228,11 @@
       <c r="M179">
         <v>34633281.7992</v>
       </c>
-    </row>
-    <row r="180" spans="1:13">
+      <c r="N179">
+        <v>41170172.6031</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -8735,8 +9272,11 @@
       <c r="M180">
         <v>4462689.5796</v>
       </c>
-    </row>
-    <row r="181" spans="1:13">
+      <c r="N180">
+        <v>5891135.9368</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -8776,8 +9316,11 @@
       <c r="M181">
         <v>17508094.3232</v>
       </c>
-    </row>
-    <row r="182" spans="1:13">
+      <c r="N181">
+        <v>21021728.3193</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -8817,8 +9360,11 @@
       <c r="M182">
         <v>66348758.2273</v>
       </c>
-    </row>
-    <row r="183" spans="1:13">
+      <c r="N182">
+        <v>73812265.3442</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -8858,8 +9404,11 @@
       <c r="M183">
         <v>2886842.7568</v>
       </c>
-    </row>
-    <row r="184" spans="1:13">
+      <c r="N183">
+        <v>3557487.3213</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -8899,8 +9448,11 @@
       <c r="M184">
         <v>35339814.4572</v>
       </c>
-    </row>
-    <row r="185" spans="1:13">
+      <c r="N184">
+        <v>54968313.0927</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -8940,8 +9492,11 @@
       <c r="M185">
         <v>3534680.3055</v>
       </c>
-    </row>
-    <row r="186" spans="1:13">
+      <c r="N185">
+        <v>2785006.2128</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -8981,8 +9536,11 @@
       <c r="M186">
         <v>4716325.2804</v>
       </c>
-    </row>
-    <row r="187" spans="1:13">
+      <c r="N186">
+        <v>5102903.9346</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -9022,8 +9580,11 @@
       <c r="M187">
         <v>2977019.567917</v>
       </c>
-    </row>
-    <row r="188" spans="1:13">
+      <c r="N187">
+        <v>3565384.401545</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -9063,8 +9624,11 @@
       <c r="M188">
         <v>1504688.8426288</v>
       </c>
-    </row>
-    <row r="189" spans="1:13">
+      <c r="N188">
+        <v>1583681.97152438</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -9104,8 +9668,11 @@
       <c r="M189">
         <v>516100.8661694</v>
       </c>
-    </row>
-    <row r="190" spans="1:13">
+      <c r="N189">
+        <v>529380.8851522</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -9145,8 +9712,11 @@
       <c r="M190">
         <v>171957.21799</v>
       </c>
-    </row>
-    <row r="191" spans="1:13">
+      <c r="N190">
+        <v>196619.783</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -9186,8 +9756,11 @@
       <c r="M191">
         <v>3869618.071096</v>
       </c>
-    </row>
-    <row r="192" spans="1:13">
+      <c r="N191">
+        <v>4016245.630426</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -9227,8 +9800,11 @@
       <c r="M192">
         <v>3129666.6826284</v>
       </c>
-    </row>
-    <row r="193" spans="1:13">
+      <c r="N192">
+        <v>3221695.97676761</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -9268,8 +9844,11 @@
       <c r="M193">
         <v>6218340.2339</v>
       </c>
-    </row>
-    <row r="194" spans="1:13">
+      <c r="N193">
+        <v>6477344.32878</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -9309,8 +9888,11 @@
       <c r="M194">
         <v>3818289.68527816</v>
       </c>
-    </row>
-    <row r="195" spans="1:13">
+      <c r="N194">
+        <v>4730638.69822074</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -9350,8 +9932,11 @@
       <c r="M195">
         <v>3986833.5872</v>
       </c>
-    </row>
-    <row r="196" spans="1:13">
+      <c r="N195">
+        <v>7347127.8355</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -9391,8 +9976,11 @@
       <c r="M196">
         <v>2678547.4491</v>
       </c>
-    </row>
-    <row r="197" spans="1:13">
+      <c r="N196">
+        <v>2284667.9174</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -9432,8 +10020,11 @@
       <c r="M197">
         <v>823982.2723599999</v>
       </c>
-    </row>
-    <row r="198" spans="1:13">
+      <c r="N197">
+        <v>895912.50025</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -9473,8 +10064,11 @@
       <c r="M198">
         <v>397179.16721</v>
       </c>
-    </row>
-    <row r="199" spans="1:13">
+      <c r="N198">
+        <v>483589.40197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -9514,8 +10108,11 @@
       <c r="M199">
         <v>57178468.9546</v>
       </c>
-    </row>
-    <row r="200" spans="1:13">
+      <c r="N199">
+        <v>65338423.1806</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -9555,8 +10152,11 @@
       <c r="M200">
         <v>817689.209029</v>
       </c>
-    </row>
-    <row r="201" spans="1:13">
+      <c r="N200">
+        <v>790207.102661</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -9596,8 +10196,11 @@
       <c r="M201">
         <v>3628687.8931</v>
       </c>
-    </row>
-    <row r="202" spans="1:13">
+      <c r="N201">
+        <v>3854712.1118</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -9637,8 +10240,11 @@
       <c r="M202">
         <v>2145335.53411</v>
       </c>
-    </row>
-    <row r="203" spans="1:13">
+      <c r="N202">
+        <v>2396426.54711</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -9678,8 +10284,11 @@
       <c r="M203">
         <v>286203703.8533</v>
       </c>
-    </row>
-    <row r="204" spans="1:13">
+      <c r="N203">
+        <v>300812648.6504</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -9719,8 +10328,11 @@
       <c r="M204">
         <v>34315392.6172</v>
       </c>
-    </row>
-    <row r="205" spans="1:13">
+      <c r="N204">
+        <v>24084550.8465</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -9760,8 +10372,11 @@
       <c r="M205">
         <v>6525314.0745</v>
       </c>
-    </row>
-    <row r="206" spans="1:13">
+      <c r="N205">
+        <v>7072831.2503</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -9801,8 +10416,11 @@
       <c r="M206">
         <v>1248363.52787</v>
       </c>
-    </row>
-    <row r="207" spans="1:13">
+      <c r="N206">
+        <v>1597748.16364</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -9842,8 +10460,11 @@
       <c r="M207">
         <v>844918.64825</v>
       </c>
-    </row>
-    <row r="208" spans="1:13">
+      <c r="N207">
+        <v>1032483.1471</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -9883,8 +10504,11 @@
       <c r="M208">
         <v>6121332.892</v>
       </c>
-    </row>
-    <row r="209" spans="1:13">
+      <c r="N208">
+        <v>7524354.0712</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -9924,8 +10548,11 @@
       <c r="M209">
         <v>2399917.461</v>
       </c>
-    </row>
-    <row r="210" spans="1:13">
+      <c r="N209">
+        <v>2892739.1573</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -9965,8 +10592,11 @@
       <c r="M210">
         <v>8919860.866599999</v>
       </c>
-    </row>
-    <row r="211" spans="1:13">
+      <c r="N210">
+        <v>10570602.6741</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -10006,8 +10636,11 @@
       <c r="M211">
         <v>9224545.021400001</v>
       </c>
-    </row>
-    <row r="212" spans="1:13">
+      <c r="N211">
+        <v>9910562.7534</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -10047,8 +10680,11 @@
       <c r="M212">
         <v>35659493.4458</v>
       </c>
-    </row>
-    <row r="213" spans="1:13">
+      <c r="N212">
+        <v>38755028.0685</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -10088,8 +10724,11 @@
       <c r="M213">
         <v>78789563.42820001</v>
       </c>
-    </row>
-    <row r="214" spans="1:13">
+      <c r="N213">
+        <v>88712719.2229</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -10129,8 +10768,11 @@
       <c r="M214">
         <v>1505712.8336949</v>
       </c>
-    </row>
-    <row r="215" spans="1:13">
+      <c r="N214">
+        <v>1612060.7097075</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -10170,8 +10812,11 @@
       <c r="M215">
         <v>813847.302094</v>
       </c>
-    </row>
-    <row r="216" spans="1:13">
+      <c r="N215">
+        <v>782243.780579</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -10211,8 +10856,11 @@
       <c r="M216">
         <v>279937196.0168</v>
       </c>
-    </row>
-    <row r="217" spans="1:13">
+      <c r="N216">
+        <v>326237861.8489</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -10252,8 +10900,11 @@
       <c r="M217">
         <v>3115460.530394</v>
       </c>
-    </row>
-    <row r="218" spans="1:13">
+      <c r="N217">
+        <v>4421995.111486</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -10293,8 +10944,11 @@
       <c r="M218">
         <v>2451380.91434979</v>
       </c>
-    </row>
-    <row r="219" spans="1:13">
+      <c r="N218">
+        <v>3098618.41639882</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -10334,8 +10988,11 @@
       <c r="M219">
         <v>400271.682512</v>
       </c>
-    </row>
-    <row r="220" spans="1:13">
+      <c r="N219">
+        <v>423615.060297</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -10375,8 +11032,11 @@
       <c r="M220">
         <v>222233.606615</v>
       </c>
-    </row>
-    <row r="221" spans="1:13">
+      <c r="N220">
+        <v>250376.749742</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -10416,8 +11076,11 @@
       <c r="M221">
         <v>8421807.609099999</v>
       </c>
-    </row>
-    <row r="222" spans="1:13">
+      <c r="N221">
+        <v>8498449.575099999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -10457,8 +11120,11 @@
       <c r="M222">
         <v>15626147.559</v>
       </c>
-    </row>
-    <row r="223" spans="1:13">
+      <c r="N222">
+        <v>16578103.3848</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -10498,8 +11164,11 @@
       <c r="M223">
         <v>6158932.7117</v>
       </c>
-    </row>
-    <row r="224" spans="1:13">
+      <c r="N223">
+        <v>5979072.4623</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -10539,8 +11208,11 @@
       <c r="M224">
         <v>281132.7421</v>
       </c>
-    </row>
-    <row r="225" spans="1:13">
+      <c r="N224">
+        <v>409430.808108</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -10580,8 +11252,11 @@
       <c r="M225">
         <v>149235.42836</v>
       </c>
-    </row>
-    <row r="226" spans="1:13">
+      <c r="N225">
+        <v>214705.82238</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -10621,8 +11296,11 @@
       <c r="M226">
         <v>3894102.44432</v>
       </c>
-    </row>
-    <row r="227" spans="1:13">
+      <c r="N226">
+        <v>4678494.86647</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -10662,8 +11340,11 @@
       <c r="M227">
         <v>1103265600.414319</v>
       </c>
-    </row>
-    <row r="228" spans="1:13">
+      <c r="N227">
+        <v>1094052731.818869</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -10703,8 +11384,11 @@
       <c r="M228">
         <v>3402829.5074</v>
       </c>
-    </row>
-    <row r="229" spans="1:13">
+      <c r="N228">
+        <v>3904938.0757</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -10744,8 +11428,11 @@
       <c r="M229">
         <v>3461515.6226</v>
       </c>
-    </row>
-    <row r="230" spans="1:13">
+      <c r="N229">
+        <v>1524863.6862</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -10785,8 +11472,11 @@
       <c r="M230">
         <v>2757471.6725</v>
       </c>
-    </row>
-    <row r="231" spans="1:13">
+      <c r="N230">
+        <v>3058896.5007</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -10826,8 +11516,11 @@
       <c r="M231">
         <v>9220568.1635</v>
       </c>
-    </row>
-    <row r="232" spans="1:13">
+      <c r="N231">
+        <v>10581961.6306</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -10867,8 +11560,11 @@
       <c r="M232">
         <v>16893936.055773</v>
       </c>
-    </row>
-    <row r="233" spans="1:13">
+      <c r="N232">
+        <v>19350437.582648</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -10908,8 +11604,11 @@
       <c r="M233">
         <v>2261788.3052</v>
       </c>
-    </row>
-    <row r="234" spans="1:13">
+      <c r="N233">
+        <v>2451245.0601</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -10949,8 +11648,11 @@
       <c r="M234">
         <v>7009930.2681</v>
       </c>
-    </row>
-    <row r="235" spans="1:13">
+      <c r="N234">
+        <v>7402100.3781</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -10990,8 +11692,11 @@
       <c r="M235">
         <v>2116339.390158</v>
       </c>
-    </row>
-    <row r="236" spans="1:13">
+      <c r="N235">
+        <v>2850128.829918</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -11031,8 +11736,11 @@
       <c r="M236">
         <v>1827518.77781032</v>
       </c>
-    </row>
-    <row r="237" spans="1:13">
+      <c r="N236">
+        <v>2047648.19239667</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -11072,8 +11780,11 @@
       <c r="M237">
         <v>12432866.2831</v>
       </c>
-    </row>
-    <row r="238" spans="1:13">
+      <c r="N237">
+        <v>17368009.7237</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -11113,8 +11824,11 @@
       <c r="M238">
         <v>135598.1706</v>
       </c>
-    </row>
-    <row r="239" spans="1:13">
+      <c r="N238">
+        <v>139171.2328</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -11154,8 +11868,11 @@
       <c r="M239">
         <v>3722596.7582271</v>
       </c>
-    </row>
-    <row r="240" spans="1:13">
+      <c r="N239">
+        <v>4326255.7807306</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -11195,8 +11912,11 @@
       <c r="M240">
         <v>1562567.86232</v>
       </c>
-    </row>
-    <row r="241" spans="1:13">
+      <c r="N240">
+        <v>1811758.42261</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -11236,8 +11956,11 @@
       <c r="M241">
         <v>787869.7702856</v>
       </c>
-    </row>
-    <row r="242" spans="1:13">
+      <c r="N241">
+        <v>817487.0269282</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -11277,8 +12000,11 @@
       <c r="M242">
         <v>303380.73605</v>
       </c>
-    </row>
-    <row r="243" spans="1:13">
+      <c r="N242">
+        <v>308712.91895</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -11318,8 +12044,11 @@
       <c r="M243">
         <v>27185832.0236</v>
       </c>
-    </row>
-    <row r="244" spans="1:13">
+      <c r="N243">
+        <v>25383521.9047</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -11359,8 +12088,11 @@
       <c r="M244">
         <v>2394800.135</v>
       </c>
-    </row>
-    <row r="245" spans="1:13">
+      <c r="N244">
+        <v>2256801.6414</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -11400,8 +12132,11 @@
       <c r="M245">
         <v>3472693.9314</v>
       </c>
-    </row>
-    <row r="246" spans="1:13">
+      <c r="N245">
+        <v>3510573.397</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -11441,8 +12176,11 @@
       <c r="M246">
         <v>29242264.3793</v>
       </c>
-    </row>
-    <row r="247" spans="1:13">
+      <c r="N246">
+        <v>32177740.218</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -11482,8 +12220,11 @@
       <c r="M247">
         <v>13563006.16476</v>
       </c>
-    </row>
-    <row r="248" spans="1:13">
+      <c r="N247">
+        <v>18179052.23464</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -11523,8 +12264,11 @@
       <c r="M248">
         <v>7712033.8403</v>
       </c>
-    </row>
-    <row r="249" spans="1:13">
+      <c r="N248">
+        <v>7323809.2359</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -11564,8 +12308,11 @@
       <c r="M249">
         <v>1464372.5608</v>
       </c>
-    </row>
-    <row r="250" spans="1:13">
+      <c r="N249">
+        <v>1642036.9208</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -11605,8 +12352,11 @@
       <c r="M250">
         <v>796701.4719</v>
       </c>
-    </row>
-    <row r="251" spans="1:13">
+      <c r="N250">
+        <v>824162.4742000001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -11646,8 +12396,11 @@
       <c r="M251">
         <v>40461910.5026</v>
       </c>
-    </row>
-    <row r="252" spans="1:13">
+      <c r="N251">
+        <v>46958616.0954</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -11687,8 +12440,11 @@
       <c r="M252">
         <v>488197.1889</v>
       </c>
-    </row>
-    <row r="253" spans="1:13">
+      <c r="N252">
+        <v>652364.7293</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -11728,8 +12484,11 @@
       <c r="M253">
         <v>1792531.1914</v>
       </c>
-    </row>
-    <row r="254" spans="1:13">
+      <c r="N253">
+        <v>1989896.7107</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -11769,8 +12528,11 @@
       <c r="M254">
         <v>3450273.7479</v>
       </c>
-    </row>
-    <row r="255" spans="1:13">
+      <c r="N254">
+        <v>3431786.649</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -11810,8 +12572,11 @@
       <c r="M255">
         <v>8099646.43083</v>
       </c>
-    </row>
-    <row r="256" spans="1:13">
+      <c r="N255">
+        <v>8581692.217350001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -11851,8 +12616,11 @@
       <c r="M256">
         <v>14735476.28</v>
       </c>
-    </row>
-    <row r="257" spans="1:13">
+      <c r="N256">
+        <v>16425052.6914</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -11892,8 +12660,11 @@
       <c r="M257">
         <v>3351199.8309</v>
       </c>
-    </row>
-    <row r="258" spans="1:13">
+      <c r="N257">
+        <v>2734416.661</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -11933,8 +12704,11 @@
       <c r="M258">
         <v>8759533.907500001</v>
       </c>
-    </row>
-    <row r="259" spans="1:13">
+      <c r="N258">
+        <v>8260525.917</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -11974,8 +12748,11 @@
       <c r="M259">
         <v>3303044.9248</v>
       </c>
-    </row>
-    <row r="260" spans="1:13">
+      <c r="N259">
+        <v>3971004.6743</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -12015,8 +12792,11 @@
       <c r="M260">
         <v>11410150.3741</v>
       </c>
-    </row>
-    <row r="261" spans="1:13">
+      <c r="N260">
+        <v>12616406.3051</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -12056,8 +12836,11 @@
       <c r="M261">
         <v>40321012.7901</v>
       </c>
-    </row>
-    <row r="262" spans="1:13">
+      <c r="N261">
+        <v>41938670.9288</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -12097,8 +12880,11 @@
       <c r="M262">
         <v>1937302.0761</v>
       </c>
-    </row>
-    <row r="263" spans="1:13">
+      <c r="N262">
+        <v>1827430.7277</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -12138,8 +12924,11 @@
       <c r="M263">
         <v>1472649.7609</v>
       </c>
-    </row>
-    <row r="264" spans="1:13">
+      <c r="N263">
+        <v>2293036.8835</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -12179,8 +12968,11 @@
       <c r="M264">
         <v>2547852.4448</v>
       </c>
-    </row>
-    <row r="265" spans="1:13">
+      <c r="N264">
+        <v>2731195.5478</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -12220,8 +13012,11 @@
       <c r="M265">
         <v>3891957.3405</v>
       </c>
-    </row>
-    <row r="266" spans="1:13">
+      <c r="N265">
+        <v>4276483.1549</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -12261,8 +13056,11 @@
       <c r="M266">
         <v>45800670.9817821</v>
       </c>
-    </row>
-    <row r="267" spans="1:13">
+      <c r="N266">
+        <v>41306461.3085188</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -12302,8 +13100,11 @@
       <c r="M267">
         <v>5344894.3206</v>
       </c>
-    </row>
-    <row r="268" spans="1:13">
+      <c r="N267">
+        <v>6376187.2814</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -12343,8 +13144,11 @@
       <c r="M268">
         <v>149186614.5992</v>
       </c>
-    </row>
-    <row r="269" spans="1:13">
+      <c r="N268">
+        <v>157861023.4999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -12384,8 +13188,11 @@
       <c r="M269">
         <v>10869733.2397295</v>
       </c>
-    </row>
-    <row r="270" spans="1:13">
+      <c r="N269">
+        <v>28933186.149813</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -12425,8 +13232,11 @@
       <c r="M270">
         <v>13999358.2172</v>
       </c>
-    </row>
-    <row r="271" spans="1:13">
+      <c r="N270">
+        <v>17337185.4119</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -12466,8 +13276,11 @@
       <c r="M271">
         <v>2779928.8535</v>
       </c>
-    </row>
-    <row r="272" spans="1:13">
+      <c r="N271">
+        <v>3767083.7676</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -12507,8 +13320,11 @@
       <c r="M272">
         <v>8039964.3871</v>
       </c>
-    </row>
-    <row r="273" spans="1:13">
+      <c r="N272">
+        <v>11295384.8482</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -12548,8 +13364,11 @@
       <c r="M273">
         <v>20061400.5138</v>
       </c>
-    </row>
-    <row r="274" spans="1:13">
+      <c r="N273">
+        <v>20420824.5179</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -12589,8 +13408,11 @@
       <c r="M274">
         <v>22183663.8853</v>
       </c>
-    </row>
-    <row r="275" spans="1:13">
+      <c r="N274">
+        <v>35517557.1789</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -12630,8 +13452,11 @@
       <c r="M275">
         <v>2326779.0643</v>
       </c>
-    </row>
-    <row r="276" spans="1:13">
+      <c r="N275">
+        <v>3249447.2517</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -12671,8 +13496,11 @@
       <c r="M276">
         <v>10745696.8123</v>
       </c>
-    </row>
-    <row r="277" spans="1:13">
+      <c r="N276">
+        <v>11280781.7828</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -12712,8 +13540,11 @@
       <c r="M277">
         <v>2933319.0261</v>
       </c>
-    </row>
-    <row r="278" spans="1:13">
+      <c r="N277">
+        <v>3768741.0556</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -12753,8 +13584,11 @@
       <c r="M278">
         <v>58909974.3424</v>
       </c>
-    </row>
-    <row r="279" spans="1:13">
+      <c r="N278">
+        <v>68735998.074</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -12794,8 +13628,11 @@
       <c r="M279">
         <v>1444372.09929809</v>
       </c>
-    </row>
-    <row r="280" spans="1:13">
+      <c r="N279">
+        <v>1652410.81282381</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -12835,8 +13672,11 @@
       <c r="M280">
         <v>1029826.172298</v>
       </c>
-    </row>
-    <row r="281" spans="1:13">
+      <c r="N280">
+        <v>987246.8068766</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -12876,8 +13716,11 @@
       <c r="M281">
         <v>644946.3245</v>
       </c>
-    </row>
-    <row r="282" spans="1:13">
+      <c r="N281">
+        <v>838317.1075</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -12917,8 +13760,11 @@
       <c r="M282">
         <v>2346122.2125</v>
       </c>
-    </row>
-    <row r="283" spans="1:13">
+      <c r="N282">
+        <v>2960797.3304</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -12958,8 +13804,11 @@
       <c r="M283">
         <v>1371632.364</v>
       </c>
-    </row>
-    <row r="284" spans="1:13">
+      <c r="N283">
+        <v>1780927.3585</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -12999,8 +13848,11 @@
       <c r="M284">
         <v>3074887.1362</v>
       </c>
-    </row>
-    <row r="285" spans="1:13">
+      <c r="N284">
+        <v>2494874.3073</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -13040,8 +13892,11 @@
       <c r="M285">
         <v>14537727.6599</v>
       </c>
-    </row>
-    <row r="286" spans="1:13">
+      <c r="N285">
+        <v>15758799.4069</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -13081,8 +13936,11 @@
       <c r="M286">
         <v>2628885.0423</v>
       </c>
-    </row>
-    <row r="287" spans="1:13">
+      <c r="N286">
+        <v>4429299.3488</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -13122,8 +13980,11 @@
       <c r="M287">
         <v>419250631.4979</v>
       </c>
-    </row>
-    <row r="288" spans="1:13">
+      <c r="N287">
+        <v>609258228.9868</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -13163,8 +14024,11 @@
       <c r="M288">
         <v>397453102.020691</v>
       </c>
-    </row>
-    <row r="289" spans="1:13">
+      <c r="N288">
+        <v>763340988.0562098</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -13204,8 +14068,11 @@
       <c r="M289">
         <v>59998260.4639</v>
       </c>
-    </row>
-    <row r="290" spans="1:13">
+      <c r="N289">
+        <v>65350271.3376</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -13245,8 +14112,11 @@
       <c r="M290">
         <v>25420617.4364</v>
       </c>
-    </row>
-    <row r="291" spans="1:13">
+      <c r="N290">
+        <v>28528719.035</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -13286,8 +14156,11 @@
       <c r="M291">
         <v>4410886.8423</v>
       </c>
-    </row>
-    <row r="292" spans="1:13">
+      <c r="N291">
+        <v>10522442.7018</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -13327,8 +14200,11 @@
       <c r="M292">
         <v>5570226.1292</v>
       </c>
-    </row>
-    <row r="293" spans="1:13">
+      <c r="N292">
+        <v>5730908.0589</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -13368,8 +14244,11 @@
       <c r="M293">
         <v>16169733.8559</v>
       </c>
-    </row>
-    <row r="294" spans="1:13">
+      <c r="N293">
+        <v>15747390.6628</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -13409,8 +14288,11 @@
       <c r="M294">
         <v>1234625.9252</v>
       </c>
-    </row>
-    <row r="295" spans="1:13">
+      <c r="N294">
+        <v>1448436.9996</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -13450,8 +14332,11 @@
       <c r="M295">
         <v>2028026.0654</v>
       </c>
-    </row>
-    <row r="296" spans="1:13">
+      <c r="N295">
+        <v>2090922.2875</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -13491,8 +14376,11 @@
       <c r="M296">
         <v>3282243.04778</v>
       </c>
-    </row>
-    <row r="297" spans="1:13">
+      <c r="N296">
+        <v>3308838.16183</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -13532,8 +14420,11 @@
       <c r="M297">
         <v>46124811.8327</v>
       </c>
-    </row>
-    <row r="298" spans="1:13">
+      <c r="N297">
+        <v>41019713.4257</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -13573,8 +14464,11 @@
       <c r="M298">
         <v>7903776.5746</v>
       </c>
-    </row>
-    <row r="299" spans="1:13">
+      <c r="N298">
+        <v>6831157.3398</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -13614,8 +14508,11 @@
       <c r="M299">
         <v>2049706.2169</v>
       </c>
-    </row>
-    <row r="300" spans="1:13">
+      <c r="N299">
+        <v>2032816.1784</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -13655,8 +14552,11 @@
       <c r="M300">
         <v>5080711.7857</v>
       </c>
-    </row>
-    <row r="301" spans="1:13">
+      <c r="N300">
+        <v>4555908.2533</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -13696,8 +14596,11 @@
       <c r="M301">
         <v>2349785.6004</v>
       </c>
-    </row>
-    <row r="302" spans="1:13">
+      <c r="N301">
+        <v>5080506.9678</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -13737,8 +14640,11 @@
       <c r="M302">
         <v>4678095.0438</v>
       </c>
-    </row>
-    <row r="303" spans="1:13">
+      <c r="N302">
+        <v>7377064.1447</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -13778,8 +14684,11 @@
       <c r="M303">
         <v>3525415.0999</v>
       </c>
-    </row>
-    <row r="304" spans="1:13">
+      <c r="N303">
+        <v>3209116.1243</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -13819,8 +14728,11 @@
       <c r="M304">
         <v>1451691.5677</v>
       </c>
-    </row>
-    <row r="305" spans="1:13">
+      <c r="N304">
+        <v>1561238.3417</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -13860,8 +14772,11 @@
       <c r="M305">
         <v>2032755.012</v>
       </c>
-    </row>
-    <row r="306" spans="1:13">
+      <c r="N305">
+        <v>3445562.6339</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -13901,8 +14816,11 @@
       <c r="M306">
         <v>2798084.7989</v>
       </c>
-    </row>
-    <row r="307" spans="1:13">
+      <c r="N306">
+        <v>3259718.612</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -13942,8 +14860,11 @@
       <c r="M307">
         <v>78629251.6473</v>
       </c>
-    </row>
-    <row r="308" spans="1:13">
+      <c r="N307">
+        <v>88543443.1279</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -13983,8 +14904,11 @@
       <c r="M308">
         <v>6519644.4415</v>
       </c>
-    </row>
-    <row r="309" spans="1:13">
+      <c r="N308">
+        <v>6796676.0367</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -14024,8 +14948,11 @@
       <c r="M309">
         <v>11058878.3859</v>
       </c>
-    </row>
-    <row r="310" spans="1:13">
+      <c r="N309">
+        <v>15883016.9263</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -14065,8 +14992,11 @@
       <c r="M310">
         <v>18364351.3726</v>
       </c>
-    </row>
-    <row r="311" spans="1:13">
+      <c r="N310">
+        <v>27042212.3703</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -14106,8 +15036,11 @@
       <c r="M311">
         <v>4846574.9178</v>
       </c>
-    </row>
-    <row r="312" spans="1:13">
+      <c r="N311">
+        <v>5574718.776</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -14147,8 +15080,11 @@
       <c r="M312">
         <v>24088508.3147</v>
       </c>
-    </row>
-    <row r="313" spans="1:13">
+      <c r="N312">
+        <v>26342489.8656</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -14188,8 +15124,11 @@
       <c r="M313">
         <v>14134146.8216</v>
       </c>
-    </row>
-    <row r="314" spans="1:13">
+      <c r="N313">
+        <v>14839802.6747</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -14229,8 +15168,11 @@
       <c r="M314">
         <v>1840020.1984</v>
       </c>
-    </row>
-    <row r="315" spans="1:13">
+      <c r="N314">
+        <v>2139466.5051</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -14270,8 +15212,11 @@
       <c r="M315">
         <v>3140627.14123</v>
       </c>
-    </row>
-    <row r="316" spans="1:13">
+      <c r="N315">
+        <v>4528346.78402</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -14311,8 +15256,11 @@
       <c r="M316">
         <v>1491794.3325</v>
       </c>
-    </row>
-    <row r="317" spans="1:13">
+      <c r="N316">
+        <v>1993625.7774</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -14352,8 +15300,11 @@
       <c r="M317">
         <v>46523948.8415</v>
       </c>
-    </row>
-    <row r="318" spans="1:13">
+      <c r="N317">
+        <v>55664478.3295</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -14393,8 +15344,11 @@
       <c r="M318">
         <v>8109346.64572</v>
       </c>
-    </row>
-    <row r="319" spans="1:13">
+      <c r="N318">
+        <v>8166230.58802</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -14434,8 +15388,11 @@
       <c r="M319">
         <v>1151118.6412</v>
       </c>
-    </row>
-    <row r="320" spans="1:13">
+      <c r="N319">
+        <v>1006478.734</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -14475,8 +15432,11 @@
       <c r="M320">
         <v>1000529.6767</v>
       </c>
-    </row>
-    <row r="321" spans="1:13">
+      <c r="N320">
+        <v>4606826.9533</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -14516,8 +15476,11 @@
       <c r="M321">
         <v>15906058.2568</v>
       </c>
-    </row>
-    <row r="322" spans="1:13">
+      <c r="N321">
+        <v>15005342.8701</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -14557,8 +15520,11 @@
       <c r="M322">
         <v>2159349.2984</v>
       </c>
-    </row>
-    <row r="323" spans="1:13">
+      <c r="N322">
+        <v>3052512.7037</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -14598,8 +15564,11 @@
       <c r="M323">
         <v>174294.2235</v>
       </c>
-    </row>
-    <row r="324" spans="1:13">
+      <c r="N323">
+        <v>227007.2005</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -14639,8 +15608,11 @@
       <c r="M324">
         <v>24128378.16504245</v>
       </c>
-    </row>
-    <row r="325" spans="1:13">
+      <c r="N324">
+        <v>27301637.37450949</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -14680,8 +15652,11 @@
       <c r="M325">
         <v>5624761.18446</v>
       </c>
-    </row>
-    <row r="326" spans="1:13">
+      <c r="N325">
+        <v>6240666.81829</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -14721,8 +15696,11 @@
       <c r="M326">
         <v>369361534.39905</v>
       </c>
-    </row>
-    <row r="327" spans="1:13">
+      <c r="N326">
+        <v>394188158.26132</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -14762,8 +15740,11 @@
       <c r="M327">
         <v>37744446.64868</v>
       </c>
-    </row>
-    <row r="328" spans="1:13">
+      <c r="N327">
+        <v>41929972.97884</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -14803,8 +15784,11 @@
       <c r="M328">
         <v>14162819.508454</v>
       </c>
-    </row>
-    <row r="329" spans="1:13">
+      <c r="N328">
+        <v>14030615.062485</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -14844,8 +15828,11 @@
       <c r="M329">
         <v>4543286.28865</v>
       </c>
-    </row>
-    <row r="330" spans="1:13">
+      <c r="N329">
+        <v>3766793.53862</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -14885,8 +15872,11 @@
       <c r="M330">
         <v>3361737.601117</v>
       </c>
-    </row>
-    <row r="331" spans="1:13">
+      <c r="N330">
+        <v>2635154.463292</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -14926,8 +15916,11 @@
       <c r="M331">
         <v>236843864.23864</v>
       </c>
-    </row>
-    <row r="332" spans="1:13">
+      <c r="N331">
+        <v>188270099.27075</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -14967,8 +15960,11 @@
       <c r="M332">
         <v>4817527.1503</v>
       </c>
-    </row>
-    <row r="333" spans="1:13">
+      <c r="N332">
+        <v>3942974.3309</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -15008,8 +16004,11 @@
       <c r="M333">
         <v>48478423.8762</v>
       </c>
-    </row>
-    <row r="334" spans="1:13">
+      <c r="N333">
+        <v>44517834.034</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -15049,8 +16048,11 @@
       <c r="M334">
         <v>1036034.8898</v>
       </c>
-    </row>
-    <row r="335" spans="1:13">
+      <c r="N334">
+        <v>1132676.4564</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -15089,6 +16091,9 @@
       </c>
       <c r="M335">
         <v>3487598.3701</v>
+      </c>
+      <c r="N335">
+        <v>3800472.7266</v>
       </c>
     </row>
   </sheetData>

--- a/volumeTracker.xlsx
+++ b/volumeTracker.xlsx
@@ -1350,13 +1350,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N335"/>
+  <dimension ref="A1:O335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1399,8 +1399,11 @@
       <c r="N1">
         <v>2152537284.523071</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1">
+        <v>2300625018.039256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1443,8 +1446,11 @@
       <c r="N2">
         <v>1644510560.225459</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>1551289159.564179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1487,8 +1493,11 @@
       <c r="N3">
         <v>418290038.1553</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>354374207.7778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1531,8 +1540,11 @@
       <c r="N4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1575,8 +1587,11 @@
       <c r="N5">
         <v>22774701.5737</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>21812745.9763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1619,8 +1634,11 @@
       <c r="N6">
         <v>100881847.1321</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>94722279.33130001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1663,8 +1681,11 @@
       <c r="N7">
         <v>66179072.8435</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>46905532.2125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1707,8 +1728,11 @@
       <c r="N8">
         <v>348920857.4342</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>297227838.8057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1751,8 +1775,11 @@
       <c r="N9">
         <v>449680060.574</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>407477584.0203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1795,8 +1822,11 @@
       <c r="N10">
         <v>136918485.1322</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>141667388.694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1839,8 +1869,11 @@
       <c r="N11">
         <v>5244800.9123</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>5871417.4795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1883,8 +1916,11 @@
       <c r="N12">
         <v>44451250.4812</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>30274545.6929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1927,8 +1963,11 @@
       <c r="N13">
         <v>44920940.9515</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>48664405.4377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1971,8 +2010,11 @@
       <c r="N14">
         <v>29727143.5475</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>25092581.9127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2015,8 +2057,11 @@
       <c r="N15">
         <v>112086798.852156</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>189984372.679425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2059,8 +2104,11 @@
       <c r="N16">
         <v>83601683.8096</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>89657560.2999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2103,8 +2151,11 @@
       <c r="N17">
         <v>33836064.7525</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>52124034.022043</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2147,8 +2198,11 @@
       <c r="N18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2191,8 +2245,11 @@
       <c r="N19">
         <v>1202795.9329</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1204957.6936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2235,8 +2292,11 @@
       <c r="N20">
         <v>114051240.008107</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>115000093.753785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2279,8 +2339,11 @@
       <c r="N21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2323,8 +2386,11 @@
       <c r="N22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2367,8 +2433,11 @@
       <c r="N23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2411,8 +2480,11 @@
       <c r="N24">
         <v>94178460.48</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>100081438.0975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2455,8 +2527,11 @@
       <c r="N25">
         <v>154489454.5667</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25">
+        <v>137865896.5355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2499,8 +2574,11 @@
       <c r="N26">
         <v>13848944.2437</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26">
+        <v>15141347.3471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2621,11 @@
       <c r="N27">
         <v>34036234.574003</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27">
+        <v>37434236.542369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2587,8 +2668,11 @@
       <c r="N28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2631,8 +2715,11 @@
       <c r="N29">
         <v>2735337.2579</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29">
+        <v>3589634.9425</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2675,8 +2762,11 @@
       <c r="N30">
         <v>62245298.797373</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30">
+        <v>40215410.799621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2719,8 +2809,11 @@
       <c r="N31">
         <v>20835005.232448</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31">
+        <v>22127878.065198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2763,8 +2856,11 @@
       <c r="N32">
         <v>4102957.988</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32">
+        <v>3439100.5322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2903,11 @@
       <c r="N33">
         <v>116622692.9992</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33">
+        <v>117249904.6418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2851,8 +2950,11 @@
       <c r="N34">
         <v>7809669.4004</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34">
+        <v>6689159.3808</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2895,8 +2997,11 @@
       <c r="N35">
         <v>22735893.9418</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35">
+        <v>25627608.9489</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2939,8 +3044,11 @@
       <c r="N36">
         <v>20725789.7153</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36">
+        <v>18341028.8955</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2983,8 +3091,11 @@
       <c r="N37">
         <v>36792009.87484</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37">
+        <v>36754695.54093</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3027,8 +3138,11 @@
       <c r="N38">
         <v>120465141.790192</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38">
+        <v>86378450.14409401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3071,8 +3185,11 @@
       <c r="N39">
         <v>22369331.617</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="O39">
+        <v>19866395.7532</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3115,8 +3232,11 @@
       <c r="N40">
         <v>24444604.9695</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40">
+        <v>11959622.5286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3159,8 +3279,11 @@
       <c r="N41">
         <v>381152692.019941</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="O41">
+        <v>360372776.496941</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3203,8 +3326,11 @@
       <c r="N42">
         <v>94629125.9333</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42">
+        <v>88161990.2466</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3247,8 +3373,11 @@
       <c r="N43">
         <v>40612337.3829</v>
       </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="O43">
+        <v>29619185.3609</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3291,8 +3420,11 @@
       <c r="N44">
         <v>1996844.211927</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="O44">
+        <v>2079077.881896</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3335,8 +3467,11 @@
       <c r="N45">
         <v>146444665.8881</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="O45">
+        <v>113835254.8437</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3379,8 +3514,11 @@
       <c r="N46">
         <v>151702608.0789</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="O46">
+        <v>150418570.548</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3423,8 +3561,11 @@
       <c r="N47">
         <v>9393629.654200001</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="O47">
+        <v>11825735.989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3467,8 +3608,11 @@
       <c r="N48">
         <v>124058662.296439</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="O48">
+        <v>108206982.464496</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3511,8 +3655,11 @@
       <c r="N49">
         <v>224530882.8832</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="O49">
+        <v>191489250.7891</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3555,8 +3702,11 @@
       <c r="N50">
         <v>277264777.9105</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="O50">
+        <v>190157756.8394</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3599,8 +3749,11 @@
       <c r="N51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3643,8 +3796,11 @@
       <c r="N52">
         <v>1868433.427968</v>
       </c>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="O52">
+        <v>1488180.649734</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3687,8 +3843,11 @@
       <c r="N53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3731,8 +3890,11 @@
       <c r="N54">
         <v>472282163.1856</v>
       </c>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="O54">
+        <v>804759412.1390001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3775,8 +3937,11 @@
       <c r="N55">
         <v>1332681.8937</v>
       </c>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="O55">
+        <v>1103444.058</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3819,8 +3984,11 @@
       <c r="N56">
         <v>5839273.829639</v>
       </c>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="O56">
+        <v>8560821.262891</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3863,8 +4031,11 @@
       <c r="N57">
         <v>19739032.8528538</v>
       </c>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="O57">
+        <v>53869046.4445606</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3907,8 +4078,11 @@
       <c r="N58">
         <v>4562283.424293</v>
       </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="O58">
+        <v>3854824.857504</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3951,8 +4125,11 @@
       <c r="N59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3995,8 +4172,11 @@
       <c r="N60">
         <v>2094836.4655</v>
       </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="O60">
+        <v>1854990.2062</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -4039,8 +4219,11 @@
       <c r="N61">
         <v>15389276.9252</v>
       </c>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="O61">
+        <v>14442132.9993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -4083,8 +4266,11 @@
       <c r="N62">
         <v>10420910.7388</v>
       </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="O62">
+        <v>13546186.9554</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -4127,8 +4313,11 @@
       <c r="N63">
         <v>1481857.039732</v>
       </c>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="O63">
+        <v>1449812.036399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -4171,8 +4360,11 @@
       <c r="N64">
         <v>71398295.82064199</v>
       </c>
-    </row>
-    <row r="65" spans="1:14">
+      <c r="O64">
+        <v>62160114.589939</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -4215,8 +4407,11 @@
       <c r="N65">
         <v>1695156.939455</v>
       </c>
-    </row>
-    <row r="66" spans="1:14">
+      <c r="O65">
+        <v>1747443.546997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -4259,8 +4454,11 @@
       <c r="N66">
         <v>2206604.224147</v>
       </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="O66">
+        <v>2307736.077376</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -4303,8 +4501,11 @@
       <c r="N67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -4347,8 +4548,11 @@
       <c r="N68">
         <v>3048659.68136</v>
       </c>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="O68">
+        <v>3454557.66819</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -4391,8 +4595,11 @@
       <c r="N69">
         <v>2664285.2941</v>
       </c>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="O69">
+        <v>2504259.5627</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -4435,8 +4642,11 @@
       <c r="N70">
         <v>16843137.52513</v>
       </c>
-    </row>
-    <row r="71" spans="1:14">
+      <c r="O70">
+        <v>15176198.59552</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -4479,8 +4689,11 @@
       <c r="N71">
         <v>16910236.1074</v>
       </c>
-    </row>
-    <row r="72" spans="1:14">
+      <c r="O71">
+        <v>12077375.5734</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -4523,8 +4736,11 @@
       <c r="N72">
         <v>45471777.8359</v>
       </c>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="O72">
+        <v>41292134.8744</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -4567,8 +4783,11 @@
       <c r="N73">
         <v>6611830.0606</v>
       </c>
-    </row>
-    <row r="74" spans="1:14">
+      <c r="O73">
+        <v>7013112.418</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -4611,8 +4830,11 @@
       <c r="N74">
         <v>835297530.9155</v>
       </c>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="O74">
+        <v>867505278.6379</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -4655,8 +4877,11 @@
       <c r="N75">
         <v>2238560.1522</v>
       </c>
-    </row>
-    <row r="76" spans="1:14">
+      <c r="O75">
+        <v>2199919.3581</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -4699,8 +4924,11 @@
       <c r="N76">
         <v>269746573.37341</v>
       </c>
-    </row>
-    <row r="77" spans="1:14">
+      <c r="O76">
+        <v>199722694.8961</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -4743,8 +4971,11 @@
       <c r="N77">
         <v>25719212.8381</v>
       </c>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="O77">
+        <v>33382749.4298</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -4787,8 +5018,11 @@
       <c r="N78">
         <v>13530654.982933</v>
       </c>
-    </row>
-    <row r="79" spans="1:14">
+      <c r="O78">
+        <v>13330879.373951</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -4831,8 +5065,11 @@
       <c r="N79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:14">
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -4875,8 +5112,11 @@
       <c r="N80">
         <v>69248629.7899</v>
       </c>
-    </row>
-    <row r="81" spans="1:14">
+      <c r="O80">
+        <v>81002455.73190001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -4919,8 +5159,11 @@
       <c r="N81">
         <v>10324233.9978</v>
       </c>
-    </row>
-    <row r="82" spans="1:14">
+      <c r="O81">
+        <v>9097503.6183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -4963,8 +5206,11 @@
       <c r="N82">
         <v>5834999.6194</v>
       </c>
-    </row>
-    <row r="83" spans="1:14">
+      <c r="O82">
+        <v>7150137.6147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -5007,8 +5253,11 @@
       <c r="N83">
         <v>56308931.6671</v>
       </c>
-    </row>
-    <row r="84" spans="1:14">
+      <c r="O83">
+        <v>27997559.1567</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -5051,8 +5300,11 @@
       <c r="N84">
         <v>14148371.892852</v>
       </c>
-    </row>
-    <row r="85" spans="1:14">
+      <c r="O84">
+        <v>11478907.898189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -5095,8 +5347,11 @@
       <c r="N85">
         <v>13735181.48917</v>
       </c>
-    </row>
-    <row r="86" spans="1:14">
+      <c r="O85">
+        <v>12489337.92626</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5394,11 @@
       <c r="N86">
         <v>5193273.4853</v>
       </c>
-    </row>
-    <row r="87" spans="1:14">
+      <c r="O86">
+        <v>4245457.8827</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5441,11 @@
       <c r="N87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:14">
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -5227,8 +5488,11 @@
       <c r="N88">
         <v>2270788.3468</v>
       </c>
-    </row>
-    <row r="89" spans="1:14">
+      <c r="O88">
+        <v>2245148.2964</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -5271,8 +5535,11 @@
       <c r="N89">
         <v>50428861.391</v>
       </c>
-    </row>
-    <row r="90" spans="1:14">
+      <c r="O89">
+        <v>57945127.2128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -5315,8 +5582,11 @@
       <c r="N90">
         <v>33810190.253932</v>
       </c>
-    </row>
-    <row r="91" spans="1:14">
+      <c r="O90">
+        <v>23166554.664171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -5359,8 +5629,11 @@
       <c r="N91">
         <v>2408766.662381</v>
       </c>
-    </row>
-    <row r="92" spans="1:14">
+      <c r="O91">
+        <v>2853589.832295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -5403,8 +5676,11 @@
       <c r="N92">
         <v>130843419.6793</v>
       </c>
-    </row>
-    <row r="93" spans="1:14">
+      <c r="O92">
+        <v>105577730.2505</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -5447,8 +5723,11 @@
       <c r="N93">
         <v>38994651.6292</v>
       </c>
-    </row>
-    <row r="94" spans="1:14">
+      <c r="O93">
+        <v>40950464.4181</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -5491,8 +5770,11 @@
       <c r="N94">
         <v>30211422.0381</v>
       </c>
-    </row>
-    <row r="95" spans="1:14">
+      <c r="O94">
+        <v>39373499.2528</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -5535,8 +5817,11 @@
       <c r="N95">
         <v>721435.9138</v>
       </c>
-    </row>
-    <row r="96" spans="1:14">
+      <c r="O95">
+        <v>684759.9969</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -5579,8 +5864,11 @@
       <c r="N96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:14">
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -5623,8 +5911,11 @@
       <c r="N97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:14">
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -5667,8 +5958,11 @@
       <c r="N98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:14">
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -5711,8 +6005,11 @@
       <c r="N99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:14">
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -5755,8 +6052,11 @@
       <c r="N100">
         <v>2360331.52944</v>
       </c>
-    </row>
-    <row r="101" spans="1:14">
+      <c r="O100">
+        <v>1584253.36804</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -5799,8 +6099,11 @@
       <c r="N101">
         <v>9457806.191299999</v>
       </c>
-    </row>
-    <row r="102" spans="1:14">
+      <c r="O101">
+        <v>8438329.885199999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -5843,8 +6146,11 @@
       <c r="N102">
         <v>2664836.698715</v>
       </c>
-    </row>
-    <row r="103" spans="1:14">
+      <c r="O102">
+        <v>2320941.016712</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -5887,8 +6193,11 @@
       <c r="N103">
         <v>3542398.2491</v>
       </c>
-    </row>
-    <row r="104" spans="1:14">
+      <c r="O103">
+        <v>2565413.8038</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -5931,8 +6240,11 @@
       <c r="N104">
         <v>1092959.9888</v>
       </c>
-    </row>
-    <row r="105" spans="1:14">
+      <c r="O104">
+        <v>775515.3436</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -5975,8 +6287,11 @@
       <c r="N105">
         <v>3395849.5854</v>
       </c>
-    </row>
-    <row r="106" spans="1:14">
+      <c r="O105">
+        <v>3161331.6401</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -6019,8 +6334,11 @@
       <c r="N106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:14">
+      <c r="O106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -6063,8 +6381,11 @@
       <c r="N107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:14">
+      <c r="O107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -6107,8 +6428,11 @@
       <c r="N108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:14">
+      <c r="O108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -6151,8 +6475,11 @@
       <c r="N109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:14">
+      <c r="O109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -6195,8 +6522,11 @@
       <c r="N110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:14">
+      <c r="O110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -6239,8 +6569,11 @@
       <c r="N111">
         <v>3308098.1222</v>
       </c>
-    </row>
-    <row r="112" spans="1:14">
+      <c r="O111">
+        <v>4051548.8039</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -6283,8 +6616,11 @@
       <c r="N112">
         <v>1530777.188316</v>
       </c>
-    </row>
-    <row r="113" spans="1:14">
+      <c r="O112">
+        <v>1533669.462485</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -6327,8 +6663,11 @@
       <c r="N113">
         <v>79340068.6235</v>
       </c>
-    </row>
-    <row r="114" spans="1:14">
+      <c r="O113">
+        <v>64944698.7575</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -6371,8 +6710,11 @@
       <c r="N114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:14">
+      <c r="O114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -6415,8 +6757,11 @@
       <c r="N115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:14">
+      <c r="O115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -6459,8 +6804,11 @@
       <c r="N116">
         <v>1729273.968868</v>
       </c>
-    </row>
-    <row r="117" spans="1:14">
+      <c r="O116">
+        <v>3694439.402397</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -6503,8 +6851,11 @@
       <c r="N117">
         <v>3802506.1405</v>
       </c>
-    </row>
-    <row r="118" spans="1:14">
+      <c r="O117">
+        <v>3455213.2831</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -6547,8 +6898,11 @@
       <c r="N118">
         <v>3383497.970081</v>
       </c>
-    </row>
-    <row r="119" spans="1:14">
+      <c r="O118">
+        <v>4192966.208796</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -6591,8 +6945,11 @@
       <c r="N119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:14">
+      <c r="O119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -6635,8 +6992,11 @@
       <c r="N120">
         <v>764847189.6799001</v>
       </c>
-    </row>
-    <row r="121" spans="1:14">
+      <c r="O120">
+        <v>670350138.7833</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -6679,8 +7039,11 @@
       <c r="N121">
         <v>11569840.8977</v>
       </c>
-    </row>
-    <row r="122" spans="1:14">
+      <c r="O121">
+        <v>9246242.7125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -6723,8 +7086,11 @@
       <c r="N122">
         <v>4071889.4961</v>
       </c>
-    </row>
-    <row r="123" spans="1:14">
+      <c r="O122">
+        <v>2882476.7459</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -6767,8 +7133,11 @@
       <c r="N123">
         <v>24864016.8443</v>
       </c>
-    </row>
-    <row r="124" spans="1:14">
+      <c r="O123">
+        <v>21090758.9048</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -6811,8 +7180,11 @@
       <c r="N124">
         <v>4934462.20656</v>
       </c>
-    </row>
-    <row r="125" spans="1:14">
+      <c r="O124">
+        <v>5021568.09833</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -6855,8 +7227,11 @@
       <c r="N125">
         <v>8661970.0808871</v>
       </c>
-    </row>
-    <row r="126" spans="1:14">
+      <c r="O125">
+        <v>9109744.960236199</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -6899,8 +7274,11 @@
       <c r="N126">
         <v>682755.6061</v>
       </c>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="O126">
+        <v>590202.8918</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -6943,8 +7321,11 @@
       <c r="N127">
         <v>2211519.4027</v>
       </c>
-    </row>
-    <row r="128" spans="1:14">
+      <c r="O127">
+        <v>1601625.2036</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -6987,8 +7368,11 @@
       <c r="N128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:14">
+      <c r="O128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -7031,8 +7415,11 @@
       <c r="N129">
         <v>1239457.960872</v>
       </c>
-    </row>
-    <row r="130" spans="1:14">
+      <c r="O129">
+        <v>1229145.884523</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -7075,8 +7462,11 @@
       <c r="N130">
         <v>5482747.15396</v>
       </c>
-    </row>
-    <row r="131" spans="1:14">
+      <c r="O130">
+        <v>5154600.36516</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -7119,8 +7509,11 @@
       <c r="N131">
         <v>6689496.4935</v>
       </c>
-    </row>
-    <row r="132" spans="1:14">
+      <c r="O131">
+        <v>5038420.1534</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -7163,8 +7556,11 @@
       <c r="N132">
         <v>2594861.3406</v>
       </c>
-    </row>
-    <row r="133" spans="1:14">
+      <c r="O132">
+        <v>1760651.2029</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -7207,8 +7603,11 @@
       <c r="N133">
         <v>11241594.6679</v>
       </c>
-    </row>
-    <row r="134" spans="1:14">
+      <c r="O133">
+        <v>8508814.282600001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -7251,8 +7650,11 @@
       <c r="N134">
         <v>4226234.5242</v>
       </c>
-    </row>
-    <row r="135" spans="1:14">
+      <c r="O134">
+        <v>4260366.8087</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -7295,8 +7697,11 @@
       <c r="N135">
         <v>30612950.2269</v>
       </c>
-    </row>
-    <row r="136" spans="1:14">
+      <c r="O135">
+        <v>38901920.0772</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -7339,8 +7744,11 @@
       <c r="N136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:14">
+      <c r="O136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -7383,8 +7791,11 @@
       <c r="N137">
         <v>8778356.62379</v>
       </c>
-    </row>
-    <row r="138" spans="1:14">
+      <c r="O137">
+        <v>7896364.53654</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -7427,8 +7838,11 @@
       <c r="N138">
         <v>12417758.7305</v>
       </c>
-    </row>
-    <row r="139" spans="1:14">
+      <c r="O138">
+        <v>12669516.4865</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -7471,8 +7885,11 @@
       <c r="N139">
         <v>13717177.1256</v>
       </c>
-    </row>
-    <row r="140" spans="1:14">
+      <c r="O139">
+        <v>18370933.365</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -7515,8 +7932,11 @@
       <c r="N140">
         <v>7467718.86067</v>
       </c>
-    </row>
-    <row r="141" spans="1:14">
+      <c r="O140">
+        <v>6265480.39998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -7559,8 +7979,11 @@
       <c r="N141">
         <v>10702928.74674</v>
       </c>
-    </row>
-    <row r="142" spans="1:14">
+      <c r="O141">
+        <v>9874789.6139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -7603,8 +8026,11 @@
       <c r="N142">
         <v>2770016.38001</v>
       </c>
-    </row>
-    <row r="143" spans="1:14">
+      <c r="O142">
+        <v>2336665.71451</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -7647,8 +8073,11 @@
       <c r="N143">
         <v>1302187.49598944</v>
       </c>
-    </row>
-    <row r="144" spans="1:14">
+      <c r="O143">
+        <v>1117382.3133755</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -7691,8 +8120,11 @@
       <c r="N144">
         <v>3759788.253091</v>
       </c>
-    </row>
-    <row r="145" spans="1:14">
+      <c r="O144">
+        <v>2917945.696415</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -7735,8 +8167,11 @@
       <c r="N145">
         <v>1072804.8774792</v>
       </c>
-    </row>
-    <row r="146" spans="1:14">
+      <c r="O145">
+        <v>785377.5830472</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -7779,8 +8214,11 @@
       <c r="N146">
         <v>3954967.058042</v>
       </c>
-    </row>
-    <row r="147" spans="1:14">
+      <c r="O146">
+        <v>7426019.908816</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -7823,8 +8261,11 @@
       <c r="N147">
         <v>6013141.741085</v>
       </c>
-    </row>
-    <row r="148" spans="1:14">
+      <c r="O147">
+        <v>5432410.690695</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -7867,8 +8308,11 @@
       <c r="N148">
         <v>12373469.7964</v>
       </c>
-    </row>
-    <row r="149" spans="1:14">
+      <c r="O148">
+        <v>12460502.7956</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -7911,8 +8355,11 @@
       <c r="N149">
         <v>38220029.0158</v>
       </c>
-    </row>
-    <row r="150" spans="1:14">
+      <c r="O149">
+        <v>36640075.4717</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -7955,8 +8402,11 @@
       <c r="N150">
         <v>7300321.9843</v>
       </c>
-    </row>
-    <row r="151" spans="1:14">
+      <c r="O150">
+        <v>8174515.4496</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -7999,8 +8449,11 @@
       <c r="N151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:14">
+      <c r="O151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -8043,8 +8496,11 @@
       <c r="N152">
         <v>1075127.0245</v>
       </c>
-    </row>
-    <row r="153" spans="1:14">
+      <c r="O152">
+        <v>1554733.1777</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -8087,8 +8543,11 @@
       <c r="N153">
         <v>6148562.9129</v>
       </c>
-    </row>
-    <row r="154" spans="1:14">
+      <c r="O153">
+        <v>6253204.0396</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -8131,8 +8590,11 @@
       <c r="N154">
         <v>2586912.0592</v>
       </c>
-    </row>
-    <row r="155" spans="1:14">
+      <c r="O154">
+        <v>2087508.973</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -8175,8 +8637,11 @@
       <c r="N155">
         <v>3194221.273791</v>
       </c>
-    </row>
-    <row r="156" spans="1:14">
+      <c r="O155">
+        <v>2693989.835685</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -8219,8 +8684,11 @@
       <c r="N156">
         <v>9906667.0371486</v>
       </c>
-    </row>
-    <row r="157" spans="1:14">
+      <c r="O156">
+        <v>7502187.2176126</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -8263,8 +8731,11 @@
       <c r="N157">
         <v>4068049.48126</v>
       </c>
-    </row>
-    <row r="158" spans="1:14">
+      <c r="O157">
+        <v>3028355.5894</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -8307,8 +8778,11 @@
       <c r="N158">
         <v>39826110.2108</v>
       </c>
-    </row>
-    <row r="159" spans="1:14">
+      <c r="O158">
+        <v>43707329.4643</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -8351,8 +8825,11 @@
       <c r="N159">
         <v>28013417.7519</v>
       </c>
-    </row>
-    <row r="160" spans="1:14">
+      <c r="O159">
+        <v>28319030.0507</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -8395,8 +8872,11 @@
       <c r="N160">
         <v>11172849.0063599</v>
       </c>
-    </row>
-    <row r="161" spans="1:14">
+      <c r="O160">
+        <v>11267542.8331837</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -8439,8 +8919,11 @@
       <c r="N161">
         <v>3259274.1683</v>
       </c>
-    </row>
-    <row r="162" spans="1:14">
+      <c r="O161">
+        <v>3453481.1273</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -8483,8 +8966,11 @@
       <c r="N162">
         <v>9012353.215600001</v>
       </c>
-    </row>
-    <row r="163" spans="1:14">
+      <c r="O162">
+        <v>9241562.135399999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -8527,8 +9013,11 @@
       <c r="N163">
         <v>2502389.728699</v>
       </c>
-    </row>
-    <row r="164" spans="1:14">
+      <c r="O163">
+        <v>2114796.256493</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -8571,8 +9060,11 @@
       <c r="N164">
         <v>22169627.094</v>
       </c>
-    </row>
-    <row r="165" spans="1:14">
+      <c r="O164">
+        <v>22910258.2929</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -8615,8 +9107,11 @@
       <c r="N165">
         <v>1575329.38148</v>
       </c>
-    </row>
-    <row r="166" spans="1:14">
+      <c r="O165">
+        <v>2387918.405568</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -8659,8 +9154,11 @@
       <c r="N166">
         <v>63797164.6986</v>
       </c>
-    </row>
-    <row r="167" spans="1:14">
+      <c r="O166">
+        <v>52063657.7479</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -8703,8 +9201,11 @@
       <c r="N167">
         <v>1160003.6123</v>
       </c>
-    </row>
-    <row r="168" spans="1:14">
+      <c r="O167">
+        <v>1594245.679</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -8747,8 +9248,11 @@
       <c r="N168">
         <v>63501388.0513</v>
       </c>
-    </row>
-    <row r="169" spans="1:14">
+      <c r="O168">
+        <v>76273778.24339999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -8791,8 +9295,11 @@
       <c r="N169">
         <v>74334984.124</v>
       </c>
-    </row>
-    <row r="170" spans="1:14">
+      <c r="O169">
+        <v>53421225.302</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -8835,8 +9342,11 @@
       <c r="N170">
         <v>6887439.7918</v>
       </c>
-    </row>
-    <row r="171" spans="1:14">
+      <c r="O170">
+        <v>7980065.1533</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -8879,8 +9389,11 @@
       <c r="N171">
         <v>1743779.249</v>
       </c>
-    </row>
-    <row r="172" spans="1:14">
+      <c r="O171">
+        <v>1901580.1847</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -8923,8 +9436,11 @@
       <c r="N172">
         <v>287295589.2181</v>
       </c>
-    </row>
-    <row r="173" spans="1:14">
+      <c r="O172">
+        <v>266051582.4305</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -8967,8 +9483,11 @@
       <c r="N173">
         <v>560737492.914623</v>
       </c>
-    </row>
-    <row r="174" spans="1:14">
+      <c r="O173">
+        <v>570143505.193123</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -9011,8 +9530,11 @@
       <c r="N174">
         <v>14033635.294051</v>
       </c>
-    </row>
-    <row r="175" spans="1:14">
+      <c r="O174">
+        <v>11472724.617014</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -9055,8 +9577,11 @@
       <c r="N175">
         <v>4483021.4105</v>
       </c>
-    </row>
-    <row r="176" spans="1:14">
+      <c r="O175">
+        <v>4590552.1533</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -9099,8 +9624,11 @@
       <c r="N176">
         <v>776684.4815</v>
       </c>
-    </row>
-    <row r="177" spans="1:14">
+      <c r="O176">
+        <v>904728.3822</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -9143,8 +9671,11 @@
       <c r="N177">
         <v>5707308.9989</v>
       </c>
-    </row>
-    <row r="178" spans="1:14">
+      <c r="O177">
+        <v>4784548.2046</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -9187,8 +9718,11 @@
       <c r="N178">
         <v>9412363.0382</v>
       </c>
-    </row>
-    <row r="179" spans="1:14">
+      <c r="O178">
+        <v>10339714.1457</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -9231,8 +9765,11 @@
       <c r="N179">
         <v>41170172.6031</v>
       </c>
-    </row>
-    <row r="180" spans="1:14">
+      <c r="O179">
+        <v>44912665.3234</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -9275,8 +9812,11 @@
       <c r="N180">
         <v>5891135.9368</v>
       </c>
-    </row>
-    <row r="181" spans="1:14">
+      <c r="O180">
+        <v>5624493.1006</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -9319,8 +9859,11 @@
       <c r="N181">
         <v>21021728.3193</v>
       </c>
-    </row>
-    <row r="182" spans="1:14">
+      <c r="O181">
+        <v>19698022.4613</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -9363,8 +9906,11 @@
       <c r="N182">
         <v>73812265.3442</v>
       </c>
-    </row>
-    <row r="183" spans="1:14">
+      <c r="O182">
+        <v>62767351.9104</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -9407,8 +9953,11 @@
       <c r="N183">
         <v>3557487.3213</v>
       </c>
-    </row>
-    <row r="184" spans="1:14">
+      <c r="O183">
+        <v>4135128.9708</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -9451,8 +10000,11 @@
       <c r="N184">
         <v>54968313.0927</v>
       </c>
-    </row>
-    <row r="185" spans="1:14">
+      <c r="O184">
+        <v>65461900.78</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -9495,8 +10047,11 @@
       <c r="N185">
         <v>2785006.2128</v>
       </c>
-    </row>
-    <row r="186" spans="1:14">
+      <c r="O185">
+        <v>2464073.3728</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -9539,8 +10094,11 @@
       <c r="N186">
         <v>5102903.9346</v>
       </c>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="O186">
+        <v>5483680.2666</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -9583,8 +10141,11 @@
       <c r="N187">
         <v>3565384.401545</v>
       </c>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="O187">
+        <v>3594833.605445</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -9627,8 +10188,11 @@
       <c r="N188">
         <v>1583681.97152438</v>
       </c>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="O188">
+        <v>1401290.87606619</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -9671,8 +10235,11 @@
       <c r="N189">
         <v>529380.8851522</v>
       </c>
-    </row>
-    <row r="190" spans="1:14">
+      <c r="O189">
+        <v>544610.4697655</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -9715,8 +10282,11 @@
       <c r="N190">
         <v>196619.783</v>
       </c>
-    </row>
-    <row r="191" spans="1:14">
+      <c r="O190">
+        <v>172056.30064</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -9759,8 +10329,11 @@
       <c r="N191">
         <v>4016245.630426</v>
       </c>
-    </row>
-    <row r="192" spans="1:14">
+      <c r="O191">
+        <v>3415734.10287</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -9803,8 +10376,11 @@
       <c r="N192">
         <v>3221695.97676761</v>
       </c>
-    </row>
-    <row r="193" spans="1:14">
+      <c r="O192">
+        <v>2712616.68187313</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -9847,8 +10423,11 @@
       <c r="N193">
         <v>6477344.32878</v>
       </c>
-    </row>
-    <row r="194" spans="1:14">
+      <c r="O193">
+        <v>5727474.96232</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -9891,8 +10470,11 @@
       <c r="N194">
         <v>4730638.69822074</v>
       </c>
-    </row>
-    <row r="195" spans="1:14">
+      <c r="O194">
+        <v>4328160.09267971</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -9935,8 +10517,11 @@
       <c r="N195">
         <v>7347127.8355</v>
       </c>
-    </row>
-    <row r="196" spans="1:14">
+      <c r="O195">
+        <v>7441348.5502</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -9979,8 +10564,11 @@
       <c r="N196">
         <v>2284667.9174</v>
       </c>
-    </row>
-    <row r="197" spans="1:14">
+      <c r="O196">
+        <v>2270595.3997</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -10023,8 +10611,11 @@
       <c r="N197">
         <v>895912.50025</v>
       </c>
-    </row>
-    <row r="198" spans="1:14">
+      <c r="O197">
+        <v>793617.87602</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -10067,8 +10658,11 @@
       <c r="N198">
         <v>483589.40197</v>
       </c>
-    </row>
-    <row r="199" spans="1:14">
+      <c r="O198">
+        <v>385973.95243</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -10111,8 +10705,11 @@
       <c r="N199">
         <v>65338423.1806</v>
       </c>
-    </row>
-    <row r="200" spans="1:14">
+      <c r="O199">
+        <v>60482594.2616</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -10155,8 +10752,11 @@
       <c r="N200">
         <v>790207.102661</v>
       </c>
-    </row>
-    <row r="201" spans="1:14">
+      <c r="O200">
+        <v>552656.151783</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -10199,8 +10799,11 @@
       <c r="N201">
         <v>3854712.1118</v>
       </c>
-    </row>
-    <row r="202" spans="1:14">
+      <c r="O201">
+        <v>2806166.0925</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -10243,8 +10846,11 @@
       <c r="N202">
         <v>2396426.54711</v>
       </c>
-    </row>
-    <row r="203" spans="1:14">
+      <c r="O202">
+        <v>4245482.18882</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -10287,8 +10893,11 @@
       <c r="N203">
         <v>300812648.6504</v>
       </c>
-    </row>
-    <row r="204" spans="1:14">
+      <c r="O203">
+        <v>302777826.1886</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -10331,8 +10940,11 @@
       <c r="N204">
         <v>24084550.8465</v>
       </c>
-    </row>
-    <row r="205" spans="1:14">
+      <c r="O204">
+        <v>13007179.9524</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -10375,8 +10987,11 @@
       <c r="N205">
         <v>7072831.2503</v>
       </c>
-    </row>
-    <row r="206" spans="1:14">
+      <c r="O205">
+        <v>6533628.8027</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -10419,8 +11034,11 @@
       <c r="N206">
         <v>1597748.16364</v>
       </c>
-    </row>
-    <row r="207" spans="1:14">
+      <c r="O206">
+        <v>1772567.48571</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -10463,8 +11081,11 @@
       <c r="N207">
         <v>1032483.1471</v>
       </c>
-    </row>
-    <row r="208" spans="1:14">
+      <c r="O207">
+        <v>894974.08325</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -10507,8 +11128,11 @@
       <c r="N208">
         <v>7524354.0712</v>
       </c>
-    </row>
-    <row r="209" spans="1:14">
+      <c r="O208">
+        <v>6991402.0965</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -10551,8 +11175,11 @@
       <c r="N209">
         <v>2892739.1573</v>
       </c>
-    </row>
-    <row r="210" spans="1:14">
+      <c r="O209">
+        <v>2948454.9607</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -10595,8 +11222,11 @@
       <c r="N210">
         <v>10570602.6741</v>
       </c>
-    </row>
-    <row r="211" spans="1:14">
+      <c r="O210">
+        <v>11350640.6983</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -10639,8 +11269,11 @@
       <c r="N211">
         <v>9910562.7534</v>
       </c>
-    </row>
-    <row r="212" spans="1:14">
+      <c r="O211">
+        <v>10667701.067</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -10683,8 +11316,11 @@
       <c r="N212">
         <v>38755028.0685</v>
       </c>
-    </row>
-    <row r="213" spans="1:14">
+      <c r="O212">
+        <v>32076094.8535</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -10727,8 +11363,11 @@
       <c r="N213">
         <v>88712719.2229</v>
       </c>
-    </row>
-    <row r="214" spans="1:14">
+      <c r="O213">
+        <v>84150729.2879</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -10771,8 +11410,11 @@
       <c r="N214">
         <v>1612060.7097075</v>
       </c>
-    </row>
-    <row r="215" spans="1:14">
+      <c r="O214">
+        <v>1535687.3533851</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -10815,8 +11457,11 @@
       <c r="N215">
         <v>782243.780579</v>
       </c>
-    </row>
-    <row r="216" spans="1:14">
+      <c r="O215">
+        <v>678277.31098</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -10859,8 +11504,11 @@
       <c r="N216">
         <v>326237861.8489</v>
       </c>
-    </row>
-    <row r="217" spans="1:14">
+      <c r="O216">
+        <v>325781963.8266</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -10903,8 +11551,11 @@
       <c r="N217">
         <v>4421995.111486</v>
       </c>
-    </row>
-    <row r="218" spans="1:14">
+      <c r="O217">
+        <v>4544833.645599</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -10947,8 +11598,11 @@
       <c r="N218">
         <v>3098618.41639882</v>
       </c>
-    </row>
-    <row r="219" spans="1:14">
+      <c r="O218">
+        <v>3348925.38196865</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -10991,8 +11645,11 @@
       <c r="N219">
         <v>423615.060297</v>
       </c>
-    </row>
-    <row r="220" spans="1:14">
+      <c r="O219">
+        <v>389351.922506</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -11035,8 +11692,11 @@
       <c r="N220">
         <v>250376.749742</v>
       </c>
-    </row>
-    <row r="221" spans="1:14">
+      <c r="O220">
+        <v>203709.069788</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -11079,8 +11739,11 @@
       <c r="N221">
         <v>8498449.575099999</v>
       </c>
-    </row>
-    <row r="222" spans="1:14">
+      <c r="O221">
+        <v>4798805.2355</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -11123,8 +11786,11 @@
       <c r="N222">
         <v>16578103.3848</v>
       </c>
-    </row>
-    <row r="223" spans="1:14">
+      <c r="O222">
+        <v>16604342.2733</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -11167,8 +11833,11 @@
       <c r="N223">
         <v>5979072.4623</v>
       </c>
-    </row>
-    <row r="224" spans="1:14">
+      <c r="O223">
+        <v>5956109.0175</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -11211,8 +11880,11 @@
       <c r="N224">
         <v>409430.808108</v>
       </c>
-    </row>
-    <row r="225" spans="1:14">
+      <c r="O224">
+        <v>456617.351559</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -11255,8 +11927,11 @@
       <c r="N225">
         <v>214705.82238</v>
       </c>
-    </row>
-    <row r="226" spans="1:14">
+      <c r="O225">
+        <v>223647.534204</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -11299,8 +11974,11 @@
       <c r="N226">
         <v>4678494.86647</v>
       </c>
-    </row>
-    <row r="227" spans="1:14">
+      <c r="O226">
+        <v>4680611.04621</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -11343,8 +12021,11 @@
       <c r="N227">
         <v>1094052731.818869</v>
       </c>
-    </row>
-    <row r="228" spans="1:14">
+      <c r="O227">
+        <v>999751253.1832401</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -11387,8 +12068,11 @@
       <c r="N228">
         <v>3904938.0757</v>
       </c>
-    </row>
-    <row r="229" spans="1:14">
+      <c r="O228">
+        <v>5636770.0083</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -11431,8 +12115,11 @@
       <c r="N229">
         <v>1524863.6862</v>
       </c>
-    </row>
-    <row r="230" spans="1:14">
+      <c r="O229">
+        <v>1143409.5138</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -11475,8 +12162,11 @@
       <c r="N230">
         <v>3058896.5007</v>
       </c>
-    </row>
-    <row r="231" spans="1:14">
+      <c r="O230">
+        <v>2110230.5239</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -11519,8 +12209,11 @@
       <c r="N231">
         <v>10581961.6306</v>
       </c>
-    </row>
-    <row r="232" spans="1:14">
+      <c r="O231">
+        <v>10507892.2768</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -11563,8 +12256,11 @@
       <c r="N232">
         <v>19350437.582648</v>
       </c>
-    </row>
-    <row r="233" spans="1:14">
+      <c r="O232">
+        <v>18859488.802455</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -11607,8 +12303,11 @@
       <c r="N233">
         <v>2451245.0601</v>
       </c>
-    </row>
-    <row r="234" spans="1:14">
+      <c r="O233">
+        <v>2241973.1065</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -11651,8 +12350,11 @@
       <c r="N234">
         <v>7402100.3781</v>
       </c>
-    </row>
-    <row r="235" spans="1:14">
+      <c r="O234">
+        <v>8483939.470100001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -11695,8 +12397,11 @@
       <c r="N235">
         <v>2850128.829918</v>
       </c>
-    </row>
-    <row r="236" spans="1:14">
+      <c r="O235">
+        <v>2786487.266112</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -11739,8 +12444,11 @@
       <c r="N236">
         <v>2047648.19239667</v>
       </c>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="O236">
+        <v>1847287.41950279</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -11783,8 +12491,11 @@
       <c r="N237">
         <v>17368009.7237</v>
       </c>
-    </row>
-    <row r="238" spans="1:14">
+      <c r="O237">
+        <v>14799011.2026</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -11827,8 +12538,11 @@
       <c r="N238">
         <v>139171.2328</v>
       </c>
-    </row>
-    <row r="239" spans="1:14">
+      <c r="O238">
+        <v>130066.2846</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -11871,8 +12585,11 @@
       <c r="N239">
         <v>4326255.7807306</v>
       </c>
-    </row>
-    <row r="240" spans="1:14">
+      <c r="O239">
+        <v>4065233.4796877</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -11915,8 +12632,11 @@
       <c r="N240">
         <v>1811758.42261</v>
       </c>
-    </row>
-    <row r="241" spans="1:14">
+      <c r="O240">
+        <v>1663205.68105</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -11959,8 +12679,11 @@
       <c r="N241">
         <v>817487.0269282</v>
       </c>
-    </row>
-    <row r="242" spans="1:14">
+      <c r="O241">
+        <v>751548.7620483</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -12003,8 +12726,11 @@
       <c r="N242">
         <v>308712.91895</v>
       </c>
-    </row>
-    <row r="243" spans="1:14">
+      <c r="O242">
+        <v>231207.32958</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -12047,8 +12773,11 @@
       <c r="N243">
         <v>25383521.9047</v>
       </c>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="O243">
+        <v>25089260.3702</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -12091,8 +12820,11 @@
       <c r="N244">
         <v>2256801.6414</v>
       </c>
-    </row>
-    <row r="245" spans="1:14">
+      <c r="O244">
+        <v>2054702.1524</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -12135,8 +12867,11 @@
       <c r="N245">
         <v>3510573.397</v>
       </c>
-    </row>
-    <row r="246" spans="1:14">
+      <c r="O245">
+        <v>3725101.6054</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -12179,8 +12914,11 @@
       <c r="N246">
         <v>32177740.218</v>
       </c>
-    </row>
-    <row r="247" spans="1:14">
+      <c r="O246">
+        <v>44304160.1751</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -12223,8 +12961,11 @@
       <c r="N247">
         <v>18179052.23464</v>
       </c>
-    </row>
-    <row r="248" spans="1:14">
+      <c r="O247">
+        <v>19886039.83839</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -12267,8 +13008,11 @@
       <c r="N248">
         <v>7323809.2359</v>
       </c>
-    </row>
-    <row r="249" spans="1:14">
+      <c r="O248">
+        <v>18972878.3579</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -12311,8 +13055,11 @@
       <c r="N249">
         <v>1642036.9208</v>
       </c>
-    </row>
-    <row r="250" spans="1:14">
+      <c r="O249">
+        <v>1618945.3346</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -12355,8 +13102,11 @@
       <c r="N250">
         <v>824162.4742000001</v>
       </c>
-    </row>
-    <row r="251" spans="1:14">
+      <c r="O250">
+        <v>685174.4601</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -12399,8 +13149,11 @@
       <c r="N251">
         <v>46958616.0954</v>
       </c>
-    </row>
-    <row r="252" spans="1:14">
+      <c r="O251">
+        <v>44875597.1579</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -12443,8 +13196,11 @@
       <c r="N252">
         <v>652364.7293</v>
       </c>
-    </row>
-    <row r="253" spans="1:14">
+      <c r="O252">
+        <v>604020.0383</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -12487,8 +13243,11 @@
       <c r="N253">
         <v>1989896.7107</v>
       </c>
-    </row>
-    <row r="254" spans="1:14">
+      <c r="O253">
+        <v>2598086.7664</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -12531,8 +13290,11 @@
       <c r="N254">
         <v>3431786.649</v>
       </c>
-    </row>
-    <row r="255" spans="1:14">
+      <c r="O254">
+        <v>3881318.7465</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -12575,8 +13337,11 @@
       <c r="N255">
         <v>8581692.217350001</v>
       </c>
-    </row>
-    <row r="256" spans="1:14">
+      <c r="O255">
+        <v>8859493.551929999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -12619,8 +13384,11 @@
       <c r="N256">
         <v>16425052.6914</v>
       </c>
-    </row>
-    <row r="257" spans="1:14">
+      <c r="O256">
+        <v>15424254.0625</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -12663,8 +13431,11 @@
       <c r="N257">
         <v>2734416.661</v>
       </c>
-    </row>
-    <row r="258" spans="1:14">
+      <c r="O257">
+        <v>2373102.5044</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -12707,8 +13478,11 @@
       <c r="N258">
         <v>8260525.917</v>
       </c>
-    </row>
-    <row r="259" spans="1:14">
+      <c r="O258">
+        <v>7920591.1916</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -12751,8 +13525,11 @@
       <c r="N259">
         <v>3971004.6743</v>
       </c>
-    </row>
-    <row r="260" spans="1:14">
+      <c r="O259">
+        <v>3912214.0235</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -12795,8 +13572,11 @@
       <c r="N260">
         <v>12616406.3051</v>
       </c>
-    </row>
-    <row r="261" spans="1:14">
+      <c r="O260">
+        <v>10818692.0375</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -12839,8 +13619,11 @@
       <c r="N261">
         <v>41938670.9288</v>
       </c>
-    </row>
-    <row r="262" spans="1:14">
+      <c r="O261">
+        <v>38743840.8548</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -12883,8 +13666,11 @@
       <c r="N262">
         <v>1827430.7277</v>
       </c>
-    </row>
-    <row r="263" spans="1:14">
+      <c r="O262">
+        <v>1452831.9552</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -12927,8 +13713,11 @@
       <c r="N263">
         <v>2293036.8835</v>
       </c>
-    </row>
-    <row r="264" spans="1:14">
+      <c r="O263">
+        <v>2522129.0887</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -12971,8 +13760,11 @@
       <c r="N264">
         <v>2731195.5478</v>
       </c>
-    </row>
-    <row r="265" spans="1:14">
+      <c r="O264">
+        <v>2807054.5576</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -13015,8 +13807,11 @@
       <c r="N265">
         <v>4276483.1549</v>
       </c>
-    </row>
-    <row r="266" spans="1:14">
+      <c r="O265">
+        <v>3768211.0017</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -13059,8 +13854,11 @@
       <c r="N266">
         <v>41306461.3085188</v>
       </c>
-    </row>
-    <row r="267" spans="1:14">
+      <c r="O266">
+        <v>22728845.6283476</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -13103,8 +13901,11 @@
       <c r="N267">
         <v>6376187.2814</v>
       </c>
-    </row>
-    <row r="268" spans="1:14">
+      <c r="O267">
+        <v>5989343.3861</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -13147,8 +13948,11 @@
       <c r="N268">
         <v>157861023.4999</v>
       </c>
-    </row>
-    <row r="269" spans="1:14">
+      <c r="O268">
+        <v>147928726.7764</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -13191,8 +13995,11 @@
       <c r="N269">
         <v>28933186.149813</v>
       </c>
-    </row>
-    <row r="270" spans="1:14">
+      <c r="O269">
+        <v>40312531.9374723</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -13235,8 +14042,11 @@
       <c r="N270">
         <v>17337185.4119</v>
       </c>
-    </row>
-    <row r="271" spans="1:14">
+      <c r="O270">
+        <v>11731234.6204</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -13279,8 +14089,11 @@
       <c r="N271">
         <v>3767083.7676</v>
       </c>
-    </row>
-    <row r="272" spans="1:14">
+      <c r="O271">
+        <v>3605349.5322</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -13323,8 +14136,11 @@
       <c r="N272">
         <v>11295384.8482</v>
       </c>
-    </row>
-    <row r="273" spans="1:14">
+      <c r="O272">
+        <v>13919901.7358</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -13367,8 +14183,11 @@
       <c r="N273">
         <v>20420824.5179</v>
       </c>
-    </row>
-    <row r="274" spans="1:14">
+      <c r="O273">
+        <v>19114763.2446</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -13411,8 +14230,11 @@
       <c r="N274">
         <v>35517557.1789</v>
       </c>
-    </row>
-    <row r="275" spans="1:14">
+      <c r="O274">
+        <v>41505883.1817</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -13455,8 +14277,11 @@
       <c r="N275">
         <v>3249447.2517</v>
       </c>
-    </row>
-    <row r="276" spans="1:14">
+      <c r="O275">
+        <v>2928211.5075</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -13499,8 +14324,11 @@
       <c r="N276">
         <v>11280781.7828</v>
       </c>
-    </row>
-    <row r="277" spans="1:14">
+      <c r="O276">
+        <v>9288544.5964</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -13543,8 +14371,11 @@
       <c r="N277">
         <v>3768741.0556</v>
       </c>
-    </row>
-    <row r="278" spans="1:14">
+      <c r="O277">
+        <v>4053604.7019</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -13587,8 +14418,11 @@
       <c r="N278">
         <v>68735998.074</v>
       </c>
-    </row>
-    <row r="279" spans="1:14">
+      <c r="O278">
+        <v>69371418.63510001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -13631,8 +14465,11 @@
       <c r="N279">
         <v>1652410.81282381</v>
       </c>
-    </row>
-    <row r="280" spans="1:14">
+      <c r="O279">
+        <v>2200600.08229743</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -13675,8 +14512,11 @@
       <c r="N280">
         <v>987246.8068766</v>
       </c>
-    </row>
-    <row r="281" spans="1:14">
+      <c r="O280">
+        <v>1411227.1205458</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -13719,8 +14559,11 @@
       <c r="N281">
         <v>838317.1075</v>
       </c>
-    </row>
-    <row r="282" spans="1:14">
+      <c r="O281">
+        <v>1072577.1937</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -13763,8 +14606,11 @@
       <c r="N282">
         <v>2960797.3304</v>
       </c>
-    </row>
-    <row r="283" spans="1:14">
+      <c r="O282">
+        <v>3353404.1091</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -13807,8 +14653,11 @@
       <c r="N283">
         <v>1780927.3585</v>
       </c>
-    </row>
-    <row r="284" spans="1:14">
+      <c r="O283">
+        <v>1681811.091</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -13851,8 +14700,11 @@
       <c r="N284">
         <v>2494874.3073</v>
       </c>
-    </row>
-    <row r="285" spans="1:14">
+      <c r="O284">
+        <v>1846012.5985</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -13895,8 +14747,11 @@
       <c r="N285">
         <v>15758799.4069</v>
       </c>
-    </row>
-    <row r="286" spans="1:14">
+      <c r="O285">
+        <v>14405890.8065</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -13939,8 +14794,11 @@
       <c r="N286">
         <v>4429299.3488</v>
       </c>
-    </row>
-    <row r="287" spans="1:14">
+      <c r="O286">
+        <v>6510858.6361</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -13983,8 +14841,11 @@
       <c r="N287">
         <v>609258228.9868</v>
       </c>
-    </row>
-    <row r="288" spans="1:14">
+      <c r="O287">
+        <v>654055870.846</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -14027,8 +14888,11 @@
       <c r="N288">
         <v>763340988.0562098</v>
       </c>
-    </row>
-    <row r="289" spans="1:14">
+      <c r="O288">
+        <v>1963321888.303703</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -14071,8 +14935,11 @@
       <c r="N289">
         <v>65350271.3376</v>
       </c>
-    </row>
-    <row r="290" spans="1:14">
+      <c r="O289">
+        <v>110718136.1491</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -14115,8 +14982,11 @@
       <c r="N290">
         <v>28528719.035</v>
       </c>
-    </row>
-    <row r="291" spans="1:14">
+      <c r="O290">
+        <v>30886248.0791</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -14159,8 +15029,11 @@
       <c r="N291">
         <v>10522442.7018</v>
       </c>
-    </row>
-    <row r="292" spans="1:14">
+      <c r="O291">
+        <v>11508997.4637</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -14203,8 +15076,11 @@
       <c r="N292">
         <v>5730908.0589</v>
       </c>
-    </row>
-    <row r="293" spans="1:14">
+      <c r="O292">
+        <v>4617314.9732</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -14247,8 +15123,11 @@
       <c r="N293">
         <v>15747390.6628</v>
       </c>
-    </row>
-    <row r="294" spans="1:14">
+      <c r="O293">
+        <v>30485606.9205</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -14291,8 +15170,11 @@
       <c r="N294">
         <v>1448436.9996</v>
       </c>
-    </row>
-    <row r="295" spans="1:14">
+      <c r="O294">
+        <v>1645352.5834</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -14335,8 +15217,11 @@
       <c r="N295">
         <v>2090922.2875</v>
       </c>
-    </row>
-    <row r="296" spans="1:14">
+      <c r="O295">
+        <v>2354228.7155</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -14379,8 +15264,11 @@
       <c r="N296">
         <v>3308838.16183</v>
       </c>
-    </row>
-    <row r="297" spans="1:14">
+      <c r="O296">
+        <v>4822619.69819</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -14423,8 +15311,11 @@
       <c r="N297">
         <v>41019713.4257</v>
       </c>
-    </row>
-    <row r="298" spans="1:14">
+      <c r="O297">
+        <v>35766875.4399</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -14467,8 +15358,11 @@
       <c r="N298">
         <v>6831157.3398</v>
       </c>
-    </row>
-    <row r="299" spans="1:14">
+      <c r="O298">
+        <v>5521647.6548</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -14511,8 +15405,11 @@
       <c r="N299">
         <v>2032816.1784</v>
       </c>
-    </row>
-    <row r="300" spans="1:14">
+      <c r="O299">
+        <v>2080292.4356</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -14555,8 +15452,11 @@
       <c r="N300">
         <v>4555908.2533</v>
       </c>
-    </row>
-    <row r="301" spans="1:14">
+      <c r="O300">
+        <v>4251161.8349</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -14599,8 +15499,11 @@
       <c r="N301">
         <v>5080506.9678</v>
       </c>
-    </row>
-    <row r="302" spans="1:14">
+      <c r="O301">
+        <v>15789349.2992</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -14643,8 +15546,11 @@
       <c r="N302">
         <v>7377064.1447</v>
       </c>
-    </row>
-    <row r="303" spans="1:14">
+      <c r="O302">
+        <v>10963705.3984</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -14687,8 +15593,11 @@
       <c r="N303">
         <v>3209116.1243</v>
       </c>
-    </row>
-    <row r="304" spans="1:14">
+      <c r="O303">
+        <v>2865901.083</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -14731,8 +15640,11 @@
       <c r="N304">
         <v>1561238.3417</v>
       </c>
-    </row>
-    <row r="305" spans="1:14">
+      <c r="O304">
+        <v>1367942.9533</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -14775,8 +15687,11 @@
       <c r="N305">
         <v>3445562.6339</v>
       </c>
-    </row>
-    <row r="306" spans="1:14">
+      <c r="O305">
+        <v>3360396.7386</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -14819,8 +15734,11 @@
       <c r="N306">
         <v>3259718.612</v>
       </c>
-    </row>
-    <row r="307" spans="1:14">
+      <c r="O306">
+        <v>3063099.993</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -14863,8 +15781,11 @@
       <c r="N307">
         <v>88543443.1279</v>
       </c>
-    </row>
-    <row r="308" spans="1:14">
+      <c r="O307">
+        <v>74470340.52770001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -14907,8 +15828,11 @@
       <c r="N308">
         <v>6796676.0367</v>
       </c>
-    </row>
-    <row r="309" spans="1:14">
+      <c r="O308">
+        <v>5848638.5843</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -14951,8 +15875,11 @@
       <c r="N309">
         <v>15883016.9263</v>
       </c>
-    </row>
-    <row r="310" spans="1:14">
+      <c r="O309">
+        <v>14130339.641</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -14995,8 +15922,11 @@
       <c r="N310">
         <v>27042212.3703</v>
       </c>
-    </row>
-    <row r="311" spans="1:14">
+      <c r="O310">
+        <v>33459571.8648</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -15039,8 +15969,11 @@
       <c r="N311">
         <v>5574718.776</v>
       </c>
-    </row>
-    <row r="312" spans="1:14">
+      <c r="O311">
+        <v>10822414.896</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -15083,8 +16016,11 @@
       <c r="N312">
         <v>26342489.8656</v>
       </c>
-    </row>
-    <row r="313" spans="1:14">
+      <c r="O312">
+        <v>22473546.5263</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -15127,8 +16063,11 @@
       <c r="N313">
         <v>14839802.6747</v>
       </c>
-    </row>
-    <row r="314" spans="1:14">
+      <c r="O313">
+        <v>12686055.0578</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -15171,8 +16110,11 @@
       <c r="N314">
         <v>2139466.5051</v>
       </c>
-    </row>
-    <row r="315" spans="1:14">
+      <c r="O314">
+        <v>1863434.9274</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -15215,8 +16157,11 @@
       <c r="N315">
         <v>4528346.78402</v>
       </c>
-    </row>
-    <row r="316" spans="1:14">
+      <c r="O315">
+        <v>4086696.78886</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -15259,8 +16204,11 @@
       <c r="N316">
         <v>1993625.7774</v>
       </c>
-    </row>
-    <row r="317" spans="1:14">
+      <c r="O316">
+        <v>1874541.1023</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -15303,8 +16251,11 @@
       <c r="N317">
         <v>55664478.3295</v>
       </c>
-    </row>
-    <row r="318" spans="1:14">
+      <c r="O317">
+        <v>52183173.6914</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -15347,8 +16298,11 @@
       <c r="N318">
         <v>8166230.58802</v>
       </c>
-    </row>
-    <row r="319" spans="1:14">
+      <c r="O318">
+        <v>5633322.4157</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -15391,8 +16345,11 @@
       <c r="N319">
         <v>1006478.734</v>
       </c>
-    </row>
-    <row r="320" spans="1:14">
+      <c r="O319">
+        <v>732256.4362999999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -15435,8 +16392,11 @@
       <c r="N320">
         <v>4606826.9533</v>
       </c>
-    </row>
-    <row r="321" spans="1:14">
+      <c r="O320">
+        <v>5728289.7231</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -15479,8 +16439,11 @@
       <c r="N321">
         <v>15005342.8701</v>
       </c>
-    </row>
-    <row r="322" spans="1:14">
+      <c r="O321">
+        <v>11988840.1929</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -15523,8 +16486,11 @@
       <c r="N322">
         <v>3052512.7037</v>
       </c>
-    </row>
-    <row r="323" spans="1:14">
+      <c r="O322">
+        <v>3474838.4186</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -15567,8 +16533,11 @@
       <c r="N323">
         <v>227007.2005</v>
       </c>
-    </row>
-    <row r="324" spans="1:14">
+      <c r="O323">
+        <v>334111.1501</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -15611,8 +16580,11 @@
       <c r="N324">
         <v>27301637.37450949</v>
       </c>
-    </row>
-    <row r="325" spans="1:14">
+      <c r="O324">
+        <v>27963635.73547817</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -15655,8 +16627,11 @@
       <c r="N325">
         <v>6240666.81829</v>
       </c>
-    </row>
-    <row r="326" spans="1:14">
+      <c r="O325">
+        <v>3690294.89155</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -15699,8 +16674,11 @@
       <c r="N326">
         <v>394188158.26132</v>
       </c>
-    </row>
-    <row r="327" spans="1:14">
+      <c r="O326">
+        <v>273810078.27362</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -15743,8 +16721,11 @@
       <c r="N327">
         <v>41929972.97884</v>
       </c>
-    </row>
-    <row r="328" spans="1:14">
+      <c r="O327">
+        <v>25427413.97755</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -15787,8 +16768,11 @@
       <c r="N328">
         <v>14030615.062485</v>
       </c>
-    </row>
-    <row r="329" spans="1:14">
+      <c r="O328">
+        <v>13972562.887517</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -15831,8 +16815,11 @@
       <c r="N329">
         <v>3766793.53862</v>
       </c>
-    </row>
-    <row r="330" spans="1:14">
+      <c r="O329">
+        <v>3646774.10031</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -15875,8 +16862,11 @@
       <c r="N330">
         <v>2635154.463292</v>
       </c>
-    </row>
-    <row r="331" spans="1:14">
+      <c r="O330">
+        <v>3172945.443395</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -15919,8 +16909,11 @@
       <c r="N331">
         <v>188270099.27075</v>
       </c>
-    </row>
-    <row r="332" spans="1:14">
+      <c r="O331">
+        <v>138173894.98103</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -15963,8 +16956,11 @@
       <c r="N332">
         <v>3942974.3309</v>
       </c>
-    </row>
-    <row r="333" spans="1:14">
+      <c r="O332">
+        <v>2970875.9475</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -16007,8 +17003,11 @@
       <c r="N333">
         <v>44517834.034</v>
       </c>
-    </row>
-    <row r="334" spans="1:14">
+      <c r="O333">
+        <v>36826656.5678</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -16051,8 +17050,11 @@
       <c r="N334">
         <v>1132676.4564</v>
       </c>
-    </row>
-    <row r="335" spans="1:14">
+      <c r="O334">
+        <v>975963.6629999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -16094,6 +17096,9 @@
       </c>
       <c r="N335">
         <v>3800472.7266</v>
+      </c>
+      <c r="O335">
+        <v>3923549.0983</v>
       </c>
     </row>
   </sheetData>

--- a/volumeTracker.xlsx
+++ b/volumeTracker.xlsx
@@ -1350,13 +1350,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O335"/>
+  <dimension ref="A1:P335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1402,8 +1402,11 @@
       <c r="O1">
         <v>2300625018.039256</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1">
+        <v>2489503183.501875</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1449,8 +1452,11 @@
       <c r="O2">
         <v>1551289159.564179</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>1389333186.93903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1496,8 +1502,11 @@
       <c r="O3">
         <v>354374207.7778</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>376663866.6889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1543,8 +1552,11 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1590,8 +1602,11 @@
       <c r="O5">
         <v>21812745.9763</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>22256237.1897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1637,8 +1652,11 @@
       <c r="O6">
         <v>94722279.33130001</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>93388453.53910001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1684,8 +1702,11 @@
       <c r="O7">
         <v>46905532.2125</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>41327126.0965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1731,8 +1752,11 @@
       <c r="O8">
         <v>297227838.8057</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>287902824.6689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1778,8 +1802,11 @@
       <c r="O9">
         <v>407477584.0203</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>447116885.3073</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1825,8 +1852,11 @@
       <c r="O10">
         <v>141667388.694</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>114217786.475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1872,8 +1902,11 @@
       <c r="O11">
         <v>5871417.4795</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>5336530.7745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1919,8 +1952,11 @@
       <c r="O12">
         <v>30274545.6929</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>24612134.6585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1966,8 +2002,11 @@
       <c r="O13">
         <v>48664405.4377</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>49346863.4377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2013,8 +2052,11 @@
       <c r="O14">
         <v>25092581.9127</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>23414426.2053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2060,8 +2102,11 @@
       <c r="O15">
         <v>189984372.679425</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>287325011.637878</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2107,8 +2152,11 @@
       <c r="O16">
         <v>89657560.2999</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>79239899.1116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2154,8 +2202,11 @@
       <c r="O17">
         <v>52124034.022043</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>59501292.387243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2201,8 +2252,11 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2248,8 +2302,11 @@
       <c r="O19">
         <v>1204957.6936</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>1286874.3997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2295,8 +2352,11 @@
       <c r="O20">
         <v>115000093.753785</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>108626913.181204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2342,8 +2402,11 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2389,8 +2452,11 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2436,8 +2502,11 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2483,8 +2552,11 @@
       <c r="O24">
         <v>100081438.0975</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>157606591.6211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2530,8 +2602,11 @@
       <c r="O25">
         <v>137865896.5355</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25">
+        <v>136754217.6086</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2577,8 +2652,11 @@
       <c r="O26">
         <v>15141347.3471</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26">
+        <v>19332823.2073</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2624,8 +2702,11 @@
       <c r="O27">
         <v>37434236.542369</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27">
+        <v>58035837.090134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2671,8 +2752,11 @@
       <c r="O28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2718,8 +2802,11 @@
       <c r="O29">
         <v>3589634.9425</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29">
+        <v>4765584.0896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2765,8 +2852,11 @@
       <c r="O30">
         <v>40215410.799621</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30">
+        <v>40359542.217005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2812,8 +2902,11 @@
       <c r="O31">
         <v>22127878.065198</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31">
+        <v>34518948.336767</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2859,8 +2952,11 @@
       <c r="O32">
         <v>3439100.5322</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="P32">
+        <v>5844246.124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2906,8 +3002,11 @@
       <c r="O33">
         <v>117249904.6418</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="P33">
+        <v>115590496.4751</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2953,8 +3052,11 @@
       <c r="O34">
         <v>6689159.3808</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P34">
+        <v>6583055.2679</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3000,8 +3102,11 @@
       <c r="O35">
         <v>25627608.9489</v>
       </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="P35">
+        <v>34413033.9328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3047,8 +3152,11 @@
       <c r="O36">
         <v>18341028.8955</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P36">
+        <v>19028442.6702</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="O37">
         <v>36754695.54093</v>
       </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="P37">
+        <v>52263756.49502</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3141,8 +3252,11 @@
       <c r="O38">
         <v>86378450.14409401</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="P38">
+        <v>66279685.535769</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3188,8 +3302,11 @@
       <c r="O39">
         <v>19866395.7532</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="P39">
+        <v>17453768.764</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3235,8 +3352,11 @@
       <c r="O40">
         <v>11959622.5286</v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="P40">
+        <v>7309149.6747</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3282,8 +3402,11 @@
       <c r="O41">
         <v>360372776.496941</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="P41">
+        <v>255181843.0517</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3329,8 +3452,11 @@
       <c r="O42">
         <v>88161990.2466</v>
       </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="P42">
+        <v>136503551.223866</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3376,8 +3502,11 @@
       <c r="O43">
         <v>29619185.3609</v>
       </c>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="P43">
+        <v>17600584.0494</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3423,8 +3552,11 @@
       <c r="O44">
         <v>2079077.881896</v>
       </c>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="P44">
+        <v>3905147.055757</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3470,8 +3602,11 @@
       <c r="O45">
         <v>113835254.8437</v>
       </c>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="P45">
+        <v>114934187.1759</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3517,8 +3652,11 @@
       <c r="O46">
         <v>150418570.548</v>
       </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="P46">
+        <v>155223926.0461</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3564,8 +3702,11 @@
       <c r="O47">
         <v>11825735.989</v>
       </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="P47">
+        <v>14574388.9961</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3611,8 +3752,11 @@
       <c r="O48">
         <v>108206982.464496</v>
       </c>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="P48">
+        <v>69524229.485912</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3658,8 +3802,11 @@
       <c r="O49">
         <v>191489250.7891</v>
       </c>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="P49">
+        <v>142353035.4132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3705,8 +3852,11 @@
       <c r="O50">
         <v>190157756.8394</v>
       </c>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="P50">
+        <v>130634547.2643</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3752,8 +3902,11 @@
       <c r="O51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3799,8 +3952,11 @@
       <c r="O52">
         <v>1488180.649734</v>
       </c>
-    </row>
-    <row r="53" spans="1:15">
+      <c r="P52">
+        <v>3007058.689077</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3846,8 +4002,11 @@
       <c r="O53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:15">
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3893,8 +4052,11 @@
       <c r="O54">
         <v>804759412.1390001</v>
       </c>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="P54">
+        <v>1119497576.0504</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3940,8 +4102,11 @@
       <c r="O55">
         <v>1103444.058</v>
       </c>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="P55">
+        <v>1088383.7154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3987,8 +4152,11 @@
       <c r="O56">
         <v>8560821.262891</v>
       </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="P56">
+        <v>16794125.610704</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -4034,8 +4202,11 @@
       <c r="O57">
         <v>53869046.4445606</v>
       </c>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="P57">
+        <v>103786549.1347616</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -4081,8 +4252,11 @@
       <c r="O58">
         <v>3854824.857504</v>
       </c>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="P58">
+        <v>5770255.882192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -4128,8 +4302,11 @@
       <c r="O59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -4175,8 +4352,11 @@
       <c r="O60">
         <v>1854990.2062</v>
       </c>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="P60">
+        <v>1562875.548</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -4222,8 +4402,11 @@
       <c r="O61">
         <v>14442132.9993</v>
       </c>
-    </row>
-    <row r="62" spans="1:15">
+      <c r="P61">
+        <v>13644005.8834</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -4269,8 +4452,11 @@
       <c r="O62">
         <v>13546186.9554</v>
       </c>
-    </row>
-    <row r="63" spans="1:15">
+      <c r="P62">
+        <v>12862539.7898</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -4316,8 +4502,11 @@
       <c r="O63">
         <v>1449812.036399</v>
       </c>
-    </row>
-    <row r="64" spans="1:15">
+      <c r="P63">
+        <v>1675102.736422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -4363,8 +4552,11 @@
       <c r="O64">
         <v>62160114.589939</v>
       </c>
-    </row>
-    <row r="65" spans="1:15">
+      <c r="P64">
+        <v>67273861.02505399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -4410,8 +4602,11 @@
       <c r="O65">
         <v>1747443.546997</v>
       </c>
-    </row>
-    <row r="66" spans="1:15">
+      <c r="P65">
+        <v>9552278.92079</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -4457,8 +4652,11 @@
       <c r="O66">
         <v>2307736.077376</v>
       </c>
-    </row>
-    <row r="67" spans="1:15">
+      <c r="P66">
+        <v>5293630.886029</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -4504,8 +4702,11 @@
       <c r="O67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:15">
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -4551,8 +4752,11 @@
       <c r="O68">
         <v>3454557.66819</v>
       </c>
-    </row>
-    <row r="69" spans="1:15">
+      <c r="P68">
+        <v>3473184.78549</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -4598,8 +4802,11 @@
       <c r="O69">
         <v>2504259.5627</v>
       </c>
-    </row>
-    <row r="70" spans="1:15">
+      <c r="P69">
+        <v>3381935.2211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -4645,8 +4852,11 @@
       <c r="O70">
         <v>15176198.59552</v>
       </c>
-    </row>
-    <row r="71" spans="1:15">
+      <c r="P70">
+        <v>16238046.64125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -4692,8 +4902,11 @@
       <c r="O71">
         <v>12077375.5734</v>
       </c>
-    </row>
-    <row r="72" spans="1:15">
+      <c r="P71">
+        <v>12321418.1116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -4739,8 +4952,11 @@
       <c r="O72">
         <v>41292134.8744</v>
       </c>
-    </row>
-    <row r="73" spans="1:15">
+      <c r="P72">
+        <v>50529103.2788</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -4786,8 +5002,11 @@
       <c r="O73">
         <v>7013112.418</v>
       </c>
-    </row>
-    <row r="74" spans="1:15">
+      <c r="P73">
+        <v>7501426.3551</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -4833,8 +5052,11 @@
       <c r="O74">
         <v>867505278.6379</v>
       </c>
-    </row>
-    <row r="75" spans="1:15">
+      <c r="P74">
+        <v>844496303.5019</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -4880,8 +5102,11 @@
       <c r="O75">
         <v>2199919.3581</v>
       </c>
-    </row>
-    <row r="76" spans="1:15">
+      <c r="P75">
+        <v>2037830.646</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -4927,8 +5152,11 @@
       <c r="O76">
         <v>199722694.8961</v>
       </c>
-    </row>
-    <row r="77" spans="1:15">
+      <c r="P76">
+        <v>123460829.2191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -4974,8 +5202,11 @@
       <c r="O77">
         <v>33382749.4298</v>
       </c>
-    </row>
-    <row r="78" spans="1:15">
+      <c r="P77">
+        <v>39208973.4773</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -5021,8 +5252,11 @@
       <c r="O78">
         <v>13330879.373951</v>
       </c>
-    </row>
-    <row r="79" spans="1:15">
+      <c r="P78">
+        <v>13559041.47246</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -5068,8 +5302,11 @@
       <c r="O79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:15">
+      <c r="P79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -5115,8 +5352,11 @@
       <c r="O80">
         <v>81002455.73190001</v>
       </c>
-    </row>
-    <row r="81" spans="1:15">
+      <c r="P80">
+        <v>74018844.64910001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -5162,8 +5402,11 @@
       <c r="O81">
         <v>9097503.6183</v>
       </c>
-    </row>
-    <row r="82" spans="1:15">
+      <c r="P81">
+        <v>4253841.2663</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -5209,8 +5452,11 @@
       <c r="O82">
         <v>7150137.6147</v>
       </c>
-    </row>
-    <row r="83" spans="1:15">
+      <c r="P82">
+        <v>6117447.0618</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -5256,8 +5502,11 @@
       <c r="O83">
         <v>27997559.1567</v>
       </c>
-    </row>
-    <row r="84" spans="1:15">
+      <c r="P83">
+        <v>18279261.1699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -5303,8 +5552,11 @@
       <c r="O84">
         <v>11478907.898189</v>
       </c>
-    </row>
-    <row r="85" spans="1:15">
+      <c r="P84">
+        <v>9012662.230047001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -5350,8 +5602,11 @@
       <c r="O85">
         <v>12489337.92626</v>
       </c>
-    </row>
-    <row r="86" spans="1:15">
+      <c r="P85">
+        <v>11567842.69389</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -5397,8 +5652,11 @@
       <c r="O86">
         <v>4245457.8827</v>
       </c>
-    </row>
-    <row r="87" spans="1:15">
+      <c r="P86">
+        <v>6406878.5876</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -5444,8 +5702,11 @@
       <c r="O87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:15">
+      <c r="P87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -5491,8 +5752,11 @@
       <c r="O88">
         <v>2245148.2964</v>
       </c>
-    </row>
-    <row r="89" spans="1:15">
+      <c r="P88">
+        <v>2572343.9008</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -5538,8 +5802,11 @@
       <c r="O89">
         <v>57945127.2128</v>
       </c>
-    </row>
-    <row r="90" spans="1:15">
+      <c r="P89">
+        <v>50840842.0493</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -5585,8 +5852,11 @@
       <c r="O90">
         <v>23166554.664171</v>
       </c>
-    </row>
-    <row r="91" spans="1:15">
+      <c r="P90">
+        <v>18265117.803045</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -5632,8 +5902,11 @@
       <c r="O91">
         <v>2853589.832295</v>
       </c>
-    </row>
-    <row r="92" spans="1:15">
+      <c r="P91">
+        <v>2896740.017278</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -5679,8 +5952,11 @@
       <c r="O92">
         <v>105577730.2505</v>
       </c>
-    </row>
-    <row r="93" spans="1:15">
+      <c r="P92">
+        <v>116473723.2516</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -5726,8 +6002,11 @@
       <c r="O93">
         <v>40950464.4181</v>
       </c>
-    </row>
-    <row r="94" spans="1:15">
+      <c r="P93">
+        <v>40745507.9332</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -5773,8 +6052,11 @@
       <c r="O94">
         <v>39373499.2528</v>
       </c>
-    </row>
-    <row r="95" spans="1:15">
+      <c r="P94">
+        <v>27842734.532426</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -5820,8 +6102,11 @@
       <c r="O95">
         <v>684759.9969</v>
       </c>
-    </row>
-    <row r="96" spans="1:15">
+      <c r="P95">
+        <v>1073054.7612</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -5867,8 +6152,11 @@
       <c r="O96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:15">
+      <c r="P96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -5914,8 +6202,11 @@
       <c r="O97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:15">
+      <c r="P97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -5961,8 +6252,11 @@
       <c r="O98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:15">
+      <c r="P98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -6008,8 +6302,11 @@
       <c r="O99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:15">
+      <c r="P99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -6055,8 +6352,11 @@
       <c r="O100">
         <v>1584253.36804</v>
       </c>
-    </row>
-    <row r="101" spans="1:15">
+      <c r="P100">
+        <v>1882850.82938</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -6102,8 +6402,11 @@
       <c r="O101">
         <v>8438329.885199999</v>
       </c>
-    </row>
-    <row r="102" spans="1:15">
+      <c r="P101">
+        <v>8989964.328400001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -6149,8 +6452,11 @@
       <c r="O102">
         <v>2320941.016712</v>
       </c>
-    </row>
-    <row r="103" spans="1:15">
+      <c r="P102">
+        <v>3462468.426367</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -6196,8 +6502,11 @@
       <c r="O103">
         <v>2565413.8038</v>
       </c>
-    </row>
-    <row r="104" spans="1:15">
+      <c r="P103">
+        <v>2202494.5917</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -6243,8 +6552,11 @@
       <c r="O104">
         <v>775515.3436</v>
       </c>
-    </row>
-    <row r="105" spans="1:15">
+      <c r="P104">
+        <v>1099915.5327</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -6290,8 +6602,11 @@
       <c r="O105">
         <v>3161331.6401</v>
       </c>
-    </row>
-    <row r="106" spans="1:15">
+      <c r="P105">
+        <v>2518486.3218</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -6337,8 +6652,11 @@
       <c r="O106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:15">
+      <c r="P106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -6384,8 +6702,11 @@
       <c r="O107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:15">
+      <c r="P107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -6431,8 +6752,11 @@
       <c r="O108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:15">
+      <c r="P108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -6478,8 +6802,11 @@
       <c r="O109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:15">
+      <c r="P109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -6525,8 +6852,11 @@
       <c r="O110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:15">
+      <c r="P110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -6572,8 +6902,11 @@
       <c r="O111">
         <v>4051548.8039</v>
       </c>
-    </row>
-    <row r="112" spans="1:15">
+      <c r="P111">
+        <v>3755995.3457</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -6619,8 +6952,11 @@
       <c r="O112">
         <v>1533669.462485</v>
       </c>
-    </row>
-    <row r="113" spans="1:15">
+      <c r="P112">
+        <v>10828223.214261</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -6666,8 +7002,11 @@
       <c r="O113">
         <v>64944698.7575</v>
       </c>
-    </row>
-    <row r="114" spans="1:15">
+      <c r="P113">
+        <v>82787210.2001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -6713,8 +7052,11 @@
       <c r="O114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:15">
+      <c r="P114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -6760,8 +7102,11 @@
       <c r="O115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:15">
+      <c r="P115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -6807,8 +7152,11 @@
       <c r="O116">
         <v>3694439.402397</v>
       </c>
-    </row>
-    <row r="117" spans="1:15">
+      <c r="P116">
+        <v>320152324.431369</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -6854,8 +7202,11 @@
       <c r="O117">
         <v>3455213.2831</v>
       </c>
-    </row>
-    <row r="118" spans="1:15">
+      <c r="P117">
+        <v>3497766.7064</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -6901,8 +7252,11 @@
       <c r="O118">
         <v>4192966.208796</v>
       </c>
-    </row>
-    <row r="119" spans="1:15">
+      <c r="P118">
+        <v>4016502.918676</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -6948,8 +7302,11 @@
       <c r="O119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:15">
+      <c r="P119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -6995,8 +7352,11 @@
       <c r="O120">
         <v>670350138.7833</v>
       </c>
-    </row>
-    <row r="121" spans="1:15">
+      <c r="P120">
+        <v>586674487.2726001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -7042,8 +7402,11 @@
       <c r="O121">
         <v>9246242.7125</v>
       </c>
-    </row>
-    <row r="122" spans="1:15">
+      <c r="P121">
+        <v>6802321.7564</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -7089,8 +7452,11 @@
       <c r="O122">
         <v>2882476.7459</v>
       </c>
-    </row>
-    <row r="123" spans="1:15">
+      <c r="P122">
+        <v>2891036.5372</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -7136,8 +7502,11 @@
       <c r="O123">
         <v>21090758.9048</v>
       </c>
-    </row>
-    <row r="124" spans="1:15">
+      <c r="P123">
+        <v>16794016.3029</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -7183,8 +7552,11 @@
       <c r="O124">
         <v>5021568.09833</v>
       </c>
-    </row>
-    <row r="125" spans="1:15">
+      <c r="P124">
+        <v>4645235.0255</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -7230,8 +7602,11 @@
       <c r="O125">
         <v>9109744.960236199</v>
       </c>
-    </row>
-    <row r="126" spans="1:15">
+      <c r="P125">
+        <v>9296178.692368001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -7277,8 +7652,11 @@
       <c r="O126">
         <v>590202.8918</v>
       </c>
-    </row>
-    <row r="127" spans="1:15">
+      <c r="P126">
+        <v>1149587.7804</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -7324,8 +7702,11 @@
       <c r="O127">
         <v>1601625.2036</v>
       </c>
-    </row>
-    <row r="128" spans="1:15">
+      <c r="P127">
+        <v>2172794.5828</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -7371,8 +7752,11 @@
       <c r="O128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:15">
+      <c r="P128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -7418,8 +7802,11 @@
       <c r="O129">
         <v>1229145.884523</v>
       </c>
-    </row>
-    <row r="130" spans="1:15">
+      <c r="P129">
+        <v>23791381.476637</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -7465,8 +7852,11 @@
       <c r="O130">
         <v>5154600.36516</v>
       </c>
-    </row>
-    <row r="131" spans="1:15">
+      <c r="P130">
+        <v>18950850.15547</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -7512,8 +7902,11 @@
       <c r="O131">
         <v>5038420.1534</v>
       </c>
-    </row>
-    <row r="132" spans="1:15">
+      <c r="P131">
+        <v>3693612.5173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -7559,8 +7952,11 @@
       <c r="O132">
         <v>1760651.2029</v>
       </c>
-    </row>
-    <row r="133" spans="1:15">
+      <c r="P132">
+        <v>1996140.1528</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -7606,8 +8002,11 @@
       <c r="O133">
         <v>8508814.282600001</v>
       </c>
-    </row>
-    <row r="134" spans="1:15">
+      <c r="P133">
+        <v>8241850.5954</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -7653,8 +8052,11 @@
       <c r="O134">
         <v>4260366.8087</v>
       </c>
-    </row>
-    <row r="135" spans="1:15">
+      <c r="P134">
+        <v>2568556.3922</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -7700,8 +8102,11 @@
       <c r="O135">
         <v>38901920.0772</v>
       </c>
-    </row>
-    <row r="136" spans="1:15">
+      <c r="P135">
+        <v>37872798.6015</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -7747,8 +8152,11 @@
       <c r="O136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:15">
+      <c r="P136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -7794,8 +8202,11 @@
       <c r="O137">
         <v>7896364.53654</v>
       </c>
-    </row>
-    <row r="138" spans="1:15">
+      <c r="P137">
+        <v>17378305.35447</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -7841,8 +8252,11 @@
       <c r="O138">
         <v>12669516.4865</v>
       </c>
-    </row>
-    <row r="139" spans="1:15">
+      <c r="P138">
+        <v>9177842.660599999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -7888,8 +8302,11 @@
       <c r="O139">
         <v>18370933.365</v>
       </c>
-    </row>
-    <row r="140" spans="1:15">
+      <c r="P139">
+        <v>22085752.4258</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -7935,8 +8352,11 @@
       <c r="O140">
         <v>6265480.39998</v>
       </c>
-    </row>
-    <row r="141" spans="1:15">
+      <c r="P140">
+        <v>5184238.83528</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -7982,8 +8402,11 @@
       <c r="O141">
         <v>9874789.6139</v>
       </c>
-    </row>
-    <row r="142" spans="1:15">
+      <c r="P141">
+        <v>8355590.73312</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -8029,8 +8452,11 @@
       <c r="O142">
         <v>2336665.71451</v>
       </c>
-    </row>
-    <row r="143" spans="1:15">
+      <c r="P142">
+        <v>1985615.0915</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -8076,8 +8502,11 @@
       <c r="O143">
         <v>1117382.3133755</v>
       </c>
-    </row>
-    <row r="144" spans="1:15">
+      <c r="P143">
+        <v>859797.2582552501</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -8123,8 +8552,11 @@
       <c r="O144">
         <v>2917945.696415</v>
       </c>
-    </row>
-    <row r="145" spans="1:15">
+      <c r="P144">
+        <v>2380734.914185</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -8170,8 +8602,11 @@
       <c r="O145">
         <v>785377.5830472</v>
       </c>
-    </row>
-    <row r="146" spans="1:15">
+      <c r="P145">
+        <v>695634.7187818</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -8217,8 +8652,11 @@
       <c r="O146">
         <v>7426019.908816</v>
       </c>
-    </row>
-    <row r="147" spans="1:15">
+      <c r="P146">
+        <v>12456803.726292</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -8264,8 +8702,11 @@
       <c r="O147">
         <v>5432410.690695</v>
       </c>
-    </row>
-    <row r="148" spans="1:15">
+      <c r="P147">
+        <v>6525617.373757</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -8311,8 +8752,11 @@
       <c r="O148">
         <v>12460502.7956</v>
       </c>
-    </row>
-    <row r="149" spans="1:15">
+      <c r="P148">
+        <v>12595410.5575</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -8358,8 +8802,11 @@
       <c r="O149">
         <v>36640075.4717</v>
       </c>
-    </row>
-    <row r="150" spans="1:15">
+      <c r="P149">
+        <v>36980841.1038</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -8405,8 +8852,11 @@
       <c r="O150">
         <v>8174515.4496</v>
       </c>
-    </row>
-    <row r="151" spans="1:15">
+      <c r="P150">
+        <v>7817830.674</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -8452,8 +8902,11 @@
       <c r="O151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:15">
+      <c r="P151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -8499,8 +8952,11 @@
       <c r="O152">
         <v>1554733.1777</v>
       </c>
-    </row>
-    <row r="153" spans="1:15">
+      <c r="P152">
+        <v>1654143.0644</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -8546,8 +9002,11 @@
       <c r="O153">
         <v>6253204.0396</v>
       </c>
-    </row>
-    <row r="154" spans="1:15">
+      <c r="P153">
+        <v>5857108.397</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -8593,8 +9052,11 @@
       <c r="O154">
         <v>2087508.973</v>
       </c>
-    </row>
-    <row r="155" spans="1:15">
+      <c r="P154">
+        <v>2450672.7321</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -8640,8 +9102,11 @@
       <c r="O155">
         <v>2693989.835685</v>
       </c>
-    </row>
-    <row r="156" spans="1:15">
+      <c r="P155">
+        <v>2499088.389415</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -8687,8 +9152,11 @@
       <c r="O156">
         <v>7502187.2176126</v>
       </c>
-    </row>
-    <row r="157" spans="1:15">
+      <c r="P156">
+        <v>5425691.4681491</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -8734,8 +9202,11 @@
       <c r="O157">
         <v>3028355.5894</v>
       </c>
-    </row>
-    <row r="158" spans="1:15">
+      <c r="P157">
+        <v>2274402.51605</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -8781,8 +9252,11 @@
       <c r="O158">
         <v>43707329.4643</v>
       </c>
-    </row>
-    <row r="159" spans="1:15">
+      <c r="P158">
+        <v>21064217.0486</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -8828,8 +9302,11 @@
       <c r="O159">
         <v>28319030.0507</v>
       </c>
-    </row>
-    <row r="160" spans="1:15">
+      <c r="P159">
+        <v>31264369.9515</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -8875,8 +9352,11 @@
       <c r="O160">
         <v>11267542.8331837</v>
       </c>
-    </row>
-    <row r="161" spans="1:15">
+      <c r="P160">
+        <v>14808496.4423073</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -8922,8 +9402,11 @@
       <c r="O161">
         <v>3453481.1273</v>
       </c>
-    </row>
-    <row r="162" spans="1:15">
+      <c r="P161">
+        <v>5032517.9721</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -8969,8 +9452,11 @@
       <c r="O162">
         <v>9241562.135399999</v>
       </c>
-    </row>
-    <row r="163" spans="1:15">
+      <c r="P162">
+        <v>6179123.6731</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -9016,8 +9502,11 @@
       <c r="O163">
         <v>2114796.256493</v>
       </c>
-    </row>
-    <row r="164" spans="1:15">
+      <c r="P163">
+        <v>2786581.493316</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -9063,8 +9552,11 @@
       <c r="O164">
         <v>22910258.2929</v>
       </c>
-    </row>
-    <row r="165" spans="1:15">
+      <c r="P164">
+        <v>16512029.2251</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -9110,8 +9602,11 @@
       <c r="O165">
         <v>2387918.405568</v>
       </c>
-    </row>
-    <row r="166" spans="1:15">
+      <c r="P165">
+        <v>14246975.538674</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -9157,8 +9652,11 @@
       <c r="O166">
         <v>52063657.7479</v>
       </c>
-    </row>
-    <row r="167" spans="1:15">
+      <c r="P166">
+        <v>46849882.3994</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -9204,8 +9702,11 @@
       <c r="O167">
         <v>1594245.679</v>
       </c>
-    </row>
-    <row r="168" spans="1:15">
+      <c r="P167">
+        <v>2840578.2344</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -9251,8 +9752,11 @@
       <c r="O168">
         <v>76273778.24339999</v>
       </c>
-    </row>
-    <row r="169" spans="1:15">
+      <c r="P168">
+        <v>65216491.9793</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -9298,8 +9802,11 @@
       <c r="O169">
         <v>53421225.302</v>
       </c>
-    </row>
-    <row r="170" spans="1:15">
+      <c r="P169">
+        <v>27965618.5199</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -9345,8 +9852,11 @@
       <c r="O170">
         <v>7980065.1533</v>
       </c>
-    </row>
-    <row r="171" spans="1:15">
+      <c r="P170">
+        <v>8989109.101600001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -9392,8 +9902,11 @@
       <c r="O171">
         <v>1901580.1847</v>
       </c>
-    </row>
-    <row r="172" spans="1:15">
+      <c r="P171">
+        <v>1917520.7126</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -9439,8 +9952,11 @@
       <c r="O172">
         <v>266051582.4305</v>
       </c>
-    </row>
-    <row r="173" spans="1:15">
+      <c r="P172">
+        <v>278069639.8015</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -9486,8 +10002,11 @@
       <c r="O173">
         <v>570143505.193123</v>
       </c>
-    </row>
-    <row r="174" spans="1:15">
+      <c r="P173">
+        <v>353170581.8478</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -9533,8 +10052,11 @@
       <c r="O174">
         <v>11472724.617014</v>
       </c>
-    </row>
-    <row r="175" spans="1:15">
+      <c r="P174">
+        <v>18584855.945975</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -9580,8 +10102,11 @@
       <c r="O175">
         <v>4590552.1533</v>
       </c>
-    </row>
-    <row r="176" spans="1:15">
+      <c r="P175">
+        <v>3658452.494</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -9627,8 +10152,11 @@
       <c r="O176">
         <v>904728.3822</v>
       </c>
-    </row>
-    <row r="177" spans="1:15">
+      <c r="P176">
+        <v>1011348.2851</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -9674,8 +10202,11 @@
       <c r="O177">
         <v>4784548.2046</v>
       </c>
-    </row>
-    <row r="178" spans="1:15">
+      <c r="P177">
+        <v>5062164.7835</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -9721,8 +10252,11 @@
       <c r="O178">
         <v>10339714.1457</v>
       </c>
-    </row>
-    <row r="179" spans="1:15">
+      <c r="P178">
+        <v>9090362.544199999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -9768,8 +10302,11 @@
       <c r="O179">
         <v>44912665.3234</v>
       </c>
-    </row>
-    <row r="180" spans="1:15">
+      <c r="P179">
+        <v>42372323.234</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -9815,8 +10352,11 @@
       <c r="O180">
         <v>5624493.1006</v>
       </c>
-    </row>
-    <row r="181" spans="1:15">
+      <c r="P180">
+        <v>4518872.048</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -9862,8 +10402,11 @@
       <c r="O181">
         <v>19698022.4613</v>
       </c>
-    </row>
-    <row r="182" spans="1:15">
+      <c r="P181">
+        <v>18000407.5131</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -9909,8 +10452,11 @@
       <c r="O182">
         <v>62767351.9104</v>
       </c>
-    </row>
-    <row r="183" spans="1:15">
+      <c r="P182">
+        <v>63295824.8089</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -9956,8 +10502,11 @@
       <c r="O183">
         <v>4135128.9708</v>
       </c>
-    </row>
-    <row r="184" spans="1:15">
+      <c r="P183">
+        <v>4210697.6342</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -10003,8 +10552,11 @@
       <c r="O184">
         <v>65461900.78</v>
       </c>
-    </row>
-    <row r="185" spans="1:15">
+      <c r="P184">
+        <v>63981962.4193</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -10050,8 +10602,11 @@
       <c r="O185">
         <v>2464073.3728</v>
       </c>
-    </row>
-    <row r="186" spans="1:15">
+      <c r="P185">
+        <v>3339556.3702</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -10097,8 +10652,11 @@
       <c r="O186">
         <v>5483680.2666</v>
       </c>
-    </row>
-    <row r="187" spans="1:15">
+      <c r="P186">
+        <v>4034866.2604</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -10144,8 +10702,11 @@
       <c r="O187">
         <v>3594833.605445</v>
       </c>
-    </row>
-    <row r="188" spans="1:15">
+      <c r="P187">
+        <v>2646142.702587</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -10191,8 +10752,11 @@
       <c r="O188">
         <v>1401290.87606619</v>
       </c>
-    </row>
-    <row r="189" spans="1:15">
+      <c r="P188">
+        <v>1120818.4803657</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -10238,8 +10802,11 @@
       <c r="O189">
         <v>544610.4697655</v>
       </c>
-    </row>
-    <row r="190" spans="1:15">
+      <c r="P189">
+        <v>602622.1933463</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -10285,8 +10852,11 @@
       <c r="O190">
         <v>172056.30064</v>
       </c>
-    </row>
-    <row r="191" spans="1:15">
+      <c r="P190">
+        <v>155988.9633</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -10332,8 +10902,11 @@
       <c r="O191">
         <v>3415734.10287</v>
       </c>
-    </row>
-    <row r="192" spans="1:15">
+      <c r="P191">
+        <v>3284079.012838</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -10379,8 +10952,11 @@
       <c r="O192">
         <v>2712616.68187313</v>
       </c>
-    </row>
-    <row r="193" spans="1:15">
+      <c r="P192">
+        <v>2531225.83992473</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -10426,8 +11002,11 @@
       <c r="O193">
         <v>5727474.96232</v>
       </c>
-    </row>
-    <row r="194" spans="1:15">
+      <c r="P193">
+        <v>5349794.1213</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -10473,8 +11052,11 @@
       <c r="O194">
         <v>4328160.09267971</v>
       </c>
-    </row>
-    <row r="195" spans="1:15">
+      <c r="P194">
+        <v>3666975.38028536</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -10520,8 +11102,11 @@
       <c r="O195">
         <v>7441348.5502</v>
       </c>
-    </row>
-    <row r="196" spans="1:15">
+      <c r="P195">
+        <v>4880037.4005</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -10567,8 +11152,11 @@
       <c r="O196">
         <v>2270595.3997</v>
       </c>
-    </row>
-    <row r="197" spans="1:15">
+      <c r="P196">
+        <v>4931940.2056</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -10614,8 +11202,11 @@
       <c r="O197">
         <v>793617.87602</v>
       </c>
-    </row>
-    <row r="198" spans="1:15">
+      <c r="P197">
+        <v>865796.29931</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -10661,8 +11252,11 @@
       <c r="O198">
         <v>385973.95243</v>
       </c>
-    </row>
-    <row r="199" spans="1:15">
+      <c r="P198">
+        <v>369966.88074</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -10708,8 +11302,11 @@
       <c r="O199">
         <v>60482594.2616</v>
       </c>
-    </row>
-    <row r="200" spans="1:15">
+      <c r="P199">
+        <v>53406637.9788</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -10755,8 +11352,11 @@
       <c r="O200">
         <v>552656.151783</v>
       </c>
-    </row>
-    <row r="201" spans="1:15">
+      <c r="P200">
+        <v>1158930.269759</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -10802,8 +11402,11 @@
       <c r="O201">
         <v>2806166.0925</v>
       </c>
-    </row>
-    <row r="202" spans="1:15">
+      <c r="P201">
+        <v>2722240.4662</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -10849,8 +11452,11 @@
       <c r="O202">
         <v>4245482.18882</v>
       </c>
-    </row>
-    <row r="203" spans="1:15">
+      <c r="P202">
+        <v>5715891.98158</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -10896,8 +11502,11 @@
       <c r="O203">
         <v>302777826.1886</v>
       </c>
-    </row>
-    <row r="204" spans="1:15">
+      <c r="P203">
+        <v>262956567.1248</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -10943,8 +11552,11 @@
       <c r="O204">
         <v>13007179.9524</v>
       </c>
-    </row>
-    <row r="205" spans="1:15">
+      <c r="P204">
+        <v>15794363.6582</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -10990,8 +11602,11 @@
       <c r="O205">
         <v>6533628.8027</v>
       </c>
-    </row>
-    <row r="206" spans="1:15">
+      <c r="P205">
+        <v>6991111.4244</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -11037,8 +11652,11 @@
       <c r="O206">
         <v>1772567.48571</v>
       </c>
-    </row>
-    <row r="207" spans="1:15">
+      <c r="P206">
+        <v>1674896.37374</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -11084,8 +11702,11 @@
       <c r="O207">
         <v>894974.08325</v>
       </c>
-    </row>
-    <row r="208" spans="1:15">
+      <c r="P207">
+        <v>731457.93749</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -11131,8 +11752,11 @@
       <c r="O208">
         <v>6991402.0965</v>
       </c>
-    </row>
-    <row r="209" spans="1:15">
+      <c r="P208">
+        <v>5778149.5745</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -11178,8 +11802,11 @@
       <c r="O209">
         <v>2948454.9607</v>
       </c>
-    </row>
-    <row r="210" spans="1:15">
+      <c r="P209">
+        <v>3038454.2611</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -11225,8 +11852,11 @@
       <c r="O210">
         <v>11350640.6983</v>
       </c>
-    </row>
-    <row r="211" spans="1:15">
+      <c r="P210">
+        <v>17540176.446</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -11272,8 +11902,11 @@
       <c r="O211">
         <v>10667701.067</v>
       </c>
-    </row>
-    <row r="212" spans="1:15">
+      <c r="P211">
+        <v>16202490.5776</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -11319,8 +11952,11 @@
       <c r="O212">
         <v>32076094.8535</v>
       </c>
-    </row>
-    <row r="213" spans="1:15">
+      <c r="P212">
+        <v>30731767.0304</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -11366,8 +12002,11 @@
       <c r="O213">
         <v>84150729.2879</v>
       </c>
-    </row>
-    <row r="214" spans="1:15">
+      <c r="P213">
+        <v>99807593.68880001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -11413,8 +12052,11 @@
       <c r="O214">
         <v>1535687.3533851</v>
       </c>
-    </row>
-    <row r="215" spans="1:15">
+      <c r="P214">
+        <v>1340830.7674582</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -11460,8 +12102,11 @@
       <c r="O215">
         <v>678277.31098</v>
       </c>
-    </row>
-    <row r="216" spans="1:15">
+      <c r="P215">
+        <v>681551.6412599999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -11507,8 +12152,11 @@
       <c r="O216">
         <v>325781963.8266</v>
       </c>
-    </row>
-    <row r="217" spans="1:15">
+      <c r="P216">
+        <v>312269904.8541</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -11554,8 +12202,11 @@
       <c r="O217">
         <v>4544833.645599</v>
       </c>
-    </row>
-    <row r="218" spans="1:15">
+      <c r="P217">
+        <v>4270754.015154</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -11601,8 +12252,11 @@
       <c r="O218">
         <v>3348925.38196865</v>
       </c>
-    </row>
-    <row r="219" spans="1:15">
+      <c r="P218">
+        <v>3301927.16601467</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -11648,8 +12302,11 @@
       <c r="O219">
         <v>389351.922506</v>
       </c>
-    </row>
-    <row r="220" spans="1:15">
+      <c r="P219">
+        <v>386212.924656</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -11695,8 +12352,11 @@
       <c r="O220">
         <v>203709.069788</v>
       </c>
-    </row>
-    <row r="221" spans="1:15">
+      <c r="P220">
+        <v>198771.864063</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -11742,8 +12402,11 @@
       <c r="O221">
         <v>4798805.2355</v>
       </c>
-    </row>
-    <row r="222" spans="1:15">
+      <c r="P221">
+        <v>5115117.696</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -11789,8 +12452,11 @@
       <c r="O222">
         <v>16604342.2733</v>
       </c>
-    </row>
-    <row r="223" spans="1:15">
+      <c r="P222">
+        <v>15337115.8545</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -11836,8 +12502,11 @@
       <c r="O223">
         <v>5956109.0175</v>
       </c>
-    </row>
-    <row r="224" spans="1:15">
+      <c r="P223">
+        <v>11858470.8794</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -11883,8 +12552,11 @@
       <c r="O224">
         <v>456617.351559</v>
       </c>
-    </row>
-    <row r="225" spans="1:15">
+      <c r="P224">
+        <v>519618.798013</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -11930,8 +12602,11 @@
       <c r="O225">
         <v>223647.534204</v>
       </c>
-    </row>
-    <row r="226" spans="1:15">
+      <c r="P225">
+        <v>219073.822758</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -11977,8 +12652,11 @@
       <c r="O226">
         <v>4680611.04621</v>
       </c>
-    </row>
-    <row r="227" spans="1:15">
+      <c r="P226">
+        <v>4634543.53175</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -12024,8 +12702,11 @@
       <c r="O227">
         <v>999751253.1832401</v>
       </c>
-    </row>
-    <row r="228" spans="1:15">
+      <c r="P227">
+        <v>728977385.2848001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -12071,8 +12752,11 @@
       <c r="O228">
         <v>5636770.0083</v>
       </c>
-    </row>
-    <row r="229" spans="1:15">
+      <c r="P228">
+        <v>10596026.8265</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -12118,8 +12802,11 @@
       <c r="O229">
         <v>1143409.5138</v>
       </c>
-    </row>
-    <row r="230" spans="1:15">
+      <c r="P229">
+        <v>1729289.6893</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -12165,8 +12852,11 @@
       <c r="O230">
         <v>2110230.5239</v>
       </c>
-    </row>
-    <row r="231" spans="1:15">
+      <c r="P230">
+        <v>1981555.2375</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -12212,8 +12902,11 @@
       <c r="O231">
         <v>10507892.2768</v>
       </c>
-    </row>
-    <row r="232" spans="1:15">
+      <c r="P231">
+        <v>10395846.9978</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -12259,8 +12952,11 @@
       <c r="O232">
         <v>18859488.802455</v>
       </c>
-    </row>
-    <row r="233" spans="1:15">
+      <c r="P232">
+        <v>19396736.271071</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -12306,8 +13002,11 @@
       <c r="O233">
         <v>2241973.1065</v>
       </c>
-    </row>
-    <row r="234" spans="1:15">
+      <c r="P233">
+        <v>2542579.7813</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -12353,8 +13052,11 @@
       <c r="O234">
         <v>8483939.470100001</v>
       </c>
-    </row>
-    <row r="235" spans="1:15">
+      <c r="P234">
+        <v>13464758.441</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -12400,8 +13102,11 @@
       <c r="O235">
         <v>2786487.266112</v>
       </c>
-    </row>
-    <row r="236" spans="1:15">
+      <c r="P235">
+        <v>2088749.934501</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -12447,8 +13152,11 @@
       <c r="O236">
         <v>1847287.41950279</v>
       </c>
-    </row>
-    <row r="237" spans="1:15">
+      <c r="P236">
+        <v>1489527.76313472</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -12494,8 +13202,11 @@
       <c r="O237">
         <v>14799011.2026</v>
       </c>
-    </row>
-    <row r="238" spans="1:15">
+      <c r="P237">
+        <v>10061132.1729</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -12541,8 +13252,11 @@
       <c r="O238">
         <v>130066.2846</v>
       </c>
-    </row>
-    <row r="239" spans="1:15">
+      <c r="P238">
+        <v>79439.63959999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -12588,8 +13302,11 @@
       <c r="O239">
         <v>4065233.4796877</v>
       </c>
-    </row>
-    <row r="240" spans="1:15">
+      <c r="P239">
+        <v>4081091.1278045</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -12635,8 +13352,11 @@
       <c r="O240">
         <v>1663205.68105</v>
       </c>
-    </row>
-    <row r="241" spans="1:15">
+      <c r="P240">
+        <v>1374305.25291</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -12682,8 +13402,11 @@
       <c r="O241">
         <v>751548.7620483</v>
       </c>
-    </row>
-    <row r="242" spans="1:15">
+      <c r="P241">
+        <v>730582.7622115</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -12729,8 +13452,11 @@
       <c r="O242">
         <v>231207.32958</v>
       </c>
-    </row>
-    <row r="243" spans="1:15">
+      <c r="P242">
+        <v>207297.88023</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -12776,8 +13502,11 @@
       <c r="O243">
         <v>25089260.3702</v>
       </c>
-    </row>
-    <row r="244" spans="1:15">
+      <c r="P243">
+        <v>36289242.1427</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -12823,8 +13552,11 @@
       <c r="O244">
         <v>2054702.1524</v>
       </c>
-    </row>
-    <row r="245" spans="1:15">
+      <c r="P244">
+        <v>5539987.145</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -12870,8 +13602,11 @@
       <c r="O245">
         <v>3725101.6054</v>
       </c>
-    </row>
-    <row r="246" spans="1:15">
+      <c r="P245">
+        <v>4778216.8343</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -12917,8 +13652,11 @@
       <c r="O246">
         <v>44304160.1751</v>
       </c>
-    </row>
-    <row r="247" spans="1:15">
+      <c r="P246">
+        <v>52977917.4031</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -12964,8 +13702,11 @@
       <c r="O247">
         <v>19886039.83839</v>
       </c>
-    </row>
-    <row r="248" spans="1:15">
+      <c r="P247">
+        <v>18198054.31903</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -13011,8 +13752,11 @@
       <c r="O248">
         <v>18972878.3579</v>
       </c>
-    </row>
-    <row r="249" spans="1:15">
+      <c r="P248">
+        <v>17375821.8273</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -13058,8 +13802,11 @@
       <c r="O249">
         <v>1618945.3346</v>
       </c>
-    </row>
-    <row r="250" spans="1:15">
+      <c r="P249">
+        <v>1819521.2641</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -13105,8 +13852,11 @@
       <c r="O250">
         <v>685174.4601</v>
       </c>
-    </row>
-    <row r="251" spans="1:15">
+      <c r="P250">
+        <v>634783.6247</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -13152,8 +13902,11 @@
       <c r="O251">
         <v>44875597.1579</v>
       </c>
-    </row>
-    <row r="252" spans="1:15">
+      <c r="P251">
+        <v>48310449.3676</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -13199,8 +13952,11 @@
       <c r="O252">
         <v>604020.0383</v>
       </c>
-    </row>
-    <row r="253" spans="1:15">
+      <c r="P252">
+        <v>952019.8493</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -13246,8 +14002,11 @@
       <c r="O253">
         <v>2598086.7664</v>
       </c>
-    </row>
-    <row r="254" spans="1:15">
+      <c r="P253">
+        <v>2908030.5372</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -13293,8 +14052,11 @@
       <c r="O254">
         <v>3881318.7465</v>
       </c>
-    </row>
-    <row r="255" spans="1:15">
+      <c r="P254">
+        <v>6658238.6685</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -13340,8 +14102,11 @@
       <c r="O255">
         <v>8859493.551929999</v>
       </c>
-    </row>
-    <row r="256" spans="1:15">
+      <c r="P255">
+        <v>7891281.24585</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -13387,8 +14152,11 @@
       <c r="O256">
         <v>15424254.0625</v>
       </c>
-    </row>
-    <row r="257" spans="1:15">
+      <c r="P256">
+        <v>17200586.8422</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -13434,8 +14202,11 @@
       <c r="O257">
         <v>2373102.5044</v>
       </c>
-    </row>
-    <row r="258" spans="1:15">
+      <c r="P257">
+        <v>1775301.7886</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -13481,8 +14252,11 @@
       <c r="O258">
         <v>7920591.1916</v>
       </c>
-    </row>
-    <row r="259" spans="1:15">
+      <c r="P258">
+        <v>13985630.8647</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -13528,8 +14302,11 @@
       <c r="O259">
         <v>3912214.0235</v>
       </c>
-    </row>
-    <row r="260" spans="1:15">
+      <c r="P259">
+        <v>4725284.0156</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -13575,8 +14352,11 @@
       <c r="O260">
         <v>10818692.0375</v>
       </c>
-    </row>
-    <row r="261" spans="1:15">
+      <c r="P260">
+        <v>14856539.7816</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -13622,8 +14402,11 @@
       <c r="O261">
         <v>38743840.8548</v>
       </c>
-    </row>
-    <row r="262" spans="1:15">
+      <c r="P261">
+        <v>39943150.9286</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -13669,8 +14452,11 @@
       <c r="O262">
         <v>1452831.9552</v>
       </c>
-    </row>
-    <row r="263" spans="1:15">
+      <c r="P262">
+        <v>1548794.476</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -13716,8 +14502,11 @@
       <c r="O263">
         <v>2522129.0887</v>
       </c>
-    </row>
-    <row r="264" spans="1:15">
+      <c r="P263">
+        <v>3699454.6179</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -13763,8 +14552,11 @@
       <c r="O264">
         <v>2807054.5576</v>
       </c>
-    </row>
-    <row r="265" spans="1:15">
+      <c r="P264">
+        <v>4106023.4289</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -13810,8 +14602,11 @@
       <c r="O265">
         <v>3768211.0017</v>
       </c>
-    </row>
-    <row r="266" spans="1:15">
+      <c r="P265">
+        <v>6072586.6715</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -13857,8 +14652,11 @@
       <c r="O266">
         <v>22728845.6283476</v>
       </c>
-    </row>
-    <row r="267" spans="1:15">
+      <c r="P266">
+        <v>23092176.3778328</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -13904,8 +14702,11 @@
       <c r="O267">
         <v>5989343.3861</v>
       </c>
-    </row>
-    <row r="268" spans="1:15">
+      <c r="P267">
+        <v>4470680.0145</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -13951,8 +14752,11 @@
       <c r="O268">
         <v>147928726.7764</v>
       </c>
-    </row>
-    <row r="269" spans="1:15">
+      <c r="P268">
+        <v>71487161.061</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -13998,8 +14802,11 @@
       <c r="O269">
         <v>40312531.9374723</v>
       </c>
-    </row>
-    <row r="270" spans="1:15">
+      <c r="P269">
+        <v>127491214.2303301</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -14045,8 +14852,11 @@
       <c r="O270">
         <v>11731234.6204</v>
       </c>
-    </row>
-    <row r="271" spans="1:15">
+      <c r="P270">
+        <v>12757238.0842</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -14092,8 +14902,11 @@
       <c r="O271">
         <v>3605349.5322</v>
       </c>
-    </row>
-    <row r="272" spans="1:15">
+      <c r="P271">
+        <v>3882478.6433</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -14139,8 +14952,11 @@
       <c r="O272">
         <v>13919901.7358</v>
       </c>
-    </row>
-    <row r="273" spans="1:15">
+      <c r="P272">
+        <v>18039257.1397</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -14186,8 +15002,11 @@
       <c r="O273">
         <v>19114763.2446</v>
       </c>
-    </row>
-    <row r="274" spans="1:15">
+      <c r="P273">
+        <v>12492928.6467</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -14233,8 +15052,11 @@
       <c r="O274">
         <v>41505883.1817</v>
       </c>
-    </row>
-    <row r="275" spans="1:15">
+      <c r="P274">
+        <v>36543235.4873</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -14280,8 +15102,11 @@
       <c r="O275">
         <v>2928211.5075</v>
       </c>
-    </row>
-    <row r="276" spans="1:15">
+      <c r="P275">
+        <v>2546321.872</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -14327,8 +15152,11 @@
       <c r="O276">
         <v>9288544.5964</v>
       </c>
-    </row>
-    <row r="277" spans="1:15">
+      <c r="P276">
+        <v>8451196.1447</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -14374,8 +15202,11 @@
       <c r="O277">
         <v>4053604.7019</v>
       </c>
-    </row>
-    <row r="278" spans="1:15">
+      <c r="P277">
+        <v>6056966.1424</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -14421,8 +15252,11 @@
       <c r="O278">
         <v>69371418.63510001</v>
       </c>
-    </row>
-    <row r="279" spans="1:15">
+      <c r="P278">
+        <v>49872980.3014</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -14468,8 +15302,11 @@
       <c r="O279">
         <v>2200600.08229743</v>
       </c>
-    </row>
-    <row r="280" spans="1:15">
+      <c r="P279">
+        <v>2307209.16036813</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -14515,8 +15352,11 @@
       <c r="O280">
         <v>1411227.1205458</v>
       </c>
-    </row>
-    <row r="281" spans="1:15">
+      <c r="P280">
+        <v>1963420.8203726</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -14562,8 +15402,11 @@
       <c r="O281">
         <v>1072577.1937</v>
       </c>
-    </row>
-    <row r="282" spans="1:15">
+      <c r="P281">
+        <v>1140833.8864</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -14609,8 +15452,11 @@
       <c r="O282">
         <v>3353404.1091</v>
       </c>
-    </row>
-    <row r="283" spans="1:15">
+      <c r="P282">
+        <v>3927660.9016</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -14656,8 +15502,11 @@
       <c r="O283">
         <v>1681811.091</v>
       </c>
-    </row>
-    <row r="284" spans="1:15">
+      <c r="P283">
+        <v>1675553.7436</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -14703,8 +15552,11 @@
       <c r="O284">
         <v>1846012.5985</v>
       </c>
-    </row>
-    <row r="285" spans="1:15">
+      <c r="P284">
+        <v>1849760.3555</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -14750,8 +15602,11 @@
       <c r="O285">
         <v>14405890.8065</v>
       </c>
-    </row>
-    <row r="286" spans="1:15">
+      <c r="P285">
+        <v>14563570.1829</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -14797,8 +15652,11 @@
       <c r="O286">
         <v>6510858.6361</v>
       </c>
-    </row>
-    <row r="287" spans="1:15">
+      <c r="P286">
+        <v>6820114.336</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -14844,8 +15702,11 @@
       <c r="O287">
         <v>654055870.846</v>
       </c>
-    </row>
-    <row r="288" spans="1:15">
+      <c r="P287">
+        <v>444362712.1709</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -14891,8 +15752,11 @@
       <c r="O288">
         <v>1963321888.303703</v>
       </c>
-    </row>
-    <row r="289" spans="1:15">
+      <c r="P288">
+        <v>3338054098.3037</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -14938,8 +15802,11 @@
       <c r="O289">
         <v>110718136.1491</v>
       </c>
-    </row>
-    <row r="290" spans="1:15">
+      <c r="P289">
+        <v>154024051.6142</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -14985,8 +15852,11 @@
       <c r="O290">
         <v>30886248.0791</v>
       </c>
-    </row>
-    <row r="291" spans="1:15">
+      <c r="P290">
+        <v>21575058.3559</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -15032,8 +15902,11 @@
       <c r="O291">
         <v>11508997.4637</v>
       </c>
-    </row>
-    <row r="292" spans="1:15">
+      <c r="P291">
+        <v>5661875.6753</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -15079,8 +15952,11 @@
       <c r="O292">
         <v>4617314.9732</v>
       </c>
-    </row>
-    <row r="293" spans="1:15">
+      <c r="P292">
+        <v>6530991.0236</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -15126,8 +16002,11 @@
       <c r="O293">
         <v>30485606.9205</v>
       </c>
-    </row>
-    <row r="294" spans="1:15">
+      <c r="P293">
+        <v>41603079.8279</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -15173,8 +16052,11 @@
       <c r="O294">
         <v>1645352.5834</v>
       </c>
-    </row>
-    <row r="295" spans="1:15">
+      <c r="P294">
+        <v>1188572.6066</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -15220,8 +16102,11 @@
       <c r="O295">
         <v>2354228.7155</v>
       </c>
-    </row>
-    <row r="296" spans="1:15">
+      <c r="P295">
+        <v>2740929.0313</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -15267,8 +16152,11 @@
       <c r="O296">
         <v>4822619.69819</v>
       </c>
-    </row>
-    <row r="297" spans="1:15">
+      <c r="P296">
+        <v>6747834.58396</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -15314,8 +16202,11 @@
       <c r="O297">
         <v>35766875.4399</v>
       </c>
-    </row>
-    <row r="298" spans="1:15">
+      <c r="P297">
+        <v>20417438.6814</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -15361,8 +16252,11 @@
       <c r="O298">
         <v>5521647.6548</v>
       </c>
-    </row>
-    <row r="299" spans="1:15">
+      <c r="P298">
+        <v>4798132.3556</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -15408,8 +16302,11 @@
       <c r="O299">
         <v>2080292.4356</v>
       </c>
-    </row>
-    <row r="300" spans="1:15">
+      <c r="P299">
+        <v>2658132.7306</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -15455,8 +16352,11 @@
       <c r="O300">
         <v>4251161.8349</v>
       </c>
-    </row>
-    <row r="301" spans="1:15">
+      <c r="P300">
+        <v>5080835.6159</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -15502,8 +16402,11 @@
       <c r="O301">
         <v>15789349.2992</v>
       </c>
-    </row>
-    <row r="302" spans="1:15">
+      <c r="P301">
+        <v>16745555.0612</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -15549,8 +16452,11 @@
       <c r="O302">
         <v>10963705.3984</v>
       </c>
-    </row>
-    <row r="303" spans="1:15">
+      <c r="P302">
+        <v>12579463.7916</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -15596,8 +16502,11 @@
       <c r="O303">
         <v>2865901.083</v>
       </c>
-    </row>
-    <row r="304" spans="1:15">
+      <c r="P303">
+        <v>2456562.98</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -15643,8 +16552,11 @@
       <c r="O304">
         <v>1367942.9533</v>
       </c>
-    </row>
-    <row r="305" spans="1:15">
+      <c r="P304">
+        <v>1447230.5788</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -15690,8 +16602,11 @@
       <c r="O305">
         <v>3360396.7386</v>
       </c>
-    </row>
-    <row r="306" spans="1:15">
+      <c r="P305">
+        <v>3034993.6202</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -15737,8 +16652,11 @@
       <c r="O306">
         <v>3063099.993</v>
       </c>
-    </row>
-    <row r="307" spans="1:15">
+      <c r="P306">
+        <v>12993520.7576</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -15784,8 +16702,11 @@
       <c r="O307">
         <v>74470340.52770001</v>
       </c>
-    </row>
-    <row r="308" spans="1:15">
+      <c r="P307">
+        <v>52841961.4518</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -15831,8 +16752,11 @@
       <c r="O308">
         <v>5848638.5843</v>
       </c>
-    </row>
-    <row r="309" spans="1:15">
+      <c r="P308">
+        <v>4876096.8297</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -15878,8 +16802,11 @@
       <c r="O309">
         <v>14130339.641</v>
       </c>
-    </row>
-    <row r="310" spans="1:15">
+      <c r="P309">
+        <v>11805938.4891</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -15925,8 +16852,11 @@
       <c r="O310">
         <v>33459571.8648</v>
       </c>
-    </row>
-    <row r="311" spans="1:15">
+      <c r="P310">
+        <v>26138276.5923</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -15972,8 +16902,11 @@
       <c r="O311">
         <v>10822414.896</v>
       </c>
-    </row>
-    <row r="312" spans="1:15">
+      <c r="P311">
+        <v>9549519.109300001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -16019,8 +16952,11 @@
       <c r="O312">
         <v>22473546.5263</v>
       </c>
-    </row>
-    <row r="313" spans="1:15">
+      <c r="P312">
+        <v>51559642.0113</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -16066,8 +17002,11 @@
       <c r="O313">
         <v>12686055.0578</v>
       </c>
-    </row>
-    <row r="314" spans="1:15">
+      <c r="P313">
+        <v>9826096.686899999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -16113,8 +17052,11 @@
       <c r="O314">
         <v>1863434.9274</v>
       </c>
-    </row>
-    <row r="315" spans="1:15">
+      <c r="P314">
+        <v>1985326.7722</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -16160,8 +17102,11 @@
       <c r="O315">
         <v>4086696.78886</v>
       </c>
-    </row>
-    <row r="316" spans="1:15">
+      <c r="P315">
+        <v>3779065.95996</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -16207,8 +17152,11 @@
       <c r="O316">
         <v>1874541.1023</v>
       </c>
-    </row>
-    <row r="317" spans="1:15">
+      <c r="P316">
+        <v>1642634.6925</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -16254,8 +17202,11 @@
       <c r="O317">
         <v>52183173.6914</v>
       </c>
-    </row>
-    <row r="318" spans="1:15">
+      <c r="P317">
+        <v>28267472.9858</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -16301,8 +17252,11 @@
       <c r="O318">
         <v>5633322.4157</v>
       </c>
-    </row>
-    <row r="319" spans="1:15">
+      <c r="P318">
+        <v>10726334.17323</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -16348,8 +17302,11 @@
       <c r="O319">
         <v>732256.4362999999</v>
       </c>
-    </row>
-    <row r="320" spans="1:15">
+      <c r="P319">
+        <v>951707.0483</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -16395,8 +17352,11 @@
       <c r="O320">
         <v>5728289.7231</v>
       </c>
-    </row>
-    <row r="321" spans="1:15">
+      <c r="P320">
+        <v>3210756.7838</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -16442,8 +17402,11 @@
       <c r="O321">
         <v>11988840.1929</v>
       </c>
-    </row>
-    <row r="322" spans="1:15">
+      <c r="P321">
+        <v>12846113.7059</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -16489,8 +17452,11 @@
       <c r="O322">
         <v>3474838.4186</v>
       </c>
-    </row>
-    <row r="323" spans="1:15">
+      <c r="P322">
+        <v>4756318.4328</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -16536,8 +17502,11 @@
       <c r="O323">
         <v>334111.1501</v>
       </c>
-    </row>
-    <row r="324" spans="1:15">
+      <c r="P323">
+        <v>517768.1755</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -16583,8 +17552,11 @@
       <c r="O324">
         <v>27963635.73547817</v>
       </c>
-    </row>
-    <row r="325" spans="1:15">
+      <c r="P324">
+        <v>35441604.54563816</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -16630,8 +17602,11 @@
       <c r="O325">
         <v>3690294.89155</v>
       </c>
-    </row>
-    <row r="326" spans="1:15">
+      <c r="P325">
+        <v>3127940.12829</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -16677,8 +17652,11 @@
       <c r="O326">
         <v>273810078.27362</v>
       </c>
-    </row>
-    <row r="327" spans="1:15">
+      <c r="P326">
+        <v>206527909.58874</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -16724,8 +17702,11 @@
       <c r="O327">
         <v>25427413.97755</v>
       </c>
-    </row>
-    <row r="328" spans="1:15">
+      <c r="P327">
+        <v>21112238.12101</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -16771,8 +17752,11 @@
       <c r="O328">
         <v>13972562.887517</v>
       </c>
-    </row>
-    <row r="329" spans="1:15">
+      <c r="P328">
+        <v>14276093.127655</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -16818,8 +17802,11 @@
       <c r="O329">
         <v>3646774.10031</v>
       </c>
-    </row>
-    <row r="330" spans="1:15">
+      <c r="P329">
+        <v>3502646.18056</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -16865,8 +17852,11 @@
       <c r="O330">
         <v>3172945.443395</v>
       </c>
-    </row>
-    <row r="331" spans="1:15">
+      <c r="P330">
+        <v>2995301.226701</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -16912,8 +17902,11 @@
       <c r="O331">
         <v>138173894.98103</v>
       </c>
-    </row>
-    <row r="332" spans="1:15">
+      <c r="P331">
+        <v>104268500.03307</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -16959,8 +17952,11 @@
       <c r="O332">
         <v>2970875.9475</v>
       </c>
-    </row>
-    <row r="333" spans="1:15">
+      <c r="P332">
+        <v>4472850.0412</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -17006,8 +18002,11 @@
       <c r="O333">
         <v>36826656.5678</v>
       </c>
-    </row>
-    <row r="334" spans="1:15">
+      <c r="P333">
+        <v>28014487.3103</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -17053,8 +18052,11 @@
       <c r="O334">
         <v>975963.6629999999</v>
       </c>
-    </row>
-    <row r="335" spans="1:15">
+      <c r="P334">
+        <v>976097.3049</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -17099,6 +18101,9 @@
       </c>
       <c r="O335">
         <v>3923549.0983</v>
+      </c>
+      <c r="P335">
+        <v>4683450.4967</v>
       </c>
     </row>
   </sheetData>

--- a/volumeTracker.xlsx
+++ b/volumeTracker.xlsx
@@ -1350,13 +1350,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P335"/>
+  <dimension ref="A1:Q335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1405,8 +1405,11 @@
       <c r="P1">
         <v>2489503183.501875</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1">
+        <v>2631663914.30269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1455,8 +1458,11 @@
       <c r="P2">
         <v>1389333186.93903</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>1349058115.954471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1505,8 +1511,11 @@
       <c r="P3">
         <v>376663866.6889</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3">
+        <v>391576043.2463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1555,8 +1564,11 @@
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1605,8 +1617,11 @@
       <c r="P5">
         <v>22256237.1897</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5">
+        <v>51773902.4977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1655,8 +1670,11 @@
       <c r="P6">
         <v>93388453.53910001</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>108726060.898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1705,8 +1723,11 @@
       <c r="P7">
         <v>41327126.0965</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7">
+        <v>40972497.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1755,8 +1776,11 @@
       <c r="P8">
         <v>287902824.6689</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8">
+        <v>288396206.3627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1805,8 +1829,11 @@
       <c r="P9">
         <v>447116885.3073</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9">
+        <v>458435786.6792</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1855,8 +1882,11 @@
       <c r="P10">
         <v>114217786.475</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>113929904.2717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1905,8 +1935,11 @@
       <c r="P11">
         <v>5336530.7745</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11">
+        <v>7125074.9949</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1955,8 +1988,11 @@
       <c r="P12">
         <v>24612134.6585</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>29305298.9067</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2005,8 +2041,11 @@
       <c r="P13">
         <v>49346863.4377</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13">
+        <v>45279431.8572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2055,8 +2094,11 @@
       <c r="P14">
         <v>23414426.2053</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14">
+        <v>28186467.9789</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2105,8 +2147,11 @@
       <c r="P15">
         <v>287325011.637878</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>332959805.35191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2155,8 +2200,11 @@
       <c r="P16">
         <v>79239899.1116</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>70153451.1471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2205,8 +2253,11 @@
       <c r="P17">
         <v>59501292.387243</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>45391397.865568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2255,8 +2306,11 @@
       <c r="P18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2305,8 +2359,11 @@
       <c r="P19">
         <v>1286874.3997</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>1311236.8117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2355,8 +2412,11 @@
       <c r="P20">
         <v>108626913.181204</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>93296290.068762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2405,8 +2465,11 @@
       <c r="P21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2455,8 +2518,11 @@
       <c r="P22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2505,8 +2571,11 @@
       <c r="P23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2555,8 +2624,11 @@
       <c r="P24">
         <v>157606591.6211</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>190362539.673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2605,8 +2677,11 @@
       <c r="P25">
         <v>136754217.6086</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25">
+        <v>137019576.7367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2655,8 +2730,11 @@
       <c r="P26">
         <v>19332823.2073</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26">
+        <v>22000441.6666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2705,8 +2783,11 @@
       <c r="P27">
         <v>58035837.090134</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27">
+        <v>85165764.53748401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2755,8 +2836,11 @@
       <c r="P28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2805,8 +2889,11 @@
       <c r="P29">
         <v>4765584.0896</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29">
+        <v>11516610.1338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2855,8 +2942,11 @@
       <c r="P30">
         <v>40359542.217005</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30">
+        <v>82076022.68711901</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2905,8 +2995,11 @@
       <c r="P31">
         <v>34518948.336767</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31">
+        <v>38595884.474139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2955,8 +3048,11 @@
       <c r="P32">
         <v>5844246.124</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32">
+        <v>7254200.0574</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3005,8 +3101,11 @@
       <c r="P33">
         <v>115590496.4751</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33">
+        <v>93292925.1549</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3055,8 +3154,11 @@
       <c r="P34">
         <v>6583055.2679</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34">
+        <v>8973162.7643</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3105,8 +3207,11 @@
       <c r="P35">
         <v>34413033.9328</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35">
+        <v>36715158.9964</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3155,8 +3260,11 @@
       <c r="P36">
         <v>19028442.6702</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36">
+        <v>22017175.5119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3205,8 +3313,11 @@
       <c r="P37">
         <v>52263756.49502</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37">
+        <v>48635766.82473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3255,8 +3366,11 @@
       <c r="P38">
         <v>66279685.535769</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38">
+        <v>56679464.251062</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3305,8 +3419,11 @@
       <c r="P39">
         <v>17453768.764</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39">
+        <v>21326959.8756</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3355,8 +3472,11 @@
       <c r="P40">
         <v>7309149.6747</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40">
+        <v>6580473.4665</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3405,8 +3525,11 @@
       <c r="P41">
         <v>255181843.0517</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41">
+        <v>243399521.7977</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3455,8 +3578,11 @@
       <c r="P42">
         <v>136503551.223866</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42">
+        <v>188666154.879366</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3505,8 +3631,11 @@
       <c r="P43">
         <v>17600584.0494</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43">
+        <v>33430718.7634</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3555,8 +3684,11 @@
       <c r="P44">
         <v>3905147.055757</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44">
+        <v>4212750.190374</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3605,8 +3737,11 @@
       <c r="P45">
         <v>114934187.1759</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45">
+        <v>109657137.5379</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3655,8 +3790,11 @@
       <c r="P46">
         <v>155223926.0461</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46">
+        <v>148339539.0193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3705,8 +3843,11 @@
       <c r="P47">
         <v>14574388.9961</v>
       </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47">
+        <v>11999490.1002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3755,8 +3896,11 @@
       <c r="P48">
         <v>69524229.485912</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48">
+        <v>56762434.324132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3805,8 +3949,11 @@
       <c r="P49">
         <v>142353035.4132</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49">
+        <v>137305426.9489</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3855,8 +4002,11 @@
       <c r="P50">
         <v>130634547.2643</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50">
+        <v>119734779.1453</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3905,8 +4055,11 @@
       <c r="P51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3955,8 +4108,11 @@
       <c r="P52">
         <v>3007058.689077</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="Q52">
+        <v>3944878.012596</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -4005,8 +4161,11 @@
       <c r="P53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -4055,8 +4214,11 @@
       <c r="P54">
         <v>1119497576.0504</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="Q54">
+        <v>970402102.0244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -4105,8 +4267,11 @@
       <c r="P55">
         <v>1088383.7154</v>
       </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="Q55">
+        <v>1242555.5758</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -4155,8 +4320,11 @@
       <c r="P56">
         <v>16794125.610704</v>
       </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="Q56">
+        <v>20251352.215934</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -4205,8 +4373,11 @@
       <c r="P57">
         <v>103786549.1347616</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="Q57">
+        <v>204063352.9910177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -4255,8 +4426,11 @@
       <c r="P58">
         <v>5770255.882192</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="Q58">
+        <v>7071408.362692</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -4305,8 +4479,11 @@
       <c r="P59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -4355,8 +4532,11 @@
       <c r="P60">
         <v>1562875.548</v>
       </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="Q60">
+        <v>2100744.2813</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -4405,8 +4585,11 @@
       <c r="P61">
         <v>13644005.8834</v>
       </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="Q61">
+        <v>12420464.6073</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -4455,8 +4638,11 @@
       <c r="P62">
         <v>12862539.7898</v>
       </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="Q62">
+        <v>8003420.44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -4505,8 +4691,11 @@
       <c r="P63">
         <v>1675102.736422</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="Q63">
+        <v>1880094.359781</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -4555,8 +4744,11 @@
       <c r="P64">
         <v>67273861.02505399</v>
       </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="Q64">
+        <v>110657113.96412</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -4605,8 +4797,11 @@
       <c r="P65">
         <v>9552278.92079</v>
       </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="Q65">
+        <v>12128253.037841</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -4655,8 +4850,11 @@
       <c r="P66">
         <v>5293630.886029</v>
       </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="Q66">
+        <v>5982173.314877</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -4705,8 +4903,11 @@
       <c r="P67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -4755,8 +4956,11 @@
       <c r="P68">
         <v>3473184.78549</v>
       </c>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="Q68">
+        <v>2895114.14231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -4805,8 +5009,11 @@
       <c r="P69">
         <v>3381935.2211</v>
       </c>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="Q69">
+        <v>3594835.1638</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -4855,8 +5062,11 @@
       <c r="P70">
         <v>16238046.64125</v>
       </c>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="Q70">
+        <v>16888634.65453</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -4905,8 +5115,11 @@
       <c r="P71">
         <v>12321418.1116</v>
       </c>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="Q71">
+        <v>26770344.0034</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -4955,8 +5168,11 @@
       <c r="P72">
         <v>50529103.2788</v>
       </c>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="Q72">
+        <v>71567999.6684</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -5005,8 +5221,11 @@
       <c r="P73">
         <v>7501426.3551</v>
       </c>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="Q73">
+        <v>12141874.5795</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -5055,8 +5274,11 @@
       <c r="P74">
         <v>844496303.5019</v>
       </c>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="Q74">
+        <v>793812329.9251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -5105,8 +5327,11 @@
       <c r="P75">
         <v>2037830.646</v>
       </c>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="Q75">
+        <v>1885468.4749</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -5155,8 +5380,11 @@
       <c r="P76">
         <v>123460829.2191</v>
       </c>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="Q76">
+        <v>117252426.2733</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -5205,8 +5433,11 @@
       <c r="P77">
         <v>39208973.4773</v>
       </c>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="Q77">
+        <v>31737001.4797</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -5255,8 +5486,11 @@
       <c r="P78">
         <v>13559041.47246</v>
       </c>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="Q78">
+        <v>15066504.448435</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -5305,8 +5539,11 @@
       <c r="P79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -5355,8 +5592,11 @@
       <c r="P80">
         <v>74018844.64910001</v>
       </c>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="Q80">
+        <v>50557479.7354</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -5405,8 +5645,11 @@
       <c r="P81">
         <v>4253841.2663</v>
       </c>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="Q81">
+        <v>4938186.4346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -5455,8 +5698,11 @@
       <c r="P82">
         <v>6117447.0618</v>
       </c>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="Q82">
+        <v>4787524.549</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -5505,8 +5751,11 @@
       <c r="P83">
         <v>18279261.1699</v>
       </c>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="Q83">
+        <v>20860872.895</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -5555,8 +5804,11 @@
       <c r="P84">
         <v>9012662.230047001</v>
       </c>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="Q84">
+        <v>8177888.629924</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -5605,8 +5857,11 @@
       <c r="P85">
         <v>11567842.69389</v>
       </c>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="Q85">
+        <v>31104795.82267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -5655,8 +5910,11 @@
       <c r="P86">
         <v>6406878.5876</v>
       </c>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="Q86">
+        <v>8206723.1635</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -5705,8 +5963,11 @@
       <c r="P87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="Q87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -5755,8 +6016,11 @@
       <c r="P88">
         <v>2572343.9008</v>
       </c>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="Q88">
+        <v>1996657.7528</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -5805,8 +6069,11 @@
       <c r="P89">
         <v>50840842.0493</v>
       </c>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="Q89">
+        <v>61245415.5087</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -5855,8 +6122,11 @@
       <c r="P90">
         <v>18265117.803045</v>
       </c>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="Q90">
+        <v>15504855.261419</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -5905,8 +6175,11 @@
       <c r="P91">
         <v>2896740.017278</v>
       </c>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="Q91">
+        <v>2608927.893973</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -5955,8 +6228,11 @@
       <c r="P92">
         <v>116473723.2516</v>
       </c>
-    </row>
-    <row r="93" spans="1:16">
+      <c r="Q92">
+        <v>142733314.4261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -6005,8 +6281,11 @@
       <c r="P93">
         <v>40745507.9332</v>
       </c>
-    </row>
-    <row r="94" spans="1:16">
+      <c r="Q93">
+        <v>39061923.7335</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -6055,8 +6334,11 @@
       <c r="P94">
         <v>27842734.532426</v>
       </c>
-    </row>
-    <row r="95" spans="1:16">
+      <c r="Q94">
+        <v>21897546.669226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -6105,8 +6387,11 @@
       <c r="P95">
         <v>1073054.7612</v>
       </c>
-    </row>
-    <row r="96" spans="1:16">
+      <c r="Q95">
+        <v>1128007.1631</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -6155,8 +6440,11 @@
       <c r="P96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:16">
+      <c r="Q96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -6205,8 +6493,11 @@
       <c r="P97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:16">
+      <c r="Q97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -6255,8 +6546,11 @@
       <c r="P98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:16">
+      <c r="Q98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -6305,8 +6599,11 @@
       <c r="P99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:16">
+      <c r="Q99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -6355,8 +6652,11 @@
       <c r="P100">
         <v>1882850.82938</v>
       </c>
-    </row>
-    <row r="101" spans="1:16">
+      <c r="Q100">
+        <v>2174299.37441</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -6405,8 +6705,11 @@
       <c r="P101">
         <v>8989964.328400001</v>
       </c>
-    </row>
-    <row r="102" spans="1:16">
+      <c r="Q101">
+        <v>12562054.1022</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -6455,8 +6758,11 @@
       <c r="P102">
         <v>3462468.426367</v>
       </c>
-    </row>
-    <row r="103" spans="1:16">
+      <c r="Q102">
+        <v>4344751.959255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -6505,8 +6811,11 @@
       <c r="P103">
         <v>2202494.5917</v>
       </c>
-    </row>
-    <row r="104" spans="1:16">
+      <c r="Q103">
+        <v>2760555.7058</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -6555,8 +6864,11 @@
       <c r="P104">
         <v>1099915.5327</v>
       </c>
-    </row>
-    <row r="105" spans="1:16">
+      <c r="Q104">
+        <v>1585922.4739</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -6605,8 +6917,11 @@
       <c r="P105">
         <v>2518486.3218</v>
       </c>
-    </row>
-    <row r="106" spans="1:16">
+      <c r="Q105">
+        <v>2658670.4938</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -6655,8 +6970,11 @@
       <c r="P106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:16">
+      <c r="Q106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -6705,8 +7023,11 @@
       <c r="P107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:16">
+      <c r="Q107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -6755,8 +7076,11 @@
       <c r="P108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:16">
+      <c r="Q108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -6805,8 +7129,11 @@
       <c r="P109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:16">
+      <c r="Q109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -6855,8 +7182,11 @@
       <c r="P110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:16">
+      <c r="Q110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -6905,8 +7235,11 @@
       <c r="P111">
         <v>3755995.3457</v>
       </c>
-    </row>
-    <row r="112" spans="1:16">
+      <c r="Q111">
+        <v>3285993.3067</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -6955,8 +7288,11 @@
       <c r="P112">
         <v>10828223.214261</v>
       </c>
-    </row>
-    <row r="113" spans="1:16">
+      <c r="Q112">
+        <v>14011053.362106</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -7005,8 +7341,11 @@
       <c r="P113">
         <v>82787210.2001</v>
       </c>
-    </row>
-    <row r="114" spans="1:16">
+      <c r="Q113">
+        <v>81074605.4701</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -7055,8 +7394,11 @@
       <c r="P114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:16">
+      <c r="Q114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -7105,8 +7447,11 @@
       <c r="P115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:16">
+      <c r="Q115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -7155,8 +7500,11 @@
       <c r="P116">
         <v>320152324.431369</v>
       </c>
-    </row>
-    <row r="117" spans="1:16">
+      <c r="Q116">
+        <v>399781034.974656</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -7205,8 +7553,11 @@
       <c r="P117">
         <v>3497766.7064</v>
       </c>
-    </row>
-    <row r="118" spans="1:16">
+      <c r="Q117">
+        <v>3615478.3228</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -7255,8 +7606,11 @@
       <c r="P118">
         <v>4016502.918676</v>
       </c>
-    </row>
-    <row r="119" spans="1:16">
+      <c r="Q118">
+        <v>3028650.669021</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -7305,8 +7659,11 @@
       <c r="P119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:16">
+      <c r="Q119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -7355,8 +7712,11 @@
       <c r="P120">
         <v>586674487.2726001</v>
       </c>
-    </row>
-    <row r="121" spans="1:16">
+      <c r="Q120">
+        <v>546908364.967</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -7405,8 +7765,11 @@
       <c r="P121">
         <v>6802321.7564</v>
       </c>
-    </row>
-    <row r="122" spans="1:16">
+      <c r="Q121">
+        <v>7154801.7771</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -7455,8 +7818,11 @@
       <c r="P122">
         <v>2891036.5372</v>
       </c>
-    </row>
-    <row r="123" spans="1:16">
+      <c r="Q122">
+        <v>103175976.765051</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -7505,8 +7871,11 @@
       <c r="P123">
         <v>16794016.3029</v>
       </c>
-    </row>
-    <row r="124" spans="1:16">
+      <c r="Q123">
+        <v>17552348.9434</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -7555,8 +7924,11 @@
       <c r="P124">
         <v>4645235.0255</v>
       </c>
-    </row>
-    <row r="125" spans="1:16">
+      <c r="Q124">
+        <v>4939093.46969</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -7605,8 +7977,11 @@
       <c r="P125">
         <v>9296178.692368001</v>
       </c>
-    </row>
-    <row r="126" spans="1:16">
+      <c r="Q125">
+        <v>9225728.5889211</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -7655,8 +8030,11 @@
       <c r="P126">
         <v>1149587.7804</v>
       </c>
-    </row>
-    <row r="127" spans="1:16">
+      <c r="Q126">
+        <v>1227262.5162</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -7705,8 +8083,11 @@
       <c r="P127">
         <v>2172794.5828</v>
       </c>
-    </row>
-    <row r="128" spans="1:16">
+      <c r="Q127">
+        <v>9204943.8048</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -7755,8 +8136,11 @@
       <c r="P128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:16">
+      <c r="Q128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -7805,8 +8189,11 @@
       <c r="P129">
         <v>23791381.476637</v>
       </c>
-    </row>
-    <row r="130" spans="1:16">
+      <c r="Q129">
+        <v>36730788.14402</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -7855,8 +8242,11 @@
       <c r="P130">
         <v>18950850.15547</v>
       </c>
-    </row>
-    <row r="131" spans="1:16">
+      <c r="Q130">
+        <v>26250245.08802</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -7905,8 +8295,11 @@
       <c r="P131">
         <v>3693612.5173</v>
       </c>
-    </row>
-    <row r="132" spans="1:16">
+      <c r="Q131">
+        <v>5118682.8042</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -7955,8 +8348,11 @@
       <c r="P132">
         <v>1996140.1528</v>
       </c>
-    </row>
-    <row r="133" spans="1:16">
+      <c r="Q132">
+        <v>2382559.7926</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -8005,8 +8401,11 @@
       <c r="P133">
         <v>8241850.5954</v>
       </c>
-    </row>
-    <row r="134" spans="1:16">
+      <c r="Q133">
+        <v>7349742.6577</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -8055,8 +8454,11 @@
       <c r="P134">
         <v>2568556.3922</v>
       </c>
-    </row>
-    <row r="135" spans="1:16">
+      <c r="Q134">
+        <v>4414841.6315</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -8105,8 +8507,11 @@
       <c r="P135">
         <v>37872798.6015</v>
       </c>
-    </row>
-    <row r="136" spans="1:16">
+      <c r="Q135">
+        <v>28897777.6972</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -8155,8 +8560,11 @@
       <c r="P136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:16">
+      <c r="Q136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -8205,8 +8613,11 @@
       <c r="P137">
         <v>17378305.35447</v>
       </c>
-    </row>
-    <row r="138" spans="1:16">
+      <c r="Q137">
+        <v>67914421.10841</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -8255,8 +8666,11 @@
       <c r="P138">
         <v>9177842.660599999</v>
       </c>
-    </row>
-    <row r="139" spans="1:16">
+      <c r="Q138">
+        <v>7944377.7732</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -8305,8 +8719,11 @@
       <c r="P139">
         <v>22085752.4258</v>
       </c>
-    </row>
-    <row r="140" spans="1:16">
+      <c r="Q139">
+        <v>21103810.6138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -8355,8 +8772,11 @@
       <c r="P140">
         <v>5184238.83528</v>
       </c>
-    </row>
-    <row r="141" spans="1:16">
+      <c r="Q140">
+        <v>5308228.44421</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -8405,8 +8825,11 @@
       <c r="P141">
         <v>8355590.73312</v>
       </c>
-    </row>
-    <row r="142" spans="1:16">
+      <c r="Q141">
+        <v>8504685.23167</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -8455,8 +8878,11 @@
       <c r="P142">
         <v>1985615.0915</v>
       </c>
-    </row>
-    <row r="143" spans="1:16">
+      <c r="Q142">
+        <v>1971681.13362</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -8505,8 +8931,11 @@
       <c r="P143">
         <v>859797.2582552501</v>
       </c>
-    </row>
-    <row r="144" spans="1:16">
+      <c r="Q143">
+        <v>728453.24888517</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -8555,8 +8984,11 @@
       <c r="P144">
         <v>2380734.914185</v>
       </c>
-    </row>
-    <row r="145" spans="1:16">
+      <c r="Q144">
+        <v>2662015.78053</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -8605,8 +9037,11 @@
       <c r="P145">
         <v>695634.7187818</v>
       </c>
-    </row>
-    <row r="146" spans="1:16">
+      <c r="Q145">
+        <v>771079.0939215</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -8655,8 +9090,11 @@
       <c r="P146">
         <v>12456803.726292</v>
       </c>
-    </row>
-    <row r="147" spans="1:16">
+      <c r="Q146">
+        <v>16672283.12543</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -8705,8 +9143,11 @@
       <c r="P147">
         <v>6525617.373757</v>
       </c>
-    </row>
-    <row r="148" spans="1:16">
+      <c r="Q147">
+        <v>14305077.956957</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -8755,8 +9196,11 @@
       <c r="P148">
         <v>12595410.5575</v>
       </c>
-    </row>
-    <row r="149" spans="1:16">
+      <c r="Q148">
+        <v>14040776.9645</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -8805,8 +9249,11 @@
       <c r="P149">
         <v>36980841.1038</v>
       </c>
-    </row>
-    <row r="150" spans="1:16">
+      <c r="Q149">
+        <v>75959324.0114</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -8855,8 +9302,11 @@
       <c r="P150">
         <v>7817830.674</v>
       </c>
-    </row>
-    <row r="151" spans="1:16">
+      <c r="Q150">
+        <v>7089814.4248</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -8905,8 +9355,11 @@
       <c r="P151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:16">
+      <c r="Q151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -8955,8 +9408,11 @@
       <c r="P152">
         <v>1654143.0644</v>
       </c>
-    </row>
-    <row r="153" spans="1:16">
+      <c r="Q152">
+        <v>1326504.1044</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -9005,8 +9461,11 @@
       <c r="P153">
         <v>5857108.397</v>
       </c>
-    </row>
-    <row r="154" spans="1:16">
+      <c r="Q153">
+        <v>10953772.4309</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -9055,8 +9514,11 @@
       <c r="P154">
         <v>2450672.7321</v>
       </c>
-    </row>
-    <row r="155" spans="1:16">
+      <c r="Q154">
+        <v>2496667.6871</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -9105,8 +9567,11 @@
       <c r="P155">
         <v>2499088.389415</v>
       </c>
-    </row>
-    <row r="156" spans="1:16">
+      <c r="Q155">
+        <v>2048718.398427</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -9155,8 +9620,11 @@
       <c r="P156">
         <v>5425691.4681491</v>
       </c>
-    </row>
-    <row r="157" spans="1:16">
+      <c r="Q156">
+        <v>4982922.1811729</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -9205,8 +9673,11 @@
       <c r="P157">
         <v>2274402.51605</v>
       </c>
-    </row>
-    <row r="158" spans="1:16">
+      <c r="Q157">
+        <v>2198304.31665</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -9255,8 +9726,11 @@
       <c r="P158">
         <v>21064217.0486</v>
       </c>
-    </row>
-    <row r="159" spans="1:16">
+      <c r="Q158">
+        <v>16720167.9524</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -9305,8 +9779,11 @@
       <c r="P159">
         <v>31264369.9515</v>
       </c>
-    </row>
-    <row r="160" spans="1:16">
+      <c r="Q159">
+        <v>30475062.7018</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -9355,8 +9832,11 @@
       <c r="P160">
         <v>14808496.4423073</v>
       </c>
-    </row>
-    <row r="161" spans="1:16">
+      <c r="Q160">
+        <v>19163831.3562813</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -9405,8 +9885,11 @@
       <c r="P161">
         <v>5032517.9721</v>
       </c>
-    </row>
-    <row r="162" spans="1:16">
+      <c r="Q161">
+        <v>5482572.614</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -9455,8 +9938,11 @@
       <c r="P162">
         <v>6179123.6731</v>
       </c>
-    </row>
-    <row r="163" spans="1:16">
+      <c r="Q162">
+        <v>5666455.6618</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -9505,8 +9991,11 @@
       <c r="P163">
         <v>2786581.493316</v>
       </c>
-    </row>
-    <row r="164" spans="1:16">
+      <c r="Q163">
+        <v>3124418.174592</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -9555,8 +10044,11 @@
       <c r="P164">
         <v>16512029.2251</v>
       </c>
-    </row>
-    <row r="165" spans="1:16">
+      <c r="Q164">
+        <v>15524134.1448</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -9605,8 +10097,11 @@
       <c r="P165">
         <v>14246975.538674</v>
       </c>
-    </row>
-    <row r="166" spans="1:16">
+      <c r="Q165">
+        <v>17454516.858481</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -9655,8 +10150,11 @@
       <c r="P166">
         <v>46849882.3994</v>
       </c>
-    </row>
-    <row r="167" spans="1:16">
+      <c r="Q166">
+        <v>45749180.6905</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -9705,8 +10203,11 @@
       <c r="P167">
         <v>2840578.2344</v>
       </c>
-    </row>
-    <row r="168" spans="1:16">
+      <c r="Q167">
+        <v>3111052.3021</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -9755,8 +10256,11 @@
       <c r="P168">
         <v>65216491.9793</v>
       </c>
-    </row>
-    <row r="169" spans="1:16">
+      <c r="Q168">
+        <v>40720130.3012</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -9805,8 +10309,11 @@
       <c r="P169">
         <v>27965618.5199</v>
       </c>
-    </row>
-    <row r="170" spans="1:16">
+      <c r="Q169">
+        <v>29600400.0941</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -9855,8 +10362,11 @@
       <c r="P170">
         <v>8989109.101600001</v>
       </c>
-    </row>
-    <row r="171" spans="1:16">
+      <c r="Q170">
+        <v>10018808.5594</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -9905,8 +10415,11 @@
       <c r="P171">
         <v>1917520.7126</v>
       </c>
-    </row>
-    <row r="172" spans="1:16">
+      <c r="Q171">
+        <v>1902662.5916</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -9955,8 +10468,11 @@
       <c r="P172">
         <v>278069639.8015</v>
       </c>
-    </row>
-    <row r="173" spans="1:16">
+      <c r="Q172">
+        <v>265271623.9906</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -10005,8 +10521,11 @@
       <c r="P173">
         <v>353170581.8478</v>
       </c>
-    </row>
-    <row r="174" spans="1:16">
+      <c r="Q173">
+        <v>267747467.5354</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -10055,8 +10574,11 @@
       <c r="P174">
         <v>18584855.945975</v>
       </c>
-    </row>
-    <row r="175" spans="1:16">
+      <c r="Q174">
+        <v>25114430.870801</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -10105,8 +10627,11 @@
       <c r="P175">
         <v>3658452.494</v>
       </c>
-    </row>
-    <row r="176" spans="1:16">
+      <c r="Q175">
+        <v>2593492.0154</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -10155,8 +10680,11 @@
       <c r="P176">
         <v>1011348.2851</v>
       </c>
-    </row>
-    <row r="177" spans="1:16">
+      <c r="Q176">
+        <v>1057134.4731</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -10205,8 +10733,11 @@
       <c r="P177">
         <v>5062164.7835</v>
       </c>
-    </row>
-    <row r="178" spans="1:16">
+      <c r="Q177">
+        <v>5289672.4397</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -10255,8 +10786,11 @@
       <c r="P178">
         <v>9090362.544199999</v>
       </c>
-    </row>
-    <row r="179" spans="1:16">
+      <c r="Q178">
+        <v>5985817.7462</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -10305,8 +10839,11 @@
       <c r="P179">
         <v>42372323.234</v>
       </c>
-    </row>
-    <row r="180" spans="1:16">
+      <c r="Q179">
+        <v>42996491.2449</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -10355,8 +10892,11 @@
       <c r="P180">
         <v>4518872.048</v>
       </c>
-    </row>
-    <row r="181" spans="1:16">
+      <c r="Q180">
+        <v>4078973.5331</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -10405,8 +10945,11 @@
       <c r="P181">
         <v>18000407.5131</v>
       </c>
-    </row>
-    <row r="182" spans="1:16">
+      <c r="Q181">
+        <v>16172377.4634</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -10455,8 +10998,11 @@
       <c r="P182">
         <v>63295824.8089</v>
       </c>
-    </row>
-    <row r="183" spans="1:16">
+      <c r="Q182">
+        <v>60802438.7953</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -10505,8 +11051,11 @@
       <c r="P183">
         <v>4210697.6342</v>
       </c>
-    </row>
-    <row r="184" spans="1:16">
+      <c r="Q183">
+        <v>4248222.59</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -10555,8 +11104,11 @@
       <c r="P184">
         <v>63981962.4193</v>
       </c>
-    </row>
-    <row r="185" spans="1:16">
+      <c r="Q184">
+        <v>37597783.4954</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -10605,8 +11157,11 @@
       <c r="P185">
         <v>3339556.3702</v>
       </c>
-    </row>
-    <row r="186" spans="1:16">
+      <c r="Q185">
+        <v>2585919.7373</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -10655,8 +11210,11 @@
       <c r="P186">
         <v>4034866.2604</v>
       </c>
-    </row>
-    <row r="187" spans="1:16">
+      <c r="Q186">
+        <v>3662313.1494</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -10705,8 +11263,11 @@
       <c r="P187">
         <v>2646142.702587</v>
       </c>
-    </row>
-    <row r="188" spans="1:16">
+      <c r="Q187">
+        <v>2130454.462348</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -10755,8 +11316,11 @@
       <c r="P188">
         <v>1120818.4803657</v>
       </c>
-    </row>
-    <row r="189" spans="1:16">
+      <c r="Q188">
+        <v>1038610.2217791</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -10805,8 +11369,11 @@
       <c r="P189">
         <v>602622.1933463</v>
       </c>
-    </row>
-    <row r="190" spans="1:16">
+      <c r="Q189">
+        <v>844300.0106977</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -10855,8 +11422,11 @@
       <c r="P190">
         <v>155988.9633</v>
       </c>
-    </row>
-    <row r="191" spans="1:16">
+      <c r="Q190">
+        <v>206317.60695</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -10905,8 +11475,11 @@
       <c r="P191">
         <v>3284079.012838</v>
       </c>
-    </row>
-    <row r="192" spans="1:16">
+      <c r="Q191">
+        <v>3374544.516874</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -10955,8 +11528,11 @@
       <c r="P192">
         <v>2531225.83992473</v>
       </c>
-    </row>
-    <row r="193" spans="1:16">
+      <c r="Q192">
+        <v>2563953.09011832</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -11005,8 +11581,11 @@
       <c r="P193">
         <v>5349794.1213</v>
       </c>
-    </row>
-    <row r="194" spans="1:16">
+      <c r="Q193">
+        <v>5158331.23057</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -11055,8 +11634,11 @@
       <c r="P194">
         <v>3666975.38028536</v>
       </c>
-    </row>
-    <row r="195" spans="1:16">
+      <c r="Q194">
+        <v>3386095.01079936</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -11105,8 +11687,11 @@
       <c r="P195">
         <v>4880037.4005</v>
       </c>
-    </row>
-    <row r="196" spans="1:16">
+      <c r="Q195">
+        <v>4545939.3852</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -11155,8 +11740,11 @@
       <c r="P196">
         <v>4931940.2056</v>
       </c>
-    </row>
-    <row r="197" spans="1:16">
+      <c r="Q196">
+        <v>8048768.7412</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -11205,8 +11793,11 @@
       <c r="P197">
         <v>865796.29931</v>
       </c>
-    </row>
-    <row r="198" spans="1:16">
+      <c r="Q197">
+        <v>1154522.50598</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -11255,8 +11846,11 @@
       <c r="P198">
         <v>369966.88074</v>
       </c>
-    </row>
-    <row r="199" spans="1:16">
+      <c r="Q198">
+        <v>411336.24634</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -11305,8 +11899,11 @@
       <c r="P199">
         <v>53406637.9788</v>
       </c>
-    </row>
-    <row r="200" spans="1:16">
+      <c r="Q199">
+        <v>47805362.0479</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -11355,8 +11952,11 @@
       <c r="P200">
         <v>1158930.269759</v>
       </c>
-    </row>
-    <row r="201" spans="1:16">
+      <c r="Q200">
+        <v>1530825.952733</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -11405,8 +12005,11 @@
       <c r="P201">
         <v>2722240.4662</v>
       </c>
-    </row>
-    <row r="202" spans="1:16">
+      <c r="Q201">
+        <v>3105028.581</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -11455,8 +12058,11 @@
       <c r="P202">
         <v>5715891.98158</v>
       </c>
-    </row>
-    <row r="203" spans="1:16">
+      <c r="Q202">
+        <v>6891504.13174</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -11505,8 +12111,11 @@
       <c r="P203">
         <v>262956567.1248</v>
       </c>
-    </row>
-    <row r="204" spans="1:16">
+      <c r="Q203">
+        <v>245726640.7859</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -11555,8 +12164,11 @@
       <c r="P204">
         <v>15794363.6582</v>
       </c>
-    </row>
-    <row r="205" spans="1:16">
+      <c r="Q204">
+        <v>14407580.6747</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -11605,8 +12217,11 @@
       <c r="P205">
         <v>6991111.4244</v>
       </c>
-    </row>
-    <row r="206" spans="1:16">
+      <c r="Q205">
+        <v>9329057.841</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -11655,8 +12270,11 @@
       <c r="P206">
         <v>1674896.37374</v>
       </c>
-    </row>
-    <row r="207" spans="1:16">
+      <c r="Q206">
+        <v>1543107.35723</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -11705,8 +12323,11 @@
       <c r="P207">
         <v>731457.93749</v>
       </c>
-    </row>
-    <row r="208" spans="1:16">
+      <c r="Q207">
+        <v>588075.97164</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -11755,8 +12376,11 @@
       <c r="P208">
         <v>5778149.5745</v>
       </c>
-    </row>
-    <row r="209" spans="1:16">
+      <c r="Q208">
+        <v>5198981.656</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -11805,8 +12429,11 @@
       <c r="P209">
         <v>3038454.2611</v>
       </c>
-    </row>
-    <row r="210" spans="1:16">
+      <c r="Q209">
+        <v>4650128.1233</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -11855,8 +12482,11 @@
       <c r="P210">
         <v>17540176.446</v>
       </c>
-    </row>
-    <row r="211" spans="1:16">
+      <c r="Q210">
+        <v>18405115.4158</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -11905,8 +12535,11 @@
       <c r="P211">
         <v>16202490.5776</v>
       </c>
-    </row>
-    <row r="212" spans="1:16">
+      <c r="Q211">
+        <v>16744451.1689</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -11955,8 +12588,11 @@
       <c r="P212">
         <v>30731767.0304</v>
       </c>
-    </row>
-    <row r="213" spans="1:16">
+      <c r="Q212">
+        <v>30069179.1012</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -12005,8 +12641,11 @@
       <c r="P213">
         <v>99807593.68880001</v>
       </c>
-    </row>
-    <row r="214" spans="1:16">
+      <c r="Q213">
+        <v>81131797.6225</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -12055,8 +12694,11 @@
       <c r="P214">
         <v>1340830.7674582</v>
       </c>
-    </row>
-    <row r="215" spans="1:16">
+      <c r="Q214">
+        <v>2805152.396789</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -12105,8 +12747,11 @@
       <c r="P215">
         <v>681551.6412599999</v>
       </c>
-    </row>
-    <row r="216" spans="1:16">
+      <c r="Q215">
+        <v>1638382.33992</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -12155,8 +12800,11 @@
       <c r="P216">
         <v>312269904.8541</v>
       </c>
-    </row>
-    <row r="217" spans="1:16">
+      <c r="Q216">
+        <v>277960810.6223</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -12205,8 +12853,11 @@
       <c r="P217">
         <v>4270754.015154</v>
       </c>
-    </row>
-    <row r="218" spans="1:16">
+      <c r="Q217">
+        <v>3759692.539505</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -12255,8 +12906,11 @@
       <c r="P218">
         <v>3301927.16601467</v>
       </c>
-    </row>
-    <row r="219" spans="1:16">
+      <c r="Q218">
+        <v>2345689.67464767</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -12305,8 +12959,11 @@
       <c r="P219">
         <v>386212.924656</v>
       </c>
-    </row>
-    <row r="220" spans="1:16">
+      <c r="Q219">
+        <v>464461.216129</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -12355,8 +13012,11 @@
       <c r="P220">
         <v>198771.864063</v>
       </c>
-    </row>
-    <row r="221" spans="1:16">
+      <c r="Q220">
+        <v>263472.502115</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -12405,8 +13065,11 @@
       <c r="P221">
         <v>5115117.696</v>
       </c>
-    </row>
-    <row r="222" spans="1:16">
+      <c r="Q221">
+        <v>5857637.5177</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -12455,8 +13118,11 @@
       <c r="P222">
         <v>15337115.8545</v>
       </c>
-    </row>
-    <row r="223" spans="1:16">
+      <c r="Q222">
+        <v>15119897.5348</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -12505,8 +13171,11 @@
       <c r="P223">
         <v>11858470.8794</v>
       </c>
-    </row>
-    <row r="224" spans="1:16">
+      <c r="Q223">
+        <v>12839815.1017</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -12555,8 +13224,11 @@
       <c r="P224">
         <v>519618.798013</v>
       </c>
-    </row>
-    <row r="225" spans="1:16">
+      <c r="Q224">
+        <v>702559.665192</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -12605,8 +13277,11 @@
       <c r="P225">
         <v>219073.822758</v>
       </c>
-    </row>
-    <row r="226" spans="1:16">
+      <c r="Q225">
+        <v>484354.193544</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -12655,8 +13330,11 @@
       <c r="P226">
         <v>4634543.53175</v>
       </c>
-    </row>
-    <row r="227" spans="1:16">
+      <c r="Q226">
+        <v>4051225.69331</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -12705,8 +13383,11 @@
       <c r="P227">
         <v>728977385.2848001</v>
       </c>
-    </row>
-    <row r="228" spans="1:16">
+      <c r="Q227">
+        <v>556606724.5774</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -12755,8 +13436,11 @@
       <c r="P228">
         <v>10596026.8265</v>
       </c>
-    </row>
-    <row r="229" spans="1:16">
+      <c r="Q228">
+        <v>14046719.5298</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -12805,8 +13489,11 @@
       <c r="P229">
         <v>1729289.6893</v>
       </c>
-    </row>
-    <row r="230" spans="1:16">
+      <c r="Q229">
+        <v>2313144.8111</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -12855,8 +13542,11 @@
       <c r="P230">
         <v>1981555.2375</v>
       </c>
-    </row>
-    <row r="231" spans="1:16">
+      <c r="Q230">
+        <v>3601685.2373</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -12905,8 +13595,11 @@
       <c r="P231">
         <v>10395846.9978</v>
       </c>
-    </row>
-    <row r="232" spans="1:16">
+      <c r="Q231">
+        <v>9444403.4167</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -12955,8 +13648,11 @@
       <c r="P232">
         <v>19396736.271071</v>
       </c>
-    </row>
-    <row r="233" spans="1:16">
+      <c r="Q232">
+        <v>19865897.907049</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -13005,8 +13701,11 @@
       <c r="P233">
         <v>2542579.7813</v>
       </c>
-    </row>
-    <row r="234" spans="1:16">
+      <c r="Q233">
+        <v>2800949.1899</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -13055,8 +13754,11 @@
       <c r="P234">
         <v>13464758.441</v>
       </c>
-    </row>
-    <row r="235" spans="1:16">
+      <c r="Q234">
+        <v>14206458.5407</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -13105,8 +13807,11 @@
       <c r="P235">
         <v>2088749.934501</v>
       </c>
-    </row>
-    <row r="236" spans="1:16">
+      <c r="Q235">
+        <v>2080047.208853</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -13155,8 +13860,11 @@
       <c r="P236">
         <v>1489527.76313472</v>
       </c>
-    </row>
-    <row r="237" spans="1:16">
+      <c r="Q236">
+        <v>1392987.6205097</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -13205,8 +13913,11 @@
       <c r="P237">
         <v>10061132.1729</v>
       </c>
-    </row>
-    <row r="238" spans="1:16">
+      <c r="Q237">
+        <v>6721117.1982</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -13255,8 +13966,11 @@
       <c r="P238">
         <v>79439.63959999999</v>
       </c>
-    </row>
-    <row r="239" spans="1:16">
+      <c r="Q238">
+        <v>39000.6829</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -13305,8 +14019,11 @@
       <c r="P239">
         <v>4081091.1278045</v>
       </c>
-    </row>
-    <row r="240" spans="1:16">
+      <c r="Q239">
+        <v>4006720.4673526</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -13355,8 +14072,11 @@
       <c r="P240">
         <v>1374305.25291</v>
       </c>
-    </row>
-    <row r="241" spans="1:16">
+      <c r="Q240">
+        <v>1400151.24308</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -13405,8 +14125,11 @@
       <c r="P241">
         <v>730582.7622115</v>
       </c>
-    </row>
-    <row r="242" spans="1:16">
+      <c r="Q241">
+        <v>644623.5613251</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -13455,8 +14178,11 @@
       <c r="P242">
         <v>207297.88023</v>
       </c>
-    </row>
-    <row r="243" spans="1:16">
+      <c r="Q242">
+        <v>144168.37586</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -13505,8 +14231,11 @@
       <c r="P243">
         <v>36289242.1427</v>
       </c>
-    </row>
-    <row r="244" spans="1:16">
+      <c r="Q243">
+        <v>40349783.5544</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -13555,8 +14284,11 @@
       <c r="P244">
         <v>5539987.145</v>
       </c>
-    </row>
-    <row r="245" spans="1:16">
+      <c r="Q244">
+        <v>6539745.9565</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -13605,8 +14337,11 @@
       <c r="P245">
         <v>4778216.8343</v>
       </c>
-    </row>
-    <row r="246" spans="1:16">
+      <c r="Q245">
+        <v>4576623.0487</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -13655,8 +14390,11 @@
       <c r="P246">
         <v>52977917.4031</v>
       </c>
-    </row>
-    <row r="247" spans="1:16">
+      <c r="Q246">
+        <v>41014274.0651</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -13705,8 +14443,11 @@
       <c r="P247">
         <v>18198054.31903</v>
       </c>
-    </row>
-    <row r="248" spans="1:16">
+      <c r="Q247">
+        <v>18284416.62714</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -13755,8 +14496,11 @@
       <c r="P248">
         <v>17375821.8273</v>
       </c>
-    </row>
-    <row r="249" spans="1:16">
+      <c r="Q248">
+        <v>3640023.9476</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -13805,8 +14549,11 @@
       <c r="P249">
         <v>1819521.2641</v>
       </c>
-    </row>
-    <row r="250" spans="1:16">
+      <c r="Q249">
+        <v>1976357.7162</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -13855,8 +14602,11 @@
       <c r="P250">
         <v>634783.6247</v>
       </c>
-    </row>
-    <row r="251" spans="1:16">
+      <c r="Q250">
+        <v>1131988.8811</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -13905,8 +14655,11 @@
       <c r="P251">
         <v>48310449.3676</v>
       </c>
-    </row>
-    <row r="252" spans="1:16">
+      <c r="Q251">
+        <v>42745623.6888</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -13955,8 +14708,11 @@
       <c r="P252">
         <v>952019.8493</v>
       </c>
-    </row>
-    <row r="253" spans="1:16">
+      <c r="Q252">
+        <v>987163.8613</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -14005,8 +14761,11 @@
       <c r="P253">
         <v>2908030.5372</v>
       </c>
-    </row>
-    <row r="254" spans="1:16">
+      <c r="Q253">
+        <v>29142149.5301</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -14055,8 +14814,11 @@
       <c r="P254">
         <v>6658238.6685</v>
       </c>
-    </row>
-    <row r="255" spans="1:16">
+      <c r="Q254">
+        <v>7232333.6814</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -14105,8 +14867,11 @@
       <c r="P255">
         <v>7891281.24585</v>
       </c>
-    </row>
-    <row r="256" spans="1:16">
+      <c r="Q255">
+        <v>9381015.54807</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -14155,8 +14920,11 @@
       <c r="P256">
         <v>17200586.8422</v>
       </c>
-    </row>
-    <row r="257" spans="1:16">
+      <c r="Q256">
+        <v>17572101.9436</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -14205,8 +14973,11 @@
       <c r="P257">
         <v>1775301.7886</v>
       </c>
-    </row>
-    <row r="258" spans="1:16">
+      <c r="Q257">
+        <v>1739072.7734</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -14255,8 +15026,11 @@
       <c r="P258">
         <v>13985630.8647</v>
       </c>
-    </row>
-    <row r="259" spans="1:16">
+      <c r="Q258">
+        <v>14644642.4973</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -14305,8 +15079,11 @@
       <c r="P259">
         <v>4725284.0156</v>
       </c>
-    </row>
-    <row r="260" spans="1:16">
+      <c r="Q259">
+        <v>8766264.420399999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -14355,8 +15132,11 @@
       <c r="P260">
         <v>14856539.7816</v>
       </c>
-    </row>
-    <row r="261" spans="1:16">
+      <c r="Q260">
+        <v>15730718.227</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -14405,8 +15185,11 @@
       <c r="P261">
         <v>39943150.9286</v>
       </c>
-    </row>
-    <row r="262" spans="1:16">
+      <c r="Q261">
+        <v>46984090.6229</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -14455,8 +15238,11 @@
       <c r="P262">
         <v>1548794.476</v>
       </c>
-    </row>
-    <row r="263" spans="1:16">
+      <c r="Q262">
+        <v>1883002.9309</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -14505,8 +15291,11 @@
       <c r="P263">
         <v>3699454.6179</v>
       </c>
-    </row>
-    <row r="264" spans="1:16">
+      <c r="Q263">
+        <v>15031210.2368</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -14555,8 +15344,11 @@
       <c r="P264">
         <v>4106023.4289</v>
       </c>
-    </row>
-    <row r="265" spans="1:16">
+      <c r="Q264">
+        <v>4529104.1673</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -14605,8 +15397,11 @@
       <c r="P265">
         <v>6072586.6715</v>
       </c>
-    </row>
-    <row r="266" spans="1:16">
+      <c r="Q265">
+        <v>6868464.8717</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -14655,8 +15450,11 @@
       <c r="P266">
         <v>23092176.3778328</v>
       </c>
-    </row>
-    <row r="267" spans="1:16">
+      <c r="Q266">
+        <v>17746082.2577728</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -14705,8 +15503,11 @@
       <c r="P267">
         <v>4470680.0145</v>
       </c>
-    </row>
-    <row r="268" spans="1:16">
+      <c r="Q267">
+        <v>3604069.7235</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -14755,8 +15556,11 @@
       <c r="P268">
         <v>71487161.061</v>
       </c>
-    </row>
-    <row r="269" spans="1:16">
+      <c r="Q268">
+        <v>54665398.2441</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -14805,8 +15609,11 @@
       <c r="P269">
         <v>127491214.2303301</v>
       </c>
-    </row>
-    <row r="270" spans="1:16">
+      <c r="Q269">
+        <v>121151428.1273209</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -14855,8 +15662,11 @@
       <c r="P270">
         <v>12757238.0842</v>
       </c>
-    </row>
-    <row r="271" spans="1:16">
+      <c r="Q270">
+        <v>14873497.0242</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -14905,8 +15715,11 @@
       <c r="P271">
         <v>3882478.6433</v>
       </c>
-    </row>
-    <row r="272" spans="1:16">
+      <c r="Q271">
+        <v>3394719.5202</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -14955,8 +15768,11 @@
       <c r="P272">
         <v>18039257.1397</v>
       </c>
-    </row>
-    <row r="273" spans="1:16">
+      <c r="Q272">
+        <v>16417843.014</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -15005,8 +15821,11 @@
       <c r="P273">
         <v>12492928.6467</v>
       </c>
-    </row>
-    <row r="274" spans="1:16">
+      <c r="Q273">
+        <v>11884756.5876</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -15055,8 +15874,11 @@
       <c r="P274">
         <v>36543235.4873</v>
       </c>
-    </row>
-    <row r="275" spans="1:16">
+      <c r="Q274">
+        <v>18875553.2395</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -15105,8 +15927,11 @@
       <c r="P275">
         <v>2546321.872</v>
       </c>
-    </row>
-    <row r="276" spans="1:16">
+      <c r="Q275">
+        <v>2392056.3619</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -15155,8 +15980,11 @@
       <c r="P276">
         <v>8451196.1447</v>
       </c>
-    </row>
-    <row r="277" spans="1:16">
+      <c r="Q276">
+        <v>6525738.1071</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -15205,8 +16033,11 @@
       <c r="P277">
         <v>6056966.1424</v>
       </c>
-    </row>
-    <row r="278" spans="1:16">
+      <c r="Q277">
+        <v>6112822.8264</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -15255,8 +16086,11 @@
       <c r="P278">
         <v>49872980.3014</v>
       </c>
-    </row>
-    <row r="279" spans="1:16">
+      <c r="Q278">
+        <v>42237135.0247</v>
+      </c>
+    </row>
+    <row r="279" spans="1:17">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -15305,8 +16139,11 @@
       <c r="P279">
         <v>2307209.16036813</v>
       </c>
-    </row>
-    <row r="280" spans="1:16">
+      <c r="Q279">
+        <v>1721963.84511873</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -15355,8 +16192,11 @@
       <c r="P280">
         <v>1963420.8203726</v>
       </c>
-    </row>
-    <row r="281" spans="1:16">
+      <c r="Q280">
+        <v>1651761.4246248</v>
+      </c>
+    </row>
+    <row r="281" spans="1:17">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -15405,8 +16245,11 @@
       <c r="P281">
         <v>1140833.8864</v>
       </c>
-    </row>
-    <row r="282" spans="1:16">
+      <c r="Q281">
+        <v>1888126.1332</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -15455,8 +16298,11 @@
       <c r="P282">
         <v>3927660.9016</v>
       </c>
-    </row>
-    <row r="283" spans="1:16">
+      <c r="Q282">
+        <v>4899587.6059</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -15505,8 +16351,11 @@
       <c r="P283">
         <v>1675553.7436</v>
       </c>
-    </row>
-    <row r="284" spans="1:16">
+      <c r="Q283">
+        <v>2640752.0987</v>
+      </c>
+    </row>
+    <row r="284" spans="1:17">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -15555,8 +16404,11 @@
       <c r="P284">
         <v>1849760.3555</v>
       </c>
-    </row>
-    <row r="285" spans="1:16">
+      <c r="Q284">
+        <v>3086784.1514</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -15605,8 +16457,11 @@
       <c r="P285">
         <v>14563570.1829</v>
       </c>
-    </row>
-    <row r="286" spans="1:16">
+      <c r="Q285">
+        <v>16135461.8045</v>
+      </c>
+    </row>
+    <row r="286" spans="1:17">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -15655,8 +16510,11 @@
       <c r="P286">
         <v>6820114.336</v>
       </c>
-    </row>
-    <row r="287" spans="1:16">
+      <c r="Q286">
+        <v>3563083.8515</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -15705,8 +16563,11 @@
       <c r="P287">
         <v>444362712.1709</v>
       </c>
-    </row>
-    <row r="288" spans="1:16">
+      <c r="Q287">
+        <v>279418541.3655</v>
+      </c>
+    </row>
+    <row r="288" spans="1:17">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -15755,8 +16616,11 @@
       <c r="P288">
         <v>3338054098.3037</v>
       </c>
-    </row>
-    <row r="289" spans="1:16">
+      <c r="Q288">
+        <v>3133065902.79441</v>
+      </c>
+    </row>
+    <row r="289" spans="1:17">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -15805,8 +16669,11 @@
       <c r="P289">
         <v>154024051.6142</v>
       </c>
-    </row>
-    <row r="290" spans="1:16">
+      <c r="Q289">
+        <v>160874055.8612</v>
+      </c>
+    </row>
+    <row r="290" spans="1:17">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -15855,8 +16722,11 @@
       <c r="P290">
         <v>21575058.3559</v>
       </c>
-    </row>
-    <row r="291" spans="1:16">
+      <c r="Q290">
+        <v>16876379.8091</v>
+      </c>
+    </row>
+    <row r="291" spans="1:17">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -15905,8 +16775,11 @@
       <c r="P291">
         <v>5661875.6753</v>
       </c>
-    </row>
-    <row r="292" spans="1:16">
+      <c r="Q291">
+        <v>4134993.7139</v>
+      </c>
+    </row>
+    <row r="292" spans="1:17">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -15955,8 +16828,11 @@
       <c r="P292">
         <v>6530991.0236</v>
       </c>
-    </row>
-    <row r="293" spans="1:16">
+      <c r="Q292">
+        <v>6488435.6941</v>
+      </c>
+    </row>
+    <row r="293" spans="1:17">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -16005,8 +16881,11 @@
       <c r="P293">
         <v>41603079.8279</v>
       </c>
-    </row>
-    <row r="294" spans="1:16">
+      <c r="Q293">
+        <v>49693345.5263</v>
+      </c>
+    </row>
+    <row r="294" spans="1:17">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -16055,8 +16934,11 @@
       <c r="P294">
         <v>1188572.6066</v>
       </c>
-    </row>
-    <row r="295" spans="1:16">
+      <c r="Q294">
+        <v>1062981.0214</v>
+      </c>
+    </row>
+    <row r="295" spans="1:17">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -16105,8 +16987,11 @@
       <c r="P295">
         <v>2740929.0313</v>
       </c>
-    </row>
-    <row r="296" spans="1:16">
+      <c r="Q295">
+        <v>2686548.976</v>
+      </c>
+    </row>
+    <row r="296" spans="1:17">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -16155,8 +17040,11 @@
       <c r="P296">
         <v>6747834.58396</v>
       </c>
-    </row>
-    <row r="297" spans="1:16">
+      <c r="Q296">
+        <v>9227141.07907</v>
+      </c>
+    </row>
+    <row r="297" spans="1:17">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -16205,8 +17093,11 @@
       <c r="P297">
         <v>20417438.6814</v>
       </c>
-    </row>
-    <row r="298" spans="1:16">
+      <c r="Q297">
+        <v>17364422.9023</v>
+      </c>
+    </row>
+    <row r="298" spans="1:17">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -16255,8 +17146,11 @@
       <c r="P298">
         <v>4798132.3556</v>
       </c>
-    </row>
-    <row r="299" spans="1:16">
+      <c r="Q298">
+        <v>5625901.4018</v>
+      </c>
+    </row>
+    <row r="299" spans="1:17">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -16305,8 +17199,11 @@
       <c r="P299">
         <v>2658132.7306</v>
       </c>
-    </row>
-    <row r="300" spans="1:16">
+      <c r="Q299">
+        <v>2471745.0441</v>
+      </c>
+    </row>
+    <row r="300" spans="1:17">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -16355,8 +17252,11 @@
       <c r="P300">
         <v>5080835.6159</v>
       </c>
-    </row>
-    <row r="301" spans="1:16">
+      <c r="Q300">
+        <v>5285282.7202</v>
+      </c>
+    </row>
+    <row r="301" spans="1:17">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -16405,8 +17305,11 @@
       <c r="P301">
         <v>16745555.0612</v>
       </c>
-    </row>
-    <row r="302" spans="1:16">
+      <c r="Q301">
+        <v>10185101.864</v>
+      </c>
+    </row>
+    <row r="302" spans="1:17">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -16455,8 +17358,11 @@
       <c r="P302">
         <v>12579463.7916</v>
       </c>
-    </row>
-    <row r="303" spans="1:16">
+      <c r="Q302">
+        <v>10435184.1369</v>
+      </c>
+    </row>
+    <row r="303" spans="1:17">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -16505,8 +17411,11 @@
       <c r="P303">
         <v>2456562.98</v>
       </c>
-    </row>
-    <row r="304" spans="1:16">
+      <c r="Q303">
+        <v>2021850.3721</v>
+      </c>
+    </row>
+    <row r="304" spans="1:17">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -16555,8 +17464,11 @@
       <c r="P304">
         <v>1447230.5788</v>
       </c>
-    </row>
-    <row r="305" spans="1:16">
+      <c r="Q304">
+        <v>1295645.781</v>
+      </c>
+    </row>
+    <row r="305" spans="1:17">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -16605,8 +17517,11 @@
       <c r="P305">
         <v>3034993.6202</v>
       </c>
-    </row>
-    <row r="306" spans="1:16">
+      <c r="Q305">
+        <v>2591320.2105</v>
+      </c>
+    </row>
+    <row r="306" spans="1:17">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -16655,8 +17570,11 @@
       <c r="P306">
         <v>12993520.7576</v>
       </c>
-    </row>
-    <row r="307" spans="1:16">
+      <c r="Q306">
+        <v>15942977.5876</v>
+      </c>
+    </row>
+    <row r="307" spans="1:17">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -16705,8 +17623,11 @@
       <c r="P307">
         <v>52841961.4518</v>
       </c>
-    </row>
-    <row r="308" spans="1:16">
+      <c r="Q307">
+        <v>46859856.1519</v>
+      </c>
+    </row>
+    <row r="308" spans="1:17">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -16755,8 +17676,11 @@
       <c r="P308">
         <v>4876096.8297</v>
       </c>
-    </row>
-    <row r="309" spans="1:16">
+      <c r="Q308">
+        <v>4691108.2735</v>
+      </c>
+    </row>
+    <row r="309" spans="1:17">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -16805,8 +17729,11 @@
       <c r="P309">
         <v>11805938.4891</v>
       </c>
-    </row>
-    <row r="310" spans="1:16">
+      <c r="Q309">
+        <v>10150487.8424</v>
+      </c>
+    </row>
+    <row r="310" spans="1:17">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -16855,8 +17782,11 @@
       <c r="P310">
         <v>26138276.5923</v>
       </c>
-    </row>
-    <row r="311" spans="1:16">
+      <c r="Q310">
+        <v>20127271.8109</v>
+      </c>
+    </row>
+    <row r="311" spans="1:17">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -16905,8 +17835,11 @@
       <c r="P311">
         <v>9549519.109300001</v>
       </c>
-    </row>
-    <row r="312" spans="1:16">
+      <c r="Q311">
+        <v>5316162.6096</v>
+      </c>
+    </row>
+    <row r="312" spans="1:17">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -16955,8 +17888,11 @@
       <c r="P312">
         <v>51559642.0113</v>
       </c>
-    </row>
-    <row r="313" spans="1:16">
+      <c r="Q312">
+        <v>57666735.4325</v>
+      </c>
+    </row>
+    <row r="313" spans="1:17">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -17005,8 +17941,11 @@
       <c r="P313">
         <v>9826096.686899999</v>
       </c>
-    </row>
-    <row r="314" spans="1:16">
+      <c r="Q313">
+        <v>10367336.0552</v>
+      </c>
+    </row>
+    <row r="314" spans="1:17">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -17055,8 +17994,11 @@
       <c r="P314">
         <v>1985326.7722</v>
       </c>
-    </row>
-    <row r="315" spans="1:16">
+      <c r="Q314">
+        <v>1997160.1206</v>
+      </c>
+    </row>
+    <row r="315" spans="1:17">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -17105,8 +18047,11 @@
       <c r="P315">
         <v>3779065.95996</v>
       </c>
-    </row>
-    <row r="316" spans="1:16">
+      <c r="Q315">
+        <v>4355717.41266</v>
+      </c>
+    </row>
+    <row r="316" spans="1:17">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -17155,8 +18100,11 @@
       <c r="P316">
         <v>1642634.6925</v>
       </c>
-    </row>
-    <row r="317" spans="1:16">
+      <c r="Q316">
+        <v>1632242.9762</v>
+      </c>
+    </row>
+    <row r="317" spans="1:17">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -17205,8 +18153,11 @@
       <c r="P317">
         <v>28267472.9858</v>
       </c>
-    </row>
-    <row r="318" spans="1:16">
+      <c r="Q317">
+        <v>24342889.8057</v>
+      </c>
+    </row>
+    <row r="318" spans="1:17">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -17255,8 +18206,11 @@
       <c r="P318">
         <v>10726334.17323</v>
       </c>
-    </row>
-    <row r="319" spans="1:16">
+      <c r="Q318">
+        <v>10979235.17087</v>
+      </c>
+    </row>
+    <row r="319" spans="1:17">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -17305,8 +18259,11 @@
       <c r="P319">
         <v>951707.0483</v>
       </c>
-    </row>
-    <row r="320" spans="1:16">
+      <c r="Q319">
+        <v>1025615.6602</v>
+      </c>
+    </row>
+    <row r="320" spans="1:17">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -17355,8 +18312,11 @@
       <c r="P320">
         <v>3210756.7838</v>
       </c>
-    </row>
-    <row r="321" spans="1:16">
+      <c r="Q320">
+        <v>1611534.9905</v>
+      </c>
+    </row>
+    <row r="321" spans="1:17">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -17405,8 +18365,11 @@
       <c r="P321">
         <v>12846113.7059</v>
       </c>
-    </row>
-    <row r="322" spans="1:16">
+      <c r="Q321">
+        <v>18625301.1528</v>
+      </c>
+    </row>
+    <row r="322" spans="1:17">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -17455,8 +18418,11 @@
       <c r="P322">
         <v>4756318.4328</v>
       </c>
-    </row>
-    <row r="323" spans="1:16">
+      <c r="Q322">
+        <v>4035614.4514</v>
+      </c>
+    </row>
+    <row r="323" spans="1:17">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -17505,8 +18471,11 @@
       <c r="P323">
         <v>517768.1755</v>
       </c>
-    </row>
-    <row r="324" spans="1:16">
+      <c r="Q323">
+        <v>636948.7047999999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:17">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -17555,8 +18524,11 @@
       <c r="P324">
         <v>35441604.54563816</v>
       </c>
-    </row>
-    <row r="325" spans="1:16">
+      <c r="Q324">
+        <v>38349926.39251489</v>
+      </c>
+    </row>
+    <row r="325" spans="1:17">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -17605,8 +18577,11 @@
       <c r="P325">
         <v>3127940.12829</v>
       </c>
-    </row>
-    <row r="326" spans="1:16">
+      <c r="Q325">
+        <v>6251777.83807</v>
+      </c>
+    </row>
+    <row r="326" spans="1:17">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -17655,8 +18630,11 @@
       <c r="P326">
         <v>206527909.58874</v>
       </c>
-    </row>
-    <row r="327" spans="1:16">
+      <c r="Q326">
+        <v>205543836.38466</v>
+      </c>
+    </row>
+    <row r="327" spans="1:17">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -17705,8 +18683,11 @@
       <c r="P327">
         <v>21112238.12101</v>
       </c>
-    </row>
-    <row r="328" spans="1:16">
+      <c r="Q327">
+        <v>30727180.82915</v>
+      </c>
+    </row>
+    <row r="328" spans="1:17">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -17755,8 +18736,11 @@
       <c r="P328">
         <v>14276093.127655</v>
       </c>
-    </row>
-    <row r="329" spans="1:16">
+      <c r="Q328">
+        <v>12260647.530213</v>
+      </c>
+    </row>
+    <row r="329" spans="1:17">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -17805,8 +18789,11 @@
       <c r="P329">
         <v>3502646.18056</v>
       </c>
-    </row>
-    <row r="330" spans="1:16">
+      <c r="Q329">
+        <v>4725825.37091</v>
+      </c>
+    </row>
+    <row r="330" spans="1:17">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -17855,8 +18842,11 @@
       <c r="P330">
         <v>2995301.226701</v>
       </c>
-    </row>
-    <row r="331" spans="1:16">
+      <c r="Q330">
+        <v>2011921.79643</v>
+      </c>
+    </row>
+    <row r="331" spans="1:17">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -17905,8 +18895,11 @@
       <c r="P331">
         <v>104268500.03307</v>
       </c>
-    </row>
-    <row r="332" spans="1:16">
+      <c r="Q331">
+        <v>88282757.96731</v>
+      </c>
+    </row>
+    <row r="332" spans="1:17">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -17955,8 +18948,11 @@
       <c r="P332">
         <v>4472850.0412</v>
       </c>
-    </row>
-    <row r="333" spans="1:16">
+      <c r="Q332">
+        <v>5988284.2017</v>
+      </c>
+    </row>
+    <row r="333" spans="1:17">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -18005,8 +19001,11 @@
       <c r="P333">
         <v>28014487.3103</v>
       </c>
-    </row>
-    <row r="334" spans="1:16">
+      <c r="Q333">
+        <v>32918142.2193</v>
+      </c>
+    </row>
+    <row r="334" spans="1:17">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -18055,8 +19054,11 @@
       <c r="P334">
         <v>976097.3049</v>
       </c>
-    </row>
-    <row r="335" spans="1:16">
+      <c r="Q334">
+        <v>882932.4595999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:17">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -18104,6 +19106,9 @@
       </c>
       <c r="P335">
         <v>4683450.4967</v>
+      </c>
+      <c r="Q335">
+        <v>4383957.7665</v>
       </c>
     </row>
   </sheetData>
